--- a/computed-reports/SONY.xlsx
+++ b/computed-reports/SONY.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2925" uniqueCount="1153">
   <si>
     <t>Отчет</t>
   </si>
@@ -174,6 +174,3312 @@
   </si>
   <si>
     <t>{revenue}</t>
+  </si>
+  <si>
+    <t>COX, BRYAN MICHAEL (CA)/ AUSTIN, JOHNTA (CA)/ BLIGE, MARY J.</t>
+  </si>
+  <si>
+    <t>BE WITHOUT YOU</t>
+  </si>
+  <si>
+    <t>26635</t>
+  </si>
+  <si>
+    <t>MARY J. BLIGE</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>27250.0</t>
+  </si>
+  <si>
+    <t>KELLY, CLAUDE / GOTTWALD, LUKASZ / COLEMAN, JOSHUA EMANUEL / WALTER, HENRY</t>
+  </si>
+  <si>
+    <t>BETTER THAN I KNOW MYSELF</t>
+  </si>
+  <si>
+    <t>1113640</t>
+  </si>
+  <si>
+    <t>ADAM LAMBERT</t>
+  </si>
+  <si>
+    <t>1250.0</t>
+  </si>
+  <si>
+    <t>J. Green, E. Heyman, R. Sour, F. Eyton</t>
+  </si>
+  <si>
+    <t>Body And Soul</t>
+  </si>
+  <si>
+    <t>34507</t>
+  </si>
+  <si>
+    <t>Louis Armstrong; Tony Bennett &amp; Amy Winehouse</t>
+  </si>
+  <si>
+    <t>4000.0</t>
+  </si>
+  <si>
+    <t>YOUNG, ANDRE ROMELL (CA)/ RHYMES, BUSTA (TREVOR SMITH) (CA)/</t>
+  </si>
+  <si>
+    <t>BREAK YA NECK</t>
+  </si>
+  <si>
+    <t>26680</t>
+  </si>
+  <si>
+    <t>BUSTA RHYMES</t>
+  </si>
+  <si>
+    <t>4625.0</t>
+  </si>
+  <si>
+    <t>KIEDIS, ANTHONY (CA)/ BALZARY, MICHAEL (CA)/</t>
+  </si>
+  <si>
+    <t>BUTTERFLY</t>
+  </si>
+  <si>
+    <t>26696</t>
+  </si>
+  <si>
+    <t>CRAZY TOWN</t>
+  </si>
+  <si>
+    <t>11750.0</t>
+  </si>
+  <si>
+    <t>WINWOOD, STEVE (CA)/ JENNINGS, WILL (CA)/ PRYDZ, ERIC (CA)</t>
+  </si>
+  <si>
+    <t>CALL ON ME</t>
+  </si>
+  <si>
+    <t>26700</t>
+  </si>
+  <si>
+    <t>ERIC PRYDZ</t>
+  </si>
+  <si>
+    <t>1750.0</t>
+  </si>
+  <si>
+    <t>HENDRIK, TONY (C)/ HAAREN, K. VAN (A)</t>
+  </si>
+  <si>
+    <t>COME BACK AND STAY</t>
+  </si>
+  <si>
+    <t>26745</t>
+  </si>
+  <si>
+    <t>BAD BOYS BLUE</t>
+  </si>
+  <si>
+    <t>450.0</t>
+  </si>
+  <si>
+    <t>Jermaine Scott / Rachel Moulden / Josh Kumra</t>
+  </si>
+  <si>
+    <t>Don't go (Don't go (Radio Edit))</t>
+  </si>
+  <si>
+    <t>1089690</t>
+  </si>
+  <si>
+    <t>Wretch 32 ft Josh Kumra</t>
+  </si>
+  <si>
+    <t>400.0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>DAVID SIEGEL, ENRIQUE IGLESIAS, STEVE MORALES,</t>
+  </si>
+  <si>
+    <t>ESCAPE</t>
+  </si>
+  <si>
+    <t>26855</t>
+  </si>
+  <si>
+    <t>ENRIQUE IGLESIAS</t>
+  </si>
+  <si>
+    <t>750.0</t>
+  </si>
+  <si>
+    <t>KELLY, CLAUDE/STEWART, CHRISTOPHER/AGUILERA, CHRISTINA</t>
+  </si>
+  <si>
+    <t>EXPRESS</t>
+  </si>
+  <si>
+    <t>70676</t>
+  </si>
+  <si>
+    <t>Christina Aguilera</t>
+  </si>
+  <si>
+    <t>18125.0</t>
+  </si>
+  <si>
+    <t>REA, CHRISTOPHER ANTON</t>
+  </si>
+  <si>
+    <t>FOOL (IF YOU THINK IT'S OVER)</t>
+  </si>
+  <si>
+    <t>29714</t>
+  </si>
+  <si>
+    <t>CHRIS REA</t>
+  </si>
+  <si>
+    <t>HILLS, NATE (CA)/ ELLIS, CORTE (CA)/ ARA</t>
+  </si>
+  <si>
+    <t>GET NAKED (I GOT A PLAN)</t>
+  </si>
+  <si>
+    <t>57942</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>50375.0</t>
+  </si>
+  <si>
+    <t>Edwards, Bernard / Rodgers, Nile / Smith, Will / Barnes, Samuel / Robinson, Joseph / Porter, David (Pa)/ Cauley, Ben (Pa)/ Henderson, Harry (Pa)/ Alexander, James (Pa)/ Dodson, Larry (Pa)/ Hall, Willie (Pa)/ Stewart, Winston (Pa)</t>
+  </si>
+  <si>
+    <t>Gettin Jiggy Wit It</t>
+  </si>
+  <si>
+    <t>37453</t>
+  </si>
+  <si>
+    <t>Will Smith</t>
+  </si>
+  <si>
+    <t>73500.0</t>
+  </si>
+  <si>
+    <t>GIMME GIMME YOUR LOVIN'</t>
+  </si>
+  <si>
+    <t>29458</t>
+  </si>
+  <si>
+    <t>1050.0</t>
+  </si>
+  <si>
+    <t>Afanasieff / Gorelick</t>
+  </si>
+  <si>
+    <t>Going Home</t>
+  </si>
+  <si>
+    <t>63235</t>
+  </si>
+  <si>
+    <t>Kenny G</t>
+  </si>
+  <si>
+    <t>10500.0</t>
+  </si>
+  <si>
+    <t>Wallace, Zachary (Ca)/ Harris, Ciara (Ca)/ Garrett, Sean (Ca)/ Love, Craig (Ca)/ Jefferson, Lamarquis (Ca)/ Smith, Jonathan (Ca)</t>
+  </si>
+  <si>
+    <t>Goodies</t>
+  </si>
+  <si>
+    <t>30924</t>
+  </si>
+  <si>
+    <t>Ciara</t>
+  </si>
+  <si>
+    <t>2125.0</t>
+  </si>
+  <si>
+    <t>JAMES, MARK/CHARNIN, MARTIN/</t>
+  </si>
+  <si>
+    <t>HARD KNOCK LIFE</t>
+  </si>
+  <si>
+    <t>26962</t>
+  </si>
+  <si>
+    <t>JAY-Z</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>Dean K., Kelly R.S., Reese B.A., Edwards B., Rodgers N.</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>32725</t>
+  </si>
+  <si>
+    <t>Cassidy feat. R. Kelly</t>
+  </si>
+  <si>
+    <t>3125.0</t>
+  </si>
+  <si>
+    <t>BROWN, JAMES</t>
+  </si>
+  <si>
+    <t>I FEEL GOOD (I GOT YOU (I FEEL GOOD))</t>
+  </si>
+  <si>
+    <t>27028</t>
+  </si>
+  <si>
+    <t>JAMES BROWN</t>
+  </si>
+  <si>
+    <t>186250.0</t>
+  </si>
+  <si>
+    <t>THOMPSON, LINDA (CA)/ FOSTER, DAVID (CA)</t>
+  </si>
+  <si>
+    <t>I HAVE NOTHING</t>
+  </si>
+  <si>
+    <t>29731</t>
+  </si>
+  <si>
+    <t>WHITNEY HOUSTON</t>
+  </si>
+  <si>
+    <t>2800.0</t>
+  </si>
+  <si>
+    <t>JONES, DANIEL (CA)/ HAYES, DARREN (CA)</t>
+  </si>
+  <si>
+    <t>I KNEW I LOVED YOU</t>
+  </si>
+  <si>
+    <t>27034</t>
+  </si>
+  <si>
+    <t>SAVAGE GARDEN</t>
+  </si>
+  <si>
+    <t>HALLIGAN, DEE DEE (C)/ TORELLO, JUNIOR (A)/ LIEBERMAN, CLYDE MICHAEL (A)</t>
+  </si>
+  <si>
+    <t>I MISS YOU</t>
+  </si>
+  <si>
+    <t>39927</t>
+  </si>
+  <si>
+    <t>HADDAWAY</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>CHRISTY, LAUREN (CA)/ SPOCK, SCOTT (CA)/ EDWARDS, GRAHAM</t>
+  </si>
+  <si>
+    <t>I'M WITH YOU</t>
+  </si>
+  <si>
+    <t>27069</t>
+  </si>
+  <si>
+    <t>AVRIL LAVIGNE</t>
+  </si>
+  <si>
+    <t>2625.0</t>
+  </si>
+  <si>
+    <t>HAYES, DARREN (CA)/ AFANASIEFF, WALTER (CA)</t>
+  </si>
+  <si>
+    <t>INSATIABLE</t>
+  </si>
+  <si>
+    <t>27079</t>
+  </si>
+  <si>
+    <t>DARREN HAYES</t>
+  </si>
+  <si>
+    <t>68000.0</t>
+  </si>
+  <si>
+    <t>BEAL, JOE (CA)/ BOOTHE, JIM (CA)</t>
+  </si>
+  <si>
+    <t>JINGLE BELL ROCK</t>
+  </si>
+  <si>
+    <t>29153</t>
+  </si>
+  <si>
+    <t>VARIOUS, Holly Dolly</t>
+  </si>
+  <si>
+    <t>1000.0</t>
+  </si>
+  <si>
+    <t>JOSEPHINE</t>
+  </si>
+  <si>
+    <t>30785</t>
+  </si>
+  <si>
+    <t>8250.0</t>
+  </si>
+  <si>
+    <t>STEWART,CHRISTOPHER\NASH,TERIUS YOUNGDELL</t>
+  </si>
+  <si>
+    <t>Keep Dancin' On Me</t>
+  </si>
+  <si>
+    <t>67713</t>
+  </si>
+  <si>
+    <t>378375.0</t>
+  </si>
+  <si>
+    <t>JAMES, BRETT / DEAN, ESTER / KENNEDY, BRIAN / JONES, DANTE</t>
+  </si>
+  <si>
+    <t>MR. KNOW IT ALL</t>
+  </si>
+  <si>
+    <t>1092796</t>
+  </si>
+  <si>
+    <t>Clarkson Kelly</t>
+  </si>
+  <si>
+    <t>6375.0</t>
+  </si>
+  <si>
+    <t>BERGGREN JONAS</t>
+  </si>
+  <si>
+    <t>Never Gonna Say I'm Sorry</t>
+  </si>
+  <si>
+    <t>54953</t>
+  </si>
+  <si>
+    <t>ACE OF BASE</t>
+  </si>
+  <si>
+    <t>Antonio Reid, Daryl Simmons, Whitney Houston, Kenneth Edmonds</t>
+  </si>
+  <si>
+    <t>Queen Of The Night</t>
+  </si>
+  <si>
+    <t>31076</t>
+  </si>
+  <si>
+    <t>Whitney Houston</t>
+  </si>
+  <si>
+    <t>CRICHLOW HERBERT/SANDBERG MARTIN</t>
+  </si>
+  <si>
+    <t>QUIT PLAYING GAMES (QUIT PLAYING GAMES WITH MY HEART)</t>
+  </si>
+  <si>
+    <t>50176</t>
+  </si>
+  <si>
+    <t>BACKSTREET BOYS</t>
+  </si>
+  <si>
+    <t>11875.0</t>
+  </si>
+  <si>
+    <t>THOM BELL, WILLIAM HART, NICKY RYAN, ANDROMA RYAN</t>
+  </si>
+  <si>
+    <t>READY OR NOT</t>
+  </si>
+  <si>
+    <t>31270</t>
+  </si>
+  <si>
+    <t>THE FUGEES</t>
+  </si>
+  <si>
+    <t>1125.0</t>
+  </si>
+  <si>
+    <t>Rea, Christopher Anton</t>
+  </si>
+  <si>
+    <t>Road To Hell, The (Part 2)</t>
+  </si>
+  <si>
+    <t>32903</t>
+  </si>
+  <si>
+    <t>Chris Rea</t>
+  </si>
+  <si>
+    <t>875.0</t>
+  </si>
+  <si>
+    <t>NASH, TERIUS YOUNGDELL / VAN DE WALL, NICK L. / TAYLOR, DAVID JAMES ANDREW / KNOWLES, BEYONCE GISSELLE / PENTZ, THOMAS WESLEY / PALMER, ADIDJA AZIM</t>
+  </si>
+  <si>
+    <t>RUN THE WORLD (GIRLS)</t>
+  </si>
+  <si>
+    <t>1092958</t>
+  </si>
+  <si>
+    <t>BEYONCE</t>
+  </si>
+  <si>
+    <t>94750.0</t>
+  </si>
+  <si>
+    <t>BOHLEN, DIETER (C)/ SINGLETON NEWKIRT, ERIC (A)</t>
+  </si>
+  <si>
+    <t>SEXY, SEXY LOVER</t>
+  </si>
+  <si>
+    <t>40226</t>
+  </si>
+  <si>
+    <t>Modern Talking</t>
+  </si>
+  <si>
+    <t>6500.0</t>
+  </si>
+  <si>
+    <t>SHOW ME HOW YOU BURLESQUE</t>
+  </si>
+  <si>
+    <t>70696</t>
+  </si>
+  <si>
+    <t>SHOW ME THE MEANING OF BEING LONELY</t>
+  </si>
+  <si>
+    <t>30171</t>
+  </si>
+  <si>
+    <t>1600.0</t>
+  </si>
+  <si>
+    <t>NASH, TERIUS (CA)/ STEWART, CHRISTOPHER (CA)/ HARRELL,THADDIS (CA)/ KNOWLES, BEYONCE (CA)</t>
+  </si>
+  <si>
+    <t>SINGLE LADIES (PUT A RING ON IT)</t>
+  </si>
+  <si>
+    <t>59204</t>
+  </si>
+  <si>
+    <t>20500.0</t>
+  </si>
+  <si>
+    <t>Paul Hutsch / Volker Heinrichs</t>
+  </si>
+  <si>
+    <t>Stereo Mexico (Original Radio Edit / Original Mix / Ultra Radio Edit / Dirty Fun Radio Edit / Dirty Fun Mix / DJs From Mars Remix Edit / DJs From Mars Remix / Picco Remix Edit / Picco Remix)</t>
+  </si>
+  <si>
+    <t>1088625</t>
+  </si>
+  <si>
+    <t>PH Electro</t>
+  </si>
+  <si>
+    <t>800.0</t>
+  </si>
+  <si>
+    <t>KRONLUND, ALEXANDER ERIK/GOTTWALD, LUKASZ/SANDBERG, MARTIN KARL/SEBERT, KESHA</t>
+  </si>
+  <si>
+    <t>TILL THE WORLD ENDS</t>
+  </si>
+  <si>
+    <t>1044791</t>
+  </si>
+  <si>
+    <t>BRITNEY SPEARS</t>
+  </si>
+  <si>
+    <t>79750.0</t>
+  </si>
+  <si>
+    <t>Gist, Keir Lamont / Huggar, Robert L. / Miller, Denzil A. Jr. / Smith, Lawrence / Ford, Robert / Moore, J.b. / Walker, Kurtis</t>
+  </si>
+  <si>
+    <t>Too Close</t>
+  </si>
+  <si>
+    <t>35155</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>WRIGHT, ANDREW MICHAEL (CA)/ LEWIS, CALVIN HOUSTON (CA)</t>
+  </si>
+  <si>
+    <t>WHEN A MAN LOVES A WOMAN</t>
+  </si>
+  <si>
+    <t>28407</t>
+  </si>
+  <si>
+    <t>Percy Sledge, Michael Bolton, GREGORIAN</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>FINLEY, GENE (CA)/ CUTLASS, FRANKIE (CA)/ SMITH, CHARLES(CA)/ COOK, NORMAN (CA)/ HISEMAN, JOHN PHILIP (CA)/ HECKSTALL-SMITH, DICK (CA)</t>
+  </si>
+  <si>
+    <t>YA MAMA (Push the Tempo)</t>
+  </si>
+  <si>
+    <t>27763</t>
+  </si>
+  <si>
+    <t>FATBOY SLIM</t>
+  </si>
+  <si>
+    <t>375.0</t>
+  </si>
+  <si>
+    <t>STYNE, JULE (C)/ CAHN, SAMMY (A) /рус. Шахматова Лиза (авторская доля 0%)</t>
+  </si>
+  <si>
+    <t>Снова С новым годом</t>
+  </si>
+  <si>
+    <t>29156</t>
+  </si>
+  <si>
+    <t>Пьеха Стас</t>
+  </si>
+  <si>
+    <t>2750.0</t>
+  </si>
+  <si>
+    <t>Delpech Michael /Roland Vincen/русский текст - Лопатин А.</t>
+  </si>
+  <si>
+    <t>Это же жизнь (First a Date(POUR UN FLIRT))</t>
+  </si>
+  <si>
+    <t>1084466</t>
+  </si>
+  <si>
+    <t>Киркоров Филипп</t>
+  </si>
+  <si>
+    <t>DE BURGH CHRIS; DUBERRY STEVE</t>
+  </si>
+  <si>
+    <t>HERE IS YOUR PARADISE</t>
+  </si>
+  <si>
+    <t>66596</t>
+  </si>
+  <si>
+    <t>Chris De Burgh</t>
+  </si>
+  <si>
+    <t>MCFADDEN, TERRI/RUSHEN, PATRICE/SMITH, WILLARD/WASHINGTON, FRED</t>
+  </si>
+  <si>
+    <t>MEN IN BLACK</t>
+  </si>
+  <si>
+    <t>70009</t>
+  </si>
+  <si>
+    <t>21000.0</t>
+  </si>
+  <si>
+    <t>Armand Van Helden, Alain Macklovitch, Frank Farian, Fred Jay, Heinz Huth, and Juergen Huth</t>
+  </si>
+  <si>
+    <t>BARBRA STREISAND</t>
+  </si>
+  <si>
+    <t>1043659</t>
+  </si>
+  <si>
+    <t>Duck Sauce</t>
+  </si>
+  <si>
+    <t>82125.0</t>
+  </si>
+  <si>
+    <t>Jon Pearn, Nick Bridges, Luciana Caporaso, Nick Clow &amp; Jahmaal Noel Fyfee</t>
+  </si>
+  <si>
+    <t>Bow Wow Wow</t>
+  </si>
+  <si>
+    <t>1167025</t>
+  </si>
+  <si>
+    <t>Bodyrox feat. Chipmunk and Luciana</t>
+  </si>
+  <si>
+    <t>Svensson, Berg/ Svensson, Berg</t>
+  </si>
+  <si>
+    <t>Come Along</t>
+  </si>
+  <si>
+    <t>54136</t>
+  </si>
+  <si>
+    <t>Titiyo</t>
+  </si>
+  <si>
+    <t>14375.0</t>
+  </si>
+  <si>
+    <t>Bontempi F. - Fanelli G.</t>
+  </si>
+  <si>
+    <t>DISCO DANCER</t>
+  </si>
+  <si>
+    <t>1094541</t>
+  </si>
+  <si>
+    <t>SIMON FROM DEEP DIVAS FEAT. GOODY</t>
+  </si>
+  <si>
+    <t>1350.0</t>
+  </si>
+  <si>
+    <t>Max Martin, Shellback, Savan Kotecha, Armando C. P?rez</t>
+  </si>
+  <si>
+    <t>DJ Got Us Fallin' In Love</t>
+  </si>
+  <si>
+    <t>1043815</t>
+  </si>
+  <si>
+    <t>Usher ft. Pitbull</t>
+  </si>
+  <si>
+    <t>TJEERD OOSTERHUIS, AMEERAH EL OUIGLANI, ARJANG "SHA" SHISHEGAR, TSHAWE SHOORE BAQWA</t>
+  </si>
+  <si>
+    <t>FREAKY LIKE ME</t>
+  </si>
+  <si>
+    <t>1043630</t>
+  </si>
+  <si>
+    <t>MADCON</t>
+  </si>
+  <si>
+    <t>34375.0</t>
+  </si>
+  <si>
+    <t>F. Antoniali, A. Konrad, M. Pozzi, T. Yunusov</t>
+  </si>
+  <si>
+    <t>Happy Birthday</t>
+  </si>
+  <si>
+    <t>1113667</t>
+  </si>
+  <si>
+    <t>DJ Antoine vs Mad Mark feat. Timati &amp; Scotty G</t>
+  </si>
+  <si>
+    <t>WILHELM, SANDY/CLAMARAN, ANTOINE/HARDEN, DUANE/MODESTO, MOISES</t>
+  </si>
+  <si>
+    <t>LIVE YOUR DREAMS</t>
+  </si>
+  <si>
+    <t>65687</t>
+  </si>
+  <si>
+    <t>Antoine Clamaran ft. Soraya</t>
+  </si>
+  <si>
+    <t>2500.0</t>
+  </si>
+  <si>
+    <t>Jean Frankfurter/ John Moring</t>
+  </si>
+  <si>
+    <t>Midnight Dancer</t>
+  </si>
+  <si>
+    <t>41951</t>
+  </si>
+  <si>
+    <t>ARABESQUE</t>
+  </si>
+  <si>
+    <t>3000.0</t>
+  </si>
+  <si>
+    <t>Cornwell / Crouch / Curtis / McKinney</t>
+  </si>
+  <si>
+    <t>My Friend</t>
+  </si>
+  <si>
+    <t>1092703</t>
+  </si>
+  <si>
+    <t>Groove Armada</t>
+  </si>
+  <si>
+    <t>Vivianne Kinda Kee Hamid-Armando  Perez/Christophe Le Friant-Maurizio Zoffoli-Rosalia Taormina</t>
+  </si>
+  <si>
+    <t>Rock The Boat</t>
+  </si>
+  <si>
+    <t>1149761</t>
+  </si>
+  <si>
+    <t>Pitbull Feat. Bob Sinclair, DragonFly  &amp; Fatman Scoop</t>
+  </si>
+  <si>
+    <t>72875.0</t>
+  </si>
+  <si>
+    <t>David Vendetta, Akram Sedkaoui</t>
+  </si>
+  <si>
+    <t>Unidos Para La Musica</t>
+  </si>
+  <si>
+    <t>48801</t>
+  </si>
+  <si>
+    <t>DAVID VENDETTA ft. AKRAM</t>
+  </si>
+  <si>
+    <t>13875.0</t>
+  </si>
+  <si>
+    <t>Алмазов Юрий, Бостон Б</t>
+  </si>
+  <si>
+    <t>Белые метели</t>
+  </si>
+  <si>
+    <t>58565</t>
+  </si>
+  <si>
+    <t>БУМЕR</t>
+  </si>
+  <si>
+    <t>18800.0</t>
+  </si>
+  <si>
+    <t>Дуров И.</t>
+  </si>
+  <si>
+    <t>Белый снег</t>
+  </si>
+  <si>
+    <t>55176</t>
+  </si>
+  <si>
+    <t>Динамит</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>Добрынин В.Г.</t>
+  </si>
+  <si>
+    <t>Будьте счастливы</t>
+  </si>
+  <si>
+    <t>23213</t>
+  </si>
+  <si>
+    <t>Самоцветы</t>
+  </si>
+  <si>
+    <t>Жека</t>
+  </si>
+  <si>
+    <t>Вдыхая Друг Друга</t>
+  </si>
+  <si>
+    <t>1247228</t>
+  </si>
+  <si>
+    <t>Нюша</t>
+  </si>
+  <si>
+    <t>Воспоминание</t>
+  </si>
+  <si>
+    <t>1214561</t>
+  </si>
+  <si>
+    <t>1038000.0</t>
+  </si>
+  <si>
+    <t>Маликов Д.Ю.</t>
+  </si>
+  <si>
+    <t>Выпью до дна</t>
+  </si>
+  <si>
+    <t>1044531</t>
+  </si>
+  <si>
+    <t>Маликов Дмитрий</t>
+  </si>
+  <si>
+    <t>Шерстников П.В.</t>
+  </si>
+  <si>
+    <t>Город, goodbye</t>
+  </si>
+  <si>
+    <t>1214508</t>
+  </si>
+  <si>
+    <t>Lalo Project</t>
+  </si>
+  <si>
+    <t>Кваша О.</t>
+  </si>
+  <si>
+    <t>Зеленоглазое такси</t>
+  </si>
+  <si>
+    <t>67451</t>
+  </si>
+  <si>
+    <t>Боярский Михаил</t>
+  </si>
+  <si>
+    <t>Блантер М.</t>
+  </si>
+  <si>
+    <t>Катюша (Выходила на берег Катюша)</t>
+  </si>
+  <si>
+    <t>63152</t>
+  </si>
+  <si>
+    <t>Кадышева Надежда, Жасмин</t>
+  </si>
+  <si>
+    <t>4950.0</t>
+  </si>
+  <si>
+    <t>Кони</t>
+  </si>
+  <si>
+    <t>1247230</t>
+  </si>
+  <si>
+    <t>Ханок Э.С.</t>
+  </si>
+  <si>
+    <t>Малиновка</t>
+  </si>
+  <si>
+    <t>8920</t>
+  </si>
+  <si>
+    <t>Верасы</t>
+  </si>
+  <si>
+    <t>Паулс Р.В.</t>
+  </si>
+  <si>
+    <t>Миллион алых роз (Художник)</t>
+  </si>
+  <si>
+    <t>9372</t>
+  </si>
+  <si>
+    <t>Пугачева Алла</t>
+  </si>
+  <si>
+    <t>44875.0</t>
+  </si>
+  <si>
+    <t>Федосеев А.Б.</t>
+  </si>
+  <si>
+    <t>Моя любимая</t>
+  </si>
+  <si>
+    <t>1145513</t>
+  </si>
+  <si>
+    <t>Королев Виктор</t>
+  </si>
+  <si>
+    <t>Моя Любовь</t>
+  </si>
+  <si>
+    <t>1247233</t>
+  </si>
+  <si>
+    <t>Не забывайте друзей</t>
+  </si>
+  <si>
+    <t>23394</t>
+  </si>
+  <si>
+    <t>Дуэт Добрынин Вячеслав и Державин Андрей</t>
+  </si>
+  <si>
+    <t>Цой В.Р.</t>
+  </si>
+  <si>
+    <t>Пачка сигарет</t>
+  </si>
+  <si>
+    <t>41856</t>
+  </si>
+  <si>
+    <t>Цой Виктор и группа КИНО</t>
+  </si>
+  <si>
+    <t>11400.0</t>
+  </si>
+  <si>
+    <t>ПМЖ</t>
+  </si>
+  <si>
+    <t>1247226</t>
+  </si>
+  <si>
+    <t>3150.0</t>
+  </si>
+  <si>
+    <t>Королев В.И./народн.</t>
+  </si>
+  <si>
+    <t>Снегири</t>
+  </si>
+  <si>
+    <t>58676</t>
+  </si>
+  <si>
+    <t>Мигуля В.</t>
+  </si>
+  <si>
+    <t>Трава у дома</t>
+  </si>
+  <si>
+    <t>64772</t>
+  </si>
+  <si>
+    <t>Земляне</t>
+  </si>
+  <si>
+    <t>9250.0</t>
+  </si>
+  <si>
+    <t>Хочу перемен (Перемен, Мы ждем перемен)</t>
+  </si>
+  <si>
+    <t>41858</t>
+  </si>
+  <si>
+    <t>Заречный Г.</t>
+  </si>
+  <si>
+    <t>Шансонье</t>
+  </si>
+  <si>
+    <t>58137</t>
+  </si>
+  <si>
+    <t>Заречный Гриша</t>
+  </si>
+  <si>
+    <t>900.0</t>
+  </si>
+  <si>
+    <t>Хурсенко В.</t>
+  </si>
+  <si>
+    <t>Я по тебе скучаю (Душа моя)</t>
+  </si>
+  <si>
+    <t>1084556</t>
+  </si>
+  <si>
+    <t>Сенчукова Н./Виктор Рыбин и Наталья Сенчукова</t>
+  </si>
+  <si>
+    <t>1800.0</t>
+  </si>
+  <si>
+    <t>COLLINS, PHIL</t>
+  </si>
+  <si>
+    <t>ANOTHER DAY IN PARADISE</t>
+  </si>
+  <si>
+    <t>571973</t>
+  </si>
+  <si>
+    <t>Phil Collins, JAM TRONIK</t>
+  </si>
+  <si>
+    <t>81125.0</t>
+  </si>
+  <si>
+    <t>Daniele Pace/Franco Bracardi-Christophe Le Friant</t>
+  </si>
+  <si>
+    <t>Far L'amore</t>
+  </si>
+  <si>
+    <t>1150413</t>
+  </si>
+  <si>
+    <t>Bob Sinclar  Feat Raffaella Carra</t>
+  </si>
+  <si>
+    <t>KLUGER, JEAN JOSEPH,VANGARDE, DANIEL\ BYL, NELLY ANTOINETTE</t>
+  </si>
+  <si>
+    <t>HANDS UP (HANDS UP GIVE ME YOUR HEART)</t>
+  </si>
+  <si>
+    <t>28322</t>
+  </si>
+  <si>
+    <t>OTTAWAN</t>
+  </si>
+  <si>
+    <t>1200.0</t>
+  </si>
+  <si>
+    <t>Wilhelm, Sandy Julien</t>
+  </si>
+  <si>
+    <t>Hey Baby Drop It To The Floor</t>
+  </si>
+  <si>
+    <t>70161</t>
+  </si>
+  <si>
+    <t>Pitbull Feat. T-Pain</t>
+  </si>
+  <si>
+    <t>140125.0</t>
+  </si>
+  <si>
+    <t>WILHELM, SANDY/ROWE, AUTUMN/ERIKSEN, MIKKEL/HERMANSEN, TOR ERIK</t>
+  </si>
+  <si>
+    <t>HUSH HUSH</t>
+  </si>
+  <si>
+    <t>1044618</t>
+  </si>
+  <si>
+    <t>Alexis Jordan</t>
+  </si>
+  <si>
+    <t>2000.0</t>
+  </si>
+  <si>
+    <t>Jerry Leiber / Mike Stoller</t>
+  </si>
+  <si>
+    <t>Jailhouse Rock</t>
+  </si>
+  <si>
+    <t>28659</t>
+  </si>
+  <si>
+    <t>ELVIS PRESLEY</t>
+  </si>
+  <si>
+    <t>R. Soja / F. Dostal</t>
+  </si>
+  <si>
+    <t>Yes Sir I Can Swing</t>
+  </si>
+  <si>
+    <t>52761</t>
+  </si>
+  <si>
+    <t>Baccara</t>
+  </si>
+  <si>
+    <t>Jeannin, Andrea; Mazzacani, Stefano; Robinson, Hanna; Minogue, Dannii; Smith, Bruce Elliot; Hammond</t>
+  </si>
+  <si>
+    <t>You won't forget about me</t>
+  </si>
+  <si>
+    <t>63597</t>
+  </si>
+  <si>
+    <t>Danni Minogue</t>
+  </si>
+  <si>
+    <t>Данилко А.М.</t>
+  </si>
+  <si>
+    <t>Смайлик</t>
+  </si>
+  <si>
+    <t>1091321</t>
+  </si>
+  <si>
+    <t>Верка Сердючка</t>
+  </si>
+  <si>
+    <t>24500.0</t>
+  </si>
+  <si>
+    <t>Потапенко А.</t>
+  </si>
+  <si>
+    <t>Чумачечая весна</t>
+  </si>
+  <si>
+    <t>1044461</t>
+  </si>
+  <si>
+    <t>Потап и Настя</t>
+  </si>
+  <si>
+    <t>3200.0</t>
+  </si>
+  <si>
+    <t>Женя Вилль</t>
+  </si>
+  <si>
+    <t>6 часов (Шесть часов)</t>
+  </si>
+  <si>
+    <t>1214516</t>
+  </si>
+  <si>
+    <t>Худяков Д.С.</t>
+  </si>
+  <si>
+    <t>Crazy Sax</t>
+  </si>
+  <si>
+    <t>1246906</t>
+  </si>
+  <si>
+    <t>DaniALL</t>
+  </si>
+  <si>
+    <t>2100.0</t>
+  </si>
+  <si>
+    <t>Муксинов Ф. Р.</t>
+  </si>
+  <si>
+    <t>Enjoy Your Life (Radio Edit)</t>
+  </si>
+  <si>
+    <t>1144798</t>
+  </si>
+  <si>
+    <t>Fidel Wicked</t>
+  </si>
+  <si>
+    <t>10950.0</t>
+  </si>
+  <si>
+    <t>LUCA  EMANUELE  VENTAFRIDDA</t>
+  </si>
+  <si>
+    <t>INSANE (IN DA BRAIN)</t>
+  </si>
+  <si>
+    <t>1112458</t>
+  </si>
+  <si>
+    <t>DJS FROM MARS FEAT. FRAGMA</t>
+  </si>
+  <si>
+    <t>Love Story (Radio Edit)</t>
+  </si>
+  <si>
+    <t>1246900</t>
+  </si>
+  <si>
+    <t>АFolabi Baiyewu/Obi Ebele/Uche Ebele</t>
+  </si>
+  <si>
+    <t>Money In da bank</t>
+  </si>
+  <si>
+    <t>1071106</t>
+  </si>
+  <si>
+    <t>Eve feat Тимати</t>
+  </si>
+  <si>
+    <t>600.0</t>
+  </si>
+  <si>
+    <t>Мисин А.А.</t>
+  </si>
+  <si>
+    <t>Money vs. Love</t>
+  </si>
+  <si>
+    <t>1149646</t>
+  </si>
+  <si>
+    <t>Тишман Марк</t>
+  </si>
+  <si>
+    <t>Alejandro Guerrero Guillen, Javier Sanchez Munoz</t>
+  </si>
+  <si>
+    <t>OIG</t>
+  </si>
+  <si>
+    <t>1144764</t>
+  </si>
+  <si>
+    <t>Javi Reina &amp; Alex Guerrero Feat. Syntheticsax</t>
+  </si>
+  <si>
+    <t>116400.0</t>
+  </si>
+  <si>
+    <t>Romantic (Radio Edit)</t>
+  </si>
+  <si>
+    <t>1246899</t>
+  </si>
+  <si>
+    <t>9600.0</t>
+  </si>
+  <si>
+    <t>Годжатов А.Р.</t>
+  </si>
+  <si>
+    <t>Senile</t>
+  </si>
+  <si>
+    <t>1151021</t>
+  </si>
+  <si>
+    <t>Titan Brothers feat. Тамерлан и Алена Омаргалиева</t>
+  </si>
+  <si>
+    <t>Дробыш В.Я./Леонтьев Т.В.</t>
+  </si>
+  <si>
+    <t>Sex не любовь</t>
+  </si>
+  <si>
+    <t>1214514</t>
+  </si>
+  <si>
+    <t>Слава</t>
+  </si>
+  <si>
+    <t>Крупин Михаил/Бондарев Юрий</t>
+  </si>
+  <si>
+    <t>Авокадо</t>
+  </si>
+  <si>
+    <t>1236085</t>
+  </si>
+  <si>
+    <t>Даша Астафьева&amp;NikitA</t>
+  </si>
+  <si>
+    <t>Романоф А.Д./Сахаров А.В.</t>
+  </si>
+  <si>
+    <t>Амели</t>
+  </si>
+  <si>
+    <t>1044409</t>
+  </si>
+  <si>
+    <t>Зара</t>
+  </si>
+  <si>
+    <t>Брянцев А.И.</t>
+  </si>
+  <si>
+    <t>В сердце твоем</t>
+  </si>
+  <si>
+    <t>1059188</t>
+  </si>
+  <si>
+    <t>Круг Ирина и Алексей Брянцев</t>
+  </si>
+  <si>
+    <t>14400.0</t>
+  </si>
+  <si>
+    <t>Засульская О./Горпинценко А.</t>
+  </si>
+  <si>
+    <t>Вернись (remix by Dj Rusk)</t>
+  </si>
+  <si>
+    <t>1113659</t>
+  </si>
+  <si>
+    <t>T-Killah и Лоя</t>
+  </si>
+  <si>
+    <t>15000.0</t>
+  </si>
+  <si>
+    <t>Грин О.</t>
+  </si>
+  <si>
+    <t>Верю тебе</t>
+  </si>
+  <si>
+    <t>1060153</t>
+  </si>
+  <si>
+    <t>Повалий Таисия</t>
+  </si>
+  <si>
+    <t>Малый Я.В.</t>
+  </si>
+  <si>
+    <t>Верю я</t>
+  </si>
+  <si>
+    <t>59423</t>
+  </si>
+  <si>
+    <t>TOKIO</t>
+  </si>
+  <si>
+    <t>Польна Е.Л.</t>
+  </si>
+  <si>
+    <t>Весь мир на ладони моей</t>
+  </si>
+  <si>
+    <t>1256583</t>
+  </si>
+  <si>
+    <t>Польна Ева</t>
+  </si>
+  <si>
+    <t>392625.0</t>
+  </si>
+  <si>
+    <t>Брейтбург К.А.</t>
+  </si>
+  <si>
+    <t>Голубая луна</t>
+  </si>
+  <si>
+    <t>3915</t>
+  </si>
+  <si>
+    <t>Моисеев Б. и Трубач Н.</t>
+  </si>
+  <si>
+    <t>Болдырев А.</t>
+  </si>
+  <si>
+    <t>Давай, до свидания!</t>
+  </si>
+  <si>
+    <t>1214560</t>
+  </si>
+  <si>
+    <t>DJ Sandro Escobar</t>
+  </si>
+  <si>
+    <t>Розанов  А.В.</t>
+  </si>
+  <si>
+    <t>Давайте выпьем за мужчин</t>
+  </si>
+  <si>
+    <t>1266849</t>
+  </si>
+  <si>
+    <t>Фристайл и Нина Кирсо</t>
+  </si>
+  <si>
+    <t>Чанышев М.</t>
+  </si>
+  <si>
+    <t>Два бриллианта</t>
+  </si>
+  <si>
+    <t>4405</t>
+  </si>
+  <si>
+    <t>Премьер-Министр</t>
+  </si>
+  <si>
+    <t>6750.0</t>
+  </si>
+  <si>
+    <t>Чумаков А.Г.</t>
+  </si>
+  <si>
+    <t>Девочка, девушка, женщина (Девочка/Девочка, девушка)</t>
+  </si>
+  <si>
+    <t>55374</t>
+  </si>
+  <si>
+    <t>Чумаков Алексей</t>
+  </si>
+  <si>
+    <t>Михей</t>
+  </si>
+  <si>
+    <t>Для тебя</t>
+  </si>
+  <si>
+    <t>4919</t>
+  </si>
+  <si>
+    <t>Михей и Джуманджи</t>
+  </si>
+  <si>
+    <t>Догорает свеча</t>
+  </si>
+  <si>
+    <t>1266854</t>
+  </si>
+  <si>
+    <t>Фристайл</t>
+  </si>
+  <si>
+    <t>Виаркози В.</t>
+  </si>
+  <si>
+    <t>Еще минута (Минута)</t>
+  </si>
+  <si>
+    <t>1145339</t>
+  </si>
+  <si>
+    <t>Успенская Любовь и группа ШТАР</t>
+  </si>
+  <si>
+    <t>Желтые розы</t>
+  </si>
+  <si>
+    <t>1266858</t>
+  </si>
+  <si>
+    <t>Зубков И.В.</t>
+  </si>
+  <si>
+    <t>Женское счастье</t>
+  </si>
+  <si>
+    <t>42155</t>
+  </si>
+  <si>
+    <t>Овсиенко Т.</t>
+  </si>
+  <si>
+    <t>Заходи ко мне во сне</t>
+  </si>
+  <si>
+    <t>1145209</t>
+  </si>
+  <si>
+    <t>Ирина Круг и Алексей Брянцев</t>
+  </si>
+  <si>
+    <t>22200.0</t>
+  </si>
+  <si>
+    <t>Леонтьев Т.В.</t>
+  </si>
+  <si>
+    <t>Здравствуй и прощай</t>
+  </si>
+  <si>
+    <t>1080968</t>
+  </si>
+  <si>
+    <t>Марта</t>
+  </si>
+  <si>
+    <t>Kolehmainen Maki</t>
+  </si>
+  <si>
+    <t>Игра не любовь (Любовь не игра)</t>
+  </si>
+  <si>
+    <t>6590</t>
+  </si>
+  <si>
+    <t>Валерия</t>
+  </si>
+  <si>
+    <t>Ледков С.И.</t>
+  </si>
+  <si>
+    <t>Иди ко мне</t>
+  </si>
+  <si>
+    <t>1214593</t>
+  </si>
+  <si>
+    <t>Марсель</t>
+  </si>
+  <si>
+    <t>Как будто мы с тобой</t>
+  </si>
+  <si>
+    <t>1060159</t>
+  </si>
+  <si>
+    <t>33450.0</t>
+  </si>
+  <si>
+    <t>Залкин В.Л.</t>
+  </si>
+  <si>
+    <t>Капали слезы</t>
+  </si>
+  <si>
+    <t>1236189</t>
+  </si>
+  <si>
+    <t>Залкин Валерий</t>
+  </si>
+  <si>
+    <t>Меладзе К.Ш.</t>
+  </si>
+  <si>
+    <t>Карма</t>
+  </si>
+  <si>
+    <t>45189</t>
+  </si>
+  <si>
+    <t>Инь-Ян</t>
+  </si>
+  <si>
+    <t>Когда зима в душе пройдет</t>
+  </si>
+  <si>
+    <t>1060160</t>
+  </si>
+  <si>
+    <t>7950.0</t>
+  </si>
+  <si>
+    <t>Колдун Д.А.</t>
+  </si>
+  <si>
+    <t>Корабли</t>
+  </si>
+  <si>
+    <t>1092957</t>
+  </si>
+  <si>
+    <t>Колдун Дмитрий</t>
+  </si>
+  <si>
+    <t>1650.0</t>
+  </si>
+  <si>
+    <t>Грим Б./Грим К.</t>
+  </si>
+  <si>
+    <t>КУСТУРИЦА</t>
+  </si>
+  <si>
+    <t>39200</t>
+  </si>
+  <si>
+    <t>Братья Грим</t>
+  </si>
+  <si>
+    <t>Гладков Г.И.</t>
+  </si>
+  <si>
+    <t>Луч солнца золотого</t>
+  </si>
+  <si>
+    <t>25073</t>
+  </si>
+  <si>
+    <t>Гоман А., Анофриев О. из м/ф По следам Бременских Музыкантов</t>
+  </si>
+  <si>
+    <t>2600.0</t>
+  </si>
+  <si>
+    <t>Азаров И.</t>
+  </si>
+  <si>
+    <t>Любить не страшно</t>
+  </si>
+  <si>
+    <t>1061132</t>
+  </si>
+  <si>
+    <t>Круг Ирина</t>
+  </si>
+  <si>
+    <t>Бурдаева Е.В.</t>
+  </si>
+  <si>
+    <t>Любишь отпусти</t>
+  </si>
+  <si>
+    <t>1149803</t>
+  </si>
+  <si>
+    <t>Masha</t>
+  </si>
+  <si>
+    <t>Дробыш В.Я.</t>
+  </si>
+  <si>
+    <t>Любовь которой больше нет</t>
+  </si>
+  <si>
+    <t>8743</t>
+  </si>
+  <si>
+    <t>Орбакайте К. и Руссо А.; Подольская Н. и Руссо А.</t>
+  </si>
+  <si>
+    <t>Люди любят</t>
+  </si>
+  <si>
+    <t>1089657</t>
+  </si>
+  <si>
+    <t>14125.0</t>
+  </si>
+  <si>
+    <t>Губин А.</t>
+  </si>
+  <si>
+    <t>Милая моя далеко (Милая моя далеко)</t>
+  </si>
+  <si>
+    <t>9359</t>
+  </si>
+  <si>
+    <t>Губин Андрей</t>
+  </si>
+  <si>
+    <t>26100.0</t>
+  </si>
+  <si>
+    <t>Миражи</t>
+  </si>
+  <si>
+    <t>1144779</t>
+  </si>
+  <si>
+    <t>Юльчиев И. И.</t>
+  </si>
+  <si>
+    <t>Мне не жить без тебя</t>
+  </si>
+  <si>
+    <t>68048</t>
+  </si>
+  <si>
+    <t>DJ Piligrim</t>
+  </si>
+  <si>
+    <t>Artik, Артик</t>
+  </si>
+  <si>
+    <t>Моя последняя надежда</t>
+  </si>
+  <si>
+    <t>1094652</t>
+  </si>
+  <si>
+    <t>ARTIK feat.Asti</t>
+  </si>
+  <si>
+    <t>Мы расстались с тобой</t>
+  </si>
+  <si>
+    <t>1091317</t>
+  </si>
+  <si>
+    <t>Гимазутдинов Р.М.</t>
+  </si>
+  <si>
+    <t>На Восток от Эдема</t>
+  </si>
+  <si>
+    <t>57946</t>
+  </si>
+  <si>
+    <t>Согдиана</t>
+  </si>
+  <si>
+    <t>139000.0</t>
+  </si>
+  <si>
+    <t>Artik, Артик/Омаргалиева Е.К./Макаренко Д.В.</t>
+  </si>
+  <si>
+    <t>Над землей (Мы взлетим высоко)</t>
+  </si>
+  <si>
+    <t>1113658</t>
+  </si>
+  <si>
+    <t>T-Killah и Кочеткова Н.</t>
+  </si>
+  <si>
+    <t>Майданов Д.В.</t>
+  </si>
+  <si>
+    <t>Настя (По имени Настя)</t>
+  </si>
+  <si>
+    <t>571981</t>
+  </si>
+  <si>
+    <t>Шульжевский Эд</t>
+  </si>
+  <si>
+    <t>Artik, Артик/Мясников Р./Омаргалиева Е.К.</t>
+  </si>
+  <si>
+    <t>Не забывай</t>
+  </si>
+  <si>
+    <t>1113656</t>
+  </si>
+  <si>
+    <t>T-Killah и Бузова Ольга</t>
+  </si>
+  <si>
+    <t>DJ Shury/Пушкарев А.</t>
+  </si>
+  <si>
+    <t>Не звони</t>
+  </si>
+  <si>
+    <t>1070805</t>
+  </si>
+  <si>
+    <t>Тимати (Timati)</t>
+  </si>
+  <si>
+    <t>Не оставляй меня любимый (Две сестры)</t>
+  </si>
+  <si>
+    <t>11029</t>
+  </si>
+  <si>
+    <t>ВИА ГРА</t>
+  </si>
+  <si>
+    <t>Не расставаясь</t>
+  </si>
+  <si>
+    <t>1144780</t>
+  </si>
+  <si>
+    <t>Не сыпь мне соль на рану</t>
+  </si>
+  <si>
+    <t>23628</t>
+  </si>
+  <si>
+    <t>Добрынин Вячеслав</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>1241048</t>
+  </si>
+  <si>
+    <t>Гагарина Полина</t>
+  </si>
+  <si>
+    <t>50500.0</t>
+  </si>
+  <si>
+    <t>Archi-M</t>
+  </si>
+  <si>
+    <t>О Боже</t>
+  </si>
+  <si>
+    <t>1241702</t>
+  </si>
+  <si>
+    <t>102500.0</t>
+  </si>
+  <si>
+    <t>Губин К.</t>
+  </si>
+  <si>
+    <t>О тебе</t>
+  </si>
+  <si>
+    <t>1145213</t>
+  </si>
+  <si>
+    <t>Артур Best</t>
+  </si>
+  <si>
+    <t>Обернитесь</t>
+  </si>
+  <si>
+    <t>63038</t>
+  </si>
+  <si>
+    <t>Меладзе Валерий и Григорий Лепс</t>
+  </si>
+  <si>
+    <t>Обо мне вспоминай (Вспоминай)</t>
+  </si>
+  <si>
+    <t>12166</t>
+  </si>
+  <si>
+    <t>Валерия; сериал Была любовь",2010,РТР</t>
+  </si>
+  <si>
+    <t>10750.0</t>
+  </si>
+  <si>
+    <t>Ai se eu te pego</t>
+  </si>
+  <si>
+    <t>1149782-1</t>
+  </si>
+  <si>
+    <t>Pedro Oliveira</t>
+  </si>
+  <si>
+    <t>1034750.0</t>
+  </si>
+  <si>
+    <t>Anderlecht Champion (Ole Ole We Are The Champions)</t>
+  </si>
+  <si>
+    <t>65326-9</t>
+  </si>
+  <si>
+    <t>Le grand Jojo</t>
+  </si>
+  <si>
+    <t>176875.0</t>
+  </si>
+  <si>
+    <t>Banderas (Cancion Del Mariachi)</t>
+  </si>
+  <si>
+    <t>1214505-1</t>
+  </si>
+  <si>
+    <t>Jerry Ropero &amp; Stefan Gruenwald feat. Gitano</t>
+  </si>
+  <si>
+    <t>4800.0</t>
+  </si>
+  <si>
+    <t>Bara Bara Bere Bere</t>
+  </si>
+  <si>
+    <t>1215229-1</t>
+  </si>
+  <si>
+    <t>Alex Ferrari</t>
+  </si>
+  <si>
+    <t>902375.0</t>
+  </si>
+  <si>
+    <t>Don't Turn Around</t>
+  </si>
+  <si>
+    <t>54752-1</t>
+  </si>
+  <si>
+    <t>FADE INTO DARKNESS</t>
+  </si>
+  <si>
+    <t>1090576-1</t>
+  </si>
+  <si>
+    <t>Avicii</t>
+  </si>
+  <si>
+    <t>FOR AN ANGEL (PVD REMIX ‘09)</t>
+  </si>
+  <si>
+    <t>59047-1</t>
+  </si>
+  <si>
+    <t>PAUL VAN DYK</t>
+  </si>
+  <si>
+    <t>40625.0</t>
+  </si>
+  <si>
+    <t>Feeling so blue</t>
+  </si>
+  <si>
+    <t>1253119-1</t>
+  </si>
+  <si>
+    <t>Michael Mind Project Feat. Dante Thoma</t>
+  </si>
+  <si>
+    <t>1625.0</t>
+  </si>
+  <si>
+    <t>Freak it out</t>
+  </si>
+  <si>
+    <t>1144765-1</t>
+  </si>
+  <si>
+    <t>Leventina</t>
+  </si>
+  <si>
+    <t>2250.0</t>
+  </si>
+  <si>
+    <t>I'm drum a dream machine (Step up)</t>
+  </si>
+  <si>
+    <t>1145441-1</t>
+  </si>
+  <si>
+    <t>Denzal Park vs Wizard Sleeve</t>
+  </si>
+  <si>
+    <t>4400.0</t>
+  </si>
+  <si>
+    <t>Infinity (Infinity 2008)</t>
+  </si>
+  <si>
+    <t>1215527-1</t>
+  </si>
+  <si>
+    <t>Guru Josh Project</t>
+  </si>
+  <si>
+    <t>2200.0</t>
+  </si>
+  <si>
+    <t>Lead The Way (ft. Erick Gold)</t>
+  </si>
+  <si>
+    <t>1215544-1</t>
+  </si>
+  <si>
+    <t>TONIC</t>
+  </si>
+  <si>
+    <t>232375.0</t>
+  </si>
+  <si>
+    <t>Let Go</t>
+  </si>
+  <si>
+    <t>40295-4</t>
+  </si>
+  <si>
+    <t>Paul van Dyk</t>
+  </si>
+  <si>
+    <t>Lollipop</t>
+  </si>
+  <si>
+    <t>64720-1</t>
+  </si>
+  <si>
+    <t>DADA Feat. Sandy Rivera &amp; Trix</t>
+  </si>
+  <si>
+    <t>MI CAFE</t>
+  </si>
+  <si>
+    <t>1214470-1</t>
+  </si>
+  <si>
+    <t>PICCO</t>
+  </si>
+  <si>
+    <t>3400.0</t>
+  </si>
+  <si>
+    <t>Mamma Maria</t>
+  </si>
+  <si>
+    <t>1215166-1</t>
+  </si>
+  <si>
+    <t>Toby DeVille</t>
+  </si>
+  <si>
+    <t>6250.0</t>
+  </si>
+  <si>
+    <t>My People</t>
+  </si>
+  <si>
+    <t>59899-1</t>
+  </si>
+  <si>
+    <t>BEVERLY PROJECT vs. JULIO CESAR</t>
+  </si>
+  <si>
+    <t>16000.0</t>
+  </si>
+  <si>
+    <t>Never be alone</t>
+  </si>
+  <si>
+    <t>1060945-1</t>
+  </si>
+  <si>
+    <t>Deepside Deejays</t>
+  </si>
+  <si>
+    <t>351500.0</t>
+  </si>
+  <si>
+    <t>Pjanoo</t>
+  </si>
+  <si>
+    <t>572017-1</t>
+  </si>
+  <si>
+    <t>24750.0</t>
+  </si>
+  <si>
+    <t>Remolino</t>
+  </si>
+  <si>
+    <t>1253120-1</t>
+  </si>
+  <si>
+    <t>Moritos</t>
+  </si>
+  <si>
+    <t>Resurrection</t>
+  </si>
+  <si>
+    <t>1144766-1</t>
+  </si>
+  <si>
+    <t>Michael Calfan</t>
+  </si>
+  <si>
+    <t>Rio De Janeiro</t>
+  </si>
+  <si>
+    <t>1149539-1</t>
+  </si>
+  <si>
+    <t>Michael Mind Project Feat. Bobby Anthony &amp; Rosette</t>
+  </si>
+  <si>
+    <t>5600.0</t>
+  </si>
+  <si>
+    <t>SMALLTOWN BOY (Tell Me Why  (Radio Edit)) (Tell Me Why  (Radio Edit))</t>
+  </si>
+  <si>
+    <t>27497-1</t>
+  </si>
+  <si>
+    <t>SUPERMODE</t>
+  </si>
+  <si>
+    <t>1400.0</t>
+  </si>
+  <si>
+    <t>Stay with me tonight</t>
+  </si>
+  <si>
+    <t>1092887-1</t>
+  </si>
+  <si>
+    <t>91375.0</t>
+  </si>
+  <si>
+    <t>The Network</t>
+  </si>
+  <si>
+    <t>1150410-1</t>
+  </si>
+  <si>
+    <t>Bob Sinclar  Feat Kc Flightt</t>
+  </si>
+  <si>
+    <t>250.0</t>
+  </si>
+  <si>
+    <t>This is my life</t>
+  </si>
+  <si>
+    <t>68035-1</t>
+  </si>
+  <si>
+    <t>EDWARD MAYA</t>
+  </si>
+  <si>
+    <t>33750.0</t>
+  </si>
+  <si>
+    <t>Tik Tok Feat.</t>
+  </si>
+  <si>
+    <t>1150409-1</t>
+  </si>
+  <si>
+    <t>Bob Sinclar  Feat Sean Paul</t>
+  </si>
+  <si>
+    <t>625.0</t>
+  </si>
+  <si>
+    <t>А я тебя люблю</t>
+  </si>
+  <si>
+    <t>1094392-1</t>
+  </si>
+  <si>
+    <t>Латышко Игорь</t>
+  </si>
+  <si>
+    <t>9000.0</t>
+  </si>
+  <si>
+    <t>Ветер перемен</t>
+  </si>
+  <si>
+    <t>2779-3</t>
+  </si>
+  <si>
+    <t>Девятова Марина</t>
+  </si>
+  <si>
+    <t>1875.0</t>
+  </si>
+  <si>
+    <t>Вопреки</t>
+  </si>
+  <si>
+    <t>45319-1</t>
+  </si>
+  <si>
+    <t>Меладзе Валерий</t>
+  </si>
+  <si>
+    <t>Для нее</t>
+  </si>
+  <si>
+    <t>50169-1</t>
+  </si>
+  <si>
+    <t>Если вдруг (Если вдруг тебя не станет)</t>
+  </si>
+  <si>
+    <t>1088195-1</t>
+  </si>
+  <si>
+    <t>211750.0</t>
+  </si>
+  <si>
+    <t>Если я останусь один</t>
+  </si>
+  <si>
+    <t>5545-2</t>
+  </si>
+  <si>
+    <t>Зимний сад</t>
+  </si>
+  <si>
+    <t>6389-2</t>
+  </si>
+  <si>
+    <t>Глызин Алексей</t>
+  </si>
+  <si>
+    <t>История любви (Ирония любви; История любви)</t>
+  </si>
+  <si>
+    <t>62648-1</t>
+  </si>
+  <si>
+    <t>Princessa Avenue</t>
+  </si>
+  <si>
+    <t>4650.0</t>
+  </si>
+  <si>
+    <t>Любовь (А я и не знал)</t>
+  </si>
+  <si>
+    <t>62549-1</t>
+  </si>
+  <si>
+    <t>Воля П. / Киркоров Ф.</t>
+  </si>
+  <si>
+    <t>5250.0</t>
+  </si>
+  <si>
+    <t>Москва - Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>38492-1</t>
+  </si>
+  <si>
+    <t>Орбакайте Кристина</t>
+  </si>
+  <si>
+    <t>Мохнатый шмель (А цыган идёт)</t>
+  </si>
+  <si>
+    <t>46884-1</t>
+  </si>
+  <si>
+    <t>Деметр Петр</t>
+  </si>
+  <si>
+    <t>Новогодние игрушки</t>
+  </si>
+  <si>
+    <t>59804-1</t>
+  </si>
+  <si>
+    <t>Новые Самоцветы</t>
+  </si>
+  <si>
+    <t>5500.0</t>
+  </si>
+  <si>
+    <t>Опять метель (Метель)</t>
+  </si>
+  <si>
+    <t>39577-3</t>
+  </si>
+  <si>
+    <t>Отпусти</t>
+  </si>
+  <si>
+    <t>1149887-1</t>
+  </si>
+  <si>
+    <t>Настя Ясная</t>
+  </si>
+  <si>
+    <t>Песня самолёта-истребителя (1968)</t>
+  </si>
+  <si>
+    <t>1089077-1</t>
+  </si>
+  <si>
+    <t>Высоцкий Владимир</t>
+  </si>
+  <si>
+    <t>Позови меня с собой</t>
+  </si>
+  <si>
+    <t>62334-1</t>
+  </si>
+  <si>
+    <t>42750.0</t>
+  </si>
+  <si>
+    <t>Привет малыш</t>
+  </si>
+  <si>
+    <t>1060162-1</t>
+  </si>
+  <si>
+    <t>7200.0</t>
+  </si>
+  <si>
+    <t>Придумано Богами</t>
+  </si>
+  <si>
+    <t>1241701-1</t>
+  </si>
+  <si>
+    <t>Простая песня</t>
+  </si>
+  <si>
+    <t>1214517-1</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>Прости любимая, прости</t>
+  </si>
+  <si>
+    <t>1169695-1</t>
+  </si>
+  <si>
+    <t>Просто ты одна</t>
+  </si>
+  <si>
+    <t>1236187-1</t>
+  </si>
+  <si>
+    <t>7800.0</t>
+  </si>
+  <si>
+    <t>Рикошет</t>
+  </si>
+  <si>
+    <t>1143797-1</t>
+  </si>
+  <si>
+    <t>С днем рождения, мама</t>
+  </si>
+  <si>
+    <t>1266923-1</t>
+  </si>
+  <si>
+    <t>С ума сходил</t>
+  </si>
+  <si>
+    <t>1214515-1</t>
+  </si>
+  <si>
+    <t>Высотская Алена</t>
+  </si>
+  <si>
+    <t>Самый родной человек</t>
+  </si>
+  <si>
+    <t>1266924-1</t>
+  </si>
+  <si>
+    <t>Волшебные сны</t>
+  </si>
+  <si>
+    <t>Сирена</t>
+  </si>
+  <si>
+    <t>22230-1</t>
+  </si>
+  <si>
+    <t>Солнца луч</t>
+  </si>
+  <si>
+    <t>1143775-1</t>
+  </si>
+  <si>
+    <t>Спектакль окончен</t>
+  </si>
+  <si>
+    <t>1113749-1</t>
+  </si>
+  <si>
+    <t>133125.0</t>
+  </si>
+  <si>
+    <t>Стефания</t>
+  </si>
+  <si>
+    <t>1143772-1</t>
+  </si>
+  <si>
+    <t>Стюардесса по имени Жанна (Стюардесса Жанка)</t>
+  </si>
+  <si>
+    <t>17588-1</t>
+  </si>
+  <si>
+    <t>Пресняков Владимир</t>
+  </si>
+  <si>
+    <t>Темная ночь</t>
+  </si>
+  <si>
+    <t>1145300-1</t>
+  </si>
+  <si>
+    <t>Тхагалегов Мурат</t>
+  </si>
+  <si>
+    <t>77550.0</t>
+  </si>
+  <si>
+    <t>Темная ночь (из к/ф "Два бойца")</t>
+  </si>
+  <si>
+    <t>47072-5</t>
+  </si>
+  <si>
+    <t>Баста</t>
+  </si>
+  <si>
+    <t>2550.0</t>
+  </si>
+  <si>
+    <t>Только не молчи</t>
+  </si>
+  <si>
+    <t>1044062-1</t>
+  </si>
+  <si>
+    <t>Только ты</t>
+  </si>
+  <si>
+    <t>1084067-1</t>
+  </si>
+  <si>
+    <t>7600.0</t>
+  </si>
+  <si>
+    <t>Ты грустишь</t>
+  </si>
+  <si>
+    <t>18695-1</t>
+  </si>
+  <si>
+    <t>Ты мой</t>
+  </si>
+  <si>
+    <t>1162933-1</t>
+  </si>
+  <si>
+    <t>АнгелиЯ</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>Ты не стал судьбой</t>
+  </si>
+  <si>
+    <t>22383-1</t>
+  </si>
+  <si>
+    <t>Ты неземная</t>
+  </si>
+  <si>
+    <t>1145211-1</t>
+  </si>
+  <si>
+    <t>Ты одна и я один</t>
+  </si>
+  <si>
+    <t>1236188-1</t>
+  </si>
+  <si>
+    <t>Курас Валерий и Катерина Голицына</t>
+  </si>
+  <si>
+    <t>Ты так долго не звонил</t>
+  </si>
+  <si>
+    <t>1088807-1</t>
+  </si>
+  <si>
+    <t>Сенчукова Наталья</t>
+  </si>
+  <si>
+    <t>Уходи (Уходи и дверь закрой)</t>
+  </si>
+  <si>
+    <t>38505-1</t>
+  </si>
+  <si>
+    <t>Отрадная Женя</t>
+  </si>
+  <si>
+    <t>Чего не могут люди (Песня часовщика; Скорость времени)</t>
+  </si>
+  <si>
+    <t>19914-1</t>
+  </si>
+  <si>
+    <t>Это Новый год</t>
+  </si>
+  <si>
+    <t>40965-1</t>
+  </si>
+  <si>
+    <t>Reflex</t>
+  </si>
+  <si>
+    <t>17375.0</t>
+  </si>
+  <si>
+    <t>Я Буду Небом Твоим</t>
+  </si>
+  <si>
+    <t>1169633-1</t>
+  </si>
+  <si>
+    <t>191625.0</t>
+  </si>
+  <si>
+    <t>Я буду рядом</t>
+  </si>
+  <si>
+    <t>1214488-1</t>
+  </si>
+  <si>
+    <t>Брянцев Алексей</t>
+  </si>
+  <si>
+    <t>Я любил</t>
+  </si>
+  <si>
+    <t>1113645-1</t>
+  </si>
+  <si>
+    <t>Dato</t>
+  </si>
+  <si>
+    <t>44400.0</t>
+  </si>
+  <si>
+    <t>Я не могу без тебя (За любовь прости)</t>
+  </si>
+  <si>
+    <t>21041-1</t>
+  </si>
+  <si>
+    <t>Я отпускаю тебя (Отпускаю тебя)</t>
+  </si>
+  <si>
+    <t>1084474-1</t>
+  </si>
+  <si>
+    <t>DICE</t>
+  </si>
+  <si>
+    <t>1149760-1</t>
+  </si>
+  <si>
+    <t>Serge Devant feat. Hadley</t>
+  </si>
+  <si>
+    <t>ONCE UPON A TIME IN AMERICA</t>
+  </si>
+  <si>
+    <t>27316-1</t>
+  </si>
+  <si>
+    <t>Фильм "Однажды в Америке"</t>
+  </si>
+  <si>
+    <t>128750.0</t>
+  </si>
+  <si>
+    <t>43110-1</t>
+  </si>
+  <si>
+    <t>Круг Михаил</t>
+  </si>
+  <si>
+    <t>Все пройдет</t>
+  </si>
+  <si>
+    <t>3378-2</t>
+  </si>
+  <si>
+    <t>Где же вы теперь, друзья - однополчане (Майскими короткими ночами...)</t>
+  </si>
+  <si>
+    <t>47098-1</t>
+  </si>
+  <si>
+    <t>Шульженко Клавдия</t>
+  </si>
+  <si>
+    <t>Есть только миг (Жизнь; Вся жизнь)</t>
+  </si>
+  <si>
+    <t>22109-1</t>
+  </si>
+  <si>
+    <t>Даль Олег</t>
+  </si>
+  <si>
+    <t>Надежда</t>
+  </si>
+  <si>
+    <t>30237-5</t>
+  </si>
+  <si>
+    <t>Герман Анна</t>
+  </si>
+  <si>
+    <t>30237-8</t>
+  </si>
+  <si>
+    <t>Магомаев Муслим</t>
+  </si>
+  <si>
+    <t>Нежность (Опустела без тебя земля)(из к/ф "ТРИ ТОПОЛЯ НА ПЛЮЩИХЕ")</t>
+  </si>
+  <si>
+    <t>63229-2</t>
+  </si>
+  <si>
+    <t>Кристалинская Майя</t>
+  </si>
+  <si>
+    <t>Ни минуты покоя</t>
+  </si>
+  <si>
+    <t>22307-3</t>
+  </si>
+  <si>
+    <t>Веселые ребята</t>
+  </si>
+  <si>
+    <t>Новогодний снег</t>
+  </si>
+  <si>
+    <t>61142-1</t>
+  </si>
+  <si>
+    <t>Петлюра</t>
+  </si>
+  <si>
+    <t>Опять весна</t>
+  </si>
+  <si>
+    <t>28885-1</t>
+  </si>
+  <si>
+    <t>Акварели</t>
+  </si>
+  <si>
+    <t>Песня остается с человеком</t>
+  </si>
+  <si>
+    <t>58967-1</t>
+  </si>
+  <si>
+    <t>Кобзон Иосиф</t>
+  </si>
+  <si>
+    <t>Утомленное солнце</t>
+  </si>
+  <si>
+    <t>1166942-1</t>
+  </si>
+  <si>
+    <t>Цыганочка</t>
+  </si>
+  <si>
+    <t>1145440-2</t>
+  </si>
+  <si>
+    <t>ПОЮЩИЕ ГИТАРЫ</t>
+  </si>
+  <si>
+    <t>Brown/Jean/Duplessis/Cadet</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>292348</t>
+  </si>
+  <si>
+    <t>wyclef jean / mary j blige</t>
+  </si>
+  <si>
+    <t>Mebarak/Ochoa/Bello/Hill/Perez</t>
+  </si>
+  <si>
+    <t>Addicted To You</t>
+  </si>
+  <si>
+    <t>1260988</t>
+  </si>
+  <si>
+    <t>shakira</t>
+  </si>
+  <si>
+    <t>268500.0</t>
+  </si>
+  <si>
+    <t>Kurstin/Gottwald/Sebert/Sebert</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>1181211</t>
+  </si>
+  <si>
+    <t>kesha</t>
+  </si>
+  <si>
+    <t>17875.0</t>
+  </si>
+  <si>
+    <t>Mebarak Ripoll/Mendez</t>
+  </si>
+  <si>
+    <t>Antes De Las Seis</t>
+  </si>
+  <si>
+    <t>1240840</t>
+  </si>
+  <si>
+    <t>McCartney/Lennon</t>
+  </si>
+  <si>
+    <t>Come Together / Dear Prudence / Cry Baby Cry  (Love Version)</t>
+  </si>
+  <si>
+    <t>703585</t>
+  </si>
+  <si>
+    <t>aerosmith</t>
+  </si>
+  <si>
+    <t>Farian/Reyam</t>
+  </si>
+  <si>
+    <t>Daddy Cool</t>
+  </si>
+  <si>
+    <t>237984</t>
+  </si>
+  <si>
+    <t>boney m</t>
+  </si>
+  <si>
+    <t>Shakur/Mizell/Griffin Iii</t>
+  </si>
+  <si>
+    <t>Definition Of A Thug Nigga</t>
+  </si>
+  <si>
+    <t>53164</t>
+  </si>
+  <si>
+    <t>2pac</t>
+  </si>
+  <si>
+    <t>Jean/Michel/Hill</t>
+  </si>
+  <si>
+    <t>Don'T Cry Dry Your Eyes</t>
+  </si>
+  <si>
+    <t>154274</t>
+  </si>
+  <si>
+    <t>fugees</t>
+  </si>
+  <si>
+    <t>Kripac</t>
+  </si>
+  <si>
+    <t>Everything At Once</t>
+  </si>
+  <si>
+    <t>1247287</t>
+  </si>
+  <si>
+    <t>lenka</t>
+  </si>
+  <si>
+    <t>642125.0</t>
+  </si>
+  <si>
+    <t>Jones/Bradfield/Moore</t>
+  </si>
+  <si>
+    <t>Everything Must Go</t>
+  </si>
+  <si>
+    <t>134707</t>
+  </si>
+  <si>
+    <t>britney spears</t>
+  </si>
+  <si>
+    <t>7000.0</t>
+  </si>
+  <si>
+    <t>Robinson/Doyle/Passy</t>
+  </si>
+  <si>
+    <t>Fuck It (I Don'T Want You Back)</t>
+  </si>
+  <si>
+    <t>593478</t>
+  </si>
+  <si>
+    <t>eamon</t>
+  </si>
+  <si>
+    <t>36000.0</t>
+  </si>
+  <si>
+    <t>Get Back</t>
+  </si>
+  <si>
+    <t>196290</t>
+  </si>
+  <si>
+    <t>take that</t>
+  </si>
+  <si>
+    <t>2875.0</t>
+  </si>
+  <si>
+    <t>Stewart/Coby/Harris</t>
+  </si>
+  <si>
+    <t>Gimmie Dat</t>
+  </si>
+  <si>
+    <t>1242468</t>
+  </si>
+  <si>
+    <t>ciara</t>
+  </si>
+  <si>
+    <t>33625.0</t>
+  </si>
+  <si>
+    <t>Smith/Van De Wall/Perez</t>
+  </si>
+  <si>
+    <t>Give Me Everything</t>
+  </si>
+  <si>
+    <t>1267353</t>
+  </si>
+  <si>
+    <t>pitbull</t>
+  </si>
+  <si>
+    <t>50625.0</t>
+  </si>
+  <si>
+    <t>pitbull feat. ne-yo, afrojack &amp; nayer</t>
+  </si>
+  <si>
+    <t>Rigo/Mac</t>
+  </si>
+  <si>
+    <t>Gotta Be You</t>
+  </si>
+  <si>
+    <t>1261098</t>
+  </si>
+  <si>
+    <t>one direction</t>
+  </si>
+  <si>
+    <t>Kotecha/Crichlow/Wilkins/Manahan</t>
+  </si>
+  <si>
+    <t>Gotta Go</t>
+  </si>
+  <si>
+    <t>1162894</t>
+  </si>
+  <si>
+    <t>alexandra burke</t>
+  </si>
+  <si>
+    <t>Stephens/Preston/Alexander/Smith/Eliot</t>
+  </si>
+  <si>
+    <t>Heart Skips A Beat</t>
+  </si>
+  <si>
+    <t>1259083</t>
+  </si>
+  <si>
+    <t>olly murs</t>
+  </si>
+  <si>
+    <t>12125.0</t>
+  </si>
+  <si>
+    <t>Farian/Jay</t>
+  </si>
+  <si>
+    <t>Hooray, Hooray, It'S A Holi-Holiday</t>
+  </si>
+  <si>
+    <t>238004</t>
+  </si>
+  <si>
+    <t>Eriksen/Jackson/Hermansen</t>
+  </si>
+  <si>
+    <t>How Do I Breathe</t>
+  </si>
+  <si>
+    <t>668139</t>
+  </si>
+  <si>
+    <t>mario</t>
+  </si>
+  <si>
+    <t>12200.0</t>
+  </si>
+  <si>
+    <t>Knowles/Mack/Ellis/Owens/Gordon</t>
+  </si>
+  <si>
+    <t>I Know</t>
+  </si>
+  <si>
+    <t>547561</t>
+  </si>
+  <si>
+    <t>beyonce</t>
+  </si>
+  <si>
+    <t>Hale/Momrelle/Adu</t>
+  </si>
+  <si>
+    <t>I Would Never Have Guessed</t>
+  </si>
+  <si>
+    <t>1258568</t>
+  </si>
+  <si>
+    <t>sade</t>
+  </si>
+  <si>
+    <t>Walker/Haggard</t>
+  </si>
+  <si>
+    <t>Jingle Bells</t>
+  </si>
+  <si>
+    <t>82356</t>
+  </si>
+  <si>
+    <t>elvis presley</t>
+  </si>
+  <si>
+    <t>Gorelick/Traditional/Afanasieff</t>
+  </si>
+  <si>
+    <t>708464</t>
+  </si>
+  <si>
+    <t>kenny g</t>
+  </si>
+  <si>
+    <t>Traditional/Bagdasarian</t>
+  </si>
+  <si>
+    <t>516941</t>
+  </si>
+  <si>
+    <t>spongebob squarepants</t>
+  </si>
+  <si>
+    <t>Jonsin/Knighten/Raymond/Ross/Bellinger</t>
+  </si>
+  <si>
+    <t>Lemme See</t>
+  </si>
+  <si>
+    <t>1361270</t>
+  </si>
+  <si>
+    <t>usher</t>
+  </si>
+  <si>
+    <t>1500.0</t>
+  </si>
+  <si>
+    <t>Sampson/Weekes</t>
+  </si>
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>187196</t>
+  </si>
+  <si>
+    <t>desree</t>
+  </si>
+  <si>
+    <t>Hale/Matthewman/Denman/Adu</t>
+  </si>
+  <si>
+    <t>Love Is Found</t>
+  </si>
+  <si>
+    <t>1258567</t>
+  </si>
+  <si>
+    <t>Farian/Jay/Reyam</t>
+  </si>
+  <si>
+    <t>Ma Baker</t>
+  </si>
+  <si>
+    <t>237986</t>
+  </si>
+  <si>
+    <t>Hajji/Khayat/Raymond/Hinshaw Jr.</t>
+  </si>
+  <si>
+    <t>More (RedOne Jimmy Joker Remix)</t>
+  </si>
+  <si>
+    <t>1174147</t>
+  </si>
+  <si>
+    <t>Carey/Afanasieff</t>
+  </si>
+  <si>
+    <t>My All</t>
+  </si>
+  <si>
+    <t>208896</t>
+  </si>
+  <si>
+    <t>"carey, mariah"</t>
+  </si>
+  <si>
+    <t>70250.0</t>
+  </si>
+  <si>
+    <t>Jean/Duplessis</t>
+  </si>
+  <si>
+    <t>My Love Is Your Love</t>
+  </si>
+  <si>
+    <t>243887</t>
+  </si>
+  <si>
+    <t>"houston,whitney"</t>
+  </si>
+  <si>
+    <t>4500.0</t>
+  </si>
+  <si>
+    <t>Santalla/Ben Abdelouahid/Vargas/Kalimi/Perez</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>1267354</t>
+  </si>
+  <si>
+    <t>10625.0</t>
+  </si>
+  <si>
+    <t>Bello</t>
+  </si>
+  <si>
+    <t>Rabiosa</t>
+  </si>
+  <si>
+    <t>1267374</t>
+  </si>
+  <si>
+    <t>3375.0</t>
+  </si>
+  <si>
+    <t>Hajji/Jannusi/Khayat/Azizi/Anthony/Thornfeldt/Perez</t>
+  </si>
+  <si>
+    <t>Rain Over Me</t>
+  </si>
+  <si>
+    <t>1306262</t>
+  </si>
+  <si>
+    <t>pitbull feat. marc anthony</t>
+  </si>
+  <si>
+    <t>279000.0</t>
+  </si>
+  <si>
+    <t>Rasputin</t>
+  </si>
+  <si>
+    <t>237989</t>
+  </si>
+  <si>
+    <t>Daniels/Knowles/Luckett/Roberson/Jerkins III/Jerkins/Rowland</t>
+  </si>
+  <si>
+    <t>Say My Name</t>
+  </si>
+  <si>
+    <t>288939</t>
+  </si>
+  <si>
+    <t>destinys child</t>
+  </si>
+  <si>
+    <t>Myrick/Jones/Broady</t>
+  </si>
+  <si>
+    <t>Small World</t>
+  </si>
+  <si>
+    <t>759624</t>
+  </si>
+  <si>
+    <t>nas</t>
+  </si>
+  <si>
+    <t>Mostyn/Perry/Augelo-Cook</t>
+  </si>
+  <si>
+    <t>Superwoman</t>
+  </si>
+  <si>
+    <t>782520</t>
+  </si>
+  <si>
+    <t>alicia keys</t>
+  </si>
+  <si>
+    <t>Dent/Knowles/Knowles</t>
+  </si>
+  <si>
+    <t>Survivor</t>
+  </si>
+  <si>
+    <t>298825</t>
+  </si>
+  <si>
+    <t>Jones/Hayes</t>
+  </si>
+  <si>
+    <t>Truly Madly Deeply</t>
+  </si>
+  <si>
+    <t>1128252</t>
+  </si>
+  <si>
+    <t>savage garden</t>
+  </si>
+  <si>
+    <t>115625.0</t>
+  </si>
+  <si>
+    <t>Perry/Moore</t>
+  </si>
+  <si>
+    <t>Try Too Hard</t>
+  </si>
+  <si>
+    <t>763367</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>83000.0</t>
+  </si>
+  <si>
+    <t>Raymond/Bellinger/Shebib</t>
+  </si>
+  <si>
+    <t>What Happened 2 U</t>
+  </si>
+  <si>
+    <t>1353925</t>
+  </si>
+  <si>
+    <t>Deluna/Khayat/Sewell-Ulepic/Bryan</t>
+  </si>
+  <si>
+    <t>Whine Up</t>
+  </si>
+  <si>
+    <t>731528</t>
+  </si>
+  <si>
+    <t>kat deluna, elephant man</t>
+  </si>
+  <si>
+    <t>Clark/Hatch</t>
+  </si>
+  <si>
+    <t>You'Re The One</t>
+  </si>
+  <si>
+    <t>222355</t>
+  </si>
+  <si>
+    <t>bob marley and the wailers</t>
   </si>
 </sst>
 </file>
@@ -1838,13 +5144,13 @@
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="9" t="s">
@@ -1858,13 +5164,13 @@
         <v>46</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="P6" s="12" t="s">
         <v>49</v>
@@ -1874,7 +5180,7 @@
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1882,181 +5188,5837 @@
         <v>39</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="O7" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
+      <c r="U7" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="O8" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
+      <c r="U8" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="C9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="U9" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="C10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="K10" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="O10" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
+      <c r="U10" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="C11" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="K11" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="O11" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="U11" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="D12" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="14"/>
+        <v>83</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O12" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
+      <c r="U12" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="C13" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="14" t="s">
         <v>40</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="O13" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
+      <c r="U13" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" t="s">
+        <v>97</v>
+      </c>
+      <c r="O14" t="s">
+        <v>96</v>
+      </c>
+      <c r="U14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" t="s">
+        <v>102</v>
+      </c>
+      <c r="O15" t="s">
+        <v>101</v>
+      </c>
+      <c r="U15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" t="s">
+        <v>86</v>
+      </c>
+      <c r="O16" t="s">
+        <v>106</v>
+      </c>
+      <c r="U16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" t="s">
+        <v>111</v>
+      </c>
+      <c r="O17" t="s">
+        <v>110</v>
+      </c>
+      <c r="U17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" t="s">
+        <v>116</v>
+      </c>
+      <c r="O18" t="s">
+        <v>115</v>
+      </c>
+      <c r="U18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" t="s">
+        <v>119</v>
+      </c>
+      <c r="O19" t="s">
+        <v>85</v>
+      </c>
+      <c r="U19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" t="s">
+        <v>124</v>
+      </c>
+      <c r="O20" t="s">
+        <v>123</v>
+      </c>
+      <c r="U20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" t="s">
+        <v>129</v>
+      </c>
+      <c r="O21" t="s">
+        <v>128</v>
+      </c>
+      <c r="U21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>130</v>
+      </c>
+      <c r="K22" t="s">
+        <v>134</v>
+      </c>
+      <c r="O22" t="s">
+        <v>133</v>
+      </c>
+      <c r="U22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" t="s">
+        <v>139</v>
+      </c>
+      <c r="O23" t="s">
+        <v>138</v>
+      </c>
+      <c r="U23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" t="s">
+        <v>144</v>
+      </c>
+      <c r="O24" t="s">
+        <v>143</v>
+      </c>
+      <c r="U24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" t="s">
+        <v>149</v>
+      </c>
+      <c r="O25" t="s">
+        <v>148</v>
+      </c>
+      <c r="U25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" t="s">
+        <v>150</v>
+      </c>
+      <c r="K26" t="s">
+        <v>61</v>
+      </c>
+      <c r="O26" t="s">
+        <v>153</v>
+      </c>
+      <c r="U26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" t="s">
+        <v>154</v>
+      </c>
+      <c r="K27" t="s">
+        <v>158</v>
+      </c>
+      <c r="O27" t="s">
+        <v>157</v>
+      </c>
+      <c r="U27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" t="s">
+        <v>159</v>
+      </c>
+      <c r="K28" t="s">
+        <v>163</v>
+      </c>
+      <c r="O28" t="s">
+        <v>162</v>
+      </c>
+      <c r="U28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" t="s">
+        <v>164</v>
+      </c>
+      <c r="K29" t="s">
+        <v>168</v>
+      </c>
+      <c r="O29" t="s">
+        <v>167</v>
+      </c>
+      <c r="U29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" t="s">
+        <v>169</v>
+      </c>
+      <c r="K30" t="s">
+        <v>173</v>
+      </c>
+      <c r="O30" t="s">
+        <v>172</v>
+      </c>
+      <c r="U30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K31" t="s">
+        <v>176</v>
+      </c>
+      <c r="O31" t="s">
+        <v>106</v>
+      </c>
+      <c r="U31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" t="s">
+        <v>177</v>
+      </c>
+      <c r="K32" t="s">
+        <v>180</v>
+      </c>
+      <c r="O32" t="s">
+        <v>128</v>
+      </c>
+      <c r="U32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" t="s">
+        <v>181</v>
+      </c>
+      <c r="K33" t="s">
+        <v>185</v>
+      </c>
+      <c r="O33" t="s">
+        <v>184</v>
+      </c>
+      <c r="U33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D34" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" t="s">
+        <v>186</v>
+      </c>
+      <c r="K34" t="s">
+        <v>119</v>
+      </c>
+      <c r="O34" t="s">
+        <v>189</v>
+      </c>
+      <c r="U34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" t="s">
+        <v>190</v>
+      </c>
+      <c r="K35" t="s">
+        <v>134</v>
+      </c>
+      <c r="O35" t="s">
+        <v>193</v>
+      </c>
+      <c r="U35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" t="s">
+        <v>195</v>
+      </c>
+      <c r="E36" t="s">
+        <v>194</v>
+      </c>
+      <c r="K36" t="s">
+        <v>198</v>
+      </c>
+      <c r="O36" t="s">
+        <v>197</v>
+      </c>
+      <c r="U36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="s">
+        <v>201</v>
+      </c>
+      <c r="D37" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" t="s">
+        <v>199</v>
+      </c>
+      <c r="K37" t="s">
+        <v>203</v>
+      </c>
+      <c r="O37" t="s">
+        <v>202</v>
+      </c>
+      <c r="U37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D38" t="s">
+        <v>205</v>
+      </c>
+      <c r="E38" t="s">
+        <v>204</v>
+      </c>
+      <c r="K38" t="s">
+        <v>208</v>
+      </c>
+      <c r="O38" t="s">
+        <v>207</v>
+      </c>
+      <c r="U38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" t="s">
+        <v>209</v>
+      </c>
+      <c r="K39" t="s">
+        <v>213</v>
+      </c>
+      <c r="O39" t="s">
+        <v>212</v>
+      </c>
+      <c r="U39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" t="s">
+        <v>214</v>
+      </c>
+      <c r="K40" t="s">
+        <v>218</v>
+      </c>
+      <c r="O40" t="s">
+        <v>217</v>
+      </c>
+      <c r="U40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" t="s">
+        <v>219</v>
+      </c>
+      <c r="E41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K41" t="s">
+        <v>203</v>
+      </c>
+      <c r="O41" t="s">
+        <v>101</v>
+      </c>
+      <c r="U41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" t="s">
+        <v>221</v>
+      </c>
+      <c r="E42" t="s">
+        <v>194</v>
+      </c>
+      <c r="K42" t="s">
+        <v>223</v>
+      </c>
+      <c r="O42" t="s">
+        <v>197</v>
+      </c>
+      <c r="U42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="s">
+        <v>226</v>
+      </c>
+      <c r="D43" t="s">
+        <v>225</v>
+      </c>
+      <c r="E43" t="s">
+        <v>224</v>
+      </c>
+      <c r="K43" t="s">
+        <v>227</v>
+      </c>
+      <c r="O43" t="s">
+        <v>212</v>
+      </c>
+      <c r="U43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D44" t="s">
+        <v>229</v>
+      </c>
+      <c r="E44" t="s">
+        <v>228</v>
+      </c>
+      <c r="K44" t="s">
+        <v>232</v>
+      </c>
+      <c r="O44" t="s">
+        <v>231</v>
+      </c>
+      <c r="U44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" t="s">
+        <v>234</v>
+      </c>
+      <c r="E45" t="s">
+        <v>233</v>
+      </c>
+      <c r="K45" t="s">
+        <v>237</v>
+      </c>
+      <c r="O45" t="s">
+        <v>236</v>
+      </c>
+      <c r="U45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="s">
+        <v>240</v>
+      </c>
+      <c r="D46" t="s">
+        <v>239</v>
+      </c>
+      <c r="E46" t="s">
+        <v>238</v>
+      </c>
+      <c r="K46" t="s">
+        <v>134</v>
+      </c>
+      <c r="O46" t="s">
+        <v>241</v>
+      </c>
+      <c r="U46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="s">
+        <v>244</v>
+      </c>
+      <c r="D47" t="s">
+        <v>243</v>
+      </c>
+      <c r="E47" t="s">
+        <v>242</v>
+      </c>
+      <c r="K47" t="s">
+        <v>246</v>
+      </c>
+      <c r="O47" t="s">
+        <v>245</v>
+      </c>
+      <c r="U47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="s">
+        <v>249</v>
+      </c>
+      <c r="D48" t="s">
+        <v>248</v>
+      </c>
+      <c r="E48" t="s">
+        <v>247</v>
+      </c>
+      <c r="K48" t="s">
+        <v>251</v>
+      </c>
+      <c r="O48" t="s">
+        <v>250</v>
+      </c>
+      <c r="U48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="s">
+        <v>254</v>
+      </c>
+      <c r="D49" t="s">
+        <v>253</v>
+      </c>
+      <c r="E49" t="s">
+        <v>252</v>
+      </c>
+      <c r="K49" t="s">
+        <v>256</v>
+      </c>
+      <c r="O49" t="s">
+        <v>255</v>
+      </c>
+      <c r="U49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="s">
+        <v>259</v>
+      </c>
+      <c r="D50" t="s">
+        <v>258</v>
+      </c>
+      <c r="E50" t="s">
+        <v>257</v>
+      </c>
+      <c r="K50" t="s">
+        <v>246</v>
+      </c>
+      <c r="O50" t="s">
+        <v>260</v>
+      </c>
+      <c r="U50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" t="s">
+        <v>262</v>
+      </c>
+      <c r="E51" t="s">
+        <v>261</v>
+      </c>
+      <c r="K51" t="s">
+        <v>246</v>
+      </c>
+      <c r="O51" t="s">
+        <v>264</v>
+      </c>
+      <c r="U51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="s">
+        <v>267</v>
+      </c>
+      <c r="D52" t="s">
+        <v>266</v>
+      </c>
+      <c r="E52" t="s">
+        <v>265</v>
+      </c>
+      <c r="K52" t="s">
+        <v>268</v>
+      </c>
+      <c r="O52" t="s">
+        <v>115</v>
+      </c>
+      <c r="U52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="s">
+        <v>271</v>
+      </c>
+      <c r="D53" t="s">
+        <v>270</v>
+      </c>
+      <c r="E53" t="s">
+        <v>269</v>
+      </c>
+      <c r="K53" t="s">
+        <v>273</v>
+      </c>
+      <c r="O53" t="s">
+        <v>272</v>
+      </c>
+      <c r="U53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="s">
+        <v>276</v>
+      </c>
+      <c r="D54" t="s">
+        <v>275</v>
+      </c>
+      <c r="E54" t="s">
+        <v>274</v>
+      </c>
+      <c r="K54" t="s">
+        <v>256</v>
+      </c>
+      <c r="O54" t="s">
+        <v>277</v>
+      </c>
+      <c r="U54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="s">
+        <v>280</v>
+      </c>
+      <c r="D55" t="s">
+        <v>279</v>
+      </c>
+      <c r="E55" t="s">
+        <v>278</v>
+      </c>
+      <c r="K55" t="s">
+        <v>282</v>
+      </c>
+      <c r="O55" t="s">
+        <v>281</v>
+      </c>
+      <c r="U55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="s">
+        <v>285</v>
+      </c>
+      <c r="D56" t="s">
+        <v>284</v>
+      </c>
+      <c r="E56" t="s">
+        <v>283</v>
+      </c>
+      <c r="K56" t="s">
+        <v>287</v>
+      </c>
+      <c r="O56" t="s">
+        <v>286</v>
+      </c>
+      <c r="U56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="s">
+        <v>290</v>
+      </c>
+      <c r="D57" t="s">
+        <v>289</v>
+      </c>
+      <c r="E57" t="s">
+        <v>288</v>
+      </c>
+      <c r="K57" t="s">
+        <v>61</v>
+      </c>
+      <c r="O57" t="s">
+        <v>291</v>
+      </c>
+      <c r="U57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="s">
+        <v>294</v>
+      </c>
+      <c r="D58" t="s">
+        <v>293</v>
+      </c>
+      <c r="E58" t="s">
+        <v>292</v>
+      </c>
+      <c r="K58" t="s">
+        <v>296</v>
+      </c>
+      <c r="O58" t="s">
+        <v>295</v>
+      </c>
+      <c r="U58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="s">
+        <v>299</v>
+      </c>
+      <c r="D59" t="s">
+        <v>298</v>
+      </c>
+      <c r="E59" t="s">
+        <v>297</v>
+      </c>
+      <c r="K59" t="s">
+        <v>246</v>
+      </c>
+      <c r="O59" t="s">
+        <v>300</v>
+      </c>
+      <c r="U59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="s">
+        <v>303</v>
+      </c>
+      <c r="D60" t="s">
+        <v>302</v>
+      </c>
+      <c r="E60" t="s">
+        <v>301</v>
+      </c>
+      <c r="K60" t="s">
+        <v>305</v>
+      </c>
+      <c r="O60" t="s">
+        <v>304</v>
+      </c>
+      <c r="U60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="s">
+        <v>308</v>
+      </c>
+      <c r="D61" t="s">
+        <v>307</v>
+      </c>
+      <c r="E61" t="s">
+        <v>306</v>
+      </c>
+      <c r="K61" t="s">
+        <v>310</v>
+      </c>
+      <c r="O61" t="s">
+        <v>309</v>
+      </c>
+      <c r="U61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="s">
+        <v>313</v>
+      </c>
+      <c r="D62" t="s">
+        <v>312</v>
+      </c>
+      <c r="E62" t="s">
+        <v>311</v>
+      </c>
+      <c r="K62" t="s">
+        <v>81</v>
+      </c>
+      <c r="O62" t="s">
+        <v>314</v>
+      </c>
+      <c r="U62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="s">
+        <v>317</v>
+      </c>
+      <c r="D63" t="s">
+        <v>316</v>
+      </c>
+      <c r="E63" t="s">
+        <v>315</v>
+      </c>
+      <c r="K63" t="s">
+        <v>319</v>
+      </c>
+      <c r="O63" t="s">
+        <v>318</v>
+      </c>
+      <c r="U63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="s">
+        <v>322</v>
+      </c>
+      <c r="D64" t="s">
+        <v>321</v>
+      </c>
+      <c r="E64" t="s">
+        <v>320</v>
+      </c>
+      <c r="K64" t="s">
+        <v>324</v>
+      </c>
+      <c r="O64" t="s">
+        <v>323</v>
+      </c>
+      <c r="U64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="s">
+        <v>327</v>
+      </c>
+      <c r="D65" t="s">
+        <v>326</v>
+      </c>
+      <c r="E65" t="s">
+        <v>325</v>
+      </c>
+      <c r="K65" t="s">
+        <v>329</v>
+      </c>
+      <c r="O65" t="s">
+        <v>328</v>
+      </c>
+      <c r="U65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="s">
+        <v>332</v>
+      </c>
+      <c r="D66" t="s">
+        <v>331</v>
+      </c>
+      <c r="E66" t="s">
+        <v>330</v>
+      </c>
+      <c r="K66" t="s">
+        <v>334</v>
+      </c>
+      <c r="O66" t="s">
+        <v>333</v>
+      </c>
+      <c r="U66" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="s">
+        <v>337</v>
+      </c>
+      <c r="D67" t="s">
+        <v>336</v>
+      </c>
+      <c r="E67" t="s">
+        <v>335</v>
+      </c>
+      <c r="K67" t="s">
+        <v>246</v>
+      </c>
+      <c r="O67" t="s">
+        <v>338</v>
+      </c>
+      <c r="U67" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="s">
+        <v>341</v>
+      </c>
+      <c r="D68" t="s">
+        <v>340</v>
+      </c>
+      <c r="E68" t="s">
+        <v>339</v>
+      </c>
+      <c r="K68" t="s">
+        <v>134</v>
+      </c>
+      <c r="O68" t="s">
+        <v>339</v>
+      </c>
+      <c r="U68" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="s">
+        <v>344</v>
+      </c>
+      <c r="D69" t="s">
+        <v>343</v>
+      </c>
+      <c r="E69" t="s">
+        <v>342</v>
+      </c>
+      <c r="K69" t="s">
+        <v>345</v>
+      </c>
+      <c r="O69" t="s">
+        <v>342</v>
+      </c>
+      <c r="U69" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="s">
+        <v>348</v>
+      </c>
+      <c r="D70" t="s">
+        <v>347</v>
+      </c>
+      <c r="E70" t="s">
+        <v>346</v>
+      </c>
+      <c r="K70" t="s">
+        <v>246</v>
+      </c>
+      <c r="O70" t="s">
+        <v>349</v>
+      </c>
+      <c r="U70" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="s">
+        <v>352</v>
+      </c>
+      <c r="D71" t="s">
+        <v>351</v>
+      </c>
+      <c r="E71" t="s">
+        <v>350</v>
+      </c>
+      <c r="K71" t="s">
+        <v>246</v>
+      </c>
+      <c r="O71" t="s">
+        <v>353</v>
+      </c>
+      <c r="U71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="s">
+        <v>356</v>
+      </c>
+      <c r="D72" t="s">
+        <v>355</v>
+      </c>
+      <c r="E72" t="s">
+        <v>354</v>
+      </c>
+      <c r="K72" t="s">
+        <v>310</v>
+      </c>
+      <c r="O72" t="s">
+        <v>357</v>
+      </c>
+      <c r="U72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="s">
+        <v>360</v>
+      </c>
+      <c r="D73" t="s">
+        <v>359</v>
+      </c>
+      <c r="E73" t="s">
+        <v>358</v>
+      </c>
+      <c r="K73" t="s">
+        <v>362</v>
+      </c>
+      <c r="O73" t="s">
+        <v>361</v>
+      </c>
+      <c r="U73" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="s">
+        <v>364</v>
+      </c>
+      <c r="D74" t="s">
+        <v>363</v>
+      </c>
+      <c r="E74" t="s">
+        <v>339</v>
+      </c>
+      <c r="K74" t="s">
+        <v>246</v>
+      </c>
+      <c r="O74" t="s">
+        <v>339</v>
+      </c>
+      <c r="U74" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="s">
+        <v>367</v>
+      </c>
+      <c r="D75" t="s">
+        <v>366</v>
+      </c>
+      <c r="E75" t="s">
+        <v>365</v>
+      </c>
+      <c r="K75" t="s">
+        <v>246</v>
+      </c>
+      <c r="O75" t="s">
+        <v>368</v>
+      </c>
+      <c r="U75" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="s">
+        <v>371</v>
+      </c>
+      <c r="D76" t="s">
+        <v>370</v>
+      </c>
+      <c r="E76" t="s">
+        <v>369</v>
+      </c>
+      <c r="K76" t="s">
+        <v>373</v>
+      </c>
+      <c r="O76" t="s">
+        <v>372</v>
+      </c>
+      <c r="U76" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="s">
+        <v>376</v>
+      </c>
+      <c r="D77" t="s">
+        <v>375</v>
+      </c>
+      <c r="E77" t="s">
+        <v>374</v>
+      </c>
+      <c r="K77" t="s">
+        <v>158</v>
+      </c>
+      <c r="O77" t="s">
+        <v>377</v>
+      </c>
+      <c r="U77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="s">
+        <v>379</v>
+      </c>
+      <c r="D78" t="s">
+        <v>378</v>
+      </c>
+      <c r="E78" t="s">
+        <v>339</v>
+      </c>
+      <c r="K78" t="s">
+        <v>134</v>
+      </c>
+      <c r="O78" t="s">
+        <v>339</v>
+      </c>
+      <c r="U78" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="s">
+        <v>381</v>
+      </c>
+      <c r="D79" t="s">
+        <v>380</v>
+      </c>
+      <c r="E79" t="s">
+        <v>335</v>
+      </c>
+      <c r="K79" t="s">
+        <v>158</v>
+      </c>
+      <c r="O79" t="s">
+        <v>382</v>
+      </c>
+      <c r="U79" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="s">
+        <v>385</v>
+      </c>
+      <c r="D80" t="s">
+        <v>384</v>
+      </c>
+      <c r="E80" t="s">
+        <v>383</v>
+      </c>
+      <c r="K80" t="s">
+        <v>387</v>
+      </c>
+      <c r="O80" t="s">
+        <v>386</v>
+      </c>
+      <c r="U80" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="s">
+        <v>389</v>
+      </c>
+      <c r="D81" t="s">
+        <v>388</v>
+      </c>
+      <c r="E81" t="s">
+        <v>339</v>
+      </c>
+      <c r="K81" t="s">
+        <v>390</v>
+      </c>
+      <c r="O81" t="s">
+        <v>339</v>
+      </c>
+      <c r="U81" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="s">
+        <v>393</v>
+      </c>
+      <c r="D82" t="s">
+        <v>392</v>
+      </c>
+      <c r="E82" t="s">
+        <v>391</v>
+      </c>
+      <c r="K82" t="s">
+        <v>173</v>
+      </c>
+      <c r="O82" t="s">
+        <v>377</v>
+      </c>
+      <c r="U82" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="s">
+        <v>396</v>
+      </c>
+      <c r="D83" t="s">
+        <v>395</v>
+      </c>
+      <c r="E83" t="s">
+        <v>394</v>
+      </c>
+      <c r="K83" t="s">
+        <v>398</v>
+      </c>
+      <c r="O83" t="s">
+        <v>397</v>
+      </c>
+      <c r="U83" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="s">
+        <v>400</v>
+      </c>
+      <c r="D84" t="s">
+        <v>399</v>
+      </c>
+      <c r="E84" t="s">
+        <v>383</v>
+      </c>
+      <c r="K84" t="s">
+        <v>91</v>
+      </c>
+      <c r="O84" t="s">
+        <v>386</v>
+      </c>
+      <c r="U84" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="s">
+        <v>403</v>
+      </c>
+      <c r="D85" t="s">
+        <v>402</v>
+      </c>
+      <c r="E85" t="s">
+        <v>401</v>
+      </c>
+      <c r="K85" t="s">
+        <v>405</v>
+      </c>
+      <c r="O85" t="s">
+        <v>404</v>
+      </c>
+      <c r="U85" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="s">
+        <v>408</v>
+      </c>
+      <c r="D86" t="s">
+        <v>407</v>
+      </c>
+      <c r="E86" t="s">
+        <v>406</v>
+      </c>
+      <c r="K86" t="s">
+        <v>410</v>
+      </c>
+      <c r="O86" t="s">
+        <v>409</v>
+      </c>
+      <c r="U86" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="s">
+        <v>413</v>
+      </c>
+      <c r="D87" t="s">
+        <v>412</v>
+      </c>
+      <c r="E87" t="s">
+        <v>411</v>
+      </c>
+      <c r="K87" t="s">
+        <v>415</v>
+      </c>
+      <c r="O87" t="s">
+        <v>414</v>
+      </c>
+      <c r="U87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="s">
+        <v>418</v>
+      </c>
+      <c r="D88" t="s">
+        <v>417</v>
+      </c>
+      <c r="E88" t="s">
+        <v>416</v>
+      </c>
+      <c r="K88" t="s">
+        <v>251</v>
+      </c>
+      <c r="O88" t="s">
+        <v>419</v>
+      </c>
+      <c r="U88" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="s">
+        <v>422</v>
+      </c>
+      <c r="D89" t="s">
+        <v>421</v>
+      </c>
+      <c r="E89" t="s">
+        <v>420</v>
+      </c>
+      <c r="K89" t="s">
+        <v>424</v>
+      </c>
+      <c r="O89" t="s">
+        <v>423</v>
+      </c>
+      <c r="U89" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="s">
+        <v>427</v>
+      </c>
+      <c r="D90" t="s">
+        <v>426</v>
+      </c>
+      <c r="E90" t="s">
+        <v>425</v>
+      </c>
+      <c r="K90" t="s">
+        <v>429</v>
+      </c>
+      <c r="O90" t="s">
+        <v>428</v>
+      </c>
+      <c r="U90" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="s">
+        <v>432</v>
+      </c>
+      <c r="D91" t="s">
+        <v>431</v>
+      </c>
+      <c r="E91" t="s">
+        <v>430</v>
+      </c>
+      <c r="K91" t="s">
+        <v>434</v>
+      </c>
+      <c r="O91" t="s">
+        <v>433</v>
+      </c>
+      <c r="U91" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="s">
+        <v>437</v>
+      </c>
+      <c r="D92" t="s">
+        <v>436</v>
+      </c>
+      <c r="E92" t="s">
+        <v>435</v>
+      </c>
+      <c r="K92" t="s">
+        <v>410</v>
+      </c>
+      <c r="O92" t="s">
+        <v>438</v>
+      </c>
+      <c r="U92" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="s">
+        <v>441</v>
+      </c>
+      <c r="D93" t="s">
+        <v>440</v>
+      </c>
+      <c r="E93" t="s">
+        <v>439</v>
+      </c>
+      <c r="K93" t="s">
+        <v>158</v>
+      </c>
+      <c r="O93" t="s">
+        <v>442</v>
+      </c>
+      <c r="U93" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="s">
+        <v>445</v>
+      </c>
+      <c r="D94" t="s">
+        <v>444</v>
+      </c>
+      <c r="E94" t="s">
+        <v>443</v>
+      </c>
+      <c r="K94" t="s">
+        <v>251</v>
+      </c>
+      <c r="O94" t="s">
+        <v>446</v>
+      </c>
+      <c r="U94" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="s">
+        <v>449</v>
+      </c>
+      <c r="D95" t="s">
+        <v>448</v>
+      </c>
+      <c r="E95" t="s">
+        <v>447</v>
+      </c>
+      <c r="K95" t="s">
+        <v>451</v>
+      </c>
+      <c r="O95" t="s">
+        <v>450</v>
+      </c>
+      <c r="U95" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="C96" t="s">
+        <v>454</v>
+      </c>
+      <c r="D96" t="s">
+        <v>453</v>
+      </c>
+      <c r="E96" t="s">
+        <v>452</v>
+      </c>
+      <c r="K96" t="s">
+        <v>456</v>
+      </c>
+      <c r="O96" t="s">
+        <v>455</v>
+      </c>
+      <c r="U96" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="s">
+        <v>459</v>
+      </c>
+      <c r="D97" t="s">
+        <v>458</v>
+      </c>
+      <c r="E97" t="s">
+        <v>457</v>
+      </c>
+      <c r="K97" t="s">
+        <v>246</v>
+      </c>
+      <c r="O97" t="s">
+        <v>457</v>
+      </c>
+      <c r="U97" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="C98" t="s">
+        <v>462</v>
+      </c>
+      <c r="D98" t="s">
+        <v>461</v>
+      </c>
+      <c r="E98" t="s">
+        <v>460</v>
+      </c>
+      <c r="K98" t="s">
+        <v>464</v>
+      </c>
+      <c r="O98" t="s">
+        <v>463</v>
+      </c>
+      <c r="U98" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" t="s">
+        <v>467</v>
+      </c>
+      <c r="D99" t="s">
+        <v>466</v>
+      </c>
+      <c r="E99" t="s">
+        <v>465</v>
+      </c>
+      <c r="K99" t="s">
+        <v>469</v>
+      </c>
+      <c r="O99" t="s">
+        <v>468</v>
+      </c>
+      <c r="U99" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="C100" t="s">
+        <v>472</v>
+      </c>
+      <c r="D100" t="s">
+        <v>471</v>
+      </c>
+      <c r="E100" t="s">
+        <v>470</v>
+      </c>
+      <c r="K100" t="s">
+        <v>134</v>
+      </c>
+      <c r="O100" t="s">
+        <v>473</v>
+      </c>
+      <c r="U100" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" t="s">
+        <v>475</v>
+      </c>
+      <c r="D101" t="s">
+        <v>474</v>
+      </c>
+      <c r="E101" t="s">
+        <v>460</v>
+      </c>
+      <c r="K101" t="s">
+        <v>119</v>
+      </c>
+      <c r="O101" t="s">
+        <v>463</v>
+      </c>
+      <c r="U101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="C102" t="s">
+        <v>478</v>
+      </c>
+      <c r="D102" t="s">
+        <v>477</v>
+      </c>
+      <c r="E102" t="s">
+        <v>476</v>
+      </c>
+      <c r="K102" t="s">
+        <v>480</v>
+      </c>
+      <c r="O102" t="s">
+        <v>479</v>
+      </c>
+      <c r="U102" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="C103" t="s">
+        <v>483</v>
+      </c>
+      <c r="D103" t="s">
+        <v>482</v>
+      </c>
+      <c r="E103" t="s">
+        <v>481</v>
+      </c>
+      <c r="K103" t="s">
+        <v>158</v>
+      </c>
+      <c r="O103" t="s">
+        <v>484</v>
+      </c>
+      <c r="U103" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="C104" t="s">
+        <v>487</v>
+      </c>
+      <c r="D104" t="s">
+        <v>486</v>
+      </c>
+      <c r="E104" t="s">
+        <v>485</v>
+      </c>
+      <c r="K104" t="s">
+        <v>489</v>
+      </c>
+      <c r="O104" t="s">
+        <v>488</v>
+      </c>
+      <c r="U104" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" t="s">
+        <v>491</v>
+      </c>
+      <c r="D105" t="s">
+        <v>490</v>
+      </c>
+      <c r="E105" t="s">
+        <v>460</v>
+      </c>
+      <c r="K105" t="s">
+        <v>492</v>
+      </c>
+      <c r="O105" t="s">
+        <v>463</v>
+      </c>
+      <c r="U105" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106" t="s">
+        <v>495</v>
+      </c>
+      <c r="D106" t="s">
+        <v>494</v>
+      </c>
+      <c r="E106" t="s">
+        <v>493</v>
+      </c>
+      <c r="K106" t="s">
+        <v>134</v>
+      </c>
+      <c r="O106" t="s">
+        <v>496</v>
+      </c>
+      <c r="U106" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="C107" t="s">
+        <v>499</v>
+      </c>
+      <c r="D107" t="s">
+        <v>498</v>
+      </c>
+      <c r="E107" t="s">
+        <v>497</v>
+      </c>
+      <c r="K107" t="s">
+        <v>305</v>
+      </c>
+      <c r="O107" t="s">
+        <v>500</v>
+      </c>
+      <c r="U107" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="C108" t="s">
+        <v>503</v>
+      </c>
+      <c r="D108" t="s">
+        <v>502</v>
+      </c>
+      <c r="E108" t="s">
+        <v>501</v>
+      </c>
+      <c r="K108" t="s">
+        <v>246</v>
+      </c>
+      <c r="O108" t="s">
+        <v>504</v>
+      </c>
+      <c r="U108" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="C109" t="s">
+        <v>507</v>
+      </c>
+      <c r="D109" t="s">
+        <v>506</v>
+      </c>
+      <c r="E109" t="s">
+        <v>505</v>
+      </c>
+      <c r="K109" t="s">
+        <v>134</v>
+      </c>
+      <c r="O109" t="s">
+        <v>508</v>
+      </c>
+      <c r="U109" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="C110" t="s">
+        <v>511</v>
+      </c>
+      <c r="D110" t="s">
+        <v>510</v>
+      </c>
+      <c r="E110" t="s">
+        <v>509</v>
+      </c>
+      <c r="K110" t="s">
+        <v>513</v>
+      </c>
+      <c r="O110" t="s">
+        <v>512</v>
+      </c>
+      <c r="U110" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="C111" t="s">
+        <v>516</v>
+      </c>
+      <c r="D111" t="s">
+        <v>515</v>
+      </c>
+      <c r="E111" t="s">
+        <v>514</v>
+      </c>
+      <c r="K111" t="s">
+        <v>518</v>
+      </c>
+      <c r="O111" t="s">
+        <v>517</v>
+      </c>
+      <c r="U111" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="C112" t="s">
+        <v>521</v>
+      </c>
+      <c r="D112" t="s">
+        <v>520</v>
+      </c>
+      <c r="E112" t="s">
+        <v>519</v>
+      </c>
+      <c r="K112" t="s">
+        <v>97</v>
+      </c>
+      <c r="O112" t="s">
+        <v>522</v>
+      </c>
+      <c r="U112" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="C113" t="s">
+        <v>525</v>
+      </c>
+      <c r="D113" t="s">
+        <v>524</v>
+      </c>
+      <c r="E113" t="s">
+        <v>523</v>
+      </c>
+      <c r="K113" t="s">
+        <v>246</v>
+      </c>
+      <c r="O113" t="s">
+        <v>526</v>
+      </c>
+      <c r="U113" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="C114" t="s">
+        <v>529</v>
+      </c>
+      <c r="D114" t="s">
+        <v>528</v>
+      </c>
+      <c r="E114" t="s">
+        <v>527</v>
+      </c>
+      <c r="K114" t="s">
+        <v>531</v>
+      </c>
+      <c r="O114" t="s">
+        <v>530</v>
+      </c>
+      <c r="U114" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="C115" t="s">
+        <v>534</v>
+      </c>
+      <c r="D115" t="s">
+        <v>533</v>
+      </c>
+      <c r="E115" t="s">
+        <v>532</v>
+      </c>
+      <c r="K115" t="s">
+        <v>246</v>
+      </c>
+      <c r="O115" t="s">
+        <v>535</v>
+      </c>
+      <c r="U115" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="C116" t="s">
+        <v>538</v>
+      </c>
+      <c r="D116" t="s">
+        <v>537</v>
+      </c>
+      <c r="E116" t="s">
+        <v>536</v>
+      </c>
+      <c r="K116" t="s">
+        <v>246</v>
+      </c>
+      <c r="O116" t="s">
+        <v>539</v>
+      </c>
+      <c r="U116" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="C117" t="s">
+        <v>542</v>
+      </c>
+      <c r="D117" t="s">
+        <v>541</v>
+      </c>
+      <c r="E117" t="s">
+        <v>540</v>
+      </c>
+      <c r="K117" t="s">
+        <v>480</v>
+      </c>
+      <c r="O117" t="s">
+        <v>543</v>
+      </c>
+      <c r="U117" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="C118" t="s">
+        <v>546</v>
+      </c>
+      <c r="D118" t="s">
+        <v>545</v>
+      </c>
+      <c r="E118" t="s">
+        <v>544</v>
+      </c>
+      <c r="K118" t="s">
+        <v>548</v>
+      </c>
+      <c r="O118" t="s">
+        <v>547</v>
+      </c>
+      <c r="U118" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="C119" t="s">
+        <v>551</v>
+      </c>
+      <c r="D119" t="s">
+        <v>550</v>
+      </c>
+      <c r="E119" t="s">
+        <v>549</v>
+      </c>
+      <c r="K119" t="s">
+        <v>158</v>
+      </c>
+      <c r="O119" t="s">
+        <v>552</v>
+      </c>
+      <c r="U119" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="C120" t="s">
+        <v>555</v>
+      </c>
+      <c r="D120" t="s">
+        <v>554</v>
+      </c>
+      <c r="E120" t="s">
+        <v>553</v>
+      </c>
+      <c r="K120" t="s">
+        <v>158</v>
+      </c>
+      <c r="O120" t="s">
+        <v>556</v>
+      </c>
+      <c r="U120" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="C121" t="s">
+        <v>558</v>
+      </c>
+      <c r="D121" t="s">
+        <v>557</v>
+      </c>
+      <c r="E121" t="s">
+        <v>540</v>
+      </c>
+      <c r="K121" t="s">
+        <v>158</v>
+      </c>
+      <c r="O121" t="s">
+        <v>559</v>
+      </c>
+      <c r="U121" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="C122" t="s">
+        <v>562</v>
+      </c>
+      <c r="D122" t="s">
+        <v>561</v>
+      </c>
+      <c r="E122" t="s">
+        <v>560</v>
+      </c>
+      <c r="K122" t="s">
+        <v>91</v>
+      </c>
+      <c r="O122" t="s">
+        <v>563</v>
+      </c>
+      <c r="U122" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="C123" t="s">
+        <v>565</v>
+      </c>
+      <c r="D123" t="s">
+        <v>564</v>
+      </c>
+      <c r="E123" t="s">
+        <v>540</v>
+      </c>
+      <c r="K123" t="s">
+        <v>246</v>
+      </c>
+      <c r="O123" t="s">
+        <v>559</v>
+      </c>
+      <c r="U123" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="C124" t="s">
+        <v>568</v>
+      </c>
+      <c r="D124" t="s">
+        <v>567</v>
+      </c>
+      <c r="E124" t="s">
+        <v>566</v>
+      </c>
+      <c r="K124" t="s">
+        <v>246</v>
+      </c>
+      <c r="O124" t="s">
+        <v>569</v>
+      </c>
+      <c r="U124" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="C125" t="s">
+        <v>571</v>
+      </c>
+      <c r="D125" t="s">
+        <v>570</v>
+      </c>
+      <c r="E125" t="s">
+        <v>509</v>
+      </c>
+      <c r="K125" t="s">
+        <v>573</v>
+      </c>
+      <c r="O125" t="s">
+        <v>572</v>
+      </c>
+      <c r="U125" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="C126" t="s">
+        <v>576</v>
+      </c>
+      <c r="D126" t="s">
+        <v>575</v>
+      </c>
+      <c r="E126" t="s">
+        <v>574</v>
+      </c>
+      <c r="K126" t="s">
+        <v>246</v>
+      </c>
+      <c r="O126" t="s">
+        <v>577</v>
+      </c>
+      <c r="U126" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="C127" t="s">
+        <v>580</v>
+      </c>
+      <c r="D127" t="s">
+        <v>579</v>
+      </c>
+      <c r="E127" t="s">
+        <v>578</v>
+      </c>
+      <c r="K127" t="s">
+        <v>310</v>
+      </c>
+      <c r="O127" t="s">
+        <v>581</v>
+      </c>
+      <c r="U127" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="C128" t="s">
+        <v>584</v>
+      </c>
+      <c r="D128" t="s">
+        <v>583</v>
+      </c>
+      <c r="E128" t="s">
+        <v>582</v>
+      </c>
+      <c r="K128" t="s">
+        <v>246</v>
+      </c>
+      <c r="O128" t="s">
+        <v>585</v>
+      </c>
+      <c r="U128" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="C129" t="s">
+        <v>587</v>
+      </c>
+      <c r="D129" t="s">
+        <v>586</v>
+      </c>
+      <c r="E129" t="s">
+        <v>509</v>
+      </c>
+      <c r="K129" t="s">
+        <v>588</v>
+      </c>
+      <c r="O129" t="s">
+        <v>512</v>
+      </c>
+      <c r="U129" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="C130" t="s">
+        <v>591</v>
+      </c>
+      <c r="D130" t="s">
+        <v>590</v>
+      </c>
+      <c r="E130" t="s">
+        <v>589</v>
+      </c>
+      <c r="K130" t="s">
+        <v>246</v>
+      </c>
+      <c r="O130" t="s">
+        <v>592</v>
+      </c>
+      <c r="U130" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="C131" t="s">
+        <v>595</v>
+      </c>
+      <c r="D131" t="s">
+        <v>594</v>
+      </c>
+      <c r="E131" t="s">
+        <v>593</v>
+      </c>
+      <c r="K131" t="s">
+        <v>134</v>
+      </c>
+      <c r="O131" t="s">
+        <v>596</v>
+      </c>
+      <c r="U131" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="C132" t="s">
+        <v>598</v>
+      </c>
+      <c r="D132" t="s">
+        <v>597</v>
+      </c>
+      <c r="E132" t="s">
+        <v>509</v>
+      </c>
+      <c r="K132" t="s">
+        <v>599</v>
+      </c>
+      <c r="O132" t="s">
+        <v>512</v>
+      </c>
+      <c r="U132" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="C133" t="s">
+        <v>602</v>
+      </c>
+      <c r="D133" t="s">
+        <v>601</v>
+      </c>
+      <c r="E133" t="s">
+        <v>600</v>
+      </c>
+      <c r="K133" t="s">
+        <v>604</v>
+      </c>
+      <c r="O133" t="s">
+        <v>603</v>
+      </c>
+      <c r="U133" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="C134" t="s">
+        <v>607</v>
+      </c>
+      <c r="D134" t="s">
+        <v>606</v>
+      </c>
+      <c r="E134" t="s">
+        <v>605</v>
+      </c>
+      <c r="K134" t="s">
+        <v>246</v>
+      </c>
+      <c r="O134" t="s">
+        <v>608</v>
+      </c>
+      <c r="U134" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="C135" t="s">
+        <v>611</v>
+      </c>
+      <c r="D135" t="s">
+        <v>610</v>
+      </c>
+      <c r="E135" t="s">
+        <v>609</v>
+      </c>
+      <c r="K135" t="s">
+        <v>613</v>
+      </c>
+      <c r="O135" t="s">
+        <v>612</v>
+      </c>
+      <c r="U135" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="C136" t="s">
+        <v>616</v>
+      </c>
+      <c r="D136" t="s">
+        <v>615</v>
+      </c>
+      <c r="E136" t="s">
+        <v>614</v>
+      </c>
+      <c r="K136" t="s">
+        <v>91</v>
+      </c>
+      <c r="O136" t="s">
+        <v>617</v>
+      </c>
+      <c r="U136" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="C137" t="s">
+        <v>620</v>
+      </c>
+      <c r="D137" t="s">
+        <v>619</v>
+      </c>
+      <c r="E137" t="s">
+        <v>618</v>
+      </c>
+      <c r="K137" t="s">
+        <v>405</v>
+      </c>
+      <c r="O137" t="s">
+        <v>621</v>
+      </c>
+      <c r="U137" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="C138" t="s">
+        <v>624</v>
+      </c>
+      <c r="D138" t="s">
+        <v>623</v>
+      </c>
+      <c r="E138" t="s">
+        <v>622</v>
+      </c>
+      <c r="K138" t="s">
+        <v>91</v>
+      </c>
+      <c r="O138" t="s">
+        <v>625</v>
+      </c>
+      <c r="U138" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="C139" t="s">
+        <v>627</v>
+      </c>
+      <c r="D139" t="s">
+        <v>626</v>
+      </c>
+      <c r="E139" t="s">
+        <v>622</v>
+      </c>
+      <c r="K139" t="s">
+        <v>628</v>
+      </c>
+      <c r="O139" t="s">
+        <v>500</v>
+      </c>
+      <c r="U139" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="C140" t="s">
+        <v>631</v>
+      </c>
+      <c r="D140" t="s">
+        <v>630</v>
+      </c>
+      <c r="E140" t="s">
+        <v>629</v>
+      </c>
+      <c r="K140" t="s">
+        <v>633</v>
+      </c>
+      <c r="O140" t="s">
+        <v>632</v>
+      </c>
+      <c r="U140" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="C141" t="s">
+        <v>635</v>
+      </c>
+      <c r="D141" t="s">
+        <v>634</v>
+      </c>
+      <c r="E141" t="s">
+        <v>527</v>
+      </c>
+      <c r="K141" t="s">
+        <v>134</v>
+      </c>
+      <c r="O141" t="s">
+        <v>530</v>
+      </c>
+      <c r="U141" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="C142" t="s">
+        <v>638</v>
+      </c>
+      <c r="D142" t="s">
+        <v>637</v>
+      </c>
+      <c r="E142" t="s">
+        <v>636</v>
+      </c>
+      <c r="K142" t="s">
+        <v>91</v>
+      </c>
+      <c r="O142" t="s">
+        <v>639</v>
+      </c>
+      <c r="U142" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="C143" t="s">
+        <v>642</v>
+      </c>
+      <c r="D143" t="s">
+        <v>641</v>
+      </c>
+      <c r="E143" t="s">
+        <v>640</v>
+      </c>
+      <c r="K143" t="s">
+        <v>480</v>
+      </c>
+      <c r="O143" t="s">
+        <v>643</v>
+      </c>
+      <c r="U143" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="C144" t="s">
+        <v>645</v>
+      </c>
+      <c r="D144" t="s">
+        <v>644</v>
+      </c>
+      <c r="E144" t="s">
+        <v>574</v>
+      </c>
+      <c r="K144" t="s">
+        <v>246</v>
+      </c>
+      <c r="O144" t="s">
+        <v>255</v>
+      </c>
+      <c r="U144" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="C145" t="s">
+        <v>648</v>
+      </c>
+      <c r="D145" t="s">
+        <v>647</v>
+      </c>
+      <c r="E145" t="s">
+        <v>646</v>
+      </c>
+      <c r="K145" t="s">
+        <v>650</v>
+      </c>
+      <c r="O145" t="s">
+        <v>649</v>
+      </c>
+      <c r="U145" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="C146" t="s">
+        <v>653</v>
+      </c>
+      <c r="D146" t="s">
+        <v>652</v>
+      </c>
+      <c r="E146" t="s">
+        <v>651</v>
+      </c>
+      <c r="K146" t="s">
+        <v>480</v>
+      </c>
+      <c r="O146" t="s">
+        <v>654</v>
+      </c>
+      <c r="U146" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="C147" t="s">
+        <v>657</v>
+      </c>
+      <c r="D147" t="s">
+        <v>656</v>
+      </c>
+      <c r="E147" t="s">
+        <v>655</v>
+      </c>
+      <c r="K147" t="s">
+        <v>91</v>
+      </c>
+      <c r="O147" t="s">
+        <v>658</v>
+      </c>
+      <c r="U147" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="C148" t="s">
+        <v>661</v>
+      </c>
+      <c r="D148" t="s">
+        <v>660</v>
+      </c>
+      <c r="E148" t="s">
+        <v>659</v>
+      </c>
+      <c r="K148" t="s">
+        <v>158</v>
+      </c>
+      <c r="O148" t="s">
+        <v>662</v>
+      </c>
+      <c r="U148" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="C149" t="s">
+        <v>665</v>
+      </c>
+      <c r="D149" t="s">
+        <v>664</v>
+      </c>
+      <c r="E149" t="s">
+        <v>663</v>
+      </c>
+      <c r="K149" t="s">
+        <v>91</v>
+      </c>
+      <c r="O149" t="s">
+        <v>666</v>
+      </c>
+      <c r="U149" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="C150" t="s">
+        <v>668</v>
+      </c>
+      <c r="D150" t="s">
+        <v>667</v>
+      </c>
+      <c r="E150" t="s">
+        <v>593</v>
+      </c>
+      <c r="K150" t="s">
+        <v>91</v>
+      </c>
+      <c r="O150" t="s">
+        <v>669</v>
+      </c>
+      <c r="U150" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="C151" t="s">
+        <v>671</v>
+      </c>
+      <c r="D151" t="s">
+        <v>670</v>
+      </c>
+      <c r="E151" t="s">
+        <v>527</v>
+      </c>
+      <c r="K151" t="s">
+        <v>480</v>
+      </c>
+      <c r="O151" t="s">
+        <v>530</v>
+      </c>
+      <c r="U151" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="C152" t="s">
+        <v>673</v>
+      </c>
+      <c r="D152" t="s">
+        <v>672</v>
+      </c>
+      <c r="E152" t="s">
+        <v>335</v>
+      </c>
+      <c r="K152" t="s">
+        <v>424</v>
+      </c>
+      <c r="O152" t="s">
+        <v>674</v>
+      </c>
+      <c r="U152" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="C153" t="s">
+        <v>676</v>
+      </c>
+      <c r="D153" t="s">
+        <v>675</v>
+      </c>
+      <c r="E153" t="s">
+        <v>593</v>
+      </c>
+      <c r="K153" t="s">
+        <v>678</v>
+      </c>
+      <c r="O153" t="s">
+        <v>677</v>
+      </c>
+      <c r="U153" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="C154" t="s">
+        <v>681</v>
+      </c>
+      <c r="D154" t="s">
+        <v>680</v>
+      </c>
+      <c r="E154" t="s">
+        <v>679</v>
+      </c>
+      <c r="K154" t="s">
+        <v>682</v>
+      </c>
+      <c r="O154" t="s">
+        <v>679</v>
+      </c>
+      <c r="U154" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="C155" t="s">
+        <v>685</v>
+      </c>
+      <c r="D155" t="s">
+        <v>684</v>
+      </c>
+      <c r="E155" t="s">
+        <v>683</v>
+      </c>
+      <c r="K155" t="s">
+        <v>149</v>
+      </c>
+      <c r="O155" t="s">
+        <v>686</v>
+      </c>
+      <c r="U155" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="C156" t="s">
+        <v>688</v>
+      </c>
+      <c r="D156" t="s">
+        <v>687</v>
+      </c>
+      <c r="E156" t="s">
+        <v>593</v>
+      </c>
+      <c r="K156" t="s">
+        <v>134</v>
+      </c>
+      <c r="O156" t="s">
+        <v>689</v>
+      </c>
+      <c r="U156" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="C157" t="s">
+        <v>691</v>
+      </c>
+      <c r="D157" t="s">
+        <v>690</v>
+      </c>
+      <c r="E157" t="s">
+        <v>622</v>
+      </c>
+      <c r="K157" t="s">
+        <v>693</v>
+      </c>
+      <c r="O157" t="s">
+        <v>692</v>
+      </c>
+      <c r="U157" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="C158" t="s">
+        <v>695</v>
+      </c>
+      <c r="D158" t="s">
+        <v>694</v>
+      </c>
+      <c r="E158" t="s">
+        <v>92</v>
+      </c>
+      <c r="K158" t="s">
+        <v>697</v>
+      </c>
+      <c r="O158" t="s">
+        <v>696</v>
+      </c>
+      <c r="U158" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="C159" t="s">
+        <v>699</v>
+      </c>
+      <c r="D159" t="s">
+        <v>698</v>
+      </c>
+      <c r="E159" t="s">
+        <v>92</v>
+      </c>
+      <c r="K159" t="s">
+        <v>701</v>
+      </c>
+      <c r="O159" t="s">
+        <v>700</v>
+      </c>
+      <c r="U159" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="C160" t="s">
+        <v>703</v>
+      </c>
+      <c r="D160" t="s">
+        <v>702</v>
+      </c>
+      <c r="E160" t="s">
+        <v>92</v>
+      </c>
+      <c r="K160" t="s">
+        <v>705</v>
+      </c>
+      <c r="O160" t="s">
+        <v>704</v>
+      </c>
+      <c r="U160" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="C161" t="s">
+        <v>707</v>
+      </c>
+      <c r="D161" t="s">
+        <v>706</v>
+      </c>
+      <c r="E161" t="s">
+        <v>92</v>
+      </c>
+      <c r="K161" t="s">
+        <v>709</v>
+      </c>
+      <c r="O161" t="s">
+        <v>708</v>
+      </c>
+      <c r="U161" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="C162" t="s">
+        <v>711</v>
+      </c>
+      <c r="D162" t="s">
+        <v>710</v>
+      </c>
+      <c r="E162" t="s">
+        <v>92</v>
+      </c>
+      <c r="K162" t="s">
+        <v>246</v>
+      </c>
+      <c r="O162" t="s">
+        <v>189</v>
+      </c>
+      <c r="U162" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="C163" t="s">
+        <v>713</v>
+      </c>
+      <c r="D163" t="s">
+        <v>712</v>
+      </c>
+      <c r="E163" t="s">
+        <v>92</v>
+      </c>
+      <c r="K163" t="s">
+        <v>129</v>
+      </c>
+      <c r="O163" t="s">
+        <v>714</v>
+      </c>
+      <c r="U163" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="C164" t="s">
+        <v>716</v>
+      </c>
+      <c r="D164" t="s">
+        <v>715</v>
+      </c>
+      <c r="E164" t="s">
+        <v>92</v>
+      </c>
+      <c r="K164" t="s">
+        <v>718</v>
+      </c>
+      <c r="O164" t="s">
+        <v>717</v>
+      </c>
+      <c r="U164" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="C165" t="s">
+        <v>720</v>
+      </c>
+      <c r="D165" t="s">
+        <v>719</v>
+      </c>
+      <c r="E165" t="s">
+        <v>92</v>
+      </c>
+      <c r="K165" t="s">
+        <v>722</v>
+      </c>
+      <c r="O165" t="s">
+        <v>721</v>
+      </c>
+      <c r="U165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="C166" t="s">
+        <v>724</v>
+      </c>
+      <c r="D166" t="s">
+        <v>723</v>
+      </c>
+      <c r="E166" t="s">
+        <v>92</v>
+      </c>
+      <c r="K166" t="s">
+        <v>726</v>
+      </c>
+      <c r="O166" t="s">
+        <v>725</v>
+      </c>
+      <c r="U166" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="C167" t="s">
+        <v>728</v>
+      </c>
+      <c r="D167" t="s">
+        <v>727</v>
+      </c>
+      <c r="E167" t="s">
+        <v>92</v>
+      </c>
+      <c r="K167" t="s">
+        <v>730</v>
+      </c>
+      <c r="O167" t="s">
+        <v>729</v>
+      </c>
+      <c r="U167" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="C168" t="s">
+        <v>732</v>
+      </c>
+      <c r="D168" t="s">
+        <v>731</v>
+      </c>
+      <c r="E168" t="s">
+        <v>92</v>
+      </c>
+      <c r="K168" t="s">
+        <v>734</v>
+      </c>
+      <c r="O168" t="s">
+        <v>733</v>
+      </c>
+      <c r="U168" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="C169" t="s">
+        <v>736</v>
+      </c>
+      <c r="D169" t="s">
+        <v>735</v>
+      </c>
+      <c r="E169" t="s">
+        <v>92</v>
+      </c>
+      <c r="K169" t="s">
+        <v>738</v>
+      </c>
+      <c r="O169" t="s">
+        <v>737</v>
+      </c>
+      <c r="U169" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="C170" t="s">
+        <v>740</v>
+      </c>
+      <c r="D170" t="s">
+        <v>739</v>
+      </c>
+      <c r="E170" t="s">
+        <v>92</v>
+      </c>
+      <c r="K170" t="s">
+        <v>71</v>
+      </c>
+      <c r="O170" t="s">
+        <v>741</v>
+      </c>
+      <c r="U170" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="C171" t="s">
+        <v>743</v>
+      </c>
+      <c r="D171" t="s">
+        <v>742</v>
+      </c>
+      <c r="E171" t="s">
+        <v>92</v>
+      </c>
+      <c r="K171" t="s">
+        <v>158</v>
+      </c>
+      <c r="O171" t="s">
+        <v>744</v>
+      </c>
+      <c r="U171" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="C172" t="s">
+        <v>746</v>
+      </c>
+      <c r="D172" t="s">
+        <v>745</v>
+      </c>
+      <c r="E172" t="s">
+        <v>92</v>
+      </c>
+      <c r="K172" t="s">
+        <v>748</v>
+      </c>
+      <c r="O172" t="s">
+        <v>747</v>
+      </c>
+      <c r="U172" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="C173" t="s">
+        <v>750</v>
+      </c>
+      <c r="D173" t="s">
+        <v>749</v>
+      </c>
+      <c r="E173" t="s">
+        <v>92</v>
+      </c>
+      <c r="K173" t="s">
+        <v>752</v>
+      </c>
+      <c r="O173" t="s">
+        <v>751</v>
+      </c>
+      <c r="U173" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="C174" t="s">
+        <v>754</v>
+      </c>
+      <c r="D174" t="s">
+        <v>753</v>
+      </c>
+      <c r="E174" t="s">
+        <v>92</v>
+      </c>
+      <c r="K174" t="s">
+        <v>756</v>
+      </c>
+      <c r="O174" t="s">
+        <v>755</v>
+      </c>
+      <c r="U174" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="C175" t="s">
+        <v>758</v>
+      </c>
+      <c r="D175" t="s">
+        <v>757</v>
+      </c>
+      <c r="E175" t="s">
+        <v>92</v>
+      </c>
+      <c r="K175" t="s">
+        <v>760</v>
+      </c>
+      <c r="O175" t="s">
+        <v>759</v>
+      </c>
+      <c r="U175" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="C176" t="s">
+        <v>762</v>
+      </c>
+      <c r="D176" t="s">
+        <v>761</v>
+      </c>
+      <c r="E176" t="s">
+        <v>92</v>
+      </c>
+      <c r="K176" t="s">
+        <v>763</v>
+      </c>
+      <c r="O176" t="s">
+        <v>80</v>
+      </c>
+      <c r="U176" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="C177" t="s">
+        <v>765</v>
+      </c>
+      <c r="D177" t="s">
+        <v>764</v>
+      </c>
+      <c r="E177" t="s">
+        <v>92</v>
+      </c>
+      <c r="K177" t="s">
+        <v>134</v>
+      </c>
+      <c r="O177" t="s">
+        <v>766</v>
+      </c>
+      <c r="U177" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="C178" t="s">
+        <v>768</v>
+      </c>
+      <c r="D178" t="s">
+        <v>767</v>
+      </c>
+      <c r="E178" t="s">
+        <v>92</v>
+      </c>
+      <c r="K178" t="s">
+        <v>86</v>
+      </c>
+      <c r="O178" t="s">
+        <v>769</v>
+      </c>
+      <c r="U178" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="C179" t="s">
+        <v>771</v>
+      </c>
+      <c r="D179" t="s">
+        <v>770</v>
+      </c>
+      <c r="E179" t="s">
+        <v>92</v>
+      </c>
+      <c r="K179" t="s">
+        <v>773</v>
+      </c>
+      <c r="O179" t="s">
+        <v>772</v>
+      </c>
+      <c r="U179" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="C180" t="s">
+        <v>775</v>
+      </c>
+      <c r="D180" t="s">
+        <v>774</v>
+      </c>
+      <c r="E180" t="s">
+        <v>92</v>
+      </c>
+      <c r="K180" t="s">
+        <v>777</v>
+      </c>
+      <c r="O180" t="s">
+        <v>776</v>
+      </c>
+      <c r="U180" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="C181" t="s">
+        <v>779</v>
+      </c>
+      <c r="D181" t="s">
+        <v>778</v>
+      </c>
+      <c r="E181" t="s">
+        <v>92</v>
+      </c>
+      <c r="K181" t="s">
+        <v>780</v>
+      </c>
+      <c r="O181" t="s">
+        <v>759</v>
+      </c>
+      <c r="U181" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="C182" t="s">
+        <v>782</v>
+      </c>
+      <c r="D182" t="s">
+        <v>781</v>
+      </c>
+      <c r="E182" t="s">
+        <v>92</v>
+      </c>
+      <c r="K182" t="s">
+        <v>784</v>
+      </c>
+      <c r="O182" t="s">
+        <v>783</v>
+      </c>
+      <c r="U182" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="C183" t="s">
+        <v>786</v>
+      </c>
+      <c r="D183" t="s">
+        <v>785</v>
+      </c>
+      <c r="E183" t="s">
+        <v>92</v>
+      </c>
+      <c r="K183" t="s">
+        <v>788</v>
+      </c>
+      <c r="O183" t="s">
+        <v>787</v>
+      </c>
+      <c r="U183" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="C184" t="s">
+        <v>790</v>
+      </c>
+      <c r="D184" t="s">
+        <v>789</v>
+      </c>
+      <c r="E184" t="s">
+        <v>92</v>
+      </c>
+      <c r="K184" t="s">
+        <v>792</v>
+      </c>
+      <c r="O184" t="s">
+        <v>791</v>
+      </c>
+      <c r="U184" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="C185" t="s">
+        <v>794</v>
+      </c>
+      <c r="D185" t="s">
+        <v>793</v>
+      </c>
+      <c r="E185" t="s">
+        <v>92</v>
+      </c>
+      <c r="K185" t="s">
+        <v>796</v>
+      </c>
+      <c r="O185" t="s">
+        <v>795</v>
+      </c>
+      <c r="U185" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="C186" t="s">
+        <v>798</v>
+      </c>
+      <c r="D186" t="s">
+        <v>797</v>
+      </c>
+      <c r="E186" t="s">
+        <v>92</v>
+      </c>
+      <c r="K186" t="s">
+        <v>800</v>
+      </c>
+      <c r="O186" t="s">
+        <v>799</v>
+      </c>
+      <c r="U186" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="C187" t="s">
+        <v>802</v>
+      </c>
+      <c r="D187" t="s">
+        <v>801</v>
+      </c>
+      <c r="E187" t="s">
+        <v>92</v>
+      </c>
+      <c r="K187" t="s">
+        <v>208</v>
+      </c>
+      <c r="O187" t="s">
+        <v>803</v>
+      </c>
+      <c r="U187" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="C188" t="s">
+        <v>805</v>
+      </c>
+      <c r="D188" t="s">
+        <v>804</v>
+      </c>
+      <c r="E188" t="s">
+        <v>92</v>
+      </c>
+      <c r="K188" t="s">
+        <v>134</v>
+      </c>
+      <c r="O188" t="s">
+        <v>508</v>
+      </c>
+      <c r="U188" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="C189" t="s">
+        <v>807</v>
+      </c>
+      <c r="D189" t="s">
+        <v>806</v>
+      </c>
+      <c r="E189" t="s">
+        <v>92</v>
+      </c>
+      <c r="K189" t="s">
+        <v>808</v>
+      </c>
+      <c r="O189" t="s">
+        <v>455</v>
+      </c>
+      <c r="U189" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="C190" t="s">
+        <v>810</v>
+      </c>
+      <c r="D190" t="s">
+        <v>809</v>
+      </c>
+      <c r="E190" t="s">
+        <v>92</v>
+      </c>
+      <c r="K190" t="s">
+        <v>246</v>
+      </c>
+      <c r="O190" t="s">
+        <v>349</v>
+      </c>
+      <c r="U190" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="C191" t="s">
+        <v>812</v>
+      </c>
+      <c r="D191" t="s">
+        <v>811</v>
+      </c>
+      <c r="E191" t="s">
+        <v>92</v>
+      </c>
+      <c r="K191" t="s">
+        <v>246</v>
+      </c>
+      <c r="O191" t="s">
+        <v>813</v>
+      </c>
+      <c r="U191" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="C192" t="s">
+        <v>815</v>
+      </c>
+      <c r="D192" t="s">
+        <v>814</v>
+      </c>
+      <c r="E192" t="s">
+        <v>92</v>
+      </c>
+      <c r="K192" t="s">
+        <v>817</v>
+      </c>
+      <c r="O192" t="s">
+        <v>816</v>
+      </c>
+      <c r="U192" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="C193" t="s">
+        <v>819</v>
+      </c>
+      <c r="D193" t="s">
+        <v>818</v>
+      </c>
+      <c r="E193" t="s">
+        <v>92</v>
+      </c>
+      <c r="K193" t="s">
+        <v>821</v>
+      </c>
+      <c r="O193" t="s">
+        <v>820</v>
+      </c>
+      <c r="U193" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="C194" t="s">
+        <v>823</v>
+      </c>
+      <c r="D194" t="s">
+        <v>822</v>
+      </c>
+      <c r="E194" t="s">
+        <v>92</v>
+      </c>
+      <c r="K194" t="s">
+        <v>246</v>
+      </c>
+      <c r="O194" t="s">
+        <v>824</v>
+      </c>
+      <c r="U194" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="C195" t="s">
+        <v>826</v>
+      </c>
+      <c r="D195" t="s">
+        <v>825</v>
+      </c>
+      <c r="E195" t="s">
+        <v>92</v>
+      </c>
+      <c r="K195" t="s">
+        <v>518</v>
+      </c>
+      <c r="O195" t="s">
+        <v>827</v>
+      </c>
+      <c r="U195" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="C196" t="s">
+        <v>829</v>
+      </c>
+      <c r="D196" t="s">
+        <v>828</v>
+      </c>
+      <c r="E196" t="s">
+        <v>92</v>
+      </c>
+      <c r="K196" t="s">
+        <v>831</v>
+      </c>
+      <c r="O196" t="s">
+        <v>830</v>
+      </c>
+      <c r="U196" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="C197" t="s">
+        <v>833</v>
+      </c>
+      <c r="D197" t="s">
+        <v>832</v>
+      </c>
+      <c r="E197" t="s">
+        <v>92</v>
+      </c>
+      <c r="K197" t="s">
+        <v>134</v>
+      </c>
+      <c r="O197" t="s">
+        <v>372</v>
+      </c>
+      <c r="U197" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="C198" t="s">
+        <v>835</v>
+      </c>
+      <c r="D198" t="s">
+        <v>834</v>
+      </c>
+      <c r="E198" t="s">
+        <v>92</v>
+      </c>
+      <c r="K198" t="s">
+        <v>246</v>
+      </c>
+      <c r="O198" t="s">
+        <v>836</v>
+      </c>
+      <c r="U198" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="C199" t="s">
+        <v>838</v>
+      </c>
+      <c r="D199" t="s">
+        <v>837</v>
+      </c>
+      <c r="E199" t="s">
+        <v>92</v>
+      </c>
+      <c r="K199" t="s">
+        <v>246</v>
+      </c>
+      <c r="O199" t="s">
+        <v>839</v>
+      </c>
+      <c r="U199" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="C200" t="s">
+        <v>841</v>
+      </c>
+      <c r="D200" t="s">
+        <v>840</v>
+      </c>
+      <c r="E200" t="s">
+        <v>92</v>
+      </c>
+      <c r="K200" t="s">
+        <v>842</v>
+      </c>
+      <c r="O200" t="s">
+        <v>372</v>
+      </c>
+      <c r="U200" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="C201" t="s">
+        <v>844</v>
+      </c>
+      <c r="D201" t="s">
+        <v>843</v>
+      </c>
+      <c r="E201" t="s">
+        <v>92</v>
+      </c>
+      <c r="K201" t="s">
+        <v>845</v>
+      </c>
+      <c r="O201" t="s">
+        <v>512</v>
+      </c>
+      <c r="U201" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="C202" t="s">
+        <v>847</v>
+      </c>
+      <c r="D202" t="s">
+        <v>846</v>
+      </c>
+      <c r="E202" t="s">
+        <v>92</v>
+      </c>
+      <c r="K202" t="s">
+        <v>134</v>
+      </c>
+      <c r="O202" t="s">
+        <v>679</v>
+      </c>
+      <c r="U202" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="C203" t="s">
+        <v>849</v>
+      </c>
+      <c r="D203" t="s">
+        <v>848</v>
+      </c>
+      <c r="E203" t="s">
+        <v>92</v>
+      </c>
+      <c r="K203" t="s">
+        <v>158</v>
+      </c>
+      <c r="O203" t="s">
+        <v>850</v>
+      </c>
+      <c r="U203" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="C204" t="s">
+        <v>852</v>
+      </c>
+      <c r="D204" t="s">
+        <v>851</v>
+      </c>
+      <c r="E204" t="s">
+        <v>92</v>
+      </c>
+      <c r="K204" t="s">
+        <v>480</v>
+      </c>
+      <c r="O204" t="s">
+        <v>349</v>
+      </c>
+      <c r="U204" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="C205" t="s">
+        <v>854</v>
+      </c>
+      <c r="D205" t="s">
+        <v>853</v>
+      </c>
+      <c r="E205" t="s">
+        <v>92</v>
+      </c>
+      <c r="K205" t="s">
+        <v>855</v>
+      </c>
+      <c r="O205" t="s">
+        <v>512</v>
+      </c>
+      <c r="U205" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="C206" t="s">
+        <v>857</v>
+      </c>
+      <c r="D206" t="s">
+        <v>856</v>
+      </c>
+      <c r="E206" t="s">
+        <v>92</v>
+      </c>
+      <c r="K206" t="s">
+        <v>246</v>
+      </c>
+      <c r="O206" t="s">
+        <v>349</v>
+      </c>
+      <c r="U206" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="C207" t="s">
+        <v>859</v>
+      </c>
+      <c r="D207" t="s">
+        <v>858</v>
+      </c>
+      <c r="E207" t="s">
+        <v>92</v>
+      </c>
+      <c r="K207" t="s">
+        <v>246</v>
+      </c>
+      <c r="O207" t="s">
+        <v>559</v>
+      </c>
+      <c r="U207" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="C208" t="s">
+        <v>861</v>
+      </c>
+      <c r="D208" t="s">
+        <v>860</v>
+      </c>
+      <c r="E208" t="s">
+        <v>92</v>
+      </c>
+      <c r="K208" t="s">
+        <v>134</v>
+      </c>
+      <c r="O208" t="s">
+        <v>862</v>
+      </c>
+      <c r="U208" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="C209" t="s">
+        <v>864</v>
+      </c>
+      <c r="D209" t="s">
+        <v>863</v>
+      </c>
+      <c r="E209" t="s">
+        <v>92</v>
+      </c>
+      <c r="K209" t="s">
+        <v>86</v>
+      </c>
+      <c r="O209" t="s">
+        <v>865</v>
+      </c>
+      <c r="U209" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="C210" t="s">
+        <v>867</v>
+      </c>
+      <c r="D210" t="s">
+        <v>866</v>
+      </c>
+      <c r="E210" t="s">
+        <v>92</v>
+      </c>
+      <c r="K210" t="s">
+        <v>158</v>
+      </c>
+      <c r="O210" t="s">
+        <v>372</v>
+      </c>
+      <c r="U210" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="C211" t="s">
+        <v>869</v>
+      </c>
+      <c r="D211" t="s">
+        <v>868</v>
+      </c>
+      <c r="E211" t="s">
+        <v>92</v>
+      </c>
+      <c r="K211" t="s">
+        <v>246</v>
+      </c>
+      <c r="O211" t="s">
+        <v>349</v>
+      </c>
+      <c r="U211" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="C212" t="s">
+        <v>871</v>
+      </c>
+      <c r="D212" t="s">
+        <v>870</v>
+      </c>
+      <c r="E212" t="s">
+        <v>92</v>
+      </c>
+      <c r="K212" t="s">
+        <v>872</v>
+      </c>
+      <c r="O212" t="s">
+        <v>677</v>
+      </c>
+      <c r="U212" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="C213" t="s">
+        <v>874</v>
+      </c>
+      <c r="D213" t="s">
+        <v>873</v>
+      </c>
+      <c r="E213" t="s">
+        <v>92</v>
+      </c>
+      <c r="K213" t="s">
+        <v>246</v>
+      </c>
+      <c r="O213" t="s">
+        <v>349</v>
+      </c>
+      <c r="U213" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="C214" t="s">
+        <v>876</v>
+      </c>
+      <c r="D214" t="s">
+        <v>875</v>
+      </c>
+      <c r="E214" t="s">
+        <v>92</v>
+      </c>
+      <c r="K214" t="s">
+        <v>613</v>
+      </c>
+      <c r="O214" t="s">
+        <v>877</v>
+      </c>
+      <c r="U214" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="C215" t="s">
+        <v>879</v>
+      </c>
+      <c r="D215" t="s">
+        <v>878</v>
+      </c>
+      <c r="E215" t="s">
+        <v>92</v>
+      </c>
+      <c r="K215" t="s">
+        <v>881</v>
+      </c>
+      <c r="O215" t="s">
+        <v>880</v>
+      </c>
+      <c r="U215" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="C216" t="s">
+        <v>883</v>
+      </c>
+      <c r="D216" t="s">
+        <v>882</v>
+      </c>
+      <c r="E216" t="s">
+        <v>92</v>
+      </c>
+      <c r="K216" t="s">
+        <v>885</v>
+      </c>
+      <c r="O216" t="s">
+        <v>884</v>
+      </c>
+      <c r="U216" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="C217" t="s">
+        <v>887</v>
+      </c>
+      <c r="D217" t="s">
+        <v>886</v>
+      </c>
+      <c r="E217" t="s">
+        <v>92</v>
+      </c>
+      <c r="K217" t="s">
+        <v>480</v>
+      </c>
+      <c r="O217" t="s">
+        <v>649</v>
+      </c>
+      <c r="U217" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="C218" t="s">
+        <v>889</v>
+      </c>
+      <c r="D218" t="s">
+        <v>888</v>
+      </c>
+      <c r="E218" t="s">
+        <v>92</v>
+      </c>
+      <c r="K218" t="s">
+        <v>890</v>
+      </c>
+      <c r="O218" t="s">
+        <v>512</v>
+      </c>
+      <c r="U218" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="C219" t="s">
+        <v>892</v>
+      </c>
+      <c r="D219" t="s">
+        <v>891</v>
+      </c>
+      <c r="E219" t="s">
+        <v>92</v>
+      </c>
+      <c r="K219" t="s">
+        <v>232</v>
+      </c>
+      <c r="O219" t="s">
+        <v>255</v>
+      </c>
+      <c r="U219" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="C220" t="s">
+        <v>894</v>
+      </c>
+      <c r="D220" t="s">
+        <v>893</v>
+      </c>
+      <c r="E220" t="s">
+        <v>92</v>
+      </c>
+      <c r="K220" t="s">
+        <v>896</v>
+      </c>
+      <c r="O220" t="s">
+        <v>895</v>
+      </c>
+      <c r="U220" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="C221" t="s">
+        <v>898</v>
+      </c>
+      <c r="D221" t="s">
+        <v>897</v>
+      </c>
+      <c r="E221" t="s">
+        <v>92</v>
+      </c>
+      <c r="K221" t="s">
+        <v>246</v>
+      </c>
+      <c r="O221" t="s">
+        <v>372</v>
+      </c>
+      <c r="U221" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="C222" t="s">
+        <v>900</v>
+      </c>
+      <c r="D222" t="s">
+        <v>899</v>
+      </c>
+      <c r="E222" t="s">
+        <v>92</v>
+      </c>
+      <c r="K222" t="s">
+        <v>134</v>
+      </c>
+      <c r="O222" t="s">
+        <v>795</v>
+      </c>
+      <c r="U222" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="C223" t="s">
+        <v>902</v>
+      </c>
+      <c r="D223" t="s">
+        <v>901</v>
+      </c>
+      <c r="E223" t="s">
+        <v>92</v>
+      </c>
+      <c r="K223" t="s">
+        <v>246</v>
+      </c>
+      <c r="O223" t="s">
+        <v>903</v>
+      </c>
+      <c r="U223" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="C224" t="s">
+        <v>905</v>
+      </c>
+      <c r="D224" t="s">
+        <v>904</v>
+      </c>
+      <c r="E224" t="s">
+        <v>92</v>
+      </c>
+      <c r="K224" t="s">
+        <v>246</v>
+      </c>
+      <c r="O224" t="s">
+        <v>906</v>
+      </c>
+      <c r="U224" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="C225" t="s">
+        <v>908</v>
+      </c>
+      <c r="D225" t="s">
+        <v>907</v>
+      </c>
+      <c r="E225" t="s">
+        <v>92</v>
+      </c>
+      <c r="K225" t="s">
+        <v>134</v>
+      </c>
+      <c r="O225" t="s">
+        <v>909</v>
+      </c>
+      <c r="U225" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="C226" t="s">
+        <v>911</v>
+      </c>
+      <c r="D226" t="s">
+        <v>910</v>
+      </c>
+      <c r="E226" t="s">
+        <v>92</v>
+      </c>
+      <c r="K226" t="s">
+        <v>246</v>
+      </c>
+      <c r="O226" t="s">
+        <v>803</v>
+      </c>
+      <c r="U226" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="C227" t="s">
+        <v>913</v>
+      </c>
+      <c r="D227" t="s">
+        <v>912</v>
+      </c>
+      <c r="E227" t="s">
+        <v>92</v>
+      </c>
+      <c r="K227" t="s">
+        <v>915</v>
+      </c>
+      <c r="O227" t="s">
+        <v>914</v>
+      </c>
+      <c r="U227" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="C228" t="s">
+        <v>917</v>
+      </c>
+      <c r="D228" t="s">
+        <v>916</v>
+      </c>
+      <c r="E228" t="s">
+        <v>92</v>
+      </c>
+      <c r="K228" t="s">
+        <v>918</v>
+      </c>
+      <c r="O228" t="s">
+        <v>914</v>
+      </c>
+      <c r="U228" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="C229" t="s">
+        <v>920</v>
+      </c>
+      <c r="D229" t="s">
+        <v>919</v>
+      </c>
+      <c r="E229" t="s">
+        <v>92</v>
+      </c>
+      <c r="K229" t="s">
+        <v>885</v>
+      </c>
+      <c r="O229" t="s">
+        <v>921</v>
+      </c>
+      <c r="U229" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="C230" t="s">
+        <v>923</v>
+      </c>
+      <c r="D230" t="s">
+        <v>922</v>
+      </c>
+      <c r="E230" t="s">
+        <v>92</v>
+      </c>
+      <c r="K230" t="s">
+        <v>925</v>
+      </c>
+      <c r="O230" t="s">
+        <v>924</v>
+      </c>
+      <c r="U230" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="C231" t="s">
+        <v>927</v>
+      </c>
+      <c r="D231" t="s">
+        <v>926</v>
+      </c>
+      <c r="E231" t="s">
+        <v>92</v>
+      </c>
+      <c r="K231" t="s">
+        <v>173</v>
+      </c>
+      <c r="O231" t="s">
+        <v>803</v>
+      </c>
+      <c r="U231" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="C232" t="s">
+        <v>929</v>
+      </c>
+      <c r="D232" t="s">
+        <v>928</v>
+      </c>
+      <c r="E232" t="s">
+        <v>92</v>
+      </c>
+      <c r="K232" t="s">
+        <v>480</v>
+      </c>
+      <c r="O232" t="s">
+        <v>260</v>
+      </c>
+      <c r="U232" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="C233" t="s">
+        <v>931</v>
+      </c>
+      <c r="D233" t="s">
+        <v>930</v>
+      </c>
+      <c r="E233" t="s">
+        <v>92</v>
+      </c>
+      <c r="K233" t="s">
+        <v>405</v>
+      </c>
+      <c r="O233" t="s">
+        <v>932</v>
+      </c>
+      <c r="U233" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="C234" t="s">
+        <v>934</v>
+      </c>
+      <c r="D234" t="s">
+        <v>933</v>
+      </c>
+      <c r="E234" t="s">
+        <v>92</v>
+      </c>
+      <c r="K234" t="s">
+        <v>936</v>
+      </c>
+      <c r="O234" t="s">
+        <v>935</v>
+      </c>
+      <c r="U234" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="C235" t="s">
+        <v>937</v>
+      </c>
+      <c r="D235" t="s">
+        <v>331</v>
+      </c>
+      <c r="E235" t="s">
+        <v>92</v>
+      </c>
+      <c r="K235" t="s">
+        <v>134</v>
+      </c>
+      <c r="O235" t="s">
+        <v>938</v>
+      </c>
+      <c r="U235" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="C236" t="s">
+        <v>940</v>
+      </c>
+      <c r="D236" t="s">
+        <v>939</v>
+      </c>
+      <c r="E236" t="s">
+        <v>92</v>
+      </c>
+      <c r="K236" t="s">
+        <v>480</v>
+      </c>
+      <c r="O236" t="s">
+        <v>357</v>
+      </c>
+      <c r="U236" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="C237" t="s">
+        <v>942</v>
+      </c>
+      <c r="D237" t="s">
+        <v>941</v>
+      </c>
+      <c r="E237" t="s">
+        <v>92</v>
+      </c>
+      <c r="K237" t="s">
+        <v>158</v>
+      </c>
+      <c r="O237" t="s">
+        <v>943</v>
+      </c>
+      <c r="U237" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="C238" t="s">
+        <v>945</v>
+      </c>
+      <c r="D238" t="s">
+        <v>944</v>
+      </c>
+      <c r="E238" t="s">
+        <v>92</v>
+      </c>
+      <c r="K238" t="s">
+        <v>464</v>
+      </c>
+      <c r="O238" t="s">
+        <v>946</v>
+      </c>
+      <c r="U238" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="C239" t="s">
+        <v>948</v>
+      </c>
+      <c r="D239" t="s">
+        <v>947</v>
+      </c>
+      <c r="E239" t="s">
+        <v>92</v>
+      </c>
+      <c r="K239" t="s">
+        <v>158</v>
+      </c>
+      <c r="O239" t="s">
+        <v>949</v>
+      </c>
+      <c r="U239" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="C240" t="s">
+        <v>950</v>
+      </c>
+      <c r="D240" t="s">
+        <v>947</v>
+      </c>
+      <c r="E240" t="s">
+        <v>92</v>
+      </c>
+      <c r="K240" t="s">
+        <v>158</v>
+      </c>
+      <c r="O240" t="s">
+        <v>951</v>
+      </c>
+      <c r="U240" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="C241" t="s">
+        <v>953</v>
+      </c>
+      <c r="D241" t="s">
+        <v>952</v>
+      </c>
+      <c r="E241" t="s">
+        <v>92</v>
+      </c>
+      <c r="K241" t="s">
+        <v>246</v>
+      </c>
+      <c r="O241" t="s">
+        <v>954</v>
+      </c>
+      <c r="U241" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="C242" t="s">
+        <v>956</v>
+      </c>
+      <c r="D242" t="s">
+        <v>955</v>
+      </c>
+      <c r="E242" t="s">
+        <v>92</v>
+      </c>
+      <c r="K242" t="s">
+        <v>390</v>
+      </c>
+      <c r="O242" t="s">
+        <v>957</v>
+      </c>
+      <c r="U242" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="C243" t="s">
+        <v>959</v>
+      </c>
+      <c r="D243" t="s">
+        <v>958</v>
+      </c>
+      <c r="E243" t="s">
+        <v>92</v>
+      </c>
+      <c r="K243" t="s">
+        <v>134</v>
+      </c>
+      <c r="O243" t="s">
+        <v>960</v>
+      </c>
+      <c r="U243" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="C244" t="s">
+        <v>962</v>
+      </c>
+      <c r="D244" t="s">
+        <v>961</v>
+      </c>
+      <c r="E244" t="s">
+        <v>92</v>
+      </c>
+      <c r="K244" t="s">
+        <v>246</v>
+      </c>
+      <c r="O244" t="s">
+        <v>963</v>
+      </c>
+      <c r="U244" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="C245" t="s">
+        <v>965</v>
+      </c>
+      <c r="D245" t="s">
+        <v>964</v>
+      </c>
+      <c r="E245" t="s">
+        <v>92</v>
+      </c>
+      <c r="K245" t="s">
+        <v>86</v>
+      </c>
+      <c r="O245" t="s">
+        <v>966</v>
+      </c>
+      <c r="U245" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="C246" t="s">
+        <v>968</v>
+      </c>
+      <c r="D246" t="s">
+        <v>967</v>
+      </c>
+      <c r="E246" t="s">
+        <v>92</v>
+      </c>
+      <c r="K246" t="s">
+        <v>246</v>
+      </c>
+      <c r="O246" t="s">
+        <v>966</v>
+      </c>
+      <c r="U246" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="C247" t="s">
+        <v>970</v>
+      </c>
+      <c r="D247" t="s">
+        <v>969</v>
+      </c>
+      <c r="E247" t="s">
+        <v>92</v>
+      </c>
+      <c r="K247" t="s">
+        <v>246</v>
+      </c>
+      <c r="O247" t="s">
+        <v>971</v>
+      </c>
+      <c r="U247" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="C248" t="s">
+        <v>974</v>
+      </c>
+      <c r="D248" t="s">
+        <v>973</v>
+      </c>
+      <c r="E248" t="s">
+        <v>972</v>
+      </c>
+      <c r="K248" t="s">
+        <v>81</v>
+      </c>
+      <c r="O248" t="s">
+        <v>975</v>
+      </c>
+      <c r="U248" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="C249" t="s">
+        <v>978</v>
+      </c>
+      <c r="D249" t="s">
+        <v>977</v>
+      </c>
+      <c r="E249" t="s">
+        <v>976</v>
+      </c>
+      <c r="K249" t="s">
+        <v>980</v>
+      </c>
+      <c r="O249" t="s">
+        <v>979</v>
+      </c>
+      <c r="U249" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="C250" t="s">
+        <v>983</v>
+      </c>
+      <c r="D250" t="s">
+        <v>982</v>
+      </c>
+      <c r="E250" t="s">
+        <v>981</v>
+      </c>
+      <c r="K250" t="s">
+        <v>985</v>
+      </c>
+      <c r="O250" t="s">
+        <v>984</v>
+      </c>
+      <c r="U250" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="C251" t="s">
+        <v>988</v>
+      </c>
+      <c r="D251" t="s">
+        <v>987</v>
+      </c>
+      <c r="E251" t="s">
+        <v>986</v>
+      </c>
+      <c r="K251" t="s">
+        <v>129</v>
+      </c>
+      <c r="O251" t="s">
+        <v>979</v>
+      </c>
+      <c r="U251" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="C252" t="s">
+        <v>991</v>
+      </c>
+      <c r="D252" t="s">
+        <v>990</v>
+      </c>
+      <c r="E252" t="s">
+        <v>989</v>
+      </c>
+      <c r="K252" t="s">
+        <v>163</v>
+      </c>
+      <c r="O252" t="s">
+        <v>992</v>
+      </c>
+      <c r="U252" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="C253" t="s">
+        <v>995</v>
+      </c>
+      <c r="D253" t="s">
+        <v>994</v>
+      </c>
+      <c r="E253" t="s">
+        <v>993</v>
+      </c>
+      <c r="K253" t="s">
+        <v>81</v>
+      </c>
+      <c r="O253" t="s">
+        <v>996</v>
+      </c>
+      <c r="U253" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="C254" t="s">
+        <v>999</v>
+      </c>
+      <c r="D254" t="s">
+        <v>998</v>
+      </c>
+      <c r="E254" t="s">
+        <v>997</v>
+      </c>
+      <c r="K254" t="s">
+        <v>81</v>
+      </c>
+      <c r="O254" t="s">
+        <v>1000</v>
+      </c>
+      <c r="U254" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="C255" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E255" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K255" t="s">
+        <v>97</v>
+      </c>
+      <c r="O255" t="s">
+        <v>1004</v>
+      </c>
+      <c r="U255" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="C256" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E256" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K256" t="s">
+        <v>1009</v>
+      </c>
+      <c r="O256" t="s">
+        <v>1008</v>
+      </c>
+      <c r="U256" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="C257" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E257" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K257" t="s">
+        <v>1014</v>
+      </c>
+      <c r="O257" t="s">
+        <v>1013</v>
+      </c>
+      <c r="U257" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="C258" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E258" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K258" t="s">
+        <v>1019</v>
+      </c>
+      <c r="O258" t="s">
+        <v>1018</v>
+      </c>
+      <c r="U258" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="C259" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E259" t="s">
+        <v>989</v>
+      </c>
+      <c r="K259" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O259" t="s">
+        <v>1022</v>
+      </c>
+      <c r="U259" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="C260" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E260" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K260" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O260" t="s">
+        <v>1027</v>
+      </c>
+      <c r="U260" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="C261" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E261" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K261" t="s">
+        <v>1033</v>
+      </c>
+      <c r="O261" t="s">
+        <v>1032</v>
+      </c>
+      <c r="U261" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="C262" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E262" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K262" t="s">
+        <v>310</v>
+      </c>
+      <c r="O262" t="s">
+        <v>1034</v>
+      </c>
+      <c r="U262" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="C263" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E263" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K263" t="s">
+        <v>726</v>
+      </c>
+      <c r="O263" t="s">
+        <v>1038</v>
+      </c>
+      <c r="U263" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="C264" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E264" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K264" t="s">
+        <v>134</v>
+      </c>
+      <c r="O264" t="s">
+        <v>1042</v>
+      </c>
+      <c r="U264" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="C265" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E265" t="s">
+        <v>1043</v>
+      </c>
+      <c r="K265" t="s">
+        <v>1047</v>
+      </c>
+      <c r="O265" t="s">
+        <v>1046</v>
+      </c>
+      <c r="U265" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="C266" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E266" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K266" t="s">
+        <v>134</v>
+      </c>
+      <c r="O266" t="s">
+        <v>996</v>
+      </c>
+      <c r="U266" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="C267" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E267" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K267" t="s">
+        <v>1055</v>
+      </c>
+      <c r="O267" t="s">
+        <v>1054</v>
+      </c>
+      <c r="U267" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="C268" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E268" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K268" t="s">
+        <v>821</v>
+      </c>
+      <c r="O268" t="s">
+        <v>1059</v>
+      </c>
+      <c r="U268" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="C269" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E269" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K269" t="s">
+        <v>91</v>
+      </c>
+      <c r="O269" t="s">
+        <v>1063</v>
+      </c>
+      <c r="U269" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="C270" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E270" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K270" t="s">
+        <v>97</v>
+      </c>
+      <c r="O270" t="s">
+        <v>1067</v>
+      </c>
+      <c r="U270" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="C271" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E271" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K271" t="s">
+        <v>334</v>
+      </c>
+      <c r="O271" t="s">
+        <v>1070</v>
+      </c>
+      <c r="U271" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="C272" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E272" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K272" t="s">
+        <v>334</v>
+      </c>
+      <c r="O272" t="s">
+        <v>1073</v>
+      </c>
+      <c r="U272" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="C273" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E273" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K273" t="s">
+        <v>1078</v>
+      </c>
+      <c r="O273" t="s">
+        <v>1077</v>
+      </c>
+      <c r="U273" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="C274" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E274" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K274" t="s">
+        <v>896</v>
+      </c>
+      <c r="O274" t="s">
+        <v>1082</v>
+      </c>
+      <c r="U274" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="C275" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E275" t="s">
+        <v>1083</v>
+      </c>
+      <c r="K275" t="s">
+        <v>134</v>
+      </c>
+      <c r="O275" t="s">
+        <v>1063</v>
+      </c>
+      <c r="U275" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="C276" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E276" t="s">
+        <v>1086</v>
+      </c>
+      <c r="K276" t="s">
+        <v>334</v>
+      </c>
+      <c r="O276" t="s">
+        <v>996</v>
+      </c>
+      <c r="U276" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="C277" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E277" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K277" t="s">
+        <v>134</v>
+      </c>
+      <c r="O277" t="s">
+        <v>1077</v>
+      </c>
+      <c r="U277" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="C278" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E278" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K278" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O278" t="s">
+        <v>1095</v>
+      </c>
+      <c r="U278" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="C279" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E279" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K279" t="s">
+        <v>1101</v>
+      </c>
+      <c r="O279" t="s">
+        <v>1100</v>
+      </c>
+      <c r="U279" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="C280" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E280" t="s">
+        <v>1102</v>
+      </c>
+      <c r="K280" t="s">
+        <v>1105</v>
+      </c>
+      <c r="O280" t="s">
+        <v>1032</v>
+      </c>
+      <c r="U280" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="C281" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E281" t="s">
+        <v>1106</v>
+      </c>
+      <c r="K281" t="s">
+        <v>1109</v>
+      </c>
+      <c r="O281" t="s">
+        <v>979</v>
+      </c>
+      <c r="U281" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="C282" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E282" t="s">
+        <v>1110</v>
+      </c>
+      <c r="K282" t="s">
+        <v>1114</v>
+      </c>
+      <c r="O282" t="s">
+        <v>1113</v>
+      </c>
+      <c r="U282" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="C283" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E283" t="s">
+        <v>1086</v>
+      </c>
+      <c r="K283" t="s">
+        <v>784</v>
+      </c>
+      <c r="O283" t="s">
+        <v>996</v>
+      </c>
+      <c r="U283" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="C284" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E284" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K284" t="s">
+        <v>480</v>
+      </c>
+      <c r="O284" t="s">
+        <v>1120</v>
+      </c>
+      <c r="U284" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="C285" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E285" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K285" t="s">
+        <v>134</v>
+      </c>
+      <c r="O285" t="s">
+        <v>1124</v>
+      </c>
+      <c r="U285" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="C286" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E286" t="s">
+        <v>1125</v>
+      </c>
+      <c r="K286" t="s">
+        <v>134</v>
+      </c>
+      <c r="O286" t="s">
+        <v>1128</v>
+      </c>
+      <c r="U286" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="C287" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E287" t="s">
+        <v>1129</v>
+      </c>
+      <c r="K287" t="s">
+        <v>134</v>
+      </c>
+      <c r="O287" t="s">
+        <v>1120</v>
+      </c>
+      <c r="U287" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="C288" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E288" t="s">
+        <v>1132</v>
+      </c>
+      <c r="K288" t="s">
+        <v>1136</v>
+      </c>
+      <c r="O288" t="s">
+        <v>1135</v>
+      </c>
+      <c r="U288" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="C289" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E289" t="s">
+        <v>1137</v>
+      </c>
+      <c r="K289" t="s">
+        <v>1141</v>
+      </c>
+      <c r="O289" t="s">
+        <v>1140</v>
+      </c>
+      <c r="U289" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="C290" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E290" t="s">
+        <v>1142</v>
+      </c>
+      <c r="K290" t="s">
+        <v>134</v>
+      </c>
+      <c r="O290" t="s">
+        <v>1077</v>
+      </c>
+      <c r="U290" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="C291" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E291" t="s">
+        <v>1145</v>
+      </c>
+      <c r="K291" t="s">
+        <v>97</v>
+      </c>
+      <c r="O291" t="s">
+        <v>1148</v>
+      </c>
+      <c r="U291" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="C292" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1149</v>
+      </c>
+      <c r="K292" t="s">
+        <v>334</v>
+      </c>
+      <c r="O292" t="s">
+        <v>1152</v>
+      </c>
+      <c r="U292" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/computed-reports/SONY.xlsx
+++ b/computed-reports/SONY.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="1012">
   <si>
     <t>Отчет</t>
   </si>
@@ -176,6 +176,9 @@
     <t>{revenue}</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>COX, BRYAN MICHAEL (CA)/ AUSTIN, JOHNTA (CA)/ BLIGE, MARY J.</t>
   </si>
   <si>
@@ -186,9 +189,6 @@
   </si>
   <si>
     <t>MARY J. BLIGE</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>KELLY, CLAUDE / GOTTWALD, LUKASZ / COLEMAN, JOSHUA EMANUEL / WALTER, HENRY</t>
@@ -3161,7 +3161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -3198,6 +3198,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4536,8 +4555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4717,321 +4736,181 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="10" t="n">
-        <v>27250.0</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="13" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2" t="n">
-        <v>1250.0</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2" t="n">
-        <v>4000.0</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14" t="n">
-        <v>4625.0</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14" t="n">
-        <v>11750.0</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14" t="n">
-        <v>1750.0</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14" t="n">
-        <v>450.0</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2" t="n">
+    <row r="6">
+      <c r="C6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K6" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K7" t="n">
+        <v>750.0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K8" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>944</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="s">
+        <v>999</v>
+      </c>
+      <c r="D9" t="s">
+        <v>998</v>
+      </c>
+      <c r="E9" t="s">
+        <v>997</v>
+      </c>
+      <c r="K9" t="n">
+        <v>83000.0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1000</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="s">
+        <v>995</v>
+      </c>
+      <c r="D10" t="s">
+        <v>994</v>
+      </c>
+      <c r="E10" t="s">
+        <v>993</v>
+      </c>
+      <c r="K10" t="n">
+        <v>115625.0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>996</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="s">
+        <v>992</v>
+      </c>
+      <c r="D11" t="s">
+        <v>991</v>
+      </c>
+      <c r="E11" t="s">
+        <v>990</v>
+      </c>
+      <c r="K11" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>981</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="s">
+        <v>988</v>
+      </c>
+      <c r="D12" t="s">
+        <v>987</v>
+      </c>
+      <c r="E12" t="s">
+        <v>986</v>
+      </c>
+      <c r="K12" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>989</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="s">
+        <v>984</v>
+      </c>
+      <c r="D13" t="s">
+        <v>983</v>
+      </c>
+      <c r="E13" t="s">
+        <v>982</v>
+      </c>
+      <c r="K13" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>985</v>
+      </c>
+      <c r="U13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="s">
-        <v>86</v>
+        <v>980</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>979</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>978</v>
       </c>
       <c r="K14" t="n">
-        <v>750.0</v>
+        <v>600.0</v>
       </c>
       <c r="O14" t="s">
-        <v>87</v>
+        <v>981</v>
       </c>
       <c r="U14" t="n">
         <v>0.0</v>
@@ -5039,19 +4918,19 @@
     </row>
     <row r="15">
       <c r="C15" t="s">
-        <v>90</v>
+        <v>977</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>976</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>952</v>
       </c>
       <c r="K15" t="n">
-        <v>18125.0</v>
+        <v>250.0</v>
       </c>
       <c r="O15" t="s">
-        <v>91</v>
+        <v>871</v>
       </c>
       <c r="U15" t="n">
         <v>0.0</v>
@@ -5059,19 +4938,19 @@
     </row>
     <row r="16">
       <c r="C16" t="s">
-        <v>94</v>
+        <v>974</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>973</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>972</v>
       </c>
       <c r="K16" t="n">
-        <v>450.0</v>
+        <v>279000.0</v>
       </c>
       <c r="O16" t="s">
-        <v>95</v>
+        <v>975</v>
       </c>
       <c r="U16" t="n">
         <v>0.0</v>
@@ -5079,19 +4958,19 @@
     </row>
     <row r="17">
       <c r="C17" t="s">
-        <v>98</v>
+        <v>971</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>970</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>969</v>
       </c>
       <c r="K17" t="n">
-        <v>50375.0</v>
+        <v>3375.0</v>
       </c>
       <c r="O17" t="s">
-        <v>99</v>
+        <v>856</v>
       </c>
       <c r="U17" t="n">
         <v>0.0</v>
@@ -5099,19 +4978,19 @@
     </row>
     <row r="18">
       <c r="C18" t="s">
-        <v>102</v>
+        <v>968</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>967</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>966</v>
       </c>
       <c r="K18" t="n">
-        <v>73500.0</v>
+        <v>10625.0</v>
       </c>
       <c r="O18" t="s">
-        <v>103</v>
+        <v>902</v>
       </c>
       <c r="U18" t="n">
         <v>0.0</v>
@@ -5119,19 +4998,19 @@
     </row>
     <row r="19">
       <c r="C19" t="s">
-        <v>105</v>
+        <v>964</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>963</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>962</v>
       </c>
       <c r="K19" t="n">
-        <v>1050.0</v>
+        <v>4500.0</v>
       </c>
       <c r="O19" t="s">
-        <v>79</v>
+        <v>965</v>
       </c>
       <c r="U19" t="n">
         <v>0.0</v>
@@ -5139,19 +5018,19 @@
     </row>
     <row r="20">
       <c r="C20" t="s">
-        <v>108</v>
+        <v>960</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>959</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>958</v>
       </c>
       <c r="K20" t="n">
-        <v>10500.0</v>
+        <v>70250.0</v>
       </c>
       <c r="O20" t="s">
-        <v>109</v>
+        <v>961</v>
       </c>
       <c r="U20" t="n">
         <v>0.0</v>
@@ -5159,19 +5038,19 @@
     </row>
     <row r="21">
       <c r="C21" t="s">
-        <v>112</v>
+        <v>957</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>956</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>955</v>
       </c>
       <c r="K21" t="n">
-        <v>2125.0</v>
+        <v>200.0</v>
       </c>
       <c r="O21" t="s">
-        <v>113</v>
+        <v>944</v>
       </c>
       <c r="U21" t="n">
         <v>0.0</v>
@@ -5179,19 +5058,19 @@
     </row>
     <row r="22">
       <c r="C22" t="s">
-        <v>116</v>
+        <v>954</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>953</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>952</v>
       </c>
       <c r="K22" t="n">
-        <v>200.0</v>
+        <v>125.0</v>
       </c>
       <c r="O22" t="s">
-        <v>117</v>
+        <v>871</v>
       </c>
       <c r="U22" t="n">
         <v>0.0</v>
@@ -5199,19 +5078,19 @@
     </row>
     <row r="23">
       <c r="C23" t="s">
-        <v>120</v>
+        <v>951</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>950</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>949</v>
       </c>
       <c r="K23" t="n">
-        <v>3125.0</v>
+        <v>200.0</v>
       </c>
       <c r="O23" t="s">
-        <v>121</v>
+        <v>930</v>
       </c>
       <c r="U23" t="n">
         <v>0.0</v>
@@ -5219,19 +5098,19 @@
     </row>
     <row r="24">
       <c r="C24" t="s">
-        <v>124</v>
+        <v>947</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>946</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>945</v>
       </c>
       <c r="K24" t="n">
-        <v>186250.0</v>
+        <v>500.0</v>
       </c>
       <c r="O24" t="s">
-        <v>125</v>
+        <v>948</v>
       </c>
       <c r="U24" t="n">
         <v>0.0</v>
@@ -5239,19 +5118,19 @@
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>128</v>
+        <v>943</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>942</v>
       </c>
       <c r="E25" t="s">
-        <v>126</v>
+        <v>941</v>
       </c>
       <c r="K25" t="n">
-        <v>2800.0</v>
+        <v>1500.0</v>
       </c>
       <c r="O25" t="s">
-        <v>129</v>
+        <v>944</v>
       </c>
       <c r="U25" t="n">
         <v>0.0</v>
@@ -5259,19 +5138,19 @@
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>132</v>
+        <v>939</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>932</v>
       </c>
       <c r="E26" t="s">
-        <v>130</v>
+        <v>938</v>
       </c>
       <c r="K26" t="n">
-        <v>1250.0</v>
+        <v>125.0</v>
       </c>
       <c r="O26" t="s">
-        <v>133</v>
+        <v>940</v>
       </c>
       <c r="U26" t="n">
         <v>0.0</v>
@@ -5279,19 +5158,19 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>136</v>
+        <v>936</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>932</v>
       </c>
       <c r="E27" t="s">
-        <v>134</v>
+        <v>935</v>
       </c>
       <c r="K27" t="n">
-        <v>300.0</v>
+        <v>125.0</v>
       </c>
       <c r="O27" t="s">
-        <v>137</v>
+        <v>937</v>
       </c>
       <c r="U27" t="n">
         <v>0.0</v>
@@ -5299,19 +5178,19 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>140</v>
+        <v>933</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>932</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>931</v>
       </c>
       <c r="K28" t="n">
-        <v>2625.0</v>
+        <v>750.0</v>
       </c>
       <c r="O28" t="s">
-        <v>141</v>
+        <v>934</v>
       </c>
       <c r="U28" t="n">
         <v>0.0</v>
@@ -5319,19 +5198,19 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>144</v>
+        <v>929</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>928</v>
       </c>
       <c r="E29" t="s">
-        <v>142</v>
+        <v>927</v>
       </c>
       <c r="K29" t="n">
-        <v>68000.0</v>
+        <v>400.0</v>
       </c>
       <c r="O29" t="s">
-        <v>145</v>
+        <v>930</v>
       </c>
       <c r="U29" t="n">
         <v>0.0</v>
@@ -5339,19 +5218,19 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>148</v>
+        <v>925</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>924</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
+        <v>923</v>
       </c>
       <c r="K30" t="n">
-        <v>1000.0</v>
+        <v>5250.0</v>
       </c>
       <c r="O30" t="s">
-        <v>149</v>
+        <v>926</v>
       </c>
       <c r="U30" t="n">
         <v>0.0</v>
@@ -5359,19 +5238,19 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>151</v>
+        <v>921</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>920</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>919</v>
       </c>
       <c r="K31" t="n">
-        <v>8250.0</v>
+        <v>12200.0</v>
       </c>
       <c r="O31" t="s">
-        <v>95</v>
+        <v>922</v>
       </c>
       <c r="U31" t="n">
         <v>0.0</v>
@@ -5379,19 +5258,19 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>154</v>
+        <v>918</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>917</v>
       </c>
       <c r="E32" t="s">
-        <v>152</v>
+        <v>916</v>
       </c>
       <c r="K32" t="n">
-        <v>378375.0</v>
+        <v>200.0</v>
       </c>
       <c r="O32" t="s">
-        <v>113</v>
+        <v>871</v>
       </c>
       <c r="U32" t="n">
         <v>0.0</v>
@@ -5399,19 +5278,19 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>157</v>
+        <v>914</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>913</v>
       </c>
       <c r="E33" t="s">
-        <v>155</v>
+        <v>912</v>
       </c>
       <c r="K33" t="n">
-        <v>6375.0</v>
+        <v>12125.0</v>
       </c>
       <c r="O33" t="s">
-        <v>158</v>
+        <v>915</v>
       </c>
       <c r="U33" t="n">
         <v>0.0</v>
@@ -5419,19 +5298,19 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>161</v>
+        <v>910</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>909</v>
       </c>
       <c r="E34" t="s">
-        <v>159</v>
+        <v>908</v>
       </c>
       <c r="K34" t="n">
-        <v>1050.0</v>
+        <v>200.0</v>
       </c>
       <c r="O34" t="s">
-        <v>162</v>
+        <v>911</v>
       </c>
       <c r="U34" t="n">
         <v>0.0</v>
@@ -5439,19 +5318,19 @@
     </row>
     <row r="35">
       <c r="C35" t="s">
-        <v>165</v>
+        <v>906</v>
       </c>
       <c r="D35" t="s">
-        <v>164</v>
+        <v>905</v>
       </c>
       <c r="E35" t="s">
-        <v>163</v>
+        <v>904</v>
       </c>
       <c r="K35" t="n">
-        <v>200.0</v>
+        <v>2250.0</v>
       </c>
       <c r="O35" t="s">
-        <v>166</v>
+        <v>907</v>
       </c>
       <c r="U35" t="n">
         <v>0.0</v>
@@ -5459,19 +5338,19 @@
     </row>
     <row r="36">
       <c r="C36" t="s">
-        <v>169</v>
+        <v>901</v>
       </c>
       <c r="D36" t="s">
-        <v>168</v>
+        <v>900</v>
       </c>
       <c r="E36" t="s">
-        <v>167</v>
+        <v>899</v>
       </c>
       <c r="K36" t="n">
-        <v>11875.0</v>
+        <v>3000.0</v>
       </c>
       <c r="O36" t="s">
-        <v>170</v>
+        <v>903</v>
       </c>
       <c r="U36" t="n">
         <v>0.0</v>
@@ -5479,19 +5358,19 @@
     </row>
     <row r="37">
       <c r="C37" t="s">
-        <v>173</v>
+        <v>901</v>
       </c>
       <c r="D37" t="s">
-        <v>172</v>
+        <v>900</v>
       </c>
       <c r="E37" t="s">
-        <v>171</v>
+        <v>899</v>
       </c>
       <c r="K37" t="n">
-        <v>1125.0</v>
+        <v>50625.0</v>
       </c>
       <c r="O37" t="s">
-        <v>174</v>
+        <v>902</v>
       </c>
       <c r="U37" t="n">
         <v>0.0</v>
@@ -5499,19 +5378,19 @@
     </row>
     <row r="38">
       <c r="C38" t="s">
-        <v>177</v>
+        <v>897</v>
       </c>
       <c r="D38" t="s">
-        <v>176</v>
+        <v>896</v>
       </c>
       <c r="E38" t="s">
-        <v>175</v>
+        <v>895</v>
       </c>
       <c r="K38" t="n">
-        <v>875.0</v>
+        <v>33625.0</v>
       </c>
       <c r="O38" t="s">
-        <v>178</v>
+        <v>898</v>
       </c>
       <c r="U38" t="n">
         <v>0.0</v>
@@ -5519,19 +5398,19 @@
     </row>
     <row r="39">
       <c r="C39" t="s">
-        <v>181</v>
+        <v>893</v>
       </c>
       <c r="D39" t="s">
-        <v>180</v>
+        <v>892</v>
       </c>
       <c r="E39" t="s">
-        <v>179</v>
+        <v>864</v>
       </c>
       <c r="K39" t="n">
-        <v>94750.0</v>
+        <v>2875.0</v>
       </c>
       <c r="O39" t="s">
-        <v>182</v>
+        <v>894</v>
       </c>
       <c r="U39" t="n">
         <v>0.0</v>
@@ -5539,19 +5418,19 @@
     </row>
     <row r="40">
       <c r="C40" t="s">
-        <v>185</v>
+        <v>890</v>
       </c>
       <c r="D40" t="s">
-        <v>184</v>
+        <v>889</v>
       </c>
       <c r="E40" t="s">
-        <v>183</v>
+        <v>888</v>
       </c>
       <c r="K40" t="n">
-        <v>6500.0</v>
+        <v>36000.0</v>
       </c>
       <c r="O40" t="s">
-        <v>186</v>
+        <v>891</v>
       </c>
       <c r="U40" t="n">
         <v>0.0</v>
@@ -5559,19 +5438,19 @@
     </row>
     <row r="41">
       <c r="C41" t="s">
-        <v>188</v>
+        <v>886</v>
       </c>
       <c r="D41" t="s">
-        <v>187</v>
+        <v>885</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>884</v>
       </c>
       <c r="K41" t="n">
-        <v>1125.0</v>
+        <v>7000.0</v>
       </c>
       <c r="O41" t="s">
-        <v>91</v>
+        <v>887</v>
       </c>
       <c r="U41" t="n">
         <v>0.0</v>
@@ -5579,19 +5458,19 @@
     </row>
     <row r="42">
       <c r="C42" t="s">
-        <v>190</v>
+        <v>882</v>
       </c>
       <c r="D42" t="s">
-        <v>189</v>
+        <v>881</v>
       </c>
       <c r="E42" t="s">
-        <v>167</v>
+        <v>880</v>
       </c>
       <c r="K42" t="n">
-        <v>1600.0</v>
+        <v>642125.0</v>
       </c>
       <c r="O42" t="s">
-        <v>170</v>
+        <v>883</v>
       </c>
       <c r="U42" t="n">
         <v>0.0</v>
@@ -5599,19 +5478,19 @@
     </row>
     <row r="43">
       <c r="C43" t="s">
-        <v>193</v>
+        <v>878</v>
       </c>
       <c r="D43" t="s">
-        <v>192</v>
+        <v>877</v>
       </c>
       <c r="E43" t="s">
-        <v>191</v>
+        <v>876</v>
       </c>
       <c r="K43" t="n">
-        <v>20500.0</v>
+        <v>750.0</v>
       </c>
       <c r="O43" t="s">
-        <v>182</v>
+        <v>879</v>
       </c>
       <c r="U43" t="n">
         <v>0.0</v>
@@ -5619,19 +5498,19 @@
     </row>
     <row r="44">
       <c r="C44" t="s">
-        <v>196</v>
+        <v>874</v>
       </c>
       <c r="D44" t="s">
-        <v>195</v>
+        <v>873</v>
       </c>
       <c r="E44" t="s">
-        <v>194</v>
+        <v>872</v>
       </c>
       <c r="K44" t="n">
-        <v>800.0</v>
+        <v>1750.0</v>
       </c>
       <c r="O44" t="s">
-        <v>197</v>
+        <v>875</v>
       </c>
       <c r="U44" t="n">
         <v>0.0</v>
@@ -5639,19 +5518,19 @@
     </row>
     <row r="45">
       <c r="C45" t="s">
-        <v>200</v>
+        <v>870</v>
       </c>
       <c r="D45" t="s">
-        <v>199</v>
+        <v>869</v>
       </c>
       <c r="E45" t="s">
-        <v>198</v>
+        <v>868</v>
       </c>
       <c r="K45" t="n">
-        <v>79750.0</v>
+        <v>1750.0</v>
       </c>
       <c r="O45" t="s">
-        <v>201</v>
+        <v>871</v>
       </c>
       <c r="U45" t="n">
         <v>0.0</v>
@@ -5659,19 +5538,19 @@
     </row>
     <row r="46">
       <c r="C46" t="s">
-        <v>204</v>
+        <v>866</v>
       </c>
       <c r="D46" t="s">
-        <v>203</v>
+        <v>865</v>
       </c>
       <c r="E46" t="s">
-        <v>202</v>
+        <v>864</v>
       </c>
       <c r="K46" t="n">
-        <v>200.0</v>
+        <v>2625.0</v>
       </c>
       <c r="O46" t="s">
-        <v>205</v>
+        <v>867</v>
       </c>
       <c r="U46" t="n">
         <v>0.0</v>
@@ -5679,19 +5558,19 @@
     </row>
     <row r="47">
       <c r="C47" t="s">
-        <v>208</v>
+        <v>863</v>
       </c>
       <c r="D47" t="s">
-        <v>207</v>
+        <v>862</v>
       </c>
       <c r="E47" t="s">
-        <v>206</v>
+        <v>861</v>
       </c>
       <c r="K47" t="n">
-        <v>150.0</v>
+        <v>2125.0</v>
       </c>
       <c r="O47" t="s">
-        <v>209</v>
+        <v>856</v>
       </c>
       <c r="U47" t="n">
         <v>0.0</v>
@@ -5699,19 +5578,19 @@
     </row>
     <row r="48">
       <c r="C48" t="s">
-        <v>212</v>
+        <v>859</v>
       </c>
       <c r="D48" t="s">
-        <v>211</v>
+        <v>858</v>
       </c>
       <c r="E48" t="s">
-        <v>210</v>
+        <v>857</v>
       </c>
       <c r="K48" t="n">
-        <v>375.0</v>
+        <v>17875.0</v>
       </c>
       <c r="O48" t="s">
-        <v>213</v>
+        <v>860</v>
       </c>
       <c r="U48" t="n">
         <v>0.0</v>
@@ -5719,19 +5598,19 @@
     </row>
     <row r="49">
       <c r="C49" t="s">
-        <v>216</v>
+        <v>855</v>
       </c>
       <c r="D49" t="s">
-        <v>215</v>
+        <v>854</v>
       </c>
       <c r="E49" t="s">
-        <v>214</v>
+        <v>853</v>
       </c>
       <c r="K49" t="n">
-        <v>2750.0</v>
+        <v>268500.0</v>
       </c>
       <c r="O49" t="s">
-        <v>217</v>
+        <v>856</v>
       </c>
       <c r="U49" t="n">
         <v>0.0</v>
@@ -5739,19 +5618,19 @@
     </row>
     <row r="50">
       <c r="C50" t="s">
-        <v>220</v>
+        <v>851</v>
       </c>
       <c r="D50" t="s">
-        <v>219</v>
+        <v>850</v>
       </c>
       <c r="E50" t="s">
-        <v>218</v>
+        <v>849</v>
       </c>
       <c r="K50" t="n">
-        <v>150.0</v>
+        <v>1750.0</v>
       </c>
       <c r="O50" t="s">
-        <v>221</v>
+        <v>852</v>
       </c>
       <c r="U50" t="n">
         <v>0.0</v>
@@ -5759,19 +5638,19 @@
     </row>
     <row r="51">
       <c r="C51" t="s">
-        <v>224</v>
+        <v>847</v>
       </c>
       <c r="D51" t="s">
-        <v>223</v>
+        <v>846</v>
       </c>
       <c r="E51" t="s">
-        <v>222</v>
+        <v>51</v>
       </c>
       <c r="K51" t="n">
         <v>150.0</v>
       </c>
       <c r="O51" t="s">
-        <v>225</v>
+        <v>848</v>
       </c>
       <c r="U51" t="n">
         <v>0.0</v>
@@ -5779,19 +5658,19 @@
     </row>
     <row r="52">
       <c r="C52" t="s">
-        <v>228</v>
+        <v>845</v>
       </c>
       <c r="D52" t="s">
-        <v>227</v>
+        <v>844</v>
       </c>
       <c r="E52" t="s">
-        <v>226</v>
+        <v>51</v>
       </c>
       <c r="K52" t="n">
-        <v>21000.0</v>
+        <v>150.0</v>
       </c>
       <c r="O52" t="s">
-        <v>103</v>
+        <v>843</v>
       </c>
       <c r="U52" t="n">
         <v>0.0</v>
@@ -5799,19 +5678,19 @@
     </row>
     <row r="53">
       <c r="C53" t="s">
-        <v>231</v>
+        <v>842</v>
       </c>
       <c r="D53" t="s">
-        <v>230</v>
+        <v>841</v>
       </c>
       <c r="E53" t="s">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="K53" t="n">
-        <v>82125.0</v>
+        <v>450.0</v>
       </c>
       <c r="O53" t="s">
-        <v>232</v>
+        <v>843</v>
       </c>
       <c r="U53" t="n">
         <v>0.0</v>
@@ -5819,19 +5698,19 @@
     </row>
     <row r="54">
       <c r="C54" t="s">
-        <v>235</v>
+        <v>839</v>
       </c>
       <c r="D54" t="s">
-        <v>234</v>
+        <v>838</v>
       </c>
       <c r="E54" t="s">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="K54" t="n">
-        <v>2750.0</v>
+        <v>150.0</v>
       </c>
       <c r="O54" t="s">
-        <v>236</v>
+        <v>840</v>
       </c>
       <c r="U54" t="n">
         <v>0.0</v>
@@ -5839,19 +5718,19 @@
     </row>
     <row r="55">
       <c r="C55" t="s">
-        <v>239</v>
+        <v>836</v>
       </c>
       <c r="D55" t="s">
-        <v>238</v>
+        <v>835</v>
       </c>
       <c r="E55" t="s">
-        <v>237</v>
+        <v>51</v>
       </c>
       <c r="K55" t="n">
-        <v>14375.0</v>
+        <v>200.0</v>
       </c>
       <c r="O55" t="s">
-        <v>240</v>
+        <v>837</v>
       </c>
       <c r="U55" t="n">
         <v>0.0</v>
@@ -5859,19 +5738,19 @@
     </row>
     <row r="56">
       <c r="C56" t="s">
-        <v>243</v>
+        <v>833</v>
       </c>
       <c r="D56" t="s">
-        <v>242</v>
+        <v>832</v>
       </c>
       <c r="E56" t="s">
-        <v>241</v>
+        <v>51</v>
       </c>
       <c r="K56" t="n">
-        <v>1350.0</v>
+        <v>3150.0</v>
       </c>
       <c r="O56" t="s">
-        <v>244</v>
+        <v>834</v>
       </c>
       <c r="U56" t="n">
         <v>0.0</v>
@@ -5879,19 +5758,19 @@
     </row>
     <row r="57">
       <c r="C57" t="s">
-        <v>247</v>
+        <v>830</v>
       </c>
       <c r="D57" t="s">
-        <v>246</v>
+        <v>829</v>
       </c>
       <c r="E57" t="s">
-        <v>245</v>
+        <v>51</v>
       </c>
       <c r="K57" t="n">
-        <v>1250.0</v>
+        <v>150.0</v>
       </c>
       <c r="O57" t="s">
-        <v>248</v>
+        <v>831</v>
       </c>
       <c r="U57" t="n">
         <v>0.0</v>
@@ -5899,19 +5778,19 @@
     </row>
     <row r="58">
       <c r="C58" t="s">
-        <v>251</v>
+        <v>827</v>
       </c>
       <c r="D58" t="s">
-        <v>250</v>
+        <v>824</v>
       </c>
       <c r="E58" t="s">
-        <v>249</v>
+        <v>51</v>
       </c>
       <c r="K58" t="n">
-        <v>34375.0</v>
+        <v>300.0</v>
       </c>
       <c r="O58" t="s">
-        <v>252</v>
+        <v>828</v>
       </c>
       <c r="U58" t="n">
         <v>0.0</v>
@@ -5919,19 +5798,19 @@
     </row>
     <row r="59">
       <c r="C59" t="s">
-        <v>255</v>
+        <v>825</v>
       </c>
       <c r="D59" t="s">
-        <v>254</v>
+        <v>824</v>
       </c>
       <c r="E59" t="s">
-        <v>253</v>
+        <v>51</v>
       </c>
       <c r="K59" t="n">
-        <v>150.0</v>
+        <v>300.0</v>
       </c>
       <c r="O59" t="s">
-        <v>256</v>
+        <v>826</v>
       </c>
       <c r="U59" t="n">
         <v>0.0</v>
@@ -5939,19 +5818,19 @@
     </row>
     <row r="60">
       <c r="C60" t="s">
-        <v>259</v>
+        <v>822</v>
       </c>
       <c r="D60" t="s">
-        <v>258</v>
+        <v>821</v>
       </c>
       <c r="E60" t="s">
-        <v>257</v>
+        <v>51</v>
       </c>
       <c r="K60" t="n">
-        <v>2500.0</v>
+        <v>2100.0</v>
       </c>
       <c r="O60" t="s">
-        <v>260</v>
+        <v>823</v>
       </c>
       <c r="U60" t="n">
         <v>0.0</v>
@@ -5959,19 +5838,19 @@
     </row>
     <row r="61">
       <c r="C61" t="s">
-        <v>263</v>
+        <v>819</v>
       </c>
       <c r="D61" t="s">
-        <v>262</v>
+        <v>818</v>
       </c>
       <c r="E61" t="s">
-        <v>261</v>
+        <v>51</v>
       </c>
       <c r="K61" t="n">
-        <v>3000.0</v>
+        <v>300.0</v>
       </c>
       <c r="O61" t="s">
-        <v>264</v>
+        <v>820</v>
       </c>
       <c r="U61" t="n">
         <v>0.0</v>
@@ -5979,19 +5858,19 @@
     </row>
     <row r="62">
       <c r="C62" t="s">
-        <v>267</v>
+        <v>817</v>
       </c>
       <c r="D62" t="s">
-        <v>266</v>
+        <v>816</v>
       </c>
       <c r="E62" t="s">
-        <v>265</v>
+        <v>51</v>
       </c>
       <c r="K62" t="n">
-        <v>1750.0</v>
+        <v>600.0</v>
       </c>
       <c r="O62" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="U62" t="n">
         <v>0.0</v>
@@ -5999,19 +5878,19 @@
     </row>
     <row r="63">
       <c r="C63" t="s">
-        <v>271</v>
+        <v>814</v>
       </c>
       <c r="D63" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E63" t="s">
-        <v>269</v>
+        <v>51</v>
       </c>
       <c r="K63" t="n">
-        <v>72875.0</v>
+        <v>200.0</v>
       </c>
       <c r="O63" t="s">
-        <v>272</v>
+        <v>815</v>
       </c>
       <c r="U63" t="n">
         <v>0.0</v>
@@ -6019,19 +5898,19 @@
     </row>
     <row r="64">
       <c r="C64" t="s">
-        <v>275</v>
+        <v>812</v>
       </c>
       <c r="D64" t="s">
-        <v>274</v>
+        <v>811</v>
       </c>
       <c r="E64" t="s">
-        <v>273</v>
+        <v>51</v>
       </c>
       <c r="K64" t="n">
-        <v>13875.0</v>
+        <v>128750.0</v>
       </c>
       <c r="O64" t="s">
-        <v>276</v>
+        <v>813</v>
       </c>
       <c r="U64" t="n">
         <v>0.0</v>
@@ -6039,19 +5918,19 @@
     </row>
     <row r="65">
       <c r="C65" t="s">
-        <v>279</v>
+        <v>809</v>
       </c>
       <c r="D65" t="s">
-        <v>278</v>
+        <v>808</v>
       </c>
       <c r="E65" t="s">
-        <v>277</v>
+        <v>51</v>
       </c>
       <c r="K65" t="n">
-        <v>18800.0</v>
+        <v>900.0</v>
       </c>
       <c r="O65" t="s">
-        <v>280</v>
+        <v>810</v>
       </c>
       <c r="U65" t="n">
         <v>0.0</v>
@@ -6059,19 +5938,19 @@
     </row>
     <row r="66">
       <c r="C66" t="s">
-        <v>283</v>
+        <v>807</v>
       </c>
       <c r="D66" t="s">
-        <v>282</v>
+        <v>806</v>
       </c>
       <c r="E66" t="s">
-        <v>281</v>
+        <v>51</v>
       </c>
       <c r="K66" t="n">
-        <v>125.0</v>
+        <v>600.0</v>
       </c>
       <c r="O66" t="s">
-        <v>284</v>
+        <v>221</v>
       </c>
       <c r="U66" t="n">
         <v>0.0</v>
@@ -6079,19 +5958,19 @@
     </row>
     <row r="67">
       <c r="C67" t="s">
-        <v>287</v>
+        <v>805</v>
       </c>
       <c r="D67" t="s">
-        <v>286</v>
+        <v>804</v>
       </c>
       <c r="E67" t="s">
-        <v>285</v>
+        <v>51</v>
       </c>
       <c r="K67" t="n">
-        <v>150.0</v>
+        <v>1000.0</v>
       </c>
       <c r="O67" t="s">
-        <v>288</v>
+        <v>696</v>
       </c>
       <c r="U67" t="n">
         <v>0.0</v>
@@ -6099,19 +5978,19 @@
     </row>
     <row r="68">
       <c r="C68" t="s">
-        <v>291</v>
+        <v>802</v>
       </c>
       <c r="D68" t="s">
-        <v>290</v>
+        <v>801</v>
       </c>
       <c r="E68" t="s">
-        <v>289</v>
+        <v>51</v>
       </c>
       <c r="K68" t="n">
-        <v>200.0</v>
+        <v>44400.0</v>
       </c>
       <c r="O68" t="s">
-        <v>289</v>
+        <v>803</v>
       </c>
       <c r="U68" t="n">
         <v>0.0</v>
@@ -6119,19 +5998,19 @@
     </row>
     <row r="69">
       <c r="C69" t="s">
-        <v>294</v>
+        <v>799</v>
       </c>
       <c r="D69" t="s">
-        <v>293</v>
+        <v>798</v>
       </c>
       <c r="E69" t="s">
-        <v>292</v>
+        <v>51</v>
       </c>
       <c r="K69" t="n">
-        <v>1038000.0</v>
+        <v>2550.0</v>
       </c>
       <c r="O69" t="s">
-        <v>292</v>
+        <v>800</v>
       </c>
       <c r="U69" t="n">
         <v>0.0</v>
@@ -6139,19 +6018,19 @@
     </row>
     <row r="70">
       <c r="C70" t="s">
-        <v>297</v>
+        <v>797</v>
       </c>
       <c r="D70" t="s">
-        <v>296</v>
+        <v>796</v>
       </c>
       <c r="E70" t="s">
-        <v>295</v>
+        <v>51</v>
       </c>
       <c r="K70" t="n">
-        <v>150.0</v>
+        <v>191625.0</v>
       </c>
       <c r="O70" t="s">
-        <v>298</v>
+        <v>795</v>
       </c>
       <c r="U70" t="n">
         <v>0.0</v>
@@ -6159,19 +6038,19 @@
     </row>
     <row r="71">
       <c r="C71" t="s">
-        <v>301</v>
+        <v>794</v>
       </c>
       <c r="D71" t="s">
-        <v>300</v>
+        <v>793</v>
       </c>
       <c r="E71" t="s">
-        <v>299</v>
+        <v>51</v>
       </c>
       <c r="K71" t="n">
-        <v>150.0</v>
+        <v>17375.0</v>
       </c>
       <c r="O71" t="s">
-        <v>302</v>
+        <v>795</v>
       </c>
       <c r="U71" t="n">
         <v>0.0</v>
@@ -6179,19 +6058,19 @@
     </row>
     <row r="72">
       <c r="C72" t="s">
-        <v>305</v>
+        <v>792</v>
       </c>
       <c r="D72" t="s">
-        <v>304</v>
+        <v>791</v>
       </c>
       <c r="E72" t="s">
-        <v>303</v>
+        <v>51</v>
       </c>
       <c r="K72" t="n">
-        <v>3000.0</v>
+        <v>150.0</v>
       </c>
       <c r="O72" t="s">
-        <v>306</v>
+        <v>696</v>
       </c>
       <c r="U72" t="n">
         <v>0.0</v>
@@ -6199,19 +6078,19 @@
     </row>
     <row r="73">
       <c r="C73" t="s">
-        <v>309</v>
+        <v>789</v>
       </c>
       <c r="D73" t="s">
-        <v>308</v>
+        <v>788</v>
       </c>
       <c r="E73" t="s">
-        <v>307</v>
+        <v>51</v>
       </c>
       <c r="K73" t="n">
-        <v>4950.0</v>
+        <v>200.0</v>
       </c>
       <c r="O73" t="s">
-        <v>310</v>
+        <v>790</v>
       </c>
       <c r="U73" t="n">
         <v>0.0</v>
@@ -6219,19 +6098,19 @@
     </row>
     <row r="74">
       <c r="C74" t="s">
-        <v>312</v>
+        <v>786</v>
       </c>
       <c r="D74" t="s">
-        <v>311</v>
+        <v>785</v>
       </c>
       <c r="E74" t="s">
-        <v>289</v>
+        <v>51</v>
       </c>
       <c r="K74" t="n">
         <v>150.0</v>
       </c>
       <c r="O74" t="s">
-        <v>289</v>
+        <v>787</v>
       </c>
       <c r="U74" t="n">
         <v>0.0</v>
@@ -6239,19 +6118,19 @@
     </row>
     <row r="75">
       <c r="C75" t="s">
-        <v>315</v>
+        <v>783</v>
       </c>
       <c r="D75" t="s">
-        <v>314</v>
+        <v>782</v>
       </c>
       <c r="E75" t="s">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="K75" t="n">
         <v>150.0</v>
       </c>
       <c r="O75" t="s">
-        <v>316</v>
+        <v>784</v>
       </c>
       <c r="U75" t="n">
         <v>0.0</v>
@@ -6259,19 +6138,19 @@
     </row>
     <row r="76">
       <c r="C76" t="s">
-        <v>319</v>
+        <v>781</v>
       </c>
       <c r="D76" t="s">
-        <v>318</v>
+        <v>780</v>
       </c>
       <c r="E76" t="s">
-        <v>317</v>
+        <v>51</v>
       </c>
       <c r="K76" t="n">
-        <v>44875.0</v>
+        <v>200.0</v>
       </c>
       <c r="O76" t="s">
-        <v>320</v>
+        <v>690</v>
       </c>
       <c r="U76" t="n">
         <v>0.0</v>
@@ -6279,19 +6158,19 @@
     </row>
     <row r="77">
       <c r="C77" t="s">
-        <v>323</v>
+        <v>779</v>
       </c>
       <c r="D77" t="s">
-        <v>322</v>
+        <v>778</v>
       </c>
       <c r="E77" t="s">
-        <v>321</v>
+        <v>51</v>
       </c>
       <c r="K77" t="n">
-        <v>300.0</v>
+        <v>150.0</v>
       </c>
       <c r="O77" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="U77" t="n">
         <v>0.0</v>
@@ -6299,19 +6178,19 @@
     </row>
     <row r="78">
       <c r="C78" t="s">
-        <v>326</v>
+        <v>776</v>
       </c>
       <c r="D78" t="s">
-        <v>325</v>
+        <v>775</v>
       </c>
       <c r="E78" t="s">
-        <v>289</v>
+        <v>51</v>
       </c>
       <c r="K78" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="O78" t="s">
-        <v>289</v>
+        <v>777</v>
       </c>
       <c r="U78" t="n">
         <v>0.0</v>
@@ -6319,19 +6198,19 @@
     </row>
     <row r="79">
       <c r="C79" t="s">
-        <v>328</v>
+        <v>774</v>
       </c>
       <c r="D79" t="s">
-        <v>327</v>
+        <v>773</v>
       </c>
       <c r="E79" t="s">
-        <v>285</v>
+        <v>51</v>
       </c>
       <c r="K79" t="n">
-        <v>300.0</v>
+        <v>800.0</v>
       </c>
       <c r="O79" t="s">
-        <v>329</v>
+        <v>217</v>
       </c>
       <c r="U79" t="n">
         <v>0.0</v>
@@ -6339,19 +6218,19 @@
     </row>
     <row r="80">
       <c r="C80" t="s">
-        <v>332</v>
+        <v>772</v>
       </c>
       <c r="D80" t="s">
-        <v>331</v>
+        <v>771</v>
       </c>
       <c r="E80" t="s">
-        <v>330</v>
+        <v>51</v>
       </c>
       <c r="K80" t="n">
-        <v>11400.0</v>
+        <v>7600.0</v>
       </c>
       <c r="O80" t="s">
-        <v>333</v>
+        <v>443</v>
       </c>
       <c r="U80" t="n">
         <v>0.0</v>
@@ -6359,19 +6238,19 @@
     </row>
     <row r="81">
       <c r="C81" t="s">
-        <v>335</v>
+        <v>770</v>
       </c>
       <c r="D81" t="s">
-        <v>334</v>
+        <v>769</v>
       </c>
       <c r="E81" t="s">
-        <v>289</v>
+        <v>51</v>
       </c>
       <c r="K81" t="n">
-        <v>3150.0</v>
+        <v>600.0</v>
       </c>
       <c r="O81" t="s">
-        <v>289</v>
+        <v>569</v>
       </c>
       <c r="U81" t="n">
         <v>0.0</v>
@@ -6379,19 +6258,19 @@
     </row>
     <row r="82">
       <c r="C82" t="s">
-        <v>338</v>
+        <v>767</v>
       </c>
       <c r="D82" t="s">
-        <v>337</v>
+        <v>766</v>
       </c>
       <c r="E82" t="s">
-        <v>336</v>
+        <v>51</v>
       </c>
       <c r="K82" t="n">
-        <v>1000.0</v>
+        <v>2550.0</v>
       </c>
       <c r="O82" t="s">
-        <v>324</v>
+        <v>768</v>
       </c>
       <c r="U82" t="n">
         <v>0.0</v>
@@ -6399,19 +6278,19 @@
     </row>
     <row r="83">
       <c r="C83" t="s">
-        <v>341</v>
+        <v>764</v>
       </c>
       <c r="D83" t="s">
-        <v>340</v>
+        <v>763</v>
       </c>
       <c r="E83" t="s">
-        <v>339</v>
+        <v>51</v>
       </c>
       <c r="K83" t="n">
-        <v>9250.0</v>
+        <v>77550.0</v>
       </c>
       <c r="O83" t="s">
-        <v>342</v>
+        <v>765</v>
       </c>
       <c r="U83" t="n">
         <v>0.0</v>
@@ -6419,19 +6298,19 @@
     </row>
     <row r="84">
       <c r="C84" t="s">
-        <v>344</v>
+        <v>761</v>
       </c>
       <c r="D84" t="s">
-        <v>343</v>
+        <v>760</v>
       </c>
       <c r="E84" t="s">
-        <v>330</v>
+        <v>51</v>
       </c>
       <c r="K84" t="n">
-        <v>400.0</v>
+        <v>2600.0</v>
       </c>
       <c r="O84" t="s">
-        <v>333</v>
+        <v>762</v>
       </c>
       <c r="U84" t="n">
         <v>0.0</v>
@@ -6439,19 +6318,19 @@
     </row>
     <row r="85">
       <c r="C85" t="s">
-        <v>347</v>
+        <v>759</v>
       </c>
       <c r="D85" t="s">
-        <v>346</v>
+        <v>758</v>
       </c>
       <c r="E85" t="s">
-        <v>345</v>
+        <v>51</v>
       </c>
       <c r="K85" t="n">
-        <v>900.0</v>
+        <v>150.0</v>
       </c>
       <c r="O85" t="s">
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="U85" t="n">
         <v>0.0</v>
@@ -6459,19 +6338,19 @@
     </row>
     <row r="86">
       <c r="C86" t="s">
-        <v>351</v>
+        <v>757</v>
       </c>
       <c r="D86" t="s">
-        <v>350</v>
+        <v>756</v>
       </c>
       <c r="E86" t="s">
-        <v>349</v>
+        <v>51</v>
       </c>
       <c r="K86" t="n">
-        <v>1800.0</v>
+        <v>133125.0</v>
       </c>
       <c r="O86" t="s">
-        <v>352</v>
+        <v>596</v>
       </c>
       <c r="U86" t="n">
         <v>0.0</v>
@@ -6479,19 +6358,19 @@
     </row>
     <row r="87">
       <c r="C87" t="s">
-        <v>355</v>
+        <v>755</v>
       </c>
       <c r="D87" t="s">
-        <v>354</v>
+        <v>754</v>
       </c>
       <c r="E87" t="s">
-        <v>353</v>
+        <v>51</v>
       </c>
       <c r="K87" t="n">
-        <v>81125.0</v>
+        <v>150.0</v>
       </c>
       <c r="O87" t="s">
-        <v>356</v>
+        <v>298</v>
       </c>
       <c r="U87" t="n">
         <v>0.0</v>
@@ -6499,19 +6378,19 @@
     </row>
     <row r="88">
       <c r="C88" t="s">
-        <v>359</v>
+        <v>753</v>
       </c>
       <c r="D88" t="s">
-        <v>358</v>
+        <v>752</v>
       </c>
       <c r="E88" t="s">
-        <v>357</v>
+        <v>51</v>
       </c>
       <c r="K88" t="n">
-        <v>375.0</v>
+        <v>300.0</v>
       </c>
       <c r="O88" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="U88" t="n">
         <v>0.0</v>
@@ -6519,19 +6398,19 @@
     </row>
     <row r="89">
       <c r="C89" t="s">
-        <v>363</v>
+        <v>750</v>
       </c>
       <c r="D89" t="s">
-        <v>362</v>
+        <v>749</v>
       </c>
       <c r="E89" t="s">
-        <v>361</v>
+        <v>51</v>
       </c>
       <c r="K89" t="n">
-        <v>1200.0</v>
+        <v>450.0</v>
       </c>
       <c r="O89" t="s">
-        <v>364</v>
+        <v>751</v>
       </c>
       <c r="U89" t="n">
         <v>0.0</v>
@@ -6539,19 +6418,19 @@
     </row>
     <row r="90">
       <c r="C90" t="s">
-        <v>367</v>
+        <v>747</v>
       </c>
       <c r="D90" t="s">
-        <v>366</v>
+        <v>746</v>
       </c>
       <c r="E90" t="s">
-        <v>365</v>
+        <v>51</v>
       </c>
       <c r="K90" t="n">
-        <v>140125.0</v>
+        <v>200.0</v>
       </c>
       <c r="O90" t="s">
-        <v>368</v>
+        <v>748</v>
       </c>
       <c r="U90" t="n">
         <v>0.0</v>
@@ -6559,19 +6438,19 @@
     </row>
     <row r="91">
       <c r="C91" t="s">
-        <v>371</v>
+        <v>745</v>
       </c>
       <c r="D91" t="s">
-        <v>370</v>
+        <v>744</v>
       </c>
       <c r="E91" t="s">
-        <v>369</v>
+        <v>51</v>
       </c>
       <c r="K91" t="n">
-        <v>2000.0</v>
+        <v>150.0</v>
       </c>
       <c r="O91" t="s">
-        <v>372</v>
+        <v>486</v>
       </c>
       <c r="U91" t="n">
         <v>0.0</v>
@@ -6579,19 +6458,19 @@
     </row>
     <row r="92">
       <c r="C92" t="s">
-        <v>375</v>
+        <v>743</v>
       </c>
       <c r="D92" t="s">
-        <v>374</v>
+        <v>742</v>
       </c>
       <c r="E92" t="s">
-        <v>373</v>
+        <v>51</v>
       </c>
       <c r="K92" t="n">
-        <v>1800.0</v>
+        <v>150.0</v>
       </c>
       <c r="O92" t="s">
-        <v>376</v>
+        <v>298</v>
       </c>
       <c r="U92" t="n">
         <v>0.0</v>
@@ -6599,19 +6478,19 @@
     </row>
     <row r="93">
       <c r="C93" t="s">
-        <v>379</v>
+        <v>741</v>
       </c>
       <c r="D93" t="s">
-        <v>378</v>
+        <v>740</v>
       </c>
       <c r="E93" t="s">
-        <v>377</v>
+        <v>51</v>
       </c>
       <c r="K93" t="n">
-        <v>300.0</v>
+        <v>7800.0</v>
       </c>
       <c r="O93" t="s">
-        <v>380</v>
+        <v>443</v>
       </c>
       <c r="U93" t="n">
         <v>0.0</v>
@@ -6619,19 +6498,19 @@
     </row>
     <row r="94">
       <c r="C94" t="s">
-        <v>383</v>
+        <v>739</v>
       </c>
       <c r="D94" t="s">
-        <v>382</v>
+        <v>738</v>
       </c>
       <c r="E94" t="s">
-        <v>381</v>
+        <v>51</v>
       </c>
       <c r="K94" t="n">
-        <v>375.0</v>
+        <v>600.0</v>
       </c>
       <c r="O94" t="s">
-        <v>384</v>
+        <v>298</v>
       </c>
       <c r="U94" t="n">
         <v>0.0</v>
@@ -6639,19 +6518,19 @@
     </row>
     <row r="95">
       <c r="C95" t="s">
-        <v>387</v>
+        <v>736</v>
       </c>
       <c r="D95" t="s">
-        <v>386</v>
+        <v>735</v>
       </c>
       <c r="E95" t="s">
-        <v>385</v>
+        <v>51</v>
       </c>
       <c r="K95" t="n">
-        <v>24500.0</v>
+        <v>300.0</v>
       </c>
       <c r="O95" t="s">
-        <v>388</v>
+        <v>737</v>
       </c>
       <c r="U95" t="n">
         <v>0.0</v>
@@ -6659,19 +6538,19 @@
     </row>
     <row r="96">
       <c r="C96" t="s">
-        <v>391</v>
+        <v>734</v>
       </c>
       <c r="D96" t="s">
-        <v>390</v>
+        <v>733</v>
       </c>
       <c r="E96" t="s">
-        <v>389</v>
+        <v>51</v>
       </c>
       <c r="K96" t="n">
-        <v>3200.0</v>
+        <v>200.0</v>
       </c>
       <c r="O96" t="s">
-        <v>392</v>
+        <v>597</v>
       </c>
       <c r="U96" t="n">
         <v>0.0</v>
@@ -6679,19 +6558,19 @@
     </row>
     <row r="97">
       <c r="C97" t="s">
-        <v>395</v>
+        <v>732</v>
       </c>
       <c r="D97" t="s">
-        <v>394</v>
+        <v>731</v>
       </c>
       <c r="E97" t="s">
-        <v>393</v>
+        <v>51</v>
       </c>
       <c r="K97" t="n">
-        <v>150.0</v>
+        <v>7200.0</v>
       </c>
       <c r="O97" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="U97" t="n">
         <v>0.0</v>
@@ -6699,19 +6578,19 @@
     </row>
     <row r="98">
       <c r="C98" t="s">
-        <v>398</v>
+        <v>730</v>
       </c>
       <c r="D98" t="s">
-        <v>397</v>
+        <v>729</v>
       </c>
       <c r="E98" t="s">
-        <v>396</v>
+        <v>51</v>
       </c>
       <c r="K98" t="n">
-        <v>2100.0</v>
+        <v>42750.0</v>
       </c>
       <c r="O98" t="s">
-        <v>399</v>
+        <v>320</v>
       </c>
       <c r="U98" t="n">
         <v>0.0</v>
@@ -6719,19 +6598,19 @@
     </row>
     <row r="99">
       <c r="C99" t="s">
-        <v>402</v>
+        <v>727</v>
       </c>
       <c r="D99" t="s">
-        <v>401</v>
+        <v>726</v>
       </c>
       <c r="E99" t="s">
-        <v>400</v>
+        <v>51</v>
       </c>
       <c r="K99" t="n">
-        <v>10950.0</v>
+        <v>150.0</v>
       </c>
       <c r="O99" t="s">
-        <v>403</v>
+        <v>728</v>
       </c>
       <c r="U99" t="n">
         <v>0.0</v>
@@ -6739,19 +6618,19 @@
     </row>
     <row r="100">
       <c r="C100" t="s">
-        <v>406</v>
+        <v>724</v>
       </c>
       <c r="D100" t="s">
-        <v>405</v>
+        <v>723</v>
       </c>
       <c r="E100" t="s">
-        <v>404</v>
+        <v>51</v>
       </c>
       <c r="K100" t="n">
-        <v>200.0</v>
+        <v>150.0</v>
       </c>
       <c r="O100" t="s">
-        <v>407</v>
+        <v>725</v>
       </c>
       <c r="U100" t="n">
         <v>0.0</v>
@@ -6759,19 +6638,19 @@
     </row>
     <row r="101">
       <c r="C101" t="s">
-        <v>409</v>
+        <v>722</v>
       </c>
       <c r="D101" t="s">
-        <v>408</v>
+        <v>721</v>
       </c>
       <c r="E101" t="s">
-        <v>396</v>
+        <v>51</v>
       </c>
       <c r="K101" t="n">
-        <v>1050.0</v>
+        <v>200.0</v>
       </c>
       <c r="O101" t="s">
-        <v>399</v>
+        <v>320</v>
       </c>
       <c r="U101" t="n">
         <v>0.0</v>
@@ -6779,19 +6658,19 @@
     </row>
     <row r="102">
       <c r="C102" t="s">
-        <v>412</v>
+        <v>719</v>
       </c>
       <c r="D102" t="s">
-        <v>411</v>
+        <v>718</v>
       </c>
       <c r="E102" t="s">
-        <v>410</v>
+        <v>51</v>
       </c>
       <c r="K102" t="n">
-        <v>600.0</v>
+        <v>5500.0</v>
       </c>
       <c r="O102" t="s">
-        <v>413</v>
+        <v>720</v>
       </c>
       <c r="U102" t="n">
         <v>0.0</v>
@@ -6799,19 +6678,19 @@
     </row>
     <row r="103">
       <c r="C103" t="s">
-        <v>416</v>
+        <v>716</v>
       </c>
       <c r="D103" t="s">
-        <v>415</v>
+        <v>715</v>
       </c>
       <c r="E103" t="s">
-        <v>414</v>
+        <v>51</v>
       </c>
       <c r="K103" t="n">
-        <v>300.0</v>
+        <v>15000.0</v>
       </c>
       <c r="O103" t="s">
-        <v>417</v>
+        <v>717</v>
       </c>
       <c r="U103" t="n">
         <v>0.0</v>
@@ -6819,19 +6698,19 @@
     </row>
     <row r="104">
       <c r="C104" t="s">
-        <v>420</v>
+        <v>713</v>
       </c>
       <c r="D104" t="s">
-        <v>419</v>
+        <v>712</v>
       </c>
       <c r="E104" t="s">
-        <v>418</v>
+        <v>51</v>
       </c>
       <c r="K104" t="n">
-        <v>116400.0</v>
+        <v>150.0</v>
       </c>
       <c r="O104" t="s">
-        <v>421</v>
+        <v>714</v>
       </c>
       <c r="U104" t="n">
         <v>0.0</v>
@@ -6839,19 +6718,19 @@
     </row>
     <row r="105">
       <c r="C105" t="s">
-        <v>423</v>
+        <v>710</v>
       </c>
       <c r="D105" t="s">
-        <v>422</v>
+        <v>709</v>
       </c>
       <c r="E105" t="s">
-        <v>396</v>
+        <v>51</v>
       </c>
       <c r="K105" t="n">
-        <v>9600.0</v>
+        <v>5250.0</v>
       </c>
       <c r="O105" t="s">
-        <v>399</v>
+        <v>711</v>
       </c>
       <c r="U105" t="n">
         <v>0.0</v>
@@ -6859,19 +6738,19 @@
     </row>
     <row r="106">
       <c r="C106" t="s">
-        <v>426</v>
+        <v>707</v>
       </c>
       <c r="D106" t="s">
-        <v>425</v>
+        <v>706</v>
       </c>
       <c r="E106" t="s">
-        <v>424</v>
+        <v>51</v>
       </c>
       <c r="K106" t="n">
-        <v>200.0</v>
+        <v>4650.0</v>
       </c>
       <c r="O106" t="s">
-        <v>427</v>
+        <v>708</v>
       </c>
       <c r="U106" t="n">
         <v>0.0</v>
@@ -6879,19 +6758,19 @@
     </row>
     <row r="107">
       <c r="C107" t="s">
-        <v>430</v>
+        <v>704</v>
       </c>
       <c r="D107" t="s">
-        <v>429</v>
+        <v>703</v>
       </c>
       <c r="E107" t="s">
-        <v>428</v>
+        <v>51</v>
       </c>
       <c r="K107" t="n">
-        <v>2500.0</v>
+        <v>150.0</v>
       </c>
       <c r="O107" t="s">
-        <v>431</v>
+        <v>705</v>
       </c>
       <c r="U107" t="n">
         <v>0.0</v>
@@ -6899,19 +6778,19 @@
     </row>
     <row r="108">
       <c r="C108" t="s">
-        <v>434</v>
+        <v>702</v>
       </c>
       <c r="D108" t="s">
-        <v>433</v>
+        <v>701</v>
       </c>
       <c r="E108" t="s">
-        <v>432</v>
+        <v>51</v>
       </c>
       <c r="K108" t="n">
         <v>150.0</v>
       </c>
       <c r="O108" t="s">
-        <v>435</v>
+        <v>298</v>
       </c>
       <c r="U108" t="n">
         <v>0.0</v>
@@ -6919,19 +6798,19 @@
     </row>
     <row r="109">
       <c r="C109" t="s">
-        <v>438</v>
+        <v>700</v>
       </c>
       <c r="D109" t="s">
-        <v>437</v>
+        <v>699</v>
       </c>
       <c r="E109" t="s">
-        <v>436</v>
+        <v>51</v>
       </c>
       <c r="K109" t="n">
-        <v>200.0</v>
+        <v>211750.0</v>
       </c>
       <c r="O109" t="s">
-        <v>439</v>
+        <v>392</v>
       </c>
       <c r="U109" t="n">
         <v>0.0</v>
@@ -6939,19 +6818,19 @@
     </row>
     <row r="110">
       <c r="C110" t="s">
-        <v>442</v>
+        <v>698</v>
       </c>
       <c r="D110" t="s">
-        <v>441</v>
+        <v>697</v>
       </c>
       <c r="E110" t="s">
-        <v>440</v>
+        <v>51</v>
       </c>
       <c r="K110" t="n">
-        <v>14400.0</v>
+        <v>200.0</v>
       </c>
       <c r="O110" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="U110" t="n">
         <v>0.0</v>
@@ -6959,19 +6838,19 @@
     </row>
     <row r="111">
       <c r="C111" t="s">
-        <v>446</v>
+        <v>695</v>
       </c>
       <c r="D111" t="s">
-        <v>445</v>
+        <v>694</v>
       </c>
       <c r="E111" t="s">
-        <v>444</v>
+        <v>51</v>
       </c>
       <c r="K111" t="n">
-        <v>15000.0</v>
+        <v>875.0</v>
       </c>
       <c r="O111" t="s">
-        <v>447</v>
+        <v>696</v>
       </c>
       <c r="U111" t="n">
         <v>0.0</v>
@@ -6979,19 +6858,19 @@
     </row>
     <row r="112">
       <c r="C112" t="s">
-        <v>450</v>
+        <v>692</v>
       </c>
       <c r="D112" t="s">
-        <v>449</v>
+        <v>691</v>
       </c>
       <c r="E112" t="s">
-        <v>448</v>
+        <v>51</v>
       </c>
       <c r="K112" t="n">
-        <v>750.0</v>
+        <v>1875.0</v>
       </c>
       <c r="O112" t="s">
-        <v>451</v>
+        <v>693</v>
       </c>
       <c r="U112" t="n">
         <v>0.0</v>
@@ -6999,19 +6878,19 @@
     </row>
     <row r="113">
       <c r="C113" t="s">
-        <v>454</v>
+        <v>689</v>
       </c>
       <c r="D113" t="s">
-        <v>453</v>
+        <v>688</v>
       </c>
       <c r="E113" t="s">
-        <v>452</v>
+        <v>51</v>
       </c>
       <c r="K113" t="n">
-        <v>150.0</v>
+        <v>9000.0</v>
       </c>
       <c r="O113" t="s">
-        <v>455</v>
+        <v>690</v>
       </c>
       <c r="U113" t="n">
         <v>0.0</v>
@@ -7019,19 +6898,19 @@
     </row>
     <row r="114">
       <c r="C114" t="s">
-        <v>458</v>
+        <v>686</v>
       </c>
       <c r="D114" t="s">
-        <v>457</v>
+        <v>685</v>
       </c>
       <c r="E114" t="s">
-        <v>456</v>
+        <v>51</v>
       </c>
       <c r="K114" t="n">
-        <v>392625.0</v>
+        <v>625.0</v>
       </c>
       <c r="O114" t="s">
-        <v>459</v>
+        <v>687</v>
       </c>
       <c r="U114" t="n">
         <v>0.0</v>
@@ -7039,19 +6918,19 @@
     </row>
     <row r="115">
       <c r="C115" t="s">
-        <v>462</v>
+        <v>683</v>
       </c>
       <c r="D115" t="s">
-        <v>461</v>
+        <v>682</v>
       </c>
       <c r="E115" t="s">
-        <v>460</v>
+        <v>51</v>
       </c>
       <c r="K115" t="n">
-        <v>150.0</v>
+        <v>33750.0</v>
       </c>
       <c r="O115" t="s">
-        <v>463</v>
+        <v>684</v>
       </c>
       <c r="U115" t="n">
         <v>0.0</v>
@@ -7059,19 +6938,19 @@
     </row>
     <row r="116">
       <c r="C116" t="s">
-        <v>466</v>
+        <v>680</v>
       </c>
       <c r="D116" t="s">
-        <v>465</v>
+        <v>679</v>
       </c>
       <c r="E116" t="s">
-        <v>464</v>
+        <v>51</v>
       </c>
       <c r="K116" t="n">
-        <v>150.0</v>
+        <v>250.0</v>
       </c>
       <c r="O116" t="s">
-        <v>467</v>
+        <v>681</v>
       </c>
       <c r="U116" t="n">
         <v>0.0</v>
@@ -7079,19 +6958,19 @@
     </row>
     <row r="117">
       <c r="C117" t="s">
-        <v>470</v>
+        <v>678</v>
       </c>
       <c r="D117" t="s">
-        <v>469</v>
+        <v>677</v>
       </c>
       <c r="E117" t="s">
-        <v>468</v>
+        <v>51</v>
       </c>
       <c r="K117" t="n">
-        <v>600.0</v>
+        <v>91375.0</v>
       </c>
       <c r="O117" t="s">
-        <v>471</v>
+        <v>662</v>
       </c>
       <c r="U117" t="n">
         <v>0.0</v>
@@ -7099,19 +6978,19 @@
     </row>
     <row r="118">
       <c r="C118" t="s">
-        <v>474</v>
+        <v>675</v>
       </c>
       <c r="D118" t="s">
-        <v>473</v>
+        <v>674</v>
       </c>
       <c r="E118" t="s">
-        <v>472</v>
+        <v>51</v>
       </c>
       <c r="K118" t="n">
-        <v>6750.0</v>
+        <v>1400.0</v>
       </c>
       <c r="O118" t="s">
-        <v>475</v>
+        <v>676</v>
       </c>
       <c r="U118" t="n">
         <v>0.0</v>
@@ -7119,19 +6998,19 @@
     </row>
     <row r="119">
       <c r="C119" t="s">
-        <v>478</v>
+        <v>672</v>
       </c>
       <c r="D119" t="s">
-        <v>477</v>
+        <v>671</v>
       </c>
       <c r="E119" t="s">
-        <v>476</v>
+        <v>51</v>
       </c>
       <c r="K119" t="n">
-        <v>300.0</v>
+        <v>5600.0</v>
       </c>
       <c r="O119" t="s">
-        <v>479</v>
+        <v>673</v>
       </c>
       <c r="U119" t="n">
         <v>0.0</v>
@@ -7139,19 +7018,19 @@
     </row>
     <row r="120">
       <c r="C120" t="s">
-        <v>482</v>
+        <v>669</v>
       </c>
       <c r="D120" t="s">
-        <v>481</v>
+        <v>668</v>
       </c>
       <c r="E120" t="s">
-        <v>480</v>
+        <v>51</v>
       </c>
       <c r="K120" t="n">
-        <v>300.0</v>
+        <v>450.0</v>
       </c>
       <c r="O120" t="s">
-        <v>483</v>
+        <v>670</v>
       </c>
       <c r="U120" t="n">
         <v>0.0</v>
@@ -7159,19 +7038,19 @@
     </row>
     <row r="121">
       <c r="C121" t="s">
-        <v>485</v>
+        <v>666</v>
       </c>
       <c r="D121" t="s">
-        <v>484</v>
+        <v>665</v>
       </c>
       <c r="E121" t="s">
-        <v>468</v>
+        <v>51</v>
       </c>
       <c r="K121" t="n">
-        <v>300.0</v>
+        <v>200.0</v>
       </c>
       <c r="O121" t="s">
-        <v>486</v>
+        <v>667</v>
       </c>
       <c r="U121" t="n">
         <v>0.0</v>
@@ -7179,19 +7058,19 @@
     </row>
     <row r="122">
       <c r="C122" t="s">
-        <v>489</v>
+        <v>664</v>
       </c>
       <c r="D122" t="s">
-        <v>488</v>
+        <v>663</v>
       </c>
       <c r="E122" t="s">
-        <v>487</v>
+        <v>51</v>
       </c>
       <c r="K122" t="n">
-        <v>400.0</v>
+        <v>24750.0</v>
       </c>
       <c r="O122" t="s">
-        <v>490</v>
+        <v>75</v>
       </c>
       <c r="U122" t="n">
         <v>0.0</v>
@@ -7199,19 +7078,19 @@
     </row>
     <row r="123">
       <c r="C123" t="s">
-        <v>492</v>
+        <v>661</v>
       </c>
       <c r="D123" t="s">
-        <v>491</v>
+        <v>660</v>
       </c>
       <c r="E123" t="s">
-        <v>468</v>
+        <v>51</v>
       </c>
       <c r="K123" t="n">
-        <v>150.0</v>
+        <v>351500.0</v>
       </c>
       <c r="O123" t="s">
-        <v>486</v>
+        <v>662</v>
       </c>
       <c r="U123" t="n">
         <v>0.0</v>
@@ -7219,19 +7098,19 @@
     </row>
     <row r="124">
       <c r="C124" t="s">
-        <v>495</v>
+        <v>658</v>
       </c>
       <c r="D124" t="s">
-        <v>494</v>
+        <v>657</v>
       </c>
       <c r="E124" t="s">
-        <v>493</v>
+        <v>51</v>
       </c>
       <c r="K124" t="n">
-        <v>150.0</v>
+        <v>16000.0</v>
       </c>
       <c r="O124" t="s">
-        <v>496</v>
+        <v>659</v>
       </c>
       <c r="U124" t="n">
         <v>0.0</v>
@@ -7239,19 +7118,19 @@
     </row>
     <row r="125">
       <c r="C125" t="s">
-        <v>498</v>
+        <v>655</v>
       </c>
       <c r="D125" t="s">
-        <v>497</v>
+        <v>654</v>
       </c>
       <c r="E125" t="s">
-        <v>440</v>
+        <v>51</v>
       </c>
       <c r="K125" t="n">
-        <v>22200.0</v>
+        <v>6250.0</v>
       </c>
       <c r="O125" t="s">
-        <v>499</v>
+        <v>656</v>
       </c>
       <c r="U125" t="n">
         <v>0.0</v>
@@ -7259,19 +7138,19 @@
     </row>
     <row r="126">
       <c r="C126" t="s">
-        <v>502</v>
+        <v>652</v>
       </c>
       <c r="D126" t="s">
-        <v>501</v>
+        <v>651</v>
       </c>
       <c r="E126" t="s">
-        <v>500</v>
+        <v>51</v>
       </c>
       <c r="K126" t="n">
-        <v>150.0</v>
+        <v>3400.0</v>
       </c>
       <c r="O126" t="s">
-        <v>503</v>
+        <v>653</v>
       </c>
       <c r="U126" t="n">
         <v>0.0</v>
@@ -7279,19 +7158,19 @@
     </row>
     <row r="127">
       <c r="C127" t="s">
-        <v>506</v>
+        <v>649</v>
       </c>
       <c r="D127" t="s">
-        <v>505</v>
+        <v>648</v>
       </c>
       <c r="E127" t="s">
-        <v>504</v>
+        <v>51</v>
       </c>
       <c r="K127" t="n">
-        <v>3000.0</v>
+        <v>300.0</v>
       </c>
       <c r="O127" t="s">
-        <v>507</v>
+        <v>650</v>
       </c>
       <c r="U127" t="n">
         <v>0.0</v>
@@ -7299,19 +7178,19 @@
     </row>
     <row r="128">
       <c r="C128" t="s">
-        <v>510</v>
+        <v>646</v>
       </c>
       <c r="D128" t="s">
-        <v>509</v>
+        <v>645</v>
       </c>
       <c r="E128" t="s">
-        <v>508</v>
+        <v>51</v>
       </c>
       <c r="K128" t="n">
-        <v>150.0</v>
+        <v>4625.0</v>
       </c>
       <c r="O128" t="s">
-        <v>511</v>
+        <v>647</v>
       </c>
       <c r="U128" t="n">
         <v>0.0</v>
@@ -7319,19 +7198,19 @@
     </row>
     <row r="129">
       <c r="C129" t="s">
-        <v>513</v>
+        <v>643</v>
       </c>
       <c r="D129" t="s">
-        <v>512</v>
+        <v>642</v>
       </c>
       <c r="E129" t="s">
-        <v>440</v>
+        <v>51</v>
       </c>
       <c r="K129" t="n">
-        <v>33450.0</v>
+        <v>232375.0</v>
       </c>
       <c r="O129" t="s">
-        <v>443</v>
+        <v>644</v>
       </c>
       <c r="U129" t="n">
         <v>0.0</v>
@@ -7339,19 +7218,19 @@
     </row>
     <row r="130">
       <c r="C130" t="s">
-        <v>516</v>
+        <v>640</v>
       </c>
       <c r="D130" t="s">
-        <v>515</v>
+        <v>639</v>
       </c>
       <c r="E130" t="s">
-        <v>514</v>
+        <v>51</v>
       </c>
       <c r="K130" t="n">
-        <v>150.0</v>
+        <v>2200.0</v>
       </c>
       <c r="O130" t="s">
-        <v>517</v>
+        <v>641</v>
       </c>
       <c r="U130" t="n">
         <v>0.0</v>
@@ -7359,19 +7238,19 @@
     </row>
     <row r="131">
       <c r="C131" t="s">
-        <v>520</v>
+        <v>637</v>
       </c>
       <c r="D131" t="s">
-        <v>519</v>
+        <v>636</v>
       </c>
       <c r="E131" t="s">
-        <v>518</v>
+        <v>51</v>
       </c>
       <c r="K131" t="n">
-        <v>200.0</v>
+        <v>4400.0</v>
       </c>
       <c r="O131" t="s">
-        <v>521</v>
+        <v>638</v>
       </c>
       <c r="U131" t="n">
         <v>0.0</v>
@@ -7379,19 +7258,19 @@
     </row>
     <row r="132">
       <c r="C132" t="s">
-        <v>523</v>
+        <v>634</v>
       </c>
       <c r="D132" t="s">
-        <v>522</v>
+        <v>633</v>
       </c>
       <c r="E132" t="s">
-        <v>440</v>
+        <v>51</v>
       </c>
       <c r="K132" t="n">
-        <v>7950.0</v>
+        <v>2250.0</v>
       </c>
       <c r="O132" t="s">
-        <v>443</v>
+        <v>635</v>
       </c>
       <c r="U132" t="n">
         <v>0.0</v>
@@ -7399,19 +7278,19 @@
     </row>
     <row r="133">
       <c r="C133" t="s">
-        <v>526</v>
+        <v>631</v>
       </c>
       <c r="D133" t="s">
-        <v>525</v>
+        <v>630</v>
       </c>
       <c r="E133" t="s">
-        <v>524</v>
+        <v>51</v>
       </c>
       <c r="K133" t="n">
-        <v>1650.0</v>
+        <v>1625.0</v>
       </c>
       <c r="O133" t="s">
-        <v>527</v>
+        <v>632</v>
       </c>
       <c r="U133" t="n">
         <v>0.0</v>
@@ -7419,19 +7298,19 @@
     </row>
     <row r="134">
       <c r="C134" t="s">
-        <v>530</v>
+        <v>628</v>
       </c>
       <c r="D134" t="s">
-        <v>529</v>
+        <v>627</v>
       </c>
       <c r="E134" t="s">
-        <v>528</v>
+        <v>51</v>
       </c>
       <c r="K134" t="n">
-        <v>150.0</v>
+        <v>40625.0</v>
       </c>
       <c r="O134" t="s">
-        <v>531</v>
+        <v>629</v>
       </c>
       <c r="U134" t="n">
         <v>0.0</v>
@@ -7439,19 +7318,19 @@
     </row>
     <row r="135">
       <c r="C135" t="s">
-        <v>534</v>
+        <v>625</v>
       </c>
       <c r="D135" t="s">
-        <v>533</v>
+        <v>624</v>
       </c>
       <c r="E135" t="s">
-        <v>532</v>
+        <v>51</v>
       </c>
       <c r="K135" t="n">
-        <v>2600.0</v>
+        <v>2125.0</v>
       </c>
       <c r="O135" t="s">
-        <v>535</v>
+        <v>626</v>
       </c>
       <c r="U135" t="n">
         <v>0.0</v>
@@ -7459,19 +7338,19 @@
     </row>
     <row r="136">
       <c r="C136" t="s">
-        <v>538</v>
+        <v>623</v>
       </c>
       <c r="D136" t="s">
-        <v>537</v>
+        <v>622</v>
       </c>
       <c r="E136" t="s">
-        <v>536</v>
+        <v>51</v>
       </c>
       <c r="K136" t="n">
-        <v>400.0</v>
+        <v>150.0</v>
       </c>
       <c r="O136" t="s">
-        <v>539</v>
+        <v>162</v>
       </c>
       <c r="U136" t="n">
         <v>0.0</v>
@@ -7479,19 +7358,19 @@
     </row>
     <row r="137">
       <c r="C137" t="s">
-        <v>542</v>
+        <v>620</v>
       </c>
       <c r="D137" t="s">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="E137" t="s">
-        <v>540</v>
+        <v>51</v>
       </c>
       <c r="K137" t="n">
-        <v>900.0</v>
+        <v>902375.0</v>
       </c>
       <c r="O137" t="s">
-        <v>543</v>
+        <v>621</v>
       </c>
       <c r="U137" t="n">
         <v>0.0</v>
@@ -7499,19 +7378,19 @@
     </row>
     <row r="138">
       <c r="C138" t="s">
-        <v>546</v>
+        <v>617</v>
       </c>
       <c r="D138" t="s">
-        <v>545</v>
+        <v>616</v>
       </c>
       <c r="E138" t="s">
-        <v>544</v>
+        <v>51</v>
       </c>
       <c r="K138" t="n">
-        <v>400.0</v>
+        <v>4800.0</v>
       </c>
       <c r="O138" t="s">
-        <v>547</v>
+        <v>618</v>
       </c>
       <c r="U138" t="n">
         <v>0.0</v>
@@ -7519,19 +7398,19 @@
     </row>
     <row r="139">
       <c r="C139" t="s">
-        <v>549</v>
+        <v>614</v>
       </c>
       <c r="D139" t="s">
-        <v>548</v>
+        <v>613</v>
       </c>
       <c r="E139" t="s">
-        <v>544</v>
+        <v>51</v>
       </c>
       <c r="K139" t="n">
-        <v>14125.0</v>
+        <v>176875.0</v>
       </c>
       <c r="O139" t="s">
-        <v>431</v>
+        <v>615</v>
       </c>
       <c r="U139" t="n">
         <v>0.0</v>
@@ -7539,19 +7418,19 @@
     </row>
     <row r="140">
       <c r="C140" t="s">
-        <v>552</v>
+        <v>611</v>
       </c>
       <c r="D140" t="s">
-        <v>551</v>
+        <v>610</v>
       </c>
       <c r="E140" t="s">
-        <v>550</v>
+        <v>51</v>
       </c>
       <c r="K140" t="n">
-        <v>26100.0</v>
+        <v>1034750.0</v>
       </c>
       <c r="O140" t="s">
-        <v>553</v>
+        <v>612</v>
       </c>
       <c r="U140" t="n">
         <v>0.0</v>
@@ -7559,19 +7438,19 @@
     </row>
     <row r="141">
       <c r="C141" t="s">
-        <v>555</v>
+        <v>608</v>
       </c>
       <c r="D141" t="s">
-        <v>554</v>
+        <v>607</v>
       </c>
       <c r="E141" t="s">
-        <v>456</v>
+        <v>544</v>
       </c>
       <c r="K141" t="n">
-        <v>200.0</v>
+        <v>10750.0</v>
       </c>
       <c r="O141" t="s">
-        <v>459</v>
+        <v>609</v>
       </c>
       <c r="U141" t="n">
         <v>0.0</v>
@@ -7579,19 +7458,19 @@
     </row>
     <row r="142">
       <c r="C142" t="s">
-        <v>558</v>
+        <v>605</v>
       </c>
       <c r="D142" t="s">
-        <v>557</v>
+        <v>604</v>
       </c>
       <c r="E142" t="s">
-        <v>556</v>
+        <v>518</v>
       </c>
       <c r="K142" t="n">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="O142" t="s">
-        <v>559</v>
+        <v>606</v>
       </c>
       <c r="U142" t="n">
         <v>0.0</v>
@@ -7599,19 +7478,19 @@
     </row>
     <row r="143">
       <c r="C143" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="D143" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
       <c r="E143" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K143" t="n">
-        <v>600.0</v>
+        <v>2800.0</v>
       </c>
       <c r="O143" t="s">
-        <v>563</v>
+        <v>603</v>
       </c>
       <c r="U143" t="n">
         <v>0.0</v>
@@ -7619,19 +7498,19 @@
     </row>
     <row r="144">
       <c r="C144" t="s">
-        <v>565</v>
+        <v>599</v>
       </c>
       <c r="D144" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E144" t="s">
-        <v>500</v>
+        <v>597</v>
       </c>
       <c r="K144" t="n">
-        <v>150.0</v>
+        <v>102500.0</v>
       </c>
       <c r="O144" t="s">
-        <v>217</v>
+        <v>597</v>
       </c>
       <c r="U144" t="n">
         <v>0.0</v>
@@ -7639,19 +7518,19 @@
     </row>
     <row r="145">
       <c r="C145" t="s">
-        <v>568</v>
+        <v>595</v>
       </c>
       <c r="D145" t="s">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="E145" t="s">
-        <v>566</v>
+        <v>518</v>
       </c>
       <c r="K145" t="n">
-        <v>139000.0</v>
+        <v>50500.0</v>
       </c>
       <c r="O145" t="s">
-        <v>569</v>
+        <v>596</v>
       </c>
       <c r="U145" t="n">
         <v>0.0</v>
@@ -7659,19 +7538,19 @@
     </row>
     <row r="146">
       <c r="C146" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="D146" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="E146" t="s">
-        <v>570</v>
+        <v>285</v>
       </c>
       <c r="K146" t="n">
-        <v>600.0</v>
+        <v>1200.0</v>
       </c>
       <c r="O146" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="U146" t="n">
         <v>0.0</v>
@@ -7679,19 +7558,19 @@
     </row>
     <row r="147">
       <c r="C147" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="D147" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="E147" t="s">
-        <v>574</v>
+        <v>456</v>
       </c>
       <c r="K147" t="n">
-        <v>400.0</v>
+        <v>600.0</v>
       </c>
       <c r="O147" t="s">
-        <v>577</v>
+        <v>459</v>
       </c>
       <c r="U147" t="n">
         <v>0.0</v>
@@ -7699,19 +7578,19 @@
     </row>
     <row r="148">
       <c r="C148" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="D148" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="E148" t="s">
-        <v>578</v>
+        <v>518</v>
       </c>
       <c r="K148" t="n">
-        <v>300.0</v>
+        <v>400.0</v>
       </c>
       <c r="O148" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="U148" t="n">
         <v>0.0</v>
@@ -7739,19 +7618,19 @@
     </row>
     <row r="150">
       <c r="C150" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="D150" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="E150" t="s">
-        <v>518</v>
+        <v>578</v>
       </c>
       <c r="K150" t="n">
-        <v>400.0</v>
+        <v>300.0</v>
       </c>
       <c r="O150" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="U150" t="n">
         <v>0.0</v>
@@ -7759,19 +7638,19 @@
     </row>
     <row r="151">
       <c r="C151" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="D151" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="E151" t="s">
-        <v>456</v>
+        <v>574</v>
       </c>
       <c r="K151" t="n">
-        <v>600.0</v>
+        <v>400.0</v>
       </c>
       <c r="O151" t="s">
-        <v>459</v>
+        <v>577</v>
       </c>
       <c r="U151" t="n">
         <v>0.0</v>
@@ -7779,19 +7658,19 @@
     </row>
     <row r="152">
       <c r="C152" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="D152" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="E152" t="s">
-        <v>285</v>
+        <v>570</v>
       </c>
       <c r="K152" t="n">
-        <v>1200.0</v>
+        <v>600.0</v>
       </c>
       <c r="O152" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="U152" t="n">
         <v>0.0</v>
@@ -7799,19 +7678,19 @@
     </row>
     <row r="153">
       <c r="C153" t="s">
-        <v>595</v>
+        <v>568</v>
       </c>
       <c r="D153" t="s">
-        <v>594</v>
+        <v>567</v>
       </c>
       <c r="E153" t="s">
-        <v>518</v>
+        <v>566</v>
       </c>
       <c r="K153" t="n">
-        <v>50500.0</v>
+        <v>139000.0</v>
       </c>
       <c r="O153" t="s">
-        <v>596</v>
+        <v>569</v>
       </c>
       <c r="U153" t="n">
         <v>0.0</v>
@@ -7819,19 +7698,19 @@
     </row>
     <row r="154">
       <c r="C154" t="s">
-        <v>599</v>
+        <v>565</v>
       </c>
       <c r="D154" t="s">
-        <v>598</v>
+        <v>564</v>
       </c>
       <c r="E154" t="s">
-        <v>597</v>
+        <v>500</v>
       </c>
       <c r="K154" t="n">
-        <v>102500.0</v>
+        <v>150.0</v>
       </c>
       <c r="O154" t="s">
-        <v>597</v>
+        <v>217</v>
       </c>
       <c r="U154" t="n">
         <v>0.0</v>
@@ -7839,19 +7718,19 @@
     </row>
     <row r="155">
       <c r="C155" t="s">
-        <v>602</v>
+        <v>562</v>
       </c>
       <c r="D155" t="s">
-        <v>601</v>
+        <v>561</v>
       </c>
       <c r="E155" t="s">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K155" t="n">
-        <v>2800.0</v>
+        <v>600.0</v>
       </c>
       <c r="O155" t="s">
-        <v>603</v>
+        <v>563</v>
       </c>
       <c r="U155" t="n">
         <v>0.0</v>
@@ -7859,19 +7738,19 @@
     </row>
     <row r="156">
       <c r="C156" t="s">
-        <v>605</v>
+        <v>558</v>
       </c>
       <c r="D156" t="s">
-        <v>604</v>
+        <v>557</v>
       </c>
       <c r="E156" t="s">
-        <v>518</v>
+        <v>556</v>
       </c>
       <c r="K156" t="n">
-        <v>200.0</v>
+        <v>400.0</v>
       </c>
       <c r="O156" t="s">
-        <v>606</v>
+        <v>559</v>
       </c>
       <c r="U156" t="n">
         <v>0.0</v>
@@ -7879,19 +7758,19 @@
     </row>
     <row r="157">
       <c r="C157" t="s">
-        <v>608</v>
+        <v>555</v>
       </c>
       <c r="D157" t="s">
-        <v>607</v>
+        <v>554</v>
       </c>
       <c r="E157" t="s">
-        <v>544</v>
+        <v>456</v>
       </c>
       <c r="K157" t="n">
-        <v>10750.0</v>
+        <v>200.0</v>
       </c>
       <c r="O157" t="s">
-        <v>609</v>
+        <v>459</v>
       </c>
       <c r="U157" t="n">
         <v>0.0</v>
@@ -7899,19 +7778,19 @@
     </row>
     <row r="158">
       <c r="C158" t="s">
-        <v>611</v>
+        <v>552</v>
       </c>
       <c r="D158" t="s">
-        <v>610</v>
+        <v>551</v>
       </c>
       <c r="E158" t="s">
-        <v>55</v>
+        <v>550</v>
       </c>
       <c r="K158" t="n">
-        <v>1034750.0</v>
+        <v>26100.0</v>
       </c>
       <c r="O158" t="s">
-        <v>612</v>
+        <v>553</v>
       </c>
       <c r="U158" t="n">
         <v>0.0</v>
@@ -7919,19 +7798,19 @@
     </row>
     <row r="159">
       <c r="C159" t="s">
-        <v>614</v>
+        <v>549</v>
       </c>
       <c r="D159" t="s">
-        <v>613</v>
+        <v>548</v>
       </c>
       <c r="E159" t="s">
-        <v>55</v>
+        <v>544</v>
       </c>
       <c r="K159" t="n">
-        <v>176875.0</v>
+        <v>14125.0</v>
       </c>
       <c r="O159" t="s">
-        <v>615</v>
+        <v>431</v>
       </c>
       <c r="U159" t="n">
         <v>0.0</v>
@@ -7939,19 +7818,19 @@
     </row>
     <row r="160">
       <c r="C160" t="s">
-        <v>617</v>
+        <v>546</v>
       </c>
       <c r="D160" t="s">
-        <v>616</v>
+        <v>545</v>
       </c>
       <c r="E160" t="s">
-        <v>55</v>
+        <v>544</v>
       </c>
       <c r="K160" t="n">
-        <v>4800.0</v>
+        <v>400.0</v>
       </c>
       <c r="O160" t="s">
-        <v>618</v>
+        <v>547</v>
       </c>
       <c r="U160" t="n">
         <v>0.0</v>
@@ -7959,19 +7838,19 @@
     </row>
     <row r="161">
       <c r="C161" t="s">
-        <v>620</v>
+        <v>542</v>
       </c>
       <c r="D161" t="s">
-        <v>619</v>
+        <v>541</v>
       </c>
       <c r="E161" t="s">
-        <v>55</v>
+        <v>540</v>
       </c>
       <c r="K161" t="n">
-        <v>902375.0</v>
+        <v>900.0</v>
       </c>
       <c r="O161" t="s">
-        <v>621</v>
+        <v>543</v>
       </c>
       <c r="U161" t="n">
         <v>0.0</v>
@@ -7979,19 +7858,19 @@
     </row>
     <row r="162">
       <c r="C162" t="s">
-        <v>623</v>
+        <v>538</v>
       </c>
       <c r="D162" t="s">
-        <v>622</v>
+        <v>537</v>
       </c>
       <c r="E162" t="s">
-        <v>55</v>
+        <v>536</v>
       </c>
       <c r="K162" t="n">
-        <v>150.0</v>
+        <v>400.0</v>
       </c>
       <c r="O162" t="s">
-        <v>162</v>
+        <v>539</v>
       </c>
       <c r="U162" t="n">
         <v>0.0</v>
@@ -7999,19 +7878,19 @@
     </row>
     <row r="163">
       <c r="C163" t="s">
-        <v>625</v>
+        <v>534</v>
       </c>
       <c r="D163" t="s">
-        <v>624</v>
+        <v>533</v>
       </c>
       <c r="E163" t="s">
-        <v>55</v>
+        <v>532</v>
       </c>
       <c r="K163" t="n">
-        <v>2125.0</v>
+        <v>2600.0</v>
       </c>
       <c r="O163" t="s">
-        <v>626</v>
+        <v>535</v>
       </c>
       <c r="U163" t="n">
         <v>0.0</v>
@@ -8019,19 +7898,19 @@
     </row>
     <row r="164">
       <c r="C164" t="s">
-        <v>628</v>
+        <v>530</v>
       </c>
       <c r="D164" t="s">
-        <v>627</v>
+        <v>529</v>
       </c>
       <c r="E164" t="s">
-        <v>55</v>
+        <v>528</v>
       </c>
       <c r="K164" t="n">
-        <v>40625.0</v>
+        <v>150.0</v>
       </c>
       <c r="O164" t="s">
-        <v>629</v>
+        <v>531</v>
       </c>
       <c r="U164" t="n">
         <v>0.0</v>
@@ -8039,19 +7918,19 @@
     </row>
     <row r="165">
       <c r="C165" t="s">
-        <v>631</v>
+        <v>526</v>
       </c>
       <c r="D165" t="s">
-        <v>630</v>
+        <v>525</v>
       </c>
       <c r="E165" t="s">
-        <v>55</v>
+        <v>524</v>
       </c>
       <c r="K165" t="n">
-        <v>1625.0</v>
+        <v>1650.0</v>
       </c>
       <c r="O165" t="s">
-        <v>632</v>
+        <v>527</v>
       </c>
       <c r="U165" t="n">
         <v>0.0</v>
@@ -8059,19 +7938,19 @@
     </row>
     <row r="166">
       <c r="C166" t="s">
-        <v>634</v>
+        <v>523</v>
       </c>
       <c r="D166" t="s">
-        <v>633</v>
+        <v>522</v>
       </c>
       <c r="E166" t="s">
-        <v>55</v>
+        <v>440</v>
       </c>
       <c r="K166" t="n">
-        <v>2250.0</v>
+        <v>7950.0</v>
       </c>
       <c r="O166" t="s">
-        <v>635</v>
+        <v>443</v>
       </c>
       <c r="U166" t="n">
         <v>0.0</v>
@@ -8079,19 +7958,19 @@
     </row>
     <row r="167">
       <c r="C167" t="s">
-        <v>637</v>
+        <v>520</v>
       </c>
       <c r="D167" t="s">
-        <v>636</v>
+        <v>519</v>
       </c>
       <c r="E167" t="s">
-        <v>55</v>
+        <v>518</v>
       </c>
       <c r="K167" t="n">
-        <v>4400.0</v>
+        <v>200.0</v>
       </c>
       <c r="O167" t="s">
-        <v>638</v>
+        <v>521</v>
       </c>
       <c r="U167" t="n">
         <v>0.0</v>
@@ -8099,19 +7978,19 @@
     </row>
     <row r="168">
       <c r="C168" t="s">
-        <v>640</v>
+        <v>516</v>
       </c>
       <c r="D168" t="s">
-        <v>639</v>
+        <v>515</v>
       </c>
       <c r="E168" t="s">
-        <v>55</v>
+        <v>514</v>
       </c>
       <c r="K168" t="n">
-        <v>2200.0</v>
+        <v>150.0</v>
       </c>
       <c r="O168" t="s">
-        <v>641</v>
+        <v>517</v>
       </c>
       <c r="U168" t="n">
         <v>0.0</v>
@@ -8119,19 +7998,19 @@
     </row>
     <row r="169">
       <c r="C169" t="s">
-        <v>643</v>
+        <v>513</v>
       </c>
       <c r="D169" t="s">
-        <v>642</v>
+        <v>512</v>
       </c>
       <c r="E169" t="s">
-        <v>55</v>
+        <v>440</v>
       </c>
       <c r="K169" t="n">
-        <v>232375.0</v>
+        <v>33450.0</v>
       </c>
       <c r="O169" t="s">
-        <v>644</v>
+        <v>443</v>
       </c>
       <c r="U169" t="n">
         <v>0.0</v>
@@ -8139,19 +8018,19 @@
     </row>
     <row r="170">
       <c r="C170" t="s">
-        <v>646</v>
+        <v>510</v>
       </c>
       <c r="D170" t="s">
-        <v>645</v>
+        <v>509</v>
       </c>
       <c r="E170" t="s">
-        <v>55</v>
+        <v>508</v>
       </c>
       <c r="K170" t="n">
-        <v>4625.0</v>
+        <v>150.0</v>
       </c>
       <c r="O170" t="s">
-        <v>647</v>
+        <v>511</v>
       </c>
       <c r="U170" t="n">
         <v>0.0</v>
@@ -8159,19 +8038,19 @@
     </row>
     <row r="171">
       <c r="C171" t="s">
-        <v>649</v>
+        <v>506</v>
       </c>
       <c r="D171" t="s">
-        <v>648</v>
+        <v>505</v>
       </c>
       <c r="E171" t="s">
-        <v>55</v>
+        <v>504</v>
       </c>
       <c r="K171" t="n">
-        <v>300.0</v>
+        <v>3000.0</v>
       </c>
       <c r="O171" t="s">
-        <v>650</v>
+        <v>507</v>
       </c>
       <c r="U171" t="n">
         <v>0.0</v>
@@ -8179,19 +8058,19 @@
     </row>
     <row r="172">
       <c r="C172" t="s">
-        <v>652</v>
+        <v>502</v>
       </c>
       <c r="D172" t="s">
-        <v>651</v>
+        <v>501</v>
       </c>
       <c r="E172" t="s">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="K172" t="n">
-        <v>3400.0</v>
+        <v>150.0</v>
       </c>
       <c r="O172" t="s">
-        <v>653</v>
+        <v>503</v>
       </c>
       <c r="U172" t="n">
         <v>0.0</v>
@@ -8199,19 +8078,19 @@
     </row>
     <row r="173">
       <c r="C173" t="s">
-        <v>655</v>
+        <v>498</v>
       </c>
       <c r="D173" t="s">
-        <v>654</v>
+        <v>497</v>
       </c>
       <c r="E173" t="s">
-        <v>55</v>
+        <v>440</v>
       </c>
       <c r="K173" t="n">
-        <v>6250.0</v>
+        <v>22200.0</v>
       </c>
       <c r="O173" t="s">
-        <v>656</v>
+        <v>499</v>
       </c>
       <c r="U173" t="n">
         <v>0.0</v>
@@ -8219,19 +8098,19 @@
     </row>
     <row r="174">
       <c r="C174" t="s">
-        <v>658</v>
+        <v>495</v>
       </c>
       <c r="D174" t="s">
-        <v>657</v>
+        <v>494</v>
       </c>
       <c r="E174" t="s">
-        <v>55</v>
+        <v>493</v>
       </c>
       <c r="K174" t="n">
-        <v>16000.0</v>
+        <v>150.0</v>
       </c>
       <c r="O174" t="s">
-        <v>659</v>
+        <v>496</v>
       </c>
       <c r="U174" t="n">
         <v>0.0</v>
@@ -8239,19 +8118,19 @@
     </row>
     <row r="175">
       <c r="C175" t="s">
-        <v>661</v>
+        <v>492</v>
       </c>
       <c r="D175" t="s">
-        <v>660</v>
+        <v>491</v>
       </c>
       <c r="E175" t="s">
-        <v>55</v>
+        <v>468</v>
       </c>
       <c r="K175" t="n">
-        <v>351500.0</v>
+        <v>150.0</v>
       </c>
       <c r="O175" t="s">
-        <v>662</v>
+        <v>486</v>
       </c>
       <c r="U175" t="n">
         <v>0.0</v>
@@ -8259,19 +8138,19 @@
     </row>
     <row r="176">
       <c r="C176" t="s">
-        <v>664</v>
+        <v>489</v>
       </c>
       <c r="D176" t="s">
-        <v>663</v>
+        <v>488</v>
       </c>
       <c r="E176" t="s">
-        <v>55</v>
+        <v>487</v>
       </c>
       <c r="K176" t="n">
-        <v>24750.0</v>
+        <v>400.0</v>
       </c>
       <c r="O176" t="s">
-        <v>75</v>
+        <v>490</v>
       </c>
       <c r="U176" t="n">
         <v>0.0</v>
@@ -8279,19 +8158,19 @@
     </row>
     <row r="177">
       <c r="C177" t="s">
-        <v>666</v>
+        <v>485</v>
       </c>
       <c r="D177" t="s">
-        <v>665</v>
+        <v>484</v>
       </c>
       <c r="E177" t="s">
-        <v>55</v>
+        <v>468</v>
       </c>
       <c r="K177" t="n">
-        <v>200.0</v>
+        <v>300.0</v>
       </c>
       <c r="O177" t="s">
-        <v>667</v>
+        <v>486</v>
       </c>
       <c r="U177" t="n">
         <v>0.0</v>
@@ -8299,19 +8178,19 @@
     </row>
     <row r="178">
       <c r="C178" t="s">
-        <v>669</v>
+        <v>482</v>
       </c>
       <c r="D178" t="s">
-        <v>668</v>
+        <v>481</v>
       </c>
       <c r="E178" t="s">
-        <v>55</v>
+        <v>480</v>
       </c>
       <c r="K178" t="n">
-        <v>450.0</v>
+        <v>300.0</v>
       </c>
       <c r="O178" t="s">
-        <v>670</v>
+        <v>483</v>
       </c>
       <c r="U178" t="n">
         <v>0.0</v>
@@ -8319,19 +8198,19 @@
     </row>
     <row r="179">
       <c r="C179" t="s">
-        <v>672</v>
+        <v>478</v>
       </c>
       <c r="D179" t="s">
-        <v>671</v>
+        <v>477</v>
       </c>
       <c r="E179" t="s">
-        <v>55</v>
+        <v>476</v>
       </c>
       <c r="K179" t="n">
-        <v>5600.0</v>
+        <v>300.0</v>
       </c>
       <c r="O179" t="s">
-        <v>673</v>
+        <v>479</v>
       </c>
       <c r="U179" t="n">
         <v>0.0</v>
@@ -8339,19 +8218,19 @@
     </row>
     <row r="180">
       <c r="C180" t="s">
-        <v>675</v>
+        <v>474</v>
       </c>
       <c r="D180" t="s">
-        <v>674</v>
+        <v>473</v>
       </c>
       <c r="E180" t="s">
-        <v>55</v>
+        <v>472</v>
       </c>
       <c r="K180" t="n">
-        <v>1400.0</v>
+        <v>6750.0</v>
       </c>
       <c r="O180" t="s">
-        <v>676</v>
+        <v>475</v>
       </c>
       <c r="U180" t="n">
         <v>0.0</v>
@@ -8359,19 +8238,19 @@
     </row>
     <row r="181">
       <c r="C181" t="s">
-        <v>678</v>
+        <v>470</v>
       </c>
       <c r="D181" t="s">
-        <v>677</v>
+        <v>469</v>
       </c>
       <c r="E181" t="s">
-        <v>55</v>
+        <v>468</v>
       </c>
       <c r="K181" t="n">
-        <v>91375.0</v>
+        <v>600.0</v>
       </c>
       <c r="O181" t="s">
-        <v>662</v>
+        <v>471</v>
       </c>
       <c r="U181" t="n">
         <v>0.0</v>
@@ -8379,19 +8258,19 @@
     </row>
     <row r="182">
       <c r="C182" t="s">
-        <v>680</v>
+        <v>466</v>
       </c>
       <c r="D182" t="s">
-        <v>679</v>
+        <v>465</v>
       </c>
       <c r="E182" t="s">
-        <v>55</v>
+        <v>464</v>
       </c>
       <c r="K182" t="n">
-        <v>250.0</v>
+        <v>150.0</v>
       </c>
       <c r="O182" t="s">
-        <v>681</v>
+        <v>467</v>
       </c>
       <c r="U182" t="n">
         <v>0.0</v>
@@ -8399,19 +8278,19 @@
     </row>
     <row r="183">
       <c r="C183" t="s">
-        <v>683</v>
+        <v>462</v>
       </c>
       <c r="D183" t="s">
-        <v>682</v>
+        <v>461</v>
       </c>
       <c r="E183" t="s">
-        <v>55</v>
+        <v>460</v>
       </c>
       <c r="K183" t="n">
-        <v>33750.0</v>
+        <v>150.0</v>
       </c>
       <c r="O183" t="s">
-        <v>684</v>
+        <v>463</v>
       </c>
       <c r="U183" t="n">
         <v>0.0</v>
@@ -8419,19 +8298,19 @@
     </row>
     <row r="184">
       <c r="C184" t="s">
-        <v>686</v>
+        <v>458</v>
       </c>
       <c r="D184" t="s">
-        <v>685</v>
+        <v>457</v>
       </c>
       <c r="E184" t="s">
-        <v>55</v>
+        <v>456</v>
       </c>
       <c r="K184" t="n">
-        <v>625.0</v>
+        <v>392625.0</v>
       </c>
       <c r="O184" t="s">
-        <v>687</v>
+        <v>459</v>
       </c>
       <c r="U184" t="n">
         <v>0.0</v>
@@ -8439,19 +8318,19 @@
     </row>
     <row r="185">
       <c r="C185" t="s">
-        <v>689</v>
+        <v>454</v>
       </c>
       <c r="D185" t="s">
-        <v>688</v>
+        <v>453</v>
       </c>
       <c r="E185" t="s">
-        <v>55</v>
+        <v>452</v>
       </c>
       <c r="K185" t="n">
-        <v>9000.0</v>
+        <v>150.0</v>
       </c>
       <c r="O185" t="s">
-        <v>690</v>
+        <v>455</v>
       </c>
       <c r="U185" t="n">
         <v>0.0</v>
@@ -8459,19 +8338,19 @@
     </row>
     <row r="186">
       <c r="C186" t="s">
-        <v>692</v>
+        <v>450</v>
       </c>
       <c r="D186" t="s">
-        <v>691</v>
+        <v>449</v>
       </c>
       <c r="E186" t="s">
-        <v>55</v>
+        <v>448</v>
       </c>
       <c r="K186" t="n">
-        <v>1875.0</v>
+        <v>750.0</v>
       </c>
       <c r="O186" t="s">
-        <v>693</v>
+        <v>451</v>
       </c>
       <c r="U186" t="n">
         <v>0.0</v>
@@ -8479,19 +8358,19 @@
     </row>
     <row r="187">
       <c r="C187" t="s">
-        <v>695</v>
+        <v>446</v>
       </c>
       <c r="D187" t="s">
-        <v>694</v>
+        <v>445</v>
       </c>
       <c r="E187" t="s">
-        <v>55</v>
+        <v>444</v>
       </c>
       <c r="K187" t="n">
-        <v>875.0</v>
+        <v>15000.0</v>
       </c>
       <c r="O187" t="s">
-        <v>696</v>
+        <v>447</v>
       </c>
       <c r="U187" t="n">
         <v>0.0</v>
@@ -8499,19 +8378,19 @@
     </row>
     <row r="188">
       <c r="C188" t="s">
-        <v>698</v>
+        <v>442</v>
       </c>
       <c r="D188" t="s">
-        <v>697</v>
+        <v>441</v>
       </c>
       <c r="E188" t="s">
-        <v>55</v>
+        <v>440</v>
       </c>
       <c r="K188" t="n">
-        <v>200.0</v>
+        <v>14400.0</v>
       </c>
       <c r="O188" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="U188" t="n">
         <v>0.0</v>
@@ -8519,19 +8398,19 @@
     </row>
     <row r="189">
       <c r="C189" t="s">
-        <v>700</v>
+        <v>438</v>
       </c>
       <c r="D189" t="s">
-        <v>699</v>
+        <v>437</v>
       </c>
       <c r="E189" t="s">
-        <v>55</v>
+        <v>436</v>
       </c>
       <c r="K189" t="n">
-        <v>211750.0</v>
+        <v>200.0</v>
       </c>
       <c r="O189" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="U189" t="n">
         <v>0.0</v>
@@ -8539,19 +8418,19 @@
     </row>
     <row r="190">
       <c r="C190" t="s">
-        <v>702</v>
+        <v>434</v>
       </c>
       <c r="D190" t="s">
-        <v>701</v>
+        <v>433</v>
       </c>
       <c r="E190" t="s">
-        <v>55</v>
+        <v>432</v>
       </c>
       <c r="K190" t="n">
         <v>150.0</v>
       </c>
       <c r="O190" t="s">
-        <v>298</v>
+        <v>435</v>
       </c>
       <c r="U190" t="n">
         <v>0.0</v>
@@ -8559,19 +8438,19 @@
     </row>
     <row r="191">
       <c r="C191" t="s">
-        <v>704</v>
+        <v>430</v>
       </c>
       <c r="D191" t="s">
-        <v>703</v>
+        <v>429</v>
       </c>
       <c r="E191" t="s">
-        <v>55</v>
+        <v>428</v>
       </c>
       <c r="K191" t="n">
-        <v>150.0</v>
+        <v>2500.0</v>
       </c>
       <c r="O191" t="s">
-        <v>705</v>
+        <v>431</v>
       </c>
       <c r="U191" t="n">
         <v>0.0</v>
@@ -8579,19 +8458,19 @@
     </row>
     <row r="192">
       <c r="C192" t="s">
-        <v>707</v>
+        <v>426</v>
       </c>
       <c r="D192" t="s">
-        <v>706</v>
+        <v>425</v>
       </c>
       <c r="E192" t="s">
-        <v>55</v>
+        <v>424</v>
       </c>
       <c r="K192" t="n">
-        <v>4650.0</v>
+        <v>200.0</v>
       </c>
       <c r="O192" t="s">
-        <v>708</v>
+        <v>427</v>
       </c>
       <c r="U192" t="n">
         <v>0.0</v>
@@ -8599,19 +8478,19 @@
     </row>
     <row r="193">
       <c r="C193" t="s">
-        <v>710</v>
+        <v>423</v>
       </c>
       <c r="D193" t="s">
-        <v>709</v>
+        <v>422</v>
       </c>
       <c r="E193" t="s">
-        <v>55</v>
+        <v>396</v>
       </c>
       <c r="K193" t="n">
-        <v>5250.0</v>
+        <v>9600.0</v>
       </c>
       <c r="O193" t="s">
-        <v>711</v>
+        <v>399</v>
       </c>
       <c r="U193" t="n">
         <v>0.0</v>
@@ -8619,19 +8498,19 @@
     </row>
     <row r="194">
       <c r="C194" t="s">
-        <v>713</v>
+        <v>420</v>
       </c>
       <c r="D194" t="s">
-        <v>712</v>
+        <v>419</v>
       </c>
       <c r="E194" t="s">
-        <v>55</v>
+        <v>418</v>
       </c>
       <c r="K194" t="n">
-        <v>150.0</v>
+        <v>116400.0</v>
       </c>
       <c r="O194" t="s">
-        <v>714</v>
+        <v>421</v>
       </c>
       <c r="U194" t="n">
         <v>0.0</v>
@@ -8639,19 +8518,19 @@
     </row>
     <row r="195">
       <c r="C195" t="s">
-        <v>716</v>
+        <v>416</v>
       </c>
       <c r="D195" t="s">
-        <v>715</v>
+        <v>415</v>
       </c>
       <c r="E195" t="s">
-        <v>55</v>
+        <v>414</v>
       </c>
       <c r="K195" t="n">
-        <v>15000.0</v>
+        <v>300.0</v>
       </c>
       <c r="O195" t="s">
-        <v>717</v>
+        <v>417</v>
       </c>
       <c r="U195" t="n">
         <v>0.0</v>
@@ -8659,19 +8538,19 @@
     </row>
     <row r="196">
       <c r="C196" t="s">
-        <v>719</v>
+        <v>412</v>
       </c>
       <c r="D196" t="s">
-        <v>718</v>
+        <v>411</v>
       </c>
       <c r="E196" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="K196" t="n">
-        <v>5500.0</v>
+        <v>600.0</v>
       </c>
       <c r="O196" t="s">
-        <v>720</v>
+        <v>413</v>
       </c>
       <c r="U196" t="n">
         <v>0.0</v>
@@ -8679,19 +8558,19 @@
     </row>
     <row r="197">
       <c r="C197" t="s">
-        <v>722</v>
+        <v>409</v>
       </c>
       <c r="D197" t="s">
-        <v>721</v>
+        <v>408</v>
       </c>
       <c r="E197" t="s">
-        <v>55</v>
+        <v>396</v>
       </c>
       <c r="K197" t="n">
-        <v>200.0</v>
+        <v>1050.0</v>
       </c>
       <c r="O197" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
       <c r="U197" t="n">
         <v>0.0</v>
@@ -8699,19 +8578,19 @@
     </row>
     <row r="198">
       <c r="C198" t="s">
-        <v>724</v>
+        <v>406</v>
       </c>
       <c r="D198" t="s">
-        <v>723</v>
+        <v>405</v>
       </c>
       <c r="E198" t="s">
-        <v>55</v>
+        <v>404</v>
       </c>
       <c r="K198" t="n">
-        <v>150.0</v>
+        <v>200.0</v>
       </c>
       <c r="O198" t="s">
-        <v>725</v>
+        <v>407</v>
       </c>
       <c r="U198" t="n">
         <v>0.0</v>
@@ -8719,19 +8598,19 @@
     </row>
     <row r="199">
       <c r="C199" t="s">
-        <v>727</v>
+        <v>402</v>
       </c>
       <c r="D199" t="s">
-        <v>726</v>
+        <v>401</v>
       </c>
       <c r="E199" t="s">
-        <v>55</v>
+        <v>400</v>
       </c>
       <c r="K199" t="n">
-        <v>150.0</v>
+        <v>10950.0</v>
       </c>
       <c r="O199" t="s">
-        <v>728</v>
+        <v>403</v>
       </c>
       <c r="U199" t="n">
         <v>0.0</v>
@@ -8739,19 +8618,19 @@
     </row>
     <row r="200">
       <c r="C200" t="s">
-        <v>730</v>
+        <v>398</v>
       </c>
       <c r="D200" t="s">
-        <v>729</v>
+        <v>397</v>
       </c>
       <c r="E200" t="s">
-        <v>55</v>
+        <v>396</v>
       </c>
       <c r="K200" t="n">
-        <v>42750.0</v>
+        <v>2100.0</v>
       </c>
       <c r="O200" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
       <c r="U200" t="n">
         <v>0.0</v>
@@ -8759,19 +8638,19 @@
     </row>
     <row r="201">
       <c r="C201" t="s">
-        <v>732</v>
+        <v>395</v>
       </c>
       <c r="D201" t="s">
-        <v>731</v>
+        <v>394</v>
       </c>
       <c r="E201" t="s">
-        <v>55</v>
+        <v>393</v>
       </c>
       <c r="K201" t="n">
-        <v>7200.0</v>
+        <v>150.0</v>
       </c>
       <c r="O201" t="s">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="U201" t="n">
         <v>0.0</v>
@@ -8779,19 +8658,19 @@
     </row>
     <row r="202">
       <c r="C202" t="s">
-        <v>734</v>
+        <v>391</v>
       </c>
       <c r="D202" t="s">
-        <v>733</v>
+        <v>390</v>
       </c>
       <c r="E202" t="s">
-        <v>55</v>
+        <v>389</v>
       </c>
       <c r="K202" t="n">
-        <v>200.0</v>
+        <v>3200.0</v>
       </c>
       <c r="O202" t="s">
-        <v>597</v>
+        <v>392</v>
       </c>
       <c r="U202" t="n">
         <v>0.0</v>
@@ -8799,19 +8678,19 @@
     </row>
     <row r="203">
       <c r="C203" t="s">
-        <v>736</v>
+        <v>387</v>
       </c>
       <c r="D203" t="s">
-        <v>735</v>
+        <v>386</v>
       </c>
       <c r="E203" t="s">
-        <v>55</v>
+        <v>385</v>
       </c>
       <c r="K203" t="n">
-        <v>300.0</v>
+        <v>24500.0</v>
       </c>
       <c r="O203" t="s">
-        <v>737</v>
+        <v>388</v>
       </c>
       <c r="U203" t="n">
         <v>0.0</v>
@@ -8819,19 +8698,19 @@
     </row>
     <row r="204">
       <c r="C204" t="s">
-        <v>739</v>
+        <v>383</v>
       </c>
       <c r="D204" t="s">
-        <v>738</v>
+        <v>382</v>
       </c>
       <c r="E204" t="s">
-        <v>55</v>
+        <v>381</v>
       </c>
       <c r="K204" t="n">
-        <v>600.0</v>
+        <v>375.0</v>
       </c>
       <c r="O204" t="s">
-        <v>298</v>
+        <v>384</v>
       </c>
       <c r="U204" t="n">
         <v>0.0</v>
@@ -8839,19 +8718,19 @@
     </row>
     <row r="205">
       <c r="C205" t="s">
-        <v>741</v>
+        <v>379</v>
       </c>
       <c r="D205" t="s">
-        <v>740</v>
+        <v>378</v>
       </c>
       <c r="E205" t="s">
-        <v>55</v>
+        <v>377</v>
       </c>
       <c r="K205" t="n">
-        <v>7800.0</v>
+        <v>300.0</v>
       </c>
       <c r="O205" t="s">
-        <v>443</v>
+        <v>380</v>
       </c>
       <c r="U205" t="n">
         <v>0.0</v>
@@ -8859,19 +8738,19 @@
     </row>
     <row r="206">
       <c r="C206" t="s">
-        <v>743</v>
+        <v>375</v>
       </c>
       <c r="D206" t="s">
-        <v>742</v>
+        <v>374</v>
       </c>
       <c r="E206" t="s">
-        <v>55</v>
+        <v>373</v>
       </c>
       <c r="K206" t="n">
-        <v>150.0</v>
+        <v>1800.0</v>
       </c>
       <c r="O206" t="s">
-        <v>298</v>
+        <v>376</v>
       </c>
       <c r="U206" t="n">
         <v>0.0</v>
@@ -8879,19 +8758,19 @@
     </row>
     <row r="207">
       <c r="C207" t="s">
-        <v>745</v>
+        <v>371</v>
       </c>
       <c r="D207" t="s">
-        <v>744</v>
+        <v>370</v>
       </c>
       <c r="E207" t="s">
-        <v>55</v>
+        <v>369</v>
       </c>
       <c r="K207" t="n">
-        <v>150.0</v>
+        <v>2000.0</v>
       </c>
       <c r="O207" t="s">
-        <v>486</v>
+        <v>372</v>
       </c>
       <c r="U207" t="n">
         <v>0.0</v>
@@ -8899,19 +8778,19 @@
     </row>
     <row r="208">
       <c r="C208" t="s">
-        <v>747</v>
+        <v>367</v>
       </c>
       <c r="D208" t="s">
-        <v>746</v>
+        <v>366</v>
       </c>
       <c r="E208" t="s">
-        <v>55</v>
+        <v>365</v>
       </c>
       <c r="K208" t="n">
-        <v>200.0</v>
+        <v>140125.0</v>
       </c>
       <c r="O208" t="s">
-        <v>748</v>
+        <v>368</v>
       </c>
       <c r="U208" t="n">
         <v>0.0</v>
@@ -8919,19 +8798,19 @@
     </row>
     <row r="209">
       <c r="C209" t="s">
-        <v>750</v>
+        <v>363</v>
       </c>
       <c r="D209" t="s">
-        <v>749</v>
+        <v>362</v>
       </c>
       <c r="E209" t="s">
-        <v>55</v>
+        <v>361</v>
       </c>
       <c r="K209" t="n">
-        <v>450.0</v>
+        <v>1200.0</v>
       </c>
       <c r="O209" t="s">
-        <v>751</v>
+        <v>364</v>
       </c>
       <c r="U209" t="n">
         <v>0.0</v>
@@ -8939,19 +8818,19 @@
     </row>
     <row r="210">
       <c r="C210" t="s">
-        <v>753</v>
+        <v>359</v>
       </c>
       <c r="D210" t="s">
-        <v>752</v>
+        <v>358</v>
       </c>
       <c r="E210" t="s">
-        <v>55</v>
+        <v>357</v>
       </c>
       <c r="K210" t="n">
-        <v>300.0</v>
+        <v>375.0</v>
       </c>
       <c r="O210" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="U210" t="n">
         <v>0.0</v>
@@ -8959,19 +8838,19 @@
     </row>
     <row r="211">
       <c r="C211" t="s">
-        <v>755</v>
+        <v>355</v>
       </c>
       <c r="D211" t="s">
-        <v>754</v>
+        <v>354</v>
       </c>
       <c r="E211" t="s">
-        <v>55</v>
+        <v>353</v>
       </c>
       <c r="K211" t="n">
-        <v>150.0</v>
+        <v>81125.0</v>
       </c>
       <c r="O211" t="s">
-        <v>298</v>
+        <v>356</v>
       </c>
       <c r="U211" t="n">
         <v>0.0</v>
@@ -8979,19 +8858,19 @@
     </row>
     <row r="212">
       <c r="C212" t="s">
-        <v>757</v>
+        <v>351</v>
       </c>
       <c r="D212" t="s">
-        <v>756</v>
+        <v>350</v>
       </c>
       <c r="E212" t="s">
-        <v>55</v>
+        <v>349</v>
       </c>
       <c r="K212" t="n">
-        <v>133125.0</v>
+        <v>1800.0</v>
       </c>
       <c r="O212" t="s">
-        <v>596</v>
+        <v>352</v>
       </c>
       <c r="U212" t="n">
         <v>0.0</v>
@@ -8999,19 +8878,19 @@
     </row>
     <row r="213">
       <c r="C213" t="s">
-        <v>759</v>
+        <v>347</v>
       </c>
       <c r="D213" t="s">
-        <v>758</v>
+        <v>346</v>
       </c>
       <c r="E213" t="s">
-        <v>55</v>
+        <v>345</v>
       </c>
       <c r="K213" t="n">
-        <v>150.0</v>
+        <v>900.0</v>
       </c>
       <c r="O213" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="U213" t="n">
         <v>0.0</v>
@@ -9019,19 +8898,19 @@
     </row>
     <row r="214">
       <c r="C214" t="s">
-        <v>761</v>
+        <v>344</v>
       </c>
       <c r="D214" t="s">
-        <v>760</v>
+        <v>343</v>
       </c>
       <c r="E214" t="s">
-        <v>55</v>
+        <v>330</v>
       </c>
       <c r="K214" t="n">
-        <v>2600.0</v>
+        <v>400.0</v>
       </c>
       <c r="O214" t="s">
-        <v>762</v>
+        <v>333</v>
       </c>
       <c r="U214" t="n">
         <v>0.0</v>
@@ -9039,19 +8918,19 @@
     </row>
     <row r="215">
       <c r="C215" t="s">
-        <v>764</v>
+        <v>341</v>
       </c>
       <c r="D215" t="s">
-        <v>763</v>
+        <v>340</v>
       </c>
       <c r="E215" t="s">
-        <v>55</v>
+        <v>339</v>
       </c>
       <c r="K215" t="n">
-        <v>77550.0</v>
+        <v>9250.0</v>
       </c>
       <c r="O215" t="s">
-        <v>765</v>
+        <v>342</v>
       </c>
       <c r="U215" t="n">
         <v>0.0</v>
@@ -9059,19 +8938,19 @@
     </row>
     <row r="216">
       <c r="C216" t="s">
-        <v>767</v>
+        <v>338</v>
       </c>
       <c r="D216" t="s">
-        <v>766</v>
+        <v>337</v>
       </c>
       <c r="E216" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="K216" t="n">
-        <v>2550.0</v>
+        <v>1000.0</v>
       </c>
       <c r="O216" t="s">
-        <v>768</v>
+        <v>324</v>
       </c>
       <c r="U216" t="n">
         <v>0.0</v>
@@ -9079,19 +8958,19 @@
     </row>
     <row r="217">
       <c r="C217" t="s">
-        <v>770</v>
+        <v>335</v>
       </c>
       <c r="D217" t="s">
-        <v>769</v>
+        <v>334</v>
       </c>
       <c r="E217" t="s">
-        <v>55</v>
+        <v>289</v>
       </c>
       <c r="K217" t="n">
-        <v>600.0</v>
+        <v>3150.0</v>
       </c>
       <c r="O217" t="s">
-        <v>569</v>
+        <v>289</v>
       </c>
       <c r="U217" t="n">
         <v>0.0</v>
@@ -9099,19 +8978,19 @@
     </row>
     <row r="218">
       <c r="C218" t="s">
-        <v>772</v>
+        <v>332</v>
       </c>
       <c r="D218" t="s">
-        <v>771</v>
+        <v>331</v>
       </c>
       <c r="E218" t="s">
-        <v>55</v>
+        <v>330</v>
       </c>
       <c r="K218" t="n">
-        <v>7600.0</v>
+        <v>11400.0</v>
       </c>
       <c r="O218" t="s">
-        <v>443</v>
+        <v>333</v>
       </c>
       <c r="U218" t="n">
         <v>0.0</v>
@@ -9119,19 +8998,19 @@
     </row>
     <row r="219">
       <c r="C219" t="s">
-        <v>774</v>
+        <v>328</v>
       </c>
       <c r="D219" t="s">
-        <v>773</v>
+        <v>327</v>
       </c>
       <c r="E219" t="s">
-        <v>55</v>
+        <v>285</v>
       </c>
       <c r="K219" t="n">
-        <v>800.0</v>
+        <v>300.0</v>
       </c>
       <c r="O219" t="s">
-        <v>217</v>
+        <v>329</v>
       </c>
       <c r="U219" t="n">
         <v>0.0</v>
@@ -9139,19 +9018,19 @@
     </row>
     <row r="220">
       <c r="C220" t="s">
-        <v>776</v>
+        <v>326</v>
       </c>
       <c r="D220" t="s">
-        <v>775</v>
+        <v>325</v>
       </c>
       <c r="E220" t="s">
-        <v>55</v>
+        <v>289</v>
       </c>
       <c r="K220" t="n">
-        <v>500.0</v>
+        <v>200.0</v>
       </c>
       <c r="O220" t="s">
-        <v>777</v>
+        <v>289</v>
       </c>
       <c r="U220" t="n">
         <v>0.0</v>
@@ -9159,19 +9038,19 @@
     </row>
     <row r="221">
       <c r="C221" t="s">
-        <v>779</v>
+        <v>323</v>
       </c>
       <c r="D221" t="s">
-        <v>778</v>
+        <v>322</v>
       </c>
       <c r="E221" t="s">
-        <v>55</v>
+        <v>321</v>
       </c>
       <c r="K221" t="n">
-        <v>150.0</v>
+        <v>300.0</v>
       </c>
       <c r="O221" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="U221" t="n">
         <v>0.0</v>
@@ -9179,19 +9058,19 @@
     </row>
     <row r="222">
       <c r="C222" t="s">
-        <v>781</v>
+        <v>319</v>
       </c>
       <c r="D222" t="s">
-        <v>780</v>
+        <v>318</v>
       </c>
       <c r="E222" t="s">
-        <v>55</v>
+        <v>317</v>
       </c>
       <c r="K222" t="n">
-        <v>200.0</v>
+        <v>44875.0</v>
       </c>
       <c r="O222" t="s">
-        <v>690</v>
+        <v>320</v>
       </c>
       <c r="U222" t="n">
         <v>0.0</v>
@@ -9199,19 +9078,19 @@
     </row>
     <row r="223">
       <c r="C223" t="s">
-        <v>783</v>
+        <v>315</v>
       </c>
       <c r="D223" t="s">
-        <v>782</v>
+        <v>314</v>
       </c>
       <c r="E223" t="s">
-        <v>55</v>
+        <v>313</v>
       </c>
       <c r="K223" t="n">
         <v>150.0</v>
       </c>
       <c r="O223" t="s">
-        <v>784</v>
+        <v>316</v>
       </c>
       <c r="U223" t="n">
         <v>0.0</v>
@@ -9219,19 +9098,19 @@
     </row>
     <row r="224">
       <c r="C224" t="s">
-        <v>786</v>
+        <v>312</v>
       </c>
       <c r="D224" t="s">
-        <v>785</v>
+        <v>311</v>
       </c>
       <c r="E224" t="s">
-        <v>55</v>
+        <v>289</v>
       </c>
       <c r="K224" t="n">
         <v>150.0</v>
       </c>
       <c r="O224" t="s">
-        <v>787</v>
+        <v>289</v>
       </c>
       <c r="U224" t="n">
         <v>0.0</v>
@@ -9239,19 +9118,19 @@
     </row>
     <row r="225">
       <c r="C225" t="s">
-        <v>789</v>
+        <v>309</v>
       </c>
       <c r="D225" t="s">
-        <v>788</v>
+        <v>308</v>
       </c>
       <c r="E225" t="s">
-        <v>55</v>
+        <v>307</v>
       </c>
       <c r="K225" t="n">
-        <v>200.0</v>
+        <v>4950.0</v>
       </c>
       <c r="O225" t="s">
-        <v>790</v>
+        <v>310</v>
       </c>
       <c r="U225" t="n">
         <v>0.0</v>
@@ -9259,19 +9138,19 @@
     </row>
     <row r="226">
       <c r="C226" t="s">
-        <v>792</v>
+        <v>305</v>
       </c>
       <c r="D226" t="s">
-        <v>791</v>
+        <v>304</v>
       </c>
       <c r="E226" t="s">
-        <v>55</v>
+        <v>303</v>
       </c>
       <c r="K226" t="n">
-        <v>150.0</v>
+        <v>3000.0</v>
       </c>
       <c r="O226" t="s">
-        <v>696</v>
+        <v>306</v>
       </c>
       <c r="U226" t="n">
         <v>0.0</v>
@@ -9279,19 +9158,19 @@
     </row>
     <row r="227">
       <c r="C227" t="s">
-        <v>794</v>
+        <v>301</v>
       </c>
       <c r="D227" t="s">
-        <v>793</v>
+        <v>300</v>
       </c>
       <c r="E227" t="s">
-        <v>55</v>
+        <v>299</v>
       </c>
       <c r="K227" t="n">
-        <v>17375.0</v>
+        <v>150.0</v>
       </c>
       <c r="O227" t="s">
-        <v>795</v>
+        <v>302</v>
       </c>
       <c r="U227" t="n">
         <v>0.0</v>
@@ -9299,19 +9178,19 @@
     </row>
     <row r="228">
       <c r="C228" t="s">
-        <v>797</v>
+        <v>297</v>
       </c>
       <c r="D228" t="s">
-        <v>796</v>
+        <v>296</v>
       </c>
       <c r="E228" t="s">
-        <v>55</v>
+        <v>295</v>
       </c>
       <c r="K228" t="n">
-        <v>191625.0</v>
+        <v>150.0</v>
       </c>
       <c r="O228" t="s">
-        <v>795</v>
+        <v>298</v>
       </c>
       <c r="U228" t="n">
         <v>0.0</v>
@@ -9319,19 +9198,19 @@
     </row>
     <row r="229">
       <c r="C229" t="s">
-        <v>799</v>
+        <v>294</v>
       </c>
       <c r="D229" t="s">
-        <v>798</v>
+        <v>293</v>
       </c>
       <c r="E229" t="s">
-        <v>55</v>
+        <v>292</v>
       </c>
       <c r="K229" t="n">
-        <v>2550.0</v>
+        <v>1038000.0</v>
       </c>
       <c r="O229" t="s">
-        <v>800</v>
+        <v>292</v>
       </c>
       <c r="U229" t="n">
         <v>0.0</v>
@@ -9339,19 +9218,19 @@
     </row>
     <row r="230">
       <c r="C230" t="s">
-        <v>802</v>
+        <v>291</v>
       </c>
       <c r="D230" t="s">
-        <v>801</v>
+        <v>290</v>
       </c>
       <c r="E230" t="s">
-        <v>55</v>
+        <v>289</v>
       </c>
       <c r="K230" t="n">
-        <v>44400.0</v>
+        <v>200.0</v>
       </c>
       <c r="O230" t="s">
-        <v>803</v>
+        <v>289</v>
       </c>
       <c r="U230" t="n">
         <v>0.0</v>
@@ -9359,19 +9238,19 @@
     </row>
     <row r="231">
       <c r="C231" t="s">
-        <v>805</v>
+        <v>287</v>
       </c>
       <c r="D231" t="s">
-        <v>804</v>
+        <v>286</v>
       </c>
       <c r="E231" t="s">
-        <v>55</v>
+        <v>285</v>
       </c>
       <c r="K231" t="n">
-        <v>1000.0</v>
+        <v>150.0</v>
       </c>
       <c r="O231" t="s">
-        <v>696</v>
+        <v>288</v>
       </c>
       <c r="U231" t="n">
         <v>0.0</v>
@@ -9379,19 +9258,19 @@
     </row>
     <row r="232">
       <c r="C232" t="s">
-        <v>807</v>
+        <v>283</v>
       </c>
       <c r="D232" t="s">
-        <v>806</v>
+        <v>282</v>
       </c>
       <c r="E232" t="s">
-        <v>55</v>
+        <v>281</v>
       </c>
       <c r="K232" t="n">
-        <v>600.0</v>
+        <v>125.0</v>
       </c>
       <c r="O232" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="U232" t="n">
         <v>0.0</v>
@@ -9399,19 +9278,19 @@
     </row>
     <row r="233">
       <c r="C233" t="s">
-        <v>809</v>
+        <v>279</v>
       </c>
       <c r="D233" t="s">
-        <v>808</v>
+        <v>278</v>
       </c>
       <c r="E233" t="s">
-        <v>55</v>
+        <v>277</v>
       </c>
       <c r="K233" t="n">
-        <v>900.0</v>
+        <v>18800.0</v>
       </c>
       <c r="O233" t="s">
-        <v>810</v>
+        <v>280</v>
       </c>
       <c r="U233" t="n">
         <v>0.0</v>
@@ -9419,19 +9298,19 @@
     </row>
     <row r="234">
       <c r="C234" t="s">
-        <v>812</v>
+        <v>275</v>
       </c>
       <c r="D234" t="s">
-        <v>811</v>
+        <v>274</v>
       </c>
       <c r="E234" t="s">
-        <v>55</v>
+        <v>273</v>
       </c>
       <c r="K234" t="n">
-        <v>128750.0</v>
+        <v>13875.0</v>
       </c>
       <c r="O234" t="s">
-        <v>813</v>
+        <v>276</v>
       </c>
       <c r="U234" t="n">
         <v>0.0</v>
@@ -9439,19 +9318,19 @@
     </row>
     <row r="235">
       <c r="C235" t="s">
-        <v>814</v>
+        <v>271</v>
       </c>
       <c r="D235" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E235" t="s">
-        <v>55</v>
+        <v>269</v>
       </c>
       <c r="K235" t="n">
-        <v>200.0</v>
+        <v>72875.0</v>
       </c>
       <c r="O235" t="s">
-        <v>815</v>
+        <v>272</v>
       </c>
       <c r="U235" t="n">
         <v>0.0</v>
@@ -9459,19 +9338,19 @@
     </row>
     <row r="236">
       <c r="C236" t="s">
-        <v>817</v>
+        <v>267</v>
       </c>
       <c r="D236" t="s">
-        <v>816</v>
+        <v>266</v>
       </c>
       <c r="E236" t="s">
-        <v>55</v>
+        <v>265</v>
       </c>
       <c r="K236" t="n">
-        <v>600.0</v>
+        <v>1750.0</v>
       </c>
       <c r="O236" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="U236" t="n">
         <v>0.0</v>
@@ -9479,19 +9358,19 @@
     </row>
     <row r="237">
       <c r="C237" t="s">
-        <v>819</v>
+        <v>263</v>
       </c>
       <c r="D237" t="s">
-        <v>818</v>
+        <v>262</v>
       </c>
       <c r="E237" t="s">
-        <v>55</v>
+        <v>261</v>
       </c>
       <c r="K237" t="n">
-        <v>300.0</v>
+        <v>3000.0</v>
       </c>
       <c r="O237" t="s">
-        <v>820</v>
+        <v>264</v>
       </c>
       <c r="U237" t="n">
         <v>0.0</v>
@@ -9499,19 +9378,19 @@
     </row>
     <row r="238">
       <c r="C238" t="s">
-        <v>822</v>
+        <v>259</v>
       </c>
       <c r="D238" t="s">
-        <v>821</v>
+        <v>258</v>
       </c>
       <c r="E238" t="s">
-        <v>55</v>
+        <v>257</v>
       </c>
       <c r="K238" t="n">
-        <v>2100.0</v>
+        <v>2500.0</v>
       </c>
       <c r="O238" t="s">
-        <v>823</v>
+        <v>260</v>
       </c>
       <c r="U238" t="n">
         <v>0.0</v>
@@ -9519,19 +9398,19 @@
     </row>
     <row r="239">
       <c r="C239" t="s">
-        <v>825</v>
+        <v>255</v>
       </c>
       <c r="D239" t="s">
-        <v>824</v>
+        <v>254</v>
       </c>
       <c r="E239" t="s">
-        <v>55</v>
+        <v>253</v>
       </c>
       <c r="K239" t="n">
-        <v>300.0</v>
+        <v>150.0</v>
       </c>
       <c r="O239" t="s">
-        <v>826</v>
+        <v>256</v>
       </c>
       <c r="U239" t="n">
         <v>0.0</v>
@@ -9539,19 +9418,19 @@
     </row>
     <row r="240">
       <c r="C240" t="s">
-        <v>827</v>
+        <v>251</v>
       </c>
       <c r="D240" t="s">
-        <v>824</v>
+        <v>250</v>
       </c>
       <c r="E240" t="s">
-        <v>55</v>
+        <v>249</v>
       </c>
       <c r="K240" t="n">
-        <v>300.0</v>
+        <v>34375.0</v>
       </c>
       <c r="O240" t="s">
-        <v>828</v>
+        <v>252</v>
       </c>
       <c r="U240" t="n">
         <v>0.0</v>
@@ -9559,19 +9438,19 @@
     </row>
     <row r="241">
       <c r="C241" t="s">
-        <v>830</v>
+        <v>247</v>
       </c>
       <c r="D241" t="s">
-        <v>829</v>
+        <v>246</v>
       </c>
       <c r="E241" t="s">
-        <v>55</v>
+        <v>245</v>
       </c>
       <c r="K241" t="n">
-        <v>150.0</v>
+        <v>1250.0</v>
       </c>
       <c r="O241" t="s">
-        <v>831</v>
+        <v>248</v>
       </c>
       <c r="U241" t="n">
         <v>0.0</v>
@@ -9579,19 +9458,19 @@
     </row>
     <row r="242">
       <c r="C242" t="s">
-        <v>833</v>
+        <v>243</v>
       </c>
       <c r="D242" t="s">
-        <v>832</v>
+        <v>242</v>
       </c>
       <c r="E242" t="s">
-        <v>55</v>
+        <v>241</v>
       </c>
       <c r="K242" t="n">
-        <v>3150.0</v>
+        <v>1350.0</v>
       </c>
       <c r="O242" t="s">
-        <v>834</v>
+        <v>244</v>
       </c>
       <c r="U242" t="n">
         <v>0.0</v>
@@ -9599,19 +9478,19 @@
     </row>
     <row r="243">
       <c r="C243" t="s">
-        <v>836</v>
+        <v>239</v>
       </c>
       <c r="D243" t="s">
-        <v>835</v>
+        <v>238</v>
       </c>
       <c r="E243" t="s">
-        <v>55</v>
+        <v>237</v>
       </c>
       <c r="K243" t="n">
-        <v>200.0</v>
+        <v>14375.0</v>
       </c>
       <c r="O243" t="s">
-        <v>837</v>
+        <v>240</v>
       </c>
       <c r="U243" t="n">
         <v>0.0</v>
@@ -9619,19 +9498,19 @@
     </row>
     <row r="244">
       <c r="C244" t="s">
-        <v>839</v>
+        <v>235</v>
       </c>
       <c r="D244" t="s">
-        <v>838</v>
+        <v>234</v>
       </c>
       <c r="E244" t="s">
-        <v>55</v>
+        <v>233</v>
       </c>
       <c r="K244" t="n">
-        <v>150.0</v>
+        <v>2750.0</v>
       </c>
       <c r="O244" t="s">
-        <v>840</v>
+        <v>236</v>
       </c>
       <c r="U244" t="n">
         <v>0.0</v>
@@ -9639,19 +9518,19 @@
     </row>
     <row r="245">
       <c r="C245" t="s">
-        <v>842</v>
+        <v>231</v>
       </c>
       <c r="D245" t="s">
-        <v>841</v>
+        <v>230</v>
       </c>
       <c r="E245" t="s">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="K245" t="n">
-        <v>450.0</v>
+        <v>82125.0</v>
       </c>
       <c r="O245" t="s">
-        <v>843</v>
+        <v>232</v>
       </c>
       <c r="U245" t="n">
         <v>0.0</v>
@@ -9659,19 +9538,19 @@
     </row>
     <row r="246">
       <c r="C246" t="s">
-        <v>845</v>
+        <v>228</v>
       </c>
       <c r="D246" t="s">
-        <v>844</v>
+        <v>227</v>
       </c>
       <c r="E246" t="s">
-        <v>55</v>
+        <v>226</v>
       </c>
       <c r="K246" t="n">
-        <v>150.0</v>
+        <v>21000.0</v>
       </c>
       <c r="O246" t="s">
-        <v>843</v>
+        <v>103</v>
       </c>
       <c r="U246" t="n">
         <v>0.0</v>
@@ -9679,19 +9558,19 @@
     </row>
     <row r="247">
       <c r="C247" t="s">
-        <v>847</v>
+        <v>224</v>
       </c>
       <c r="D247" t="s">
-        <v>846</v>
+        <v>223</v>
       </c>
       <c r="E247" t="s">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="K247" t="n">
         <v>150.0</v>
       </c>
       <c r="O247" t="s">
-        <v>848</v>
+        <v>225</v>
       </c>
       <c r="U247" t="n">
         <v>0.0</v>
@@ -9699,19 +9578,19 @@
     </row>
     <row r="248">
       <c r="C248" t="s">
-        <v>851</v>
+        <v>220</v>
       </c>
       <c r="D248" t="s">
-        <v>850</v>
+        <v>219</v>
       </c>
       <c r="E248" t="s">
-        <v>849</v>
+        <v>218</v>
       </c>
       <c r="K248" t="n">
-        <v>1750.0</v>
+        <v>150.0</v>
       </c>
       <c r="O248" t="s">
-        <v>852</v>
+        <v>221</v>
       </c>
       <c r="U248" t="n">
         <v>0.0</v>
@@ -9719,19 +9598,19 @@
     </row>
     <row r="249">
       <c r="C249" t="s">
-        <v>855</v>
+        <v>216</v>
       </c>
       <c r="D249" t="s">
-        <v>854</v>
+        <v>215</v>
       </c>
       <c r="E249" t="s">
-        <v>853</v>
+        <v>214</v>
       </c>
       <c r="K249" t="n">
-        <v>268500.0</v>
+        <v>2750.0</v>
       </c>
       <c r="O249" t="s">
-        <v>856</v>
+        <v>217</v>
       </c>
       <c r="U249" t="n">
         <v>0.0</v>
@@ -9739,19 +9618,19 @@
     </row>
     <row r="250">
       <c r="C250" t="s">
-        <v>859</v>
+        <v>212</v>
       </c>
       <c r="D250" t="s">
-        <v>858</v>
+        <v>211</v>
       </c>
       <c r="E250" t="s">
-        <v>857</v>
+        <v>210</v>
       </c>
       <c r="K250" t="n">
-        <v>17875.0</v>
+        <v>375.0</v>
       </c>
       <c r="O250" t="s">
-        <v>860</v>
+        <v>213</v>
       </c>
       <c r="U250" t="n">
         <v>0.0</v>
@@ -9759,19 +9638,19 @@
     </row>
     <row r="251">
       <c r="C251" t="s">
-        <v>863</v>
+        <v>208</v>
       </c>
       <c r="D251" t="s">
-        <v>862</v>
+        <v>207</v>
       </c>
       <c r="E251" t="s">
-        <v>861</v>
+        <v>206</v>
       </c>
       <c r="K251" t="n">
-        <v>2125.0</v>
+        <v>150.0</v>
       </c>
       <c r="O251" t="s">
-        <v>856</v>
+        <v>209</v>
       </c>
       <c r="U251" t="n">
         <v>0.0</v>
@@ -9779,19 +9658,19 @@
     </row>
     <row r="252">
       <c r="C252" t="s">
-        <v>866</v>
+        <v>204</v>
       </c>
       <c r="D252" t="s">
-        <v>865</v>
+        <v>203</v>
       </c>
       <c r="E252" t="s">
-        <v>864</v>
+        <v>202</v>
       </c>
       <c r="K252" t="n">
-        <v>2625.0</v>
+        <v>200.0</v>
       </c>
       <c r="O252" t="s">
-        <v>867</v>
+        <v>205</v>
       </c>
       <c r="U252" t="n">
         <v>0.0</v>
@@ -9799,19 +9678,19 @@
     </row>
     <row r="253">
       <c r="C253" t="s">
-        <v>870</v>
+        <v>200</v>
       </c>
       <c r="D253" t="s">
-        <v>869</v>
+        <v>199</v>
       </c>
       <c r="E253" t="s">
-        <v>868</v>
+        <v>198</v>
       </c>
       <c r="K253" t="n">
-        <v>1750.0</v>
+        <v>79750.0</v>
       </c>
       <c r="O253" t="s">
-        <v>871</v>
+        <v>201</v>
       </c>
       <c r="U253" t="n">
         <v>0.0</v>
@@ -9819,19 +9698,19 @@
     </row>
     <row r="254">
       <c r="C254" t="s">
-        <v>874</v>
+        <v>196</v>
       </c>
       <c r="D254" t="s">
-        <v>873</v>
+        <v>195</v>
       </c>
       <c r="E254" t="s">
-        <v>872</v>
+        <v>194</v>
       </c>
       <c r="K254" t="n">
-        <v>1750.0</v>
+        <v>800.0</v>
       </c>
       <c r="O254" t="s">
-        <v>875</v>
+        <v>197</v>
       </c>
       <c r="U254" t="n">
         <v>0.0</v>
@@ -9839,19 +9718,19 @@
     </row>
     <row r="255">
       <c r="C255" t="s">
-        <v>878</v>
+        <v>193</v>
       </c>
       <c r="D255" t="s">
-        <v>877</v>
+        <v>192</v>
       </c>
       <c r="E255" t="s">
-        <v>876</v>
+        <v>191</v>
       </c>
       <c r="K255" t="n">
-        <v>750.0</v>
+        <v>20500.0</v>
       </c>
       <c r="O255" t="s">
-        <v>879</v>
+        <v>182</v>
       </c>
       <c r="U255" t="n">
         <v>0.0</v>
@@ -9859,19 +9738,19 @@
     </row>
     <row r="256">
       <c r="C256" t="s">
-        <v>882</v>
+        <v>190</v>
       </c>
       <c r="D256" t="s">
-        <v>881</v>
+        <v>189</v>
       </c>
       <c r="E256" t="s">
-        <v>880</v>
+        <v>167</v>
       </c>
       <c r="K256" t="n">
-        <v>642125.0</v>
+        <v>1600.0</v>
       </c>
       <c r="O256" t="s">
-        <v>883</v>
+        <v>170</v>
       </c>
       <c r="U256" t="n">
         <v>0.0</v>
@@ -9879,19 +9758,19 @@
     </row>
     <row r="257">
       <c r="C257" t="s">
-        <v>886</v>
+        <v>188</v>
       </c>
       <c r="D257" t="s">
-        <v>885</v>
+        <v>187</v>
       </c>
       <c r="E257" t="s">
-        <v>884</v>
+        <v>88</v>
       </c>
       <c r="K257" t="n">
-        <v>7000.0</v>
+        <v>1125.0</v>
       </c>
       <c r="O257" t="s">
-        <v>887</v>
+        <v>91</v>
       </c>
       <c r="U257" t="n">
         <v>0.0</v>
@@ -9899,19 +9778,19 @@
     </row>
     <row r="258">
       <c r="C258" t="s">
-        <v>890</v>
+        <v>185</v>
       </c>
       <c r="D258" t="s">
-        <v>889</v>
+        <v>184</v>
       </c>
       <c r="E258" t="s">
-        <v>888</v>
+        <v>183</v>
       </c>
       <c r="K258" t="n">
-        <v>36000.0</v>
+        <v>6500.0</v>
       </c>
       <c r="O258" t="s">
-        <v>891</v>
+        <v>186</v>
       </c>
       <c r="U258" t="n">
         <v>0.0</v>
@@ -9919,19 +9798,19 @@
     </row>
     <row r="259">
       <c r="C259" t="s">
-        <v>893</v>
+        <v>181</v>
       </c>
       <c r="D259" t="s">
-        <v>892</v>
+        <v>180</v>
       </c>
       <c r="E259" t="s">
-        <v>864</v>
+        <v>179</v>
       </c>
       <c r="K259" t="n">
-        <v>2875.0</v>
+        <v>94750.0</v>
       </c>
       <c r="O259" t="s">
-        <v>894</v>
+        <v>182</v>
       </c>
       <c r="U259" t="n">
         <v>0.0</v>
@@ -9939,19 +9818,19 @@
     </row>
     <row r="260">
       <c r="C260" t="s">
-        <v>897</v>
+        <v>177</v>
       </c>
       <c r="D260" t="s">
-        <v>896</v>
+        <v>176</v>
       </c>
       <c r="E260" t="s">
-        <v>895</v>
+        <v>175</v>
       </c>
       <c r="K260" t="n">
-        <v>33625.0</v>
+        <v>875.0</v>
       </c>
       <c r="O260" t="s">
-        <v>898</v>
+        <v>178</v>
       </c>
       <c r="U260" t="n">
         <v>0.0</v>
@@ -9959,19 +9838,19 @@
     </row>
     <row r="261">
       <c r="C261" t="s">
-        <v>901</v>
+        <v>173</v>
       </c>
       <c r="D261" t="s">
-        <v>900</v>
+        <v>172</v>
       </c>
       <c r="E261" t="s">
-        <v>899</v>
+        <v>171</v>
       </c>
       <c r="K261" t="n">
-        <v>50625.0</v>
+        <v>1125.0</v>
       </c>
       <c r="O261" t="s">
-        <v>902</v>
+        <v>174</v>
       </c>
       <c r="U261" t="n">
         <v>0.0</v>
@@ -9979,19 +9858,19 @@
     </row>
     <row r="262">
       <c r="C262" t="s">
-        <v>901</v>
+        <v>169</v>
       </c>
       <c r="D262" t="s">
-        <v>900</v>
+        <v>168</v>
       </c>
       <c r="E262" t="s">
-        <v>899</v>
+        <v>167</v>
       </c>
       <c r="K262" t="n">
-        <v>3000.0</v>
+        <v>11875.0</v>
       </c>
       <c r="O262" t="s">
-        <v>903</v>
+        <v>170</v>
       </c>
       <c r="U262" t="n">
         <v>0.0</v>
@@ -9999,19 +9878,19 @@
     </row>
     <row r="263">
       <c r="C263" t="s">
-        <v>906</v>
+        <v>165</v>
       </c>
       <c r="D263" t="s">
-        <v>905</v>
+        <v>164</v>
       </c>
       <c r="E263" t="s">
-        <v>904</v>
+        <v>163</v>
       </c>
       <c r="K263" t="n">
-        <v>2250.0</v>
+        <v>200.0</v>
       </c>
       <c r="O263" t="s">
-        <v>907</v>
+        <v>166</v>
       </c>
       <c r="U263" t="n">
         <v>0.0</v>
@@ -10019,19 +9898,19 @@
     </row>
     <row r="264">
       <c r="C264" t="s">
-        <v>910</v>
+        <v>161</v>
       </c>
       <c r="D264" t="s">
-        <v>909</v>
+        <v>160</v>
       </c>
       <c r="E264" t="s">
-        <v>908</v>
+        <v>159</v>
       </c>
       <c r="K264" t="n">
-        <v>200.0</v>
+        <v>1050.0</v>
       </c>
       <c r="O264" t="s">
-        <v>911</v>
+        <v>162</v>
       </c>
       <c r="U264" t="n">
         <v>0.0</v>
@@ -10039,19 +9918,19 @@
     </row>
     <row r="265">
       <c r="C265" t="s">
-        <v>914</v>
+        <v>157</v>
       </c>
       <c r="D265" t="s">
-        <v>913</v>
+        <v>156</v>
       </c>
       <c r="E265" t="s">
-        <v>912</v>
+        <v>155</v>
       </c>
       <c r="K265" t="n">
-        <v>12125.0</v>
+        <v>6375.0</v>
       </c>
       <c r="O265" t="s">
-        <v>915</v>
+        <v>158</v>
       </c>
       <c r="U265" t="n">
         <v>0.0</v>
@@ -10059,19 +9938,19 @@
     </row>
     <row r="266">
       <c r="C266" t="s">
-        <v>918</v>
+        <v>154</v>
       </c>
       <c r="D266" t="s">
-        <v>917</v>
+        <v>153</v>
       </c>
       <c r="E266" t="s">
-        <v>916</v>
+        <v>152</v>
       </c>
       <c r="K266" t="n">
-        <v>200.0</v>
+        <v>378375.0</v>
       </c>
       <c r="O266" t="s">
-        <v>871</v>
+        <v>113</v>
       </c>
       <c r="U266" t="n">
         <v>0.0</v>
@@ -10079,19 +9958,19 @@
     </row>
     <row r="267">
       <c r="C267" t="s">
-        <v>921</v>
+        <v>151</v>
       </c>
       <c r="D267" t="s">
-        <v>920</v>
+        <v>150</v>
       </c>
       <c r="E267" t="s">
-        <v>919</v>
+        <v>92</v>
       </c>
       <c r="K267" t="n">
-        <v>12200.0</v>
+        <v>8250.0</v>
       </c>
       <c r="O267" t="s">
-        <v>922</v>
+        <v>95</v>
       </c>
       <c r="U267" t="n">
         <v>0.0</v>
@@ -10099,19 +9978,19 @@
     </row>
     <row r="268">
       <c r="C268" t="s">
-        <v>925</v>
+        <v>148</v>
       </c>
       <c r="D268" t="s">
-        <v>924</v>
+        <v>147</v>
       </c>
       <c r="E268" t="s">
-        <v>923</v>
+        <v>146</v>
       </c>
       <c r="K268" t="n">
-        <v>5250.0</v>
+        <v>1000.0</v>
       </c>
       <c r="O268" t="s">
-        <v>926</v>
+        <v>149</v>
       </c>
       <c r="U268" t="n">
         <v>0.0</v>
@@ -10119,19 +9998,19 @@
     </row>
     <row r="269">
       <c r="C269" t="s">
-        <v>929</v>
+        <v>144</v>
       </c>
       <c r="D269" t="s">
-        <v>928</v>
+        <v>143</v>
       </c>
       <c r="E269" t="s">
-        <v>927</v>
+        <v>142</v>
       </c>
       <c r="K269" t="n">
-        <v>400.0</v>
+        <v>68000.0</v>
       </c>
       <c r="O269" t="s">
-        <v>930</v>
+        <v>145</v>
       </c>
       <c r="U269" t="n">
         <v>0.0</v>
@@ -10139,19 +10018,19 @@
     </row>
     <row r="270">
       <c r="C270" t="s">
-        <v>933</v>
+        <v>140</v>
       </c>
       <c r="D270" t="s">
-        <v>932</v>
+        <v>139</v>
       </c>
       <c r="E270" t="s">
-        <v>931</v>
+        <v>138</v>
       </c>
       <c r="K270" t="n">
-        <v>750.0</v>
+        <v>2625.0</v>
       </c>
       <c r="O270" t="s">
-        <v>934</v>
+        <v>141</v>
       </c>
       <c r="U270" t="n">
         <v>0.0</v>
@@ -10159,19 +10038,19 @@
     </row>
     <row r="271">
       <c r="C271" t="s">
-        <v>936</v>
+        <v>136</v>
       </c>
       <c r="D271" t="s">
-        <v>932</v>
+        <v>135</v>
       </c>
       <c r="E271" t="s">
-        <v>935</v>
+        <v>134</v>
       </c>
       <c r="K271" t="n">
-        <v>125.0</v>
+        <v>300.0</v>
       </c>
       <c r="O271" t="s">
-        <v>937</v>
+        <v>137</v>
       </c>
       <c r="U271" t="n">
         <v>0.0</v>
@@ -10179,19 +10058,19 @@
     </row>
     <row r="272">
       <c r="C272" t="s">
-        <v>939</v>
+        <v>132</v>
       </c>
       <c r="D272" t="s">
-        <v>932</v>
+        <v>131</v>
       </c>
       <c r="E272" t="s">
-        <v>938</v>
+        <v>130</v>
       </c>
       <c r="K272" t="n">
-        <v>125.0</v>
+        <v>1250.0</v>
       </c>
       <c r="O272" t="s">
-        <v>940</v>
+        <v>133</v>
       </c>
       <c r="U272" t="n">
         <v>0.0</v>
@@ -10199,19 +10078,19 @@
     </row>
     <row r="273">
       <c r="C273" t="s">
-        <v>943</v>
+        <v>128</v>
       </c>
       <c r="D273" t="s">
-        <v>942</v>
+        <v>127</v>
       </c>
       <c r="E273" t="s">
-        <v>941</v>
+        <v>126</v>
       </c>
       <c r="K273" t="n">
-        <v>1500.0</v>
+        <v>2800.0</v>
       </c>
       <c r="O273" t="s">
-        <v>944</v>
+        <v>129</v>
       </c>
       <c r="U273" t="n">
         <v>0.0</v>
@@ -10219,19 +10098,19 @@
     </row>
     <row r="274">
       <c r="C274" t="s">
-        <v>947</v>
+        <v>124</v>
       </c>
       <c r="D274" t="s">
-        <v>946</v>
+        <v>123</v>
       </c>
       <c r="E274" t="s">
-        <v>945</v>
+        <v>122</v>
       </c>
       <c r="K274" t="n">
-        <v>500.0</v>
+        <v>186250.0</v>
       </c>
       <c r="O274" t="s">
-        <v>948</v>
+        <v>125</v>
       </c>
       <c r="U274" t="n">
         <v>0.0</v>
@@ -10239,19 +10118,19 @@
     </row>
     <row r="275">
       <c r="C275" t="s">
-        <v>951</v>
+        <v>120</v>
       </c>
       <c r="D275" t="s">
-        <v>950</v>
+        <v>119</v>
       </c>
       <c r="E275" t="s">
-        <v>949</v>
+        <v>118</v>
       </c>
       <c r="K275" t="n">
-        <v>200.0</v>
+        <v>3125.0</v>
       </c>
       <c r="O275" t="s">
-        <v>930</v>
+        <v>121</v>
       </c>
       <c r="U275" t="n">
         <v>0.0</v>
@@ -10259,19 +10138,19 @@
     </row>
     <row r="276">
       <c r="C276" t="s">
-        <v>954</v>
+        <v>116</v>
       </c>
       <c r="D276" t="s">
-        <v>953</v>
+        <v>115</v>
       </c>
       <c r="E276" t="s">
-        <v>952</v>
+        <v>114</v>
       </c>
       <c r="K276" t="n">
-        <v>125.0</v>
+        <v>200.0</v>
       </c>
       <c r="O276" t="s">
-        <v>871</v>
+        <v>117</v>
       </c>
       <c r="U276" t="n">
         <v>0.0</v>
@@ -10279,19 +10158,19 @@
     </row>
     <row r="277">
       <c r="C277" t="s">
-        <v>957</v>
+        <v>112</v>
       </c>
       <c r="D277" t="s">
-        <v>956</v>
+        <v>111</v>
       </c>
       <c r="E277" t="s">
-        <v>955</v>
+        <v>110</v>
       </c>
       <c r="K277" t="n">
-        <v>200.0</v>
+        <v>2125.0</v>
       </c>
       <c r="O277" t="s">
-        <v>944</v>
+        <v>113</v>
       </c>
       <c r="U277" t="n">
         <v>0.0</v>
@@ -10299,19 +10178,19 @@
     </row>
     <row r="278">
       <c r="C278" t="s">
-        <v>960</v>
+        <v>108</v>
       </c>
       <c r="D278" t="s">
-        <v>959</v>
+        <v>107</v>
       </c>
       <c r="E278" t="s">
-        <v>958</v>
+        <v>106</v>
       </c>
       <c r="K278" t="n">
-        <v>70250.0</v>
+        <v>10500.0</v>
       </c>
       <c r="O278" t="s">
-        <v>961</v>
+        <v>109</v>
       </c>
       <c r="U278" t="n">
         <v>0.0</v>
@@ -10319,19 +10198,19 @@
     </row>
     <row r="279">
       <c r="C279" t="s">
-        <v>964</v>
+        <v>105</v>
       </c>
       <c r="D279" t="s">
-        <v>963</v>
+        <v>104</v>
       </c>
       <c r="E279" t="s">
-        <v>962</v>
+        <v>76</v>
       </c>
       <c r="K279" t="n">
-        <v>4500.0</v>
+        <v>1050.0</v>
       </c>
       <c r="O279" t="s">
-        <v>965</v>
+        <v>79</v>
       </c>
       <c r="U279" t="n">
         <v>0.0</v>
@@ -10339,19 +10218,19 @@
     </row>
     <row r="280">
       <c r="C280" t="s">
-        <v>968</v>
+        <v>102</v>
       </c>
       <c r="D280" t="s">
-        <v>967</v>
+        <v>101</v>
       </c>
       <c r="E280" t="s">
-        <v>966</v>
+        <v>100</v>
       </c>
       <c r="K280" t="n">
-        <v>10625.0</v>
+        <v>73500.0</v>
       </c>
       <c r="O280" t="s">
-        <v>902</v>
+        <v>103</v>
       </c>
       <c r="U280" t="n">
         <v>0.0</v>
@@ -10359,19 +10238,19 @@
     </row>
     <row r="281">
       <c r="C281" t="s">
-        <v>971</v>
+        <v>98</v>
       </c>
       <c r="D281" t="s">
-        <v>970</v>
+        <v>97</v>
       </c>
       <c r="E281" t="s">
-        <v>969</v>
+        <v>96</v>
       </c>
       <c r="K281" t="n">
-        <v>3375.0</v>
+        <v>50375.0</v>
       </c>
       <c r="O281" t="s">
-        <v>856</v>
+        <v>99</v>
       </c>
       <c r="U281" t="n">
         <v>0.0</v>
@@ -10379,19 +10258,19 @@
     </row>
     <row r="282">
       <c r="C282" t="s">
-        <v>974</v>
+        <v>94</v>
       </c>
       <c r="D282" t="s">
-        <v>973</v>
+        <v>93</v>
       </c>
       <c r="E282" t="s">
-        <v>972</v>
+        <v>92</v>
       </c>
       <c r="K282" t="n">
-        <v>279000.0</v>
+        <v>450.0</v>
       </c>
       <c r="O282" t="s">
-        <v>975</v>
+        <v>95</v>
       </c>
       <c r="U282" t="n">
         <v>0.0</v>
@@ -10399,19 +10278,19 @@
     </row>
     <row r="283">
       <c r="C283" t="s">
-        <v>977</v>
+        <v>90</v>
       </c>
       <c r="D283" t="s">
-        <v>976</v>
+        <v>89</v>
       </c>
       <c r="E283" t="s">
-        <v>952</v>
+        <v>88</v>
       </c>
       <c r="K283" t="n">
-        <v>250.0</v>
+        <v>18125.0</v>
       </c>
       <c r="O283" t="s">
-        <v>871</v>
+        <v>91</v>
       </c>
       <c r="U283" t="n">
         <v>0.0</v>
@@ -10419,19 +10298,19 @@
     </row>
     <row r="284">
       <c r="C284" t="s">
-        <v>980</v>
+        <v>86</v>
       </c>
       <c r="D284" t="s">
-        <v>979</v>
+        <v>85</v>
       </c>
       <c r="E284" t="s">
-        <v>978</v>
+        <v>84</v>
       </c>
       <c r="K284" t="n">
-        <v>600.0</v>
+        <v>750.0</v>
       </c>
       <c r="O284" t="s">
-        <v>981</v>
+        <v>87</v>
       </c>
       <c r="U284" t="n">
         <v>0.0</v>
@@ -10439,19 +10318,19 @@
     </row>
     <row r="285">
       <c r="C285" t="s">
-        <v>984</v>
+        <v>82</v>
       </c>
       <c r="D285" t="s">
-        <v>983</v>
+        <v>81</v>
       </c>
       <c r="E285" t="s">
-        <v>982</v>
+        <v>80</v>
       </c>
       <c r="K285" t="n">
-        <v>200.0</v>
+        <v>400.0</v>
       </c>
       <c r="O285" t="s">
-        <v>985</v>
+        <v>83</v>
       </c>
       <c r="U285" t="n">
         <v>0.0</v>
@@ -10459,19 +10338,19 @@
     </row>
     <row r="286">
       <c r="C286" t="s">
-        <v>988</v>
+        <v>78</v>
       </c>
       <c r="D286" t="s">
-        <v>987</v>
+        <v>77</v>
       </c>
       <c r="E286" t="s">
-        <v>986</v>
+        <v>76</v>
       </c>
       <c r="K286" t="n">
-        <v>200.0</v>
+        <v>450.0</v>
       </c>
       <c r="O286" t="s">
-        <v>989</v>
+        <v>79</v>
       </c>
       <c r="U286" t="n">
         <v>0.0</v>
@@ -10479,19 +10358,19 @@
     </row>
     <row r="287">
       <c r="C287" t="s">
-        <v>992</v>
+        <v>74</v>
       </c>
       <c r="D287" t="s">
-        <v>991</v>
+        <v>73</v>
       </c>
       <c r="E287" t="s">
-        <v>990</v>
+        <v>72</v>
       </c>
       <c r="K287" t="n">
-        <v>200.0</v>
+        <v>1750.0</v>
       </c>
       <c r="O287" t="s">
-        <v>981</v>
+        <v>75</v>
       </c>
       <c r="U287" t="n">
         <v>0.0</v>
@@ -10499,19 +10378,19 @@
     </row>
     <row r="288">
       <c r="C288" t="s">
-        <v>995</v>
+        <v>70</v>
       </c>
       <c r="D288" t="s">
-        <v>994</v>
+        <v>69</v>
       </c>
       <c r="E288" t="s">
-        <v>993</v>
+        <v>68</v>
       </c>
       <c r="K288" t="n">
-        <v>115625.0</v>
+        <v>11750.0</v>
       </c>
       <c r="O288" t="s">
-        <v>996</v>
+        <v>71</v>
       </c>
       <c r="U288" t="n">
         <v>0.0</v>
@@ -10519,19 +10398,19 @@
     </row>
     <row r="289">
       <c r="C289" t="s">
-        <v>999</v>
+        <v>66</v>
       </c>
       <c r="D289" t="s">
-        <v>998</v>
+        <v>65</v>
       </c>
       <c r="E289" t="s">
-        <v>997</v>
+        <v>64</v>
       </c>
       <c r="K289" t="n">
-        <v>83000.0</v>
+        <v>4625.0</v>
       </c>
       <c r="O289" t="s">
-        <v>1000</v>
+        <v>67</v>
       </c>
       <c r="U289" t="n">
         <v>0.0</v>
@@ -10539,19 +10418,19 @@
     </row>
     <row r="290">
       <c r="C290" t="s">
-        <v>1003</v>
+        <v>62</v>
       </c>
       <c r="D290" t="s">
-        <v>1002</v>
+        <v>61</v>
       </c>
       <c r="E290" t="s">
-        <v>1001</v>
+        <v>60</v>
       </c>
       <c r="K290" t="n">
-        <v>200.0</v>
+        <v>4000.0</v>
       </c>
       <c r="O290" t="s">
-        <v>944</v>
+        <v>63</v>
       </c>
       <c r="U290" t="n">
         <v>0.0</v>
@@ -10559,19 +10438,19 @@
     </row>
     <row r="291">
       <c r="C291" t="s">
-        <v>1006</v>
+        <v>58</v>
       </c>
       <c r="D291" t="s">
-        <v>1005</v>
+        <v>57</v>
       </c>
       <c r="E291" t="s">
-        <v>1004</v>
+        <v>56</v>
       </c>
       <c r="K291" t="n">
-        <v>750.0</v>
+        <v>1250.0</v>
       </c>
       <c r="O291" t="s">
-        <v>1007</v>
+        <v>59</v>
       </c>
       <c r="U291" t="n">
         <v>0.0</v>
@@ -10579,23 +10458,247 @@
     </row>
     <row r="292">
       <c r="C292" t="s">
-        <v>1010</v>
+        <v>54</v>
       </c>
       <c r="D292" t="s">
-        <v>1009</v>
+        <v>53</v>
       </c>
       <c r="E292" t="s">
-        <v>1008</v>
+        <v>52</v>
       </c>
       <c r="K292" t="n">
-        <v>125.0</v>
+        <v>27250.0</v>
       </c>
       <c r="O292" t="s">
-        <v>1011</v>
+        <v>55</v>
       </c>
       <c r="U292" t="n">
         <v>0.0</v>
       </c>
+    </row>
+    <row r="293" spans="1:21">
+      <c r="A293" s="17"/>
+      <c r="B293" s="17"/>
+      <c r="C293" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D293" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E293" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F293" s="17"/>
+      <c r="G293" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H293" s="17"/>
+      <c r="I293" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J293" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K293" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L293" s="17"/>
+      <c r="M293" s="17"/>
+      <c r="N293" s="17"/>
+      <c r="O293" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="P293" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q293" s="17"/>
+      <c r="R293" s="17"/>
+      <c r="S293" s="17"/>
+      <c r="T293" s="17"/>
+      <c r="U293" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="294" spans="1:21">
+      <c r="A294" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B294" s="2"/>
+      <c r="C294" s="2"/>
+      <c r="D294" s="2"/>
+      <c r="E294" s="2"/>
+      <c r="F294" s="2"/>
+      <c r="G294" s="2"/>
+      <c r="H294" s="2"/>
+      <c r="I294" s="2"/>
+      <c r="J294" s="2"/>
+      <c r="K294" s="2"/>
+      <c r="L294" s="2"/>
+      <c r="M294" s="2"/>
+      <c r="N294" s="2"/>
+      <c r="O294" s="2"/>
+      <c r="P294" s="2"/>
+      <c r="Q294" s="2"/>
+      <c r="R294" s="2"/>
+      <c r="S294" s="2"/>
+      <c r="T294" s="2"/>
+      <c r="U294" s="2"/>
+    </row>
+    <row r="295" spans="1:21">
+      <c r="A295" s="2"/>
+      <c r="B295" s="2"/>
+      <c r="C295" s="2"/>
+      <c r="D295" s="2"/>
+      <c r="E295" s="2"/>
+      <c r="F295" s="2"/>
+      <c r="G295" s="2"/>
+      <c r="H295" s="2"/>
+      <c r="I295" s="2"/>
+      <c r="J295" s="2"/>
+      <c r="K295" s="2"/>
+      <c r="L295" s="2"/>
+      <c r="M295" s="2"/>
+      <c r="N295" s="2"/>
+      <c r="O295" s="2"/>
+      <c r="P295" s="2"/>
+      <c r="Q295" s="2"/>
+      <c r="R295" s="2"/>
+      <c r="S295" s="2"/>
+      <c r="T295" s="2"/>
+      <c r="U295" s="2"/>
+    </row>
+    <row r="296" spans="1:21">
+      <c r="A296" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B296" s="14"/>
+      <c r="C296" s="14"/>
+      <c r="D296" s="14"/>
+      <c r="E296" s="14"/>
+      <c r="F296" s="2"/>
+      <c r="G296" s="2"/>
+      <c r="H296" s="2"/>
+      <c r="I296" s="14"/>
+      <c r="J296" s="14"/>
+      <c r="K296" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L296" s="2"/>
+      <c r="M296" s="2"/>
+      <c r="N296" s="2"/>
+      <c r="O296" s="2"/>
+      <c r="P296" s="2"/>
+      <c r="Q296" s="2"/>
+      <c r="R296" s="2"/>
+      <c r="S296" s="2"/>
+      <c r="T296" s="2"/>
+      <c r="U296" s="2"/>
+    </row>
+    <row r="297" spans="1:21">
+      <c r="A297" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B297" s="14"/>
+      <c r="C297" s="14"/>
+      <c r="D297" s="14"/>
+      <c r="E297" s="14"/>
+      <c r="F297" s="2"/>
+      <c r="G297" s="2"/>
+      <c r="H297" s="2"/>
+      <c r="I297" s="14"/>
+      <c r="J297" s="14"/>
+      <c r="K297" s="14"/>
+      <c r="L297" s="2"/>
+      <c r="M297" s="2"/>
+      <c r="N297" s="2"/>
+      <c r="O297" s="2"/>
+      <c r="P297" s="2"/>
+      <c r="Q297" s="2"/>
+      <c r="R297" s="2"/>
+      <c r="S297" s="2"/>
+      <c r="T297" s="2"/>
+      <c r="U297" s="2"/>
+    </row>
+    <row r="298" spans="1:21">
+      <c r="A298" s="14"/>
+      <c r="B298" s="14"/>
+      <c r="C298" s="14"/>
+      <c r="D298" s="14"/>
+      <c r="E298" s="14"/>
+      <c r="F298" s="2"/>
+      <c r="G298" s="2"/>
+      <c r="H298" s="2"/>
+      <c r="I298" s="14"/>
+      <c r="J298" s="14"/>
+      <c r="K298" s="14"/>
+      <c r="L298" s="2"/>
+      <c r="M298" s="2"/>
+      <c r="N298" s="2"/>
+      <c r="O298" s="2"/>
+      <c r="P298" s="2"/>
+      <c r="Q298" s="2"/>
+      <c r="R298" s="2"/>
+      <c r="S298" s="2"/>
+      <c r="T298" s="2"/>
+      <c r="U298" s="2"/>
+    </row>
+    <row r="299" spans="1:21">
+      <c r="A299" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B299" s="14"/>
+      <c r="C299" s="14"/>
+      <c r="D299" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E299" s="14"/>
+      <c r="F299" s="2"/>
+      <c r="G299" s="2"/>
+      <c r="H299" s="2"/>
+      <c r="I299" s="14"/>
+      <c r="J299" s="14"/>
+      <c r="K299" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L299" s="2"/>
+      <c r="M299" s="2"/>
+      <c r="N299" s="2"/>
+      <c r="O299" s="2"/>
+      <c r="P299" s="2"/>
+      <c r="Q299" s="2"/>
+      <c r="R299" s="2"/>
+      <c r="S299" s="2"/>
+      <c r="T299" s="2"/>
+      <c r="U299" s="2"/>
+    </row>
+    <row r="300" spans="1:21">
+      <c r="A300" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B300" s="14"/>
+      <c r="C300" s="14"/>
+      <c r="D300" s="14"/>
+      <c r="E300" s="14"/>
+      <c r="F300" s="2"/>
+      <c r="G300" s="2"/>
+      <c r="H300" s="2"/>
+      <c r="I300" s="2"/>
+      <c r="J300" s="14"/>
+      <c r="K300" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L300" s="2"/>
+      <c r="M300" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N300" s="2"/>
+      <c r="O300" s="2"/>
+      <c r="P300" s="2"/>
+      <c r="Q300" s="2"/>
+      <c r="R300" s="2"/>
+      <c r="S300" s="2"/>
+      <c r="T300" s="2"/>
+      <c r="U300" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/computed-reports/SONY.xlsx
+++ b/computed-reports/SONY.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="849">
   <si>
     <t>Отчет</t>
   </si>
@@ -2568,495 +2568,6 @@
   </si>
   <si>
     <t>ПОЮЩИЕ ГИТАРЫ</t>
-  </si>
-  <si>
-    <t>Brown/Jean/Duplessis/Cadet</t>
-  </si>
-  <si>
-    <t>911</t>
-  </si>
-  <si>
-    <t>292348</t>
-  </si>
-  <si>
-    <t>wyclef jean / mary j blige</t>
-  </si>
-  <si>
-    <t>Mebarak/Ochoa/Bello/Hill/Perez</t>
-  </si>
-  <si>
-    <t>Addicted To You</t>
-  </si>
-  <si>
-    <t>1260988</t>
-  </si>
-  <si>
-    <t>shakira</t>
-  </si>
-  <si>
-    <t>Kurstin/Gottwald/Sebert/Sebert</t>
-  </si>
-  <si>
-    <t>Animal</t>
-  </si>
-  <si>
-    <t>1181211</t>
-  </si>
-  <si>
-    <t>kesha</t>
-  </si>
-  <si>
-    <t>Mebarak Ripoll/Mendez</t>
-  </si>
-  <si>
-    <t>Antes De Las Seis</t>
-  </si>
-  <si>
-    <t>1240840</t>
-  </si>
-  <si>
-    <t>McCartney/Lennon</t>
-  </si>
-  <si>
-    <t>Come Together / Dear Prudence / Cry Baby Cry  (Love Version)</t>
-  </si>
-  <si>
-    <t>703585</t>
-  </si>
-  <si>
-    <t>aerosmith</t>
-  </si>
-  <si>
-    <t>Farian/Reyam</t>
-  </si>
-  <si>
-    <t>Daddy Cool</t>
-  </si>
-  <si>
-    <t>237984</t>
-  </si>
-  <si>
-    <t>boney m</t>
-  </si>
-  <si>
-    <t>Shakur/Mizell/Griffin Iii</t>
-  </si>
-  <si>
-    <t>Definition Of A Thug Nigga</t>
-  </si>
-  <si>
-    <t>53164</t>
-  </si>
-  <si>
-    <t>2pac</t>
-  </si>
-  <si>
-    <t>Jean/Michel/Hill</t>
-  </si>
-  <si>
-    <t>Don'T Cry Dry Your Eyes</t>
-  </si>
-  <si>
-    <t>154274</t>
-  </si>
-  <si>
-    <t>fugees</t>
-  </si>
-  <si>
-    <t>Kripac</t>
-  </si>
-  <si>
-    <t>Everything At Once</t>
-  </si>
-  <si>
-    <t>1247287</t>
-  </si>
-  <si>
-    <t>lenka</t>
-  </si>
-  <si>
-    <t>Jones/Bradfield/Moore</t>
-  </si>
-  <si>
-    <t>Everything Must Go</t>
-  </si>
-  <si>
-    <t>134707</t>
-  </si>
-  <si>
-    <t>britney spears</t>
-  </si>
-  <si>
-    <t>Robinson/Doyle/Passy</t>
-  </si>
-  <si>
-    <t>Fuck It (I Don'T Want You Back)</t>
-  </si>
-  <si>
-    <t>593478</t>
-  </si>
-  <si>
-    <t>eamon</t>
-  </si>
-  <si>
-    <t>Get Back</t>
-  </si>
-  <si>
-    <t>196290</t>
-  </si>
-  <si>
-    <t>take that</t>
-  </si>
-  <si>
-    <t>Stewart/Coby/Harris</t>
-  </si>
-  <si>
-    <t>Gimmie Dat</t>
-  </si>
-  <si>
-    <t>1242468</t>
-  </si>
-  <si>
-    <t>ciara</t>
-  </si>
-  <si>
-    <t>Smith/Van De Wall/Perez</t>
-  </si>
-  <si>
-    <t>Give Me Everything</t>
-  </si>
-  <si>
-    <t>1267353</t>
-  </si>
-  <si>
-    <t>pitbull</t>
-  </si>
-  <si>
-    <t>pitbull feat. ne-yo, afrojack &amp; nayer</t>
-  </si>
-  <si>
-    <t>Rigo/Mac</t>
-  </si>
-  <si>
-    <t>Gotta Be You</t>
-  </si>
-  <si>
-    <t>1261098</t>
-  </si>
-  <si>
-    <t>one direction</t>
-  </si>
-  <si>
-    <t>Kotecha/Crichlow/Wilkins/Manahan</t>
-  </si>
-  <si>
-    <t>Gotta Go</t>
-  </si>
-  <si>
-    <t>1162894</t>
-  </si>
-  <si>
-    <t>alexandra burke</t>
-  </si>
-  <si>
-    <t>Stephens/Preston/Alexander/Smith/Eliot</t>
-  </si>
-  <si>
-    <t>Heart Skips A Beat</t>
-  </si>
-  <si>
-    <t>1259083</t>
-  </si>
-  <si>
-    <t>olly murs</t>
-  </si>
-  <si>
-    <t>Farian/Jay</t>
-  </si>
-  <si>
-    <t>Hooray, Hooray, It'S A Holi-Holiday</t>
-  </si>
-  <si>
-    <t>238004</t>
-  </si>
-  <si>
-    <t>Eriksen/Jackson/Hermansen</t>
-  </si>
-  <si>
-    <t>How Do I Breathe</t>
-  </si>
-  <si>
-    <t>668139</t>
-  </si>
-  <si>
-    <t>mario</t>
-  </si>
-  <si>
-    <t>Knowles/Mack/Ellis/Owens/Gordon</t>
-  </si>
-  <si>
-    <t>I Know</t>
-  </si>
-  <si>
-    <t>547561</t>
-  </si>
-  <si>
-    <t>beyonce</t>
-  </si>
-  <si>
-    <t>Hale/Momrelle/Adu</t>
-  </si>
-  <si>
-    <t>I Would Never Have Guessed</t>
-  </si>
-  <si>
-    <t>1258568</t>
-  </si>
-  <si>
-    <t>sade</t>
-  </si>
-  <si>
-    <t>Walker/Haggard</t>
-  </si>
-  <si>
-    <t>Jingle Bells</t>
-  </si>
-  <si>
-    <t>82356</t>
-  </si>
-  <si>
-    <t>elvis presley</t>
-  </si>
-  <si>
-    <t>Gorelick/Traditional/Afanasieff</t>
-  </si>
-  <si>
-    <t>708464</t>
-  </si>
-  <si>
-    <t>kenny g</t>
-  </si>
-  <si>
-    <t>Traditional/Bagdasarian</t>
-  </si>
-  <si>
-    <t>516941</t>
-  </si>
-  <si>
-    <t>spongebob squarepants</t>
-  </si>
-  <si>
-    <t>Jonsin/Knighten/Raymond/Ross/Bellinger</t>
-  </si>
-  <si>
-    <t>Lemme See</t>
-  </si>
-  <si>
-    <t>1361270</t>
-  </si>
-  <si>
-    <t>usher</t>
-  </si>
-  <si>
-    <t>Sampson/Weekes</t>
-  </si>
-  <si>
-    <t>Life</t>
-  </si>
-  <si>
-    <t>187196</t>
-  </si>
-  <si>
-    <t>desree</t>
-  </si>
-  <si>
-    <t>Hale/Matthewman/Denman/Adu</t>
-  </si>
-  <si>
-    <t>Love Is Found</t>
-  </si>
-  <si>
-    <t>1258567</t>
-  </si>
-  <si>
-    <t>Farian/Jay/Reyam</t>
-  </si>
-  <si>
-    <t>Ma Baker</t>
-  </si>
-  <si>
-    <t>237986</t>
-  </si>
-  <si>
-    <t>Hajji/Khayat/Raymond/Hinshaw Jr.</t>
-  </si>
-  <si>
-    <t>More (RedOne Jimmy Joker Remix)</t>
-  </si>
-  <si>
-    <t>1174147</t>
-  </si>
-  <si>
-    <t>Carey/Afanasieff</t>
-  </si>
-  <si>
-    <t>My All</t>
-  </si>
-  <si>
-    <t>208896</t>
-  </si>
-  <si>
-    <t>"carey, mariah"</t>
-  </si>
-  <si>
-    <t>Jean/Duplessis</t>
-  </si>
-  <si>
-    <t>My Love Is Your Love</t>
-  </si>
-  <si>
-    <t>243887</t>
-  </si>
-  <si>
-    <t>"houston,whitney"</t>
-  </si>
-  <si>
-    <t>Santalla/Ben Abdelouahid/Vargas/Kalimi/Perez</t>
-  </si>
-  <si>
-    <t>Pause</t>
-  </si>
-  <si>
-    <t>1267354</t>
-  </si>
-  <si>
-    <t>Bello</t>
-  </si>
-  <si>
-    <t>Rabiosa</t>
-  </si>
-  <si>
-    <t>1267374</t>
-  </si>
-  <si>
-    <t>Hajji/Jannusi/Khayat/Azizi/Anthony/Thornfeldt/Perez</t>
-  </si>
-  <si>
-    <t>Rain Over Me</t>
-  </si>
-  <si>
-    <t>1306262</t>
-  </si>
-  <si>
-    <t>pitbull feat. marc anthony</t>
-  </si>
-  <si>
-    <t>Rasputin</t>
-  </si>
-  <si>
-    <t>237989</t>
-  </si>
-  <si>
-    <t>Daniels/Knowles/Luckett/Roberson/Jerkins III/Jerkins/Rowland</t>
-  </si>
-  <si>
-    <t>Say My Name</t>
-  </si>
-  <si>
-    <t>288939</t>
-  </si>
-  <si>
-    <t>destinys child</t>
-  </si>
-  <si>
-    <t>Myrick/Jones/Broady</t>
-  </si>
-  <si>
-    <t>Small World</t>
-  </si>
-  <si>
-    <t>759624</t>
-  </si>
-  <si>
-    <t>nas</t>
-  </si>
-  <si>
-    <t>Mostyn/Perry/Augelo-Cook</t>
-  </si>
-  <si>
-    <t>Superwoman</t>
-  </si>
-  <si>
-    <t>782520</t>
-  </si>
-  <si>
-    <t>alicia keys</t>
-  </si>
-  <si>
-    <t>Dent/Knowles/Knowles</t>
-  </si>
-  <si>
-    <t>Survivor</t>
-  </si>
-  <si>
-    <t>298825</t>
-  </si>
-  <si>
-    <t>Jones/Hayes</t>
-  </si>
-  <si>
-    <t>Truly Madly Deeply</t>
-  </si>
-  <si>
-    <t>1128252</t>
-  </si>
-  <si>
-    <t>savage garden</t>
-  </si>
-  <si>
-    <t>Perry/Moore</t>
-  </si>
-  <si>
-    <t>Try Too Hard</t>
-  </si>
-  <si>
-    <t>763367</t>
-  </si>
-  <si>
-    <t>pink</t>
-  </si>
-  <si>
-    <t>Raymond/Bellinger/Shebib</t>
-  </si>
-  <si>
-    <t>What Happened 2 U</t>
-  </si>
-  <si>
-    <t>1353925</t>
-  </si>
-  <si>
-    <t>Deluna/Khayat/Sewell-Ulepic/Bryan</t>
-  </si>
-  <si>
-    <t>Whine Up</t>
-  </si>
-  <si>
-    <t>731528</t>
-  </si>
-  <si>
-    <t>kat deluna, elephant man</t>
-  </si>
-  <si>
-    <t>Clark/Hatch</t>
-  </si>
-  <si>
-    <t>You'Re The One</t>
-  </si>
-  <si>
-    <t>222355</t>
-  </si>
-  <si>
-    <t>bob marley and the wailers</t>
   </si>
 </sst>
 </file>
@@ -4738,19 +4249,19 @@
     </row>
     <row r="6">
       <c r="C6" t="s">
-        <v>1010</v>
+        <v>847</v>
       </c>
       <c r="D6" t="s">
-        <v>1009</v>
+        <v>846</v>
       </c>
       <c r="E6" t="s">
-        <v>1008</v>
+        <v>51</v>
       </c>
       <c r="K6" t="n">
-        <v>125.0</v>
+        <v>150.0</v>
       </c>
       <c r="O6" t="s">
-        <v>1011</v>
+        <v>848</v>
       </c>
       <c r="U6" t="n">
         <v>0.0</v>
@@ -4758,19 +4269,19 @@
     </row>
     <row r="7">
       <c r="C7" t="s">
-        <v>1006</v>
+        <v>845</v>
       </c>
       <c r="D7" t="s">
-        <v>1005</v>
+        <v>844</v>
       </c>
       <c r="E7" t="s">
-        <v>1004</v>
+        <v>51</v>
       </c>
       <c r="K7" t="n">
-        <v>750.0</v>
+        <v>150.0</v>
       </c>
       <c r="O7" t="s">
-        <v>1007</v>
+        <v>843</v>
       </c>
       <c r="U7" t="n">
         <v>0.0</v>
@@ -4778,19 +4289,19 @@
     </row>
     <row r="8">
       <c r="C8" t="s">
-        <v>1003</v>
+        <v>842</v>
       </c>
       <c r="D8" t="s">
-        <v>1002</v>
+        <v>841</v>
       </c>
       <c r="E8" t="s">
-        <v>1001</v>
+        <v>51</v>
       </c>
       <c r="K8" t="n">
-        <v>200.0</v>
+        <v>450.0</v>
       </c>
       <c r="O8" t="s">
-        <v>944</v>
+        <v>843</v>
       </c>
       <c r="U8" t="n">
         <v>0.0</v>
@@ -4798,19 +4309,19 @@
     </row>
     <row r="9">
       <c r="C9" t="s">
-        <v>999</v>
+        <v>839</v>
       </c>
       <c r="D9" t="s">
-        <v>998</v>
+        <v>838</v>
       </c>
       <c r="E9" t="s">
-        <v>997</v>
+        <v>51</v>
       </c>
       <c r="K9" t="n">
-        <v>83000.0</v>
+        <v>150.0</v>
       </c>
       <c r="O9" t="s">
-        <v>1000</v>
+        <v>840</v>
       </c>
       <c r="U9" t="n">
         <v>0.0</v>
@@ -4818,19 +4329,19 @@
     </row>
     <row r="10">
       <c r="C10" t="s">
-        <v>995</v>
+        <v>836</v>
       </c>
       <c r="D10" t="s">
-        <v>994</v>
+        <v>835</v>
       </c>
       <c r="E10" t="s">
-        <v>993</v>
+        <v>51</v>
       </c>
       <c r="K10" t="n">
-        <v>115625.0</v>
+        <v>200.0</v>
       </c>
       <c r="O10" t="s">
-        <v>996</v>
+        <v>837</v>
       </c>
       <c r="U10" t="n">
         <v>0.0</v>
@@ -4838,19 +4349,19 @@
     </row>
     <row r="11">
       <c r="C11" t="s">
-        <v>992</v>
+        <v>833</v>
       </c>
       <c r="D11" t="s">
-        <v>991</v>
+        <v>832</v>
       </c>
       <c r="E11" t="s">
-        <v>990</v>
+        <v>51</v>
       </c>
       <c r="K11" t="n">
-        <v>200.0</v>
+        <v>3150.0</v>
       </c>
       <c r="O11" t="s">
-        <v>981</v>
+        <v>834</v>
       </c>
       <c r="U11" t="n">
         <v>0.0</v>
@@ -4858,19 +4369,19 @@
     </row>
     <row r="12">
       <c r="C12" t="s">
-        <v>988</v>
+        <v>830</v>
       </c>
       <c r="D12" t="s">
-        <v>987</v>
+        <v>829</v>
       </c>
       <c r="E12" t="s">
-        <v>986</v>
+        <v>51</v>
       </c>
       <c r="K12" t="n">
-        <v>200.0</v>
+        <v>150.0</v>
       </c>
       <c r="O12" t="s">
-        <v>989</v>
+        <v>831</v>
       </c>
       <c r="U12" t="n">
         <v>0.0</v>
@@ -4878,19 +4389,19 @@
     </row>
     <row r="13">
       <c r="C13" t="s">
-        <v>984</v>
+        <v>827</v>
       </c>
       <c r="D13" t="s">
-        <v>983</v>
+        <v>824</v>
       </c>
       <c r="E13" t="s">
-        <v>982</v>
+        <v>51</v>
       </c>
       <c r="K13" t="n">
-        <v>200.0</v>
+        <v>300.0</v>
       </c>
       <c r="O13" t="s">
-        <v>985</v>
+        <v>828</v>
       </c>
       <c r="U13" t="n">
         <v>0.0</v>
@@ -4898,19 +4409,19 @@
     </row>
     <row r="14">
       <c r="C14" t="s">
-        <v>980</v>
+        <v>825</v>
       </c>
       <c r="D14" t="s">
-        <v>979</v>
+        <v>824</v>
       </c>
       <c r="E14" t="s">
-        <v>978</v>
+        <v>51</v>
       </c>
       <c r="K14" t="n">
-        <v>600.0</v>
+        <v>300.0</v>
       </c>
       <c r="O14" t="s">
-        <v>981</v>
+        <v>826</v>
       </c>
       <c r="U14" t="n">
         <v>0.0</v>
@@ -4918,19 +4429,19 @@
     </row>
     <row r="15">
       <c r="C15" t="s">
-        <v>977</v>
+        <v>822</v>
       </c>
       <c r="D15" t="s">
-        <v>976</v>
+        <v>821</v>
       </c>
       <c r="E15" t="s">
-        <v>952</v>
+        <v>51</v>
       </c>
       <c r="K15" t="n">
-        <v>250.0</v>
+        <v>2100.0</v>
       </c>
       <c r="O15" t="s">
-        <v>871</v>
+        <v>823</v>
       </c>
       <c r="U15" t="n">
         <v>0.0</v>
@@ -4938,19 +4449,19 @@
     </row>
     <row r="16">
       <c r="C16" t="s">
-        <v>974</v>
+        <v>819</v>
       </c>
       <c r="D16" t="s">
-        <v>973</v>
+        <v>818</v>
       </c>
       <c r="E16" t="s">
-        <v>972</v>
+        <v>51</v>
       </c>
       <c r="K16" t="n">
-        <v>279000.0</v>
+        <v>300.0</v>
       </c>
       <c r="O16" t="s">
-        <v>975</v>
+        <v>820</v>
       </c>
       <c r="U16" t="n">
         <v>0.0</v>
@@ -4958,19 +4469,19 @@
     </row>
     <row r="17">
       <c r="C17" t="s">
-        <v>971</v>
+        <v>817</v>
       </c>
       <c r="D17" t="s">
-        <v>970</v>
+        <v>816</v>
       </c>
       <c r="E17" t="s">
-        <v>969</v>
+        <v>51</v>
       </c>
       <c r="K17" t="n">
-        <v>3375.0</v>
+        <v>600.0</v>
       </c>
       <c r="O17" t="s">
-        <v>856</v>
+        <v>306</v>
       </c>
       <c r="U17" t="n">
         <v>0.0</v>
@@ -4978,19 +4489,19 @@
     </row>
     <row r="18">
       <c r="C18" t="s">
-        <v>968</v>
+        <v>814</v>
       </c>
       <c r="D18" t="s">
-        <v>967</v>
+        <v>282</v>
       </c>
       <c r="E18" t="s">
-        <v>966</v>
+        <v>51</v>
       </c>
       <c r="K18" t="n">
-        <v>10625.0</v>
+        <v>200.0</v>
       </c>
       <c r="O18" t="s">
-        <v>902</v>
+        <v>815</v>
       </c>
       <c r="U18" t="n">
         <v>0.0</v>
@@ -4998,19 +4509,19 @@
     </row>
     <row r="19">
       <c r="C19" t="s">
-        <v>964</v>
+        <v>812</v>
       </c>
       <c r="D19" t="s">
-        <v>963</v>
+        <v>811</v>
       </c>
       <c r="E19" t="s">
-        <v>962</v>
+        <v>51</v>
       </c>
       <c r="K19" t="n">
-        <v>4500.0</v>
+        <v>128750.0</v>
       </c>
       <c r="O19" t="s">
-        <v>965</v>
+        <v>813</v>
       </c>
       <c r="U19" t="n">
         <v>0.0</v>
@@ -5018,19 +4529,19 @@
     </row>
     <row r="20">
       <c r="C20" t="s">
-        <v>960</v>
+        <v>809</v>
       </c>
       <c r="D20" t="s">
-        <v>959</v>
+        <v>808</v>
       </c>
       <c r="E20" t="s">
-        <v>958</v>
+        <v>51</v>
       </c>
       <c r="K20" t="n">
-        <v>70250.0</v>
+        <v>900.0</v>
       </c>
       <c r="O20" t="s">
-        <v>961</v>
+        <v>810</v>
       </c>
       <c r="U20" t="n">
         <v>0.0</v>
@@ -5038,19 +4549,19 @@
     </row>
     <row r="21">
       <c r="C21" t="s">
-        <v>957</v>
+        <v>807</v>
       </c>
       <c r="D21" t="s">
-        <v>956</v>
+        <v>806</v>
       </c>
       <c r="E21" t="s">
-        <v>955</v>
+        <v>51</v>
       </c>
       <c r="K21" t="n">
-        <v>200.0</v>
+        <v>600.0</v>
       </c>
       <c r="O21" t="s">
-        <v>944</v>
+        <v>221</v>
       </c>
       <c r="U21" t="n">
         <v>0.0</v>
@@ -5058,19 +4569,19 @@
     </row>
     <row r="22">
       <c r="C22" t="s">
-        <v>954</v>
+        <v>805</v>
       </c>
       <c r="D22" t="s">
-        <v>953</v>
+        <v>804</v>
       </c>
       <c r="E22" t="s">
-        <v>952</v>
+        <v>51</v>
       </c>
       <c r="K22" t="n">
-        <v>125.0</v>
+        <v>1000.0</v>
       </c>
       <c r="O22" t="s">
-        <v>871</v>
+        <v>696</v>
       </c>
       <c r="U22" t="n">
         <v>0.0</v>
@@ -5078,19 +4589,19 @@
     </row>
     <row r="23">
       <c r="C23" t="s">
-        <v>951</v>
+        <v>802</v>
       </c>
       <c r="D23" t="s">
-        <v>950</v>
+        <v>801</v>
       </c>
       <c r="E23" t="s">
-        <v>949</v>
+        <v>51</v>
       </c>
       <c r="K23" t="n">
-        <v>200.0</v>
+        <v>44400.0</v>
       </c>
       <c r="O23" t="s">
-        <v>930</v>
+        <v>803</v>
       </c>
       <c r="U23" t="n">
         <v>0.0</v>
@@ -5098,19 +4609,19 @@
     </row>
     <row r="24">
       <c r="C24" t="s">
-        <v>947</v>
+        <v>799</v>
       </c>
       <c r="D24" t="s">
-        <v>946</v>
+        <v>798</v>
       </c>
       <c r="E24" t="s">
-        <v>945</v>
+        <v>51</v>
       </c>
       <c r="K24" t="n">
-        <v>500.0</v>
+        <v>2550.0</v>
       </c>
       <c r="O24" t="s">
-        <v>948</v>
+        <v>800</v>
       </c>
       <c r="U24" t="n">
         <v>0.0</v>
@@ -5118,19 +4629,19 @@
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>943</v>
+        <v>797</v>
       </c>
       <c r="D25" t="s">
-        <v>942</v>
+        <v>796</v>
       </c>
       <c r="E25" t="s">
-        <v>941</v>
+        <v>51</v>
       </c>
       <c r="K25" t="n">
-        <v>1500.0</v>
+        <v>191625.0</v>
       </c>
       <c r="O25" t="s">
-        <v>944</v>
+        <v>795</v>
       </c>
       <c r="U25" t="n">
         <v>0.0</v>
@@ -5138,19 +4649,19 @@
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>939</v>
+        <v>794</v>
       </c>
       <c r="D26" t="s">
-        <v>932</v>
+        <v>793</v>
       </c>
       <c r="E26" t="s">
-        <v>938</v>
+        <v>51</v>
       </c>
       <c r="K26" t="n">
-        <v>125.0</v>
+        <v>17375.0</v>
       </c>
       <c r="O26" t="s">
-        <v>940</v>
+        <v>795</v>
       </c>
       <c r="U26" t="n">
         <v>0.0</v>
@@ -5158,19 +4669,19 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>936</v>
+        <v>792</v>
       </c>
       <c r="D27" t="s">
-        <v>932</v>
+        <v>791</v>
       </c>
       <c r="E27" t="s">
-        <v>935</v>
+        <v>51</v>
       </c>
       <c r="K27" t="n">
-        <v>125.0</v>
+        <v>150.0</v>
       </c>
       <c r="O27" t="s">
-        <v>937</v>
+        <v>696</v>
       </c>
       <c r="U27" t="n">
         <v>0.0</v>
@@ -5178,19 +4689,19 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>933</v>
+        <v>789</v>
       </c>
       <c r="D28" t="s">
-        <v>932</v>
+        <v>788</v>
       </c>
       <c r="E28" t="s">
-        <v>931</v>
+        <v>51</v>
       </c>
       <c r="K28" t="n">
-        <v>750.0</v>
+        <v>200.0</v>
       </c>
       <c r="O28" t="s">
-        <v>934</v>
+        <v>790</v>
       </c>
       <c r="U28" t="n">
         <v>0.0</v>
@@ -5198,19 +4709,19 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>929</v>
+        <v>786</v>
       </c>
       <c r="D29" t="s">
-        <v>928</v>
+        <v>785</v>
       </c>
       <c r="E29" t="s">
-        <v>927</v>
+        <v>51</v>
       </c>
       <c r="K29" t="n">
-        <v>400.0</v>
+        <v>150.0</v>
       </c>
       <c r="O29" t="s">
-        <v>930</v>
+        <v>787</v>
       </c>
       <c r="U29" t="n">
         <v>0.0</v>
@@ -5218,19 +4729,19 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>925</v>
+        <v>783</v>
       </c>
       <c r="D30" t="s">
-        <v>924</v>
+        <v>782</v>
       </c>
       <c r="E30" t="s">
-        <v>923</v>
+        <v>51</v>
       </c>
       <c r="K30" t="n">
-        <v>5250.0</v>
+        <v>150.0</v>
       </c>
       <c r="O30" t="s">
-        <v>926</v>
+        <v>784</v>
       </c>
       <c r="U30" t="n">
         <v>0.0</v>
@@ -5238,19 +4749,19 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>921</v>
+        <v>781</v>
       </c>
       <c r="D31" t="s">
-        <v>920</v>
+        <v>780</v>
       </c>
       <c r="E31" t="s">
-        <v>919</v>
+        <v>51</v>
       </c>
       <c r="K31" t="n">
-        <v>12200.0</v>
+        <v>200.0</v>
       </c>
       <c r="O31" t="s">
-        <v>922</v>
+        <v>690</v>
       </c>
       <c r="U31" t="n">
         <v>0.0</v>
@@ -5258,19 +4769,19 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>918</v>
+        <v>779</v>
       </c>
       <c r="D32" t="s">
-        <v>917</v>
+        <v>778</v>
       </c>
       <c r="E32" t="s">
-        <v>916</v>
+        <v>51</v>
       </c>
       <c r="K32" t="n">
-        <v>200.0</v>
+        <v>150.0</v>
       </c>
       <c r="O32" t="s">
-        <v>871</v>
+        <v>320</v>
       </c>
       <c r="U32" t="n">
         <v>0.0</v>
@@ -5278,19 +4789,19 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>914</v>
+        <v>776</v>
       </c>
       <c r="D33" t="s">
-        <v>913</v>
+        <v>775</v>
       </c>
       <c r="E33" t="s">
-        <v>912</v>
+        <v>51</v>
       </c>
       <c r="K33" t="n">
-        <v>12125.0</v>
+        <v>500.0</v>
       </c>
       <c r="O33" t="s">
-        <v>915</v>
+        <v>777</v>
       </c>
       <c r="U33" t="n">
         <v>0.0</v>
@@ -5298,19 +4809,19 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>910</v>
+        <v>774</v>
       </c>
       <c r="D34" t="s">
-        <v>909</v>
+        <v>773</v>
       </c>
       <c r="E34" t="s">
-        <v>908</v>
+        <v>51</v>
       </c>
       <c r="K34" t="n">
-        <v>200.0</v>
+        <v>800.0</v>
       </c>
       <c r="O34" t="s">
-        <v>911</v>
+        <v>217</v>
       </c>
       <c r="U34" t="n">
         <v>0.0</v>
@@ -5318,19 +4829,19 @@
     </row>
     <row r="35">
       <c r="C35" t="s">
-        <v>906</v>
+        <v>772</v>
       </c>
       <c r="D35" t="s">
-        <v>905</v>
+        <v>771</v>
       </c>
       <c r="E35" t="s">
-        <v>904</v>
+        <v>51</v>
       </c>
       <c r="K35" t="n">
-        <v>2250.0</v>
+        <v>7600.0</v>
       </c>
       <c r="O35" t="s">
-        <v>907</v>
+        <v>443</v>
       </c>
       <c r="U35" t="n">
         <v>0.0</v>
@@ -5338,19 +4849,19 @@
     </row>
     <row r="36">
       <c r="C36" t="s">
-        <v>901</v>
+        <v>770</v>
       </c>
       <c r="D36" t="s">
-        <v>900</v>
+        <v>769</v>
       </c>
       <c r="E36" t="s">
-        <v>899</v>
+        <v>51</v>
       </c>
       <c r="K36" t="n">
-        <v>3000.0</v>
+        <v>600.0</v>
       </c>
       <c r="O36" t="s">
-        <v>903</v>
+        <v>569</v>
       </c>
       <c r="U36" t="n">
         <v>0.0</v>
@@ -5358,19 +4869,19 @@
     </row>
     <row r="37">
       <c r="C37" t="s">
-        <v>901</v>
+        <v>767</v>
       </c>
       <c r="D37" t="s">
-        <v>900</v>
+        <v>766</v>
       </c>
       <c r="E37" t="s">
-        <v>899</v>
+        <v>51</v>
       </c>
       <c r="K37" t="n">
-        <v>50625.0</v>
+        <v>2550.0</v>
       </c>
       <c r="O37" t="s">
-        <v>902</v>
+        <v>768</v>
       </c>
       <c r="U37" t="n">
         <v>0.0</v>
@@ -5378,19 +4889,19 @@
     </row>
     <row r="38">
       <c r="C38" t="s">
-        <v>897</v>
+        <v>764</v>
       </c>
       <c r="D38" t="s">
-        <v>896</v>
+        <v>763</v>
       </c>
       <c r="E38" t="s">
-        <v>895</v>
+        <v>51</v>
       </c>
       <c r="K38" t="n">
-        <v>33625.0</v>
+        <v>77550.0</v>
       </c>
       <c r="O38" t="s">
-        <v>898</v>
+        <v>765</v>
       </c>
       <c r="U38" t="n">
         <v>0.0</v>
@@ -5398,19 +4909,19 @@
     </row>
     <row r="39">
       <c r="C39" t="s">
-        <v>893</v>
+        <v>761</v>
       </c>
       <c r="D39" t="s">
-        <v>892</v>
+        <v>760</v>
       </c>
       <c r="E39" t="s">
-        <v>864</v>
+        <v>51</v>
       </c>
       <c r="K39" t="n">
-        <v>2875.0</v>
+        <v>2600.0</v>
       </c>
       <c r="O39" t="s">
-        <v>894</v>
+        <v>762</v>
       </c>
       <c r="U39" t="n">
         <v>0.0</v>
@@ -5418,19 +4929,19 @@
     </row>
     <row r="40">
       <c r="C40" t="s">
-        <v>890</v>
+        <v>759</v>
       </c>
       <c r="D40" t="s">
-        <v>889</v>
+        <v>758</v>
       </c>
       <c r="E40" t="s">
-        <v>888</v>
+        <v>51</v>
       </c>
       <c r="K40" t="n">
-        <v>36000.0</v>
+        <v>150.0</v>
       </c>
       <c r="O40" t="s">
-        <v>891</v>
+        <v>298</v>
       </c>
       <c r="U40" t="n">
         <v>0.0</v>
@@ -5438,19 +4949,19 @@
     </row>
     <row r="41">
       <c r="C41" t="s">
-        <v>886</v>
+        <v>757</v>
       </c>
       <c r="D41" t="s">
-        <v>885</v>
+        <v>756</v>
       </c>
       <c r="E41" t="s">
-        <v>884</v>
+        <v>51</v>
       </c>
       <c r="K41" t="n">
-        <v>7000.0</v>
+        <v>133125.0</v>
       </c>
       <c r="O41" t="s">
-        <v>887</v>
+        <v>596</v>
       </c>
       <c r="U41" t="n">
         <v>0.0</v>
@@ -5458,19 +4969,19 @@
     </row>
     <row r="42">
       <c r="C42" t="s">
-        <v>882</v>
+        <v>755</v>
       </c>
       <c r="D42" t="s">
-        <v>881</v>
+        <v>754</v>
       </c>
       <c r="E42" t="s">
-        <v>880</v>
+        <v>51</v>
       </c>
       <c r="K42" t="n">
-        <v>642125.0</v>
+        <v>150.0</v>
       </c>
       <c r="O42" t="s">
-        <v>883</v>
+        <v>298</v>
       </c>
       <c r="U42" t="n">
         <v>0.0</v>
@@ -5478,19 +4989,19 @@
     </row>
     <row r="43">
       <c r="C43" t="s">
-        <v>878</v>
+        <v>753</v>
       </c>
       <c r="D43" t="s">
-        <v>877</v>
+        <v>752</v>
       </c>
       <c r="E43" t="s">
-        <v>876</v>
+        <v>51</v>
       </c>
       <c r="K43" t="n">
-        <v>750.0</v>
+        <v>300.0</v>
       </c>
       <c r="O43" t="s">
-        <v>879</v>
+        <v>320</v>
       </c>
       <c r="U43" t="n">
         <v>0.0</v>
@@ -5498,19 +5009,19 @@
     </row>
     <row r="44">
       <c r="C44" t="s">
-        <v>874</v>
+        <v>750</v>
       </c>
       <c r="D44" t="s">
-        <v>873</v>
+        <v>749</v>
       </c>
       <c r="E44" t="s">
-        <v>872</v>
+        <v>51</v>
       </c>
       <c r="K44" t="n">
-        <v>1750.0</v>
+        <v>450.0</v>
       </c>
       <c r="O44" t="s">
-        <v>875</v>
+        <v>751</v>
       </c>
       <c r="U44" t="n">
         <v>0.0</v>
@@ -5518,19 +5029,19 @@
     </row>
     <row r="45">
       <c r="C45" t="s">
-        <v>870</v>
+        <v>747</v>
       </c>
       <c r="D45" t="s">
-        <v>869</v>
+        <v>746</v>
       </c>
       <c r="E45" t="s">
-        <v>868</v>
+        <v>51</v>
       </c>
       <c r="K45" t="n">
-        <v>1750.0</v>
+        <v>200.0</v>
       </c>
       <c r="O45" t="s">
-        <v>871</v>
+        <v>748</v>
       </c>
       <c r="U45" t="n">
         <v>0.0</v>
@@ -5538,19 +5049,19 @@
     </row>
     <row r="46">
       <c r="C46" t="s">
-        <v>866</v>
+        <v>745</v>
       </c>
       <c r="D46" t="s">
-        <v>865</v>
+        <v>744</v>
       </c>
       <c r="E46" t="s">
-        <v>864</v>
+        <v>51</v>
       </c>
       <c r="K46" t="n">
-        <v>2625.0</v>
+        <v>150.0</v>
       </c>
       <c r="O46" t="s">
-        <v>867</v>
+        <v>486</v>
       </c>
       <c r="U46" t="n">
         <v>0.0</v>
@@ -5558,19 +5069,19 @@
     </row>
     <row r="47">
       <c r="C47" t="s">
-        <v>863</v>
+        <v>743</v>
       </c>
       <c r="D47" t="s">
-        <v>862</v>
+        <v>742</v>
       </c>
       <c r="E47" t="s">
-        <v>861</v>
+        <v>51</v>
       </c>
       <c r="K47" t="n">
-        <v>2125.0</v>
+        <v>150.0</v>
       </c>
       <c r="O47" t="s">
-        <v>856</v>
+        <v>298</v>
       </c>
       <c r="U47" t="n">
         <v>0.0</v>
@@ -5578,19 +5089,19 @@
     </row>
     <row r="48">
       <c r="C48" t="s">
-        <v>859</v>
+        <v>741</v>
       </c>
       <c r="D48" t="s">
-        <v>858</v>
+        <v>740</v>
       </c>
       <c r="E48" t="s">
-        <v>857</v>
+        <v>51</v>
       </c>
       <c r="K48" t="n">
-        <v>17875.0</v>
+        <v>7800.0</v>
       </c>
       <c r="O48" t="s">
-        <v>860</v>
+        <v>443</v>
       </c>
       <c r="U48" t="n">
         <v>0.0</v>
@@ -5598,19 +5109,19 @@
     </row>
     <row r="49">
       <c r="C49" t="s">
-        <v>855</v>
+        <v>739</v>
       </c>
       <c r="D49" t="s">
-        <v>854</v>
+        <v>738</v>
       </c>
       <c r="E49" t="s">
-        <v>853</v>
+        <v>51</v>
       </c>
       <c r="K49" t="n">
-        <v>268500.0</v>
+        <v>600.0</v>
       </c>
       <c r="O49" t="s">
-        <v>856</v>
+        <v>298</v>
       </c>
       <c r="U49" t="n">
         <v>0.0</v>
@@ -5618,19 +5129,19 @@
     </row>
     <row r="50">
       <c r="C50" t="s">
-        <v>851</v>
+        <v>736</v>
       </c>
       <c r="D50" t="s">
-        <v>850</v>
+        <v>735</v>
       </c>
       <c r="E50" t="s">
-        <v>849</v>
+        <v>51</v>
       </c>
       <c r="K50" t="n">
-        <v>1750.0</v>
+        <v>300.0</v>
       </c>
       <c r="O50" t="s">
-        <v>852</v>
+        <v>737</v>
       </c>
       <c r="U50" t="n">
         <v>0.0</v>
@@ -5638,19 +5149,19 @@
     </row>
     <row r="51">
       <c r="C51" t="s">
-        <v>847</v>
+        <v>734</v>
       </c>
       <c r="D51" t="s">
-        <v>846</v>
+        <v>733</v>
       </c>
       <c r="E51" t="s">
         <v>51</v>
       </c>
       <c r="K51" t="n">
-        <v>150.0</v>
+        <v>200.0</v>
       </c>
       <c r="O51" t="s">
-        <v>848</v>
+        <v>597</v>
       </c>
       <c r="U51" t="n">
         <v>0.0</v>
@@ -5658,19 +5169,19 @@
     </row>
     <row r="52">
       <c r="C52" t="s">
-        <v>845</v>
+        <v>732</v>
       </c>
       <c r="D52" t="s">
-        <v>844</v>
+        <v>731</v>
       </c>
       <c r="E52" t="s">
         <v>51</v>
       </c>
       <c r="K52" t="n">
-        <v>150.0</v>
+        <v>7200.0</v>
       </c>
       <c r="O52" t="s">
-        <v>843</v>
+        <v>443</v>
       </c>
       <c r="U52" t="n">
         <v>0.0</v>
@@ -5678,19 +5189,19 @@
     </row>
     <row r="53">
       <c r="C53" t="s">
-        <v>842</v>
+        <v>730</v>
       </c>
       <c r="D53" t="s">
-        <v>841</v>
+        <v>729</v>
       </c>
       <c r="E53" t="s">
         <v>51</v>
       </c>
       <c r="K53" t="n">
-        <v>450.0</v>
+        <v>42750.0</v>
       </c>
       <c r="O53" t="s">
-        <v>843</v>
+        <v>320</v>
       </c>
       <c r="U53" t="n">
         <v>0.0</v>
@@ -5698,10 +5209,10 @@
     </row>
     <row r="54">
       <c r="C54" t="s">
-        <v>839</v>
+        <v>727</v>
       </c>
       <c r="D54" t="s">
-        <v>838</v>
+        <v>726</v>
       </c>
       <c r="E54" t="s">
         <v>51</v>
@@ -5710,7 +5221,7 @@
         <v>150.0</v>
       </c>
       <c r="O54" t="s">
-        <v>840</v>
+        <v>728</v>
       </c>
       <c r="U54" t="n">
         <v>0.0</v>
@@ -5718,19 +5229,19 @@
     </row>
     <row r="55">
       <c r="C55" t="s">
-        <v>836</v>
+        <v>724</v>
       </c>
       <c r="D55" t="s">
-        <v>835</v>
+        <v>723</v>
       </c>
       <c r="E55" t="s">
         <v>51</v>
       </c>
       <c r="K55" t="n">
-        <v>200.0</v>
+        <v>150.0</v>
       </c>
       <c r="O55" t="s">
-        <v>837</v>
+        <v>725</v>
       </c>
       <c r="U55" t="n">
         <v>0.0</v>
@@ -5738,19 +5249,19 @@
     </row>
     <row r="56">
       <c r="C56" t="s">
-        <v>833</v>
+        <v>722</v>
       </c>
       <c r="D56" t="s">
-        <v>832</v>
+        <v>721</v>
       </c>
       <c r="E56" t="s">
         <v>51</v>
       </c>
       <c r="K56" t="n">
-        <v>3150.0</v>
+        <v>200.0</v>
       </c>
       <c r="O56" t="s">
-        <v>834</v>
+        <v>320</v>
       </c>
       <c r="U56" t="n">
         <v>0.0</v>
@@ -5758,19 +5269,19 @@
     </row>
     <row r="57">
       <c r="C57" t="s">
-        <v>830</v>
+        <v>719</v>
       </c>
       <c r="D57" t="s">
-        <v>829</v>
+        <v>718</v>
       </c>
       <c r="E57" t="s">
         <v>51</v>
       </c>
       <c r="K57" t="n">
-        <v>150.0</v>
+        <v>5500.0</v>
       </c>
       <c r="O57" t="s">
-        <v>831</v>
+        <v>720</v>
       </c>
       <c r="U57" t="n">
         <v>0.0</v>
@@ -5778,19 +5289,19 @@
     </row>
     <row r="58">
       <c r="C58" t="s">
-        <v>827</v>
+        <v>716</v>
       </c>
       <c r="D58" t="s">
-        <v>824</v>
+        <v>715</v>
       </c>
       <c r="E58" t="s">
         <v>51</v>
       </c>
       <c r="K58" t="n">
-        <v>300.0</v>
+        <v>15000.0</v>
       </c>
       <c r="O58" t="s">
-        <v>828</v>
+        <v>717</v>
       </c>
       <c r="U58" t="n">
         <v>0.0</v>
@@ -5798,19 +5309,19 @@
     </row>
     <row r="59">
       <c r="C59" t="s">
-        <v>825</v>
+        <v>713</v>
       </c>
       <c r="D59" t="s">
-        <v>824</v>
+        <v>712</v>
       </c>
       <c r="E59" t="s">
         <v>51</v>
       </c>
       <c r="K59" t="n">
-        <v>300.0</v>
+        <v>150.0</v>
       </c>
       <c r="O59" t="s">
-        <v>826</v>
+        <v>714</v>
       </c>
       <c r="U59" t="n">
         <v>0.0</v>
@@ -5818,19 +5329,19 @@
     </row>
     <row r="60">
       <c r="C60" t="s">
-        <v>822</v>
+        <v>710</v>
       </c>
       <c r="D60" t="s">
-        <v>821</v>
+        <v>709</v>
       </c>
       <c r="E60" t="s">
         <v>51</v>
       </c>
       <c r="K60" t="n">
-        <v>2100.0</v>
+        <v>5250.0</v>
       </c>
       <c r="O60" t="s">
-        <v>823</v>
+        <v>711</v>
       </c>
       <c r="U60" t="n">
         <v>0.0</v>
@@ -5838,19 +5349,19 @@
     </row>
     <row r="61">
       <c r="C61" t="s">
-        <v>819</v>
+        <v>707</v>
       </c>
       <c r="D61" t="s">
-        <v>818</v>
+        <v>706</v>
       </c>
       <c r="E61" t="s">
         <v>51</v>
       </c>
       <c r="K61" t="n">
-        <v>300.0</v>
+        <v>4650.0</v>
       </c>
       <c r="O61" t="s">
-        <v>820</v>
+        <v>708</v>
       </c>
       <c r="U61" t="n">
         <v>0.0</v>
@@ -5858,19 +5369,19 @@
     </row>
     <row r="62">
       <c r="C62" t="s">
-        <v>817</v>
+        <v>704</v>
       </c>
       <c r="D62" t="s">
-        <v>816</v>
+        <v>703</v>
       </c>
       <c r="E62" t="s">
         <v>51</v>
       </c>
       <c r="K62" t="n">
-        <v>600.0</v>
+        <v>150.0</v>
       </c>
       <c r="O62" t="s">
-        <v>306</v>
+        <v>705</v>
       </c>
       <c r="U62" t="n">
         <v>0.0</v>
@@ -5878,19 +5389,19 @@
     </row>
     <row r="63">
       <c r="C63" t="s">
-        <v>814</v>
+        <v>702</v>
       </c>
       <c r="D63" t="s">
-        <v>282</v>
+        <v>701</v>
       </c>
       <c r="E63" t="s">
         <v>51</v>
       </c>
       <c r="K63" t="n">
-        <v>200.0</v>
+        <v>150.0</v>
       </c>
       <c r="O63" t="s">
-        <v>815</v>
+        <v>298</v>
       </c>
       <c r="U63" t="n">
         <v>0.0</v>
@@ -5898,19 +5409,19 @@
     </row>
     <row r="64">
       <c r="C64" t="s">
-        <v>812</v>
+        <v>700</v>
       </c>
       <c r="D64" t="s">
-        <v>811</v>
+        <v>699</v>
       </c>
       <c r="E64" t="s">
         <v>51</v>
       </c>
       <c r="K64" t="n">
-        <v>128750.0</v>
+        <v>211750.0</v>
       </c>
       <c r="O64" t="s">
-        <v>813</v>
+        <v>392</v>
       </c>
       <c r="U64" t="n">
         <v>0.0</v>
@@ -5918,19 +5429,19 @@
     </row>
     <row r="65">
       <c r="C65" t="s">
-        <v>809</v>
+        <v>698</v>
       </c>
       <c r="D65" t="s">
-        <v>808</v>
+        <v>697</v>
       </c>
       <c r="E65" t="s">
         <v>51</v>
       </c>
       <c r="K65" t="n">
-        <v>900.0</v>
+        <v>200.0</v>
       </c>
       <c r="O65" t="s">
-        <v>810</v>
+        <v>439</v>
       </c>
       <c r="U65" t="n">
         <v>0.0</v>
@@ -5938,19 +5449,19 @@
     </row>
     <row r="66">
       <c r="C66" t="s">
-        <v>807</v>
+        <v>695</v>
       </c>
       <c r="D66" t="s">
-        <v>806</v>
+        <v>694</v>
       </c>
       <c r="E66" t="s">
         <v>51</v>
       </c>
       <c r="K66" t="n">
-        <v>600.0</v>
+        <v>875.0</v>
       </c>
       <c r="O66" t="s">
-        <v>221</v>
+        <v>696</v>
       </c>
       <c r="U66" t="n">
         <v>0.0</v>
@@ -5958,19 +5469,19 @@
     </row>
     <row r="67">
       <c r="C67" t="s">
-        <v>805</v>
+        <v>692</v>
       </c>
       <c r="D67" t="s">
-        <v>804</v>
+        <v>691</v>
       </c>
       <c r="E67" t="s">
         <v>51</v>
       </c>
       <c r="K67" t="n">
-        <v>1000.0</v>
+        <v>1875.0</v>
       </c>
       <c r="O67" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="U67" t="n">
         <v>0.0</v>
@@ -5978,19 +5489,19 @@
     </row>
     <row r="68">
       <c r="C68" t="s">
-        <v>802</v>
+        <v>689</v>
       </c>
       <c r="D68" t="s">
-        <v>801</v>
+        <v>688</v>
       </c>
       <c r="E68" t="s">
         <v>51</v>
       </c>
       <c r="K68" t="n">
-        <v>44400.0</v>
+        <v>9000.0</v>
       </c>
       <c r="O68" t="s">
-        <v>803</v>
+        <v>690</v>
       </c>
       <c r="U68" t="n">
         <v>0.0</v>
@@ -5998,19 +5509,19 @@
     </row>
     <row r="69">
       <c r="C69" t="s">
-        <v>799</v>
+        <v>686</v>
       </c>
       <c r="D69" t="s">
-        <v>798</v>
+        <v>685</v>
       </c>
       <c r="E69" t="s">
         <v>51</v>
       </c>
       <c r="K69" t="n">
-        <v>2550.0</v>
+        <v>625.0</v>
       </c>
       <c r="O69" t="s">
-        <v>800</v>
+        <v>687</v>
       </c>
       <c r="U69" t="n">
         <v>0.0</v>
@@ -6018,19 +5529,19 @@
     </row>
     <row r="70">
       <c r="C70" t="s">
-        <v>797</v>
+        <v>683</v>
       </c>
       <c r="D70" t="s">
-        <v>796</v>
+        <v>682</v>
       </c>
       <c r="E70" t="s">
         <v>51</v>
       </c>
       <c r="K70" t="n">
-        <v>191625.0</v>
+        <v>33750.0</v>
       </c>
       <c r="O70" t="s">
-        <v>795</v>
+        <v>684</v>
       </c>
       <c r="U70" t="n">
         <v>0.0</v>
@@ -6038,19 +5549,19 @@
     </row>
     <row r="71">
       <c r="C71" t="s">
-        <v>794</v>
+        <v>680</v>
       </c>
       <c r="D71" t="s">
-        <v>793</v>
+        <v>679</v>
       </c>
       <c r="E71" t="s">
         <v>51</v>
       </c>
       <c r="K71" t="n">
-        <v>17375.0</v>
+        <v>250.0</v>
       </c>
       <c r="O71" t="s">
-        <v>795</v>
+        <v>681</v>
       </c>
       <c r="U71" t="n">
         <v>0.0</v>
@@ -6058,19 +5569,19 @@
     </row>
     <row r="72">
       <c r="C72" t="s">
-        <v>792</v>
+        <v>678</v>
       </c>
       <c r="D72" t="s">
-        <v>791</v>
+        <v>677</v>
       </c>
       <c r="E72" t="s">
         <v>51</v>
       </c>
       <c r="K72" t="n">
-        <v>150.0</v>
+        <v>91375.0</v>
       </c>
       <c r="O72" t="s">
-        <v>696</v>
+        <v>662</v>
       </c>
       <c r="U72" t="n">
         <v>0.0</v>
@@ -6078,19 +5589,19 @@
     </row>
     <row r="73">
       <c r="C73" t="s">
-        <v>789</v>
+        <v>675</v>
       </c>
       <c r="D73" t="s">
-        <v>788</v>
+        <v>674</v>
       </c>
       <c r="E73" t="s">
         <v>51</v>
       </c>
       <c r="K73" t="n">
-        <v>200.0</v>
+        <v>1400.0</v>
       </c>
       <c r="O73" t="s">
-        <v>790</v>
+        <v>676</v>
       </c>
       <c r="U73" t="n">
         <v>0.0</v>
@@ -6098,19 +5609,19 @@
     </row>
     <row r="74">
       <c r="C74" t="s">
-        <v>786</v>
+        <v>672</v>
       </c>
       <c r="D74" t="s">
-        <v>785</v>
+        <v>671</v>
       </c>
       <c r="E74" t="s">
         <v>51</v>
       </c>
       <c r="K74" t="n">
-        <v>150.0</v>
+        <v>5600.0</v>
       </c>
       <c r="O74" t="s">
-        <v>787</v>
+        <v>673</v>
       </c>
       <c r="U74" t="n">
         <v>0.0</v>
@@ -6118,19 +5629,19 @@
     </row>
     <row r="75">
       <c r="C75" t="s">
-        <v>783</v>
+        <v>669</v>
       </c>
       <c r="D75" t="s">
-        <v>782</v>
+        <v>668</v>
       </c>
       <c r="E75" t="s">
         <v>51</v>
       </c>
       <c r="K75" t="n">
-        <v>150.0</v>
+        <v>450.0</v>
       </c>
       <c r="O75" t="s">
-        <v>784</v>
+        <v>670</v>
       </c>
       <c r="U75" t="n">
         <v>0.0</v>
@@ -6138,10 +5649,10 @@
     </row>
     <row r="76">
       <c r="C76" t="s">
-        <v>781</v>
+        <v>666</v>
       </c>
       <c r="D76" t="s">
-        <v>780</v>
+        <v>665</v>
       </c>
       <c r="E76" t="s">
         <v>51</v>
@@ -6150,7 +5661,7 @@
         <v>200.0</v>
       </c>
       <c r="O76" t="s">
-        <v>690</v>
+        <v>667</v>
       </c>
       <c r="U76" t="n">
         <v>0.0</v>
@@ -6158,19 +5669,19 @@
     </row>
     <row r="77">
       <c r="C77" t="s">
-        <v>779</v>
+        <v>664</v>
       </c>
       <c r="D77" t="s">
-        <v>778</v>
+        <v>663</v>
       </c>
       <c r="E77" t="s">
         <v>51</v>
       </c>
       <c r="K77" t="n">
-        <v>150.0</v>
+        <v>24750.0</v>
       </c>
       <c r="O77" t="s">
-        <v>320</v>
+        <v>75</v>
       </c>
       <c r="U77" t="n">
         <v>0.0</v>
@@ -6178,19 +5689,19 @@
     </row>
     <row r="78">
       <c r="C78" t="s">
-        <v>776</v>
+        <v>661</v>
       </c>
       <c r="D78" t="s">
-        <v>775</v>
+        <v>660</v>
       </c>
       <c r="E78" t="s">
         <v>51</v>
       </c>
       <c r="K78" t="n">
-        <v>500.0</v>
+        <v>351500.0</v>
       </c>
       <c r="O78" t="s">
-        <v>777</v>
+        <v>662</v>
       </c>
       <c r="U78" t="n">
         <v>0.0</v>
@@ -6198,19 +5709,19 @@
     </row>
     <row r="79">
       <c r="C79" t="s">
-        <v>774</v>
+        <v>658</v>
       </c>
       <c r="D79" t="s">
-        <v>773</v>
+        <v>657</v>
       </c>
       <c r="E79" t="s">
         <v>51</v>
       </c>
       <c r="K79" t="n">
-        <v>800.0</v>
+        <v>16000.0</v>
       </c>
       <c r="O79" t="s">
-        <v>217</v>
+        <v>659</v>
       </c>
       <c r="U79" t="n">
         <v>0.0</v>
@@ -6218,19 +5729,19 @@
     </row>
     <row r="80">
       <c r="C80" t="s">
-        <v>772</v>
+        <v>655</v>
       </c>
       <c r="D80" t="s">
-        <v>771</v>
+        <v>654</v>
       </c>
       <c r="E80" t="s">
         <v>51</v>
       </c>
       <c r="K80" t="n">
-        <v>7600.0</v>
+        <v>6250.0</v>
       </c>
       <c r="O80" t="s">
-        <v>443</v>
+        <v>656</v>
       </c>
       <c r="U80" t="n">
         <v>0.0</v>
@@ -6238,19 +5749,19 @@
     </row>
     <row r="81">
       <c r="C81" t="s">
-        <v>770</v>
+        <v>652</v>
       </c>
       <c r="D81" t="s">
-        <v>769</v>
+        <v>651</v>
       </c>
       <c r="E81" t="s">
         <v>51</v>
       </c>
       <c r="K81" t="n">
-        <v>600.0</v>
+        <v>3400.0</v>
       </c>
       <c r="O81" t="s">
-        <v>569</v>
+        <v>653</v>
       </c>
       <c r="U81" t="n">
         <v>0.0</v>
@@ -6258,19 +5769,19 @@
     </row>
     <row r="82">
       <c r="C82" t="s">
-        <v>767</v>
+        <v>649</v>
       </c>
       <c r="D82" t="s">
-        <v>766</v>
+        <v>648</v>
       </c>
       <c r="E82" t="s">
         <v>51</v>
       </c>
       <c r="K82" t="n">
-        <v>2550.0</v>
+        <v>300.0</v>
       </c>
       <c r="O82" t="s">
-        <v>768</v>
+        <v>650</v>
       </c>
       <c r="U82" t="n">
         <v>0.0</v>
@@ -6278,19 +5789,19 @@
     </row>
     <row r="83">
       <c r="C83" t="s">
-        <v>764</v>
+        <v>646</v>
       </c>
       <c r="D83" t="s">
-        <v>763</v>
+        <v>645</v>
       </c>
       <c r="E83" t="s">
         <v>51</v>
       </c>
       <c r="K83" t="n">
-        <v>77550.0</v>
+        <v>4625.0</v>
       </c>
       <c r="O83" t="s">
-        <v>765</v>
+        <v>647</v>
       </c>
       <c r="U83" t="n">
         <v>0.0</v>
@@ -6298,19 +5809,19 @@
     </row>
     <row r="84">
       <c r="C84" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
       <c r="D84" t="s">
-        <v>760</v>
+        <v>642</v>
       </c>
       <c r="E84" t="s">
         <v>51</v>
       </c>
       <c r="K84" t="n">
-        <v>2600.0</v>
+        <v>232375.0</v>
       </c>
       <c r="O84" t="s">
-        <v>762</v>
+        <v>644</v>
       </c>
       <c r="U84" t="n">
         <v>0.0</v>
@@ -6318,19 +5829,19 @@
     </row>
     <row r="85">
       <c r="C85" t="s">
-        <v>759</v>
+        <v>640</v>
       </c>
       <c r="D85" t="s">
-        <v>758</v>
+        <v>639</v>
       </c>
       <c r="E85" t="s">
         <v>51</v>
       </c>
       <c r="K85" t="n">
-        <v>150.0</v>
+        <v>2200.0</v>
       </c>
       <c r="O85" t="s">
-        <v>298</v>
+        <v>641</v>
       </c>
       <c r="U85" t="n">
         <v>0.0</v>
@@ -6338,19 +5849,19 @@
     </row>
     <row r="86">
       <c r="C86" t="s">
-        <v>757</v>
+        <v>637</v>
       </c>
       <c r="D86" t="s">
-        <v>756</v>
+        <v>636</v>
       </c>
       <c r="E86" t="s">
         <v>51</v>
       </c>
       <c r="K86" t="n">
-        <v>133125.0</v>
+        <v>4400.0</v>
       </c>
       <c r="O86" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="U86" t="n">
         <v>0.0</v>
@@ -6358,19 +5869,19 @@
     </row>
     <row r="87">
       <c r="C87" t="s">
-        <v>755</v>
+        <v>634</v>
       </c>
       <c r="D87" t="s">
-        <v>754</v>
+        <v>633</v>
       </c>
       <c r="E87" t="s">
         <v>51</v>
       </c>
       <c r="K87" t="n">
-        <v>150.0</v>
+        <v>2250.0</v>
       </c>
       <c r="O87" t="s">
-        <v>298</v>
+        <v>635</v>
       </c>
       <c r="U87" t="n">
         <v>0.0</v>
@@ -6378,19 +5889,19 @@
     </row>
     <row r="88">
       <c r="C88" t="s">
-        <v>753</v>
+        <v>631</v>
       </c>
       <c r="D88" t="s">
-        <v>752</v>
+        <v>630</v>
       </c>
       <c r="E88" t="s">
         <v>51</v>
       </c>
       <c r="K88" t="n">
-        <v>300.0</v>
+        <v>1625.0</v>
       </c>
       <c r="O88" t="s">
-        <v>320</v>
+        <v>632</v>
       </c>
       <c r="U88" t="n">
         <v>0.0</v>
@@ -6398,19 +5909,19 @@
     </row>
     <row r="89">
       <c r="C89" t="s">
-        <v>750</v>
+        <v>628</v>
       </c>
       <c r="D89" t="s">
-        <v>749</v>
+        <v>627</v>
       </c>
       <c r="E89" t="s">
         <v>51</v>
       </c>
       <c r="K89" t="n">
-        <v>450.0</v>
+        <v>40625.0</v>
       </c>
       <c r="O89" t="s">
-        <v>751</v>
+        <v>629</v>
       </c>
       <c r="U89" t="n">
         <v>0.0</v>
@@ -6418,19 +5929,19 @@
     </row>
     <row r="90">
       <c r="C90" t="s">
-        <v>747</v>
+        <v>625</v>
       </c>
       <c r="D90" t="s">
-        <v>746</v>
+        <v>624</v>
       </c>
       <c r="E90" t="s">
         <v>51</v>
       </c>
       <c r="K90" t="n">
-        <v>200.0</v>
+        <v>2125.0</v>
       </c>
       <c r="O90" t="s">
-        <v>748</v>
+        <v>626</v>
       </c>
       <c r="U90" t="n">
         <v>0.0</v>
@@ -6438,10 +5949,10 @@
     </row>
     <row r="91">
       <c r="C91" t="s">
-        <v>745</v>
+        <v>623</v>
       </c>
       <c r="D91" t="s">
-        <v>744</v>
+        <v>622</v>
       </c>
       <c r="E91" t="s">
         <v>51</v>
@@ -6450,7 +5961,7 @@
         <v>150.0</v>
       </c>
       <c r="O91" t="s">
-        <v>486</v>
+        <v>162</v>
       </c>
       <c r="U91" t="n">
         <v>0.0</v>
@@ -6458,19 +5969,19 @@
     </row>
     <row r="92">
       <c r="C92" t="s">
-        <v>743</v>
+        <v>620</v>
       </c>
       <c r="D92" t="s">
-        <v>742</v>
+        <v>619</v>
       </c>
       <c r="E92" t="s">
         <v>51</v>
       </c>
       <c r="K92" t="n">
-        <v>150.0</v>
+        <v>902375.0</v>
       </c>
       <c r="O92" t="s">
-        <v>298</v>
+        <v>621</v>
       </c>
       <c r="U92" t="n">
         <v>0.0</v>
@@ -6478,19 +5989,19 @@
     </row>
     <row r="93">
       <c r="C93" t="s">
-        <v>741</v>
+        <v>617</v>
       </c>
       <c r="D93" t="s">
-        <v>740</v>
+        <v>616</v>
       </c>
       <c r="E93" t="s">
         <v>51</v>
       </c>
       <c r="K93" t="n">
-        <v>7800.0</v>
+        <v>4800.0</v>
       </c>
       <c r="O93" t="s">
-        <v>443</v>
+        <v>618</v>
       </c>
       <c r="U93" t="n">
         <v>0.0</v>
@@ -6498,19 +6009,19 @@
     </row>
     <row r="94">
       <c r="C94" t="s">
-        <v>739</v>
+        <v>614</v>
       </c>
       <c r="D94" t="s">
-        <v>738</v>
+        <v>613</v>
       </c>
       <c r="E94" t="s">
         <v>51</v>
       </c>
       <c r="K94" t="n">
-        <v>600.0</v>
+        <v>176875.0</v>
       </c>
       <c r="O94" t="s">
-        <v>298</v>
+        <v>615</v>
       </c>
       <c r="U94" t="n">
         <v>0.0</v>
@@ -6518,19 +6029,19 @@
     </row>
     <row r="95">
       <c r="C95" t="s">
-        <v>736</v>
+        <v>611</v>
       </c>
       <c r="D95" t="s">
-        <v>735</v>
+        <v>610</v>
       </c>
       <c r="E95" t="s">
         <v>51</v>
       </c>
       <c r="K95" t="n">
-        <v>300.0</v>
+        <v>1034750.0</v>
       </c>
       <c r="O95" t="s">
-        <v>737</v>
+        <v>612</v>
       </c>
       <c r="U95" t="n">
         <v>0.0</v>
@@ -6538,19 +6049,19 @@
     </row>
     <row r="96">
       <c r="C96" t="s">
-        <v>734</v>
+        <v>608</v>
       </c>
       <c r="D96" t="s">
-        <v>733</v>
+        <v>607</v>
       </c>
       <c r="E96" t="s">
-        <v>51</v>
+        <v>544</v>
       </c>
       <c r="K96" t="n">
-        <v>200.0</v>
+        <v>10750.0</v>
       </c>
       <c r="O96" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="U96" t="n">
         <v>0.0</v>
@@ -6558,19 +6069,19 @@
     </row>
     <row r="97">
       <c r="C97" t="s">
-        <v>732</v>
+        <v>605</v>
       </c>
       <c r="D97" t="s">
-        <v>731</v>
+        <v>604</v>
       </c>
       <c r="E97" t="s">
-        <v>51</v>
+        <v>518</v>
       </c>
       <c r="K97" t="n">
-        <v>7200.0</v>
+        <v>200.0</v>
       </c>
       <c r="O97" t="s">
-        <v>443</v>
+        <v>606</v>
       </c>
       <c r="U97" t="n">
         <v>0.0</v>
@@ -6578,19 +6089,19 @@
     </row>
     <row r="98">
       <c r="C98" t="s">
-        <v>730</v>
+        <v>602</v>
       </c>
       <c r="D98" t="s">
-        <v>729</v>
+        <v>601</v>
       </c>
       <c r="E98" t="s">
-        <v>51</v>
+        <v>600</v>
       </c>
       <c r="K98" t="n">
-        <v>42750.0</v>
+        <v>2800.0</v>
       </c>
       <c r="O98" t="s">
-        <v>320</v>
+        <v>603</v>
       </c>
       <c r="U98" t="n">
         <v>0.0</v>
@@ -6598,19 +6109,19 @@
     </row>
     <row r="99">
       <c r="C99" t="s">
-        <v>727</v>
+        <v>599</v>
       </c>
       <c r="D99" t="s">
-        <v>726</v>
+        <v>598</v>
       </c>
       <c r="E99" t="s">
-        <v>51</v>
+        <v>597</v>
       </c>
       <c r="K99" t="n">
-        <v>150.0</v>
+        <v>102500.0</v>
       </c>
       <c r="O99" t="s">
-        <v>728</v>
+        <v>597</v>
       </c>
       <c r="U99" t="n">
         <v>0.0</v>
@@ -6618,19 +6129,19 @@
     </row>
     <row r="100">
       <c r="C100" t="s">
-        <v>724</v>
+        <v>595</v>
       </c>
       <c r="D100" t="s">
-        <v>723</v>
+        <v>594</v>
       </c>
       <c r="E100" t="s">
-        <v>51</v>
+        <v>518</v>
       </c>
       <c r="K100" t="n">
-        <v>150.0</v>
+        <v>50500.0</v>
       </c>
       <c r="O100" t="s">
-        <v>725</v>
+        <v>596</v>
       </c>
       <c r="U100" t="n">
         <v>0.0</v>
@@ -6638,19 +6149,19 @@
     </row>
     <row r="101">
       <c r="C101" t="s">
-        <v>722</v>
+        <v>592</v>
       </c>
       <c r="D101" t="s">
-        <v>721</v>
+        <v>591</v>
       </c>
       <c r="E101" t="s">
-        <v>51</v>
+        <v>285</v>
       </c>
       <c r="K101" t="n">
-        <v>200.0</v>
+        <v>1200.0</v>
       </c>
       <c r="O101" t="s">
-        <v>320</v>
+        <v>593</v>
       </c>
       <c r="U101" t="n">
         <v>0.0</v>
@@ -6658,19 +6169,19 @@
     </row>
     <row r="102">
       <c r="C102" t="s">
-        <v>719</v>
+        <v>590</v>
       </c>
       <c r="D102" t="s">
-        <v>718</v>
+        <v>589</v>
       </c>
       <c r="E102" t="s">
-        <v>51</v>
+        <v>456</v>
       </c>
       <c r="K102" t="n">
-        <v>5500.0</v>
+        <v>600.0</v>
       </c>
       <c r="O102" t="s">
-        <v>720</v>
+        <v>459</v>
       </c>
       <c r="U102" t="n">
         <v>0.0</v>
@@ -6678,19 +6189,19 @@
     </row>
     <row r="103">
       <c r="C103" t="s">
-        <v>716</v>
+        <v>587</v>
       </c>
       <c r="D103" t="s">
-        <v>715</v>
+        <v>586</v>
       </c>
       <c r="E103" t="s">
-        <v>51</v>
+        <v>518</v>
       </c>
       <c r="K103" t="n">
-        <v>15000.0</v>
+        <v>400.0</v>
       </c>
       <c r="O103" t="s">
-        <v>717</v>
+        <v>588</v>
       </c>
       <c r="U103" t="n">
         <v>0.0</v>
@@ -6698,19 +6209,19 @@
     </row>
     <row r="104">
       <c r="C104" t="s">
-        <v>713</v>
+        <v>584</v>
       </c>
       <c r="D104" t="s">
-        <v>712</v>
+        <v>583</v>
       </c>
       <c r="E104" t="s">
-        <v>51</v>
+        <v>582</v>
       </c>
       <c r="K104" t="n">
-        <v>150.0</v>
+        <v>400.0</v>
       </c>
       <c r="O104" t="s">
-        <v>714</v>
+        <v>585</v>
       </c>
       <c r="U104" t="n">
         <v>0.0</v>
@@ -6718,19 +6229,19 @@
     </row>
     <row r="105">
       <c r="C105" t="s">
-        <v>710</v>
+        <v>580</v>
       </c>
       <c r="D105" t="s">
-        <v>709</v>
+        <v>579</v>
       </c>
       <c r="E105" t="s">
-        <v>51</v>
+        <v>578</v>
       </c>
       <c r="K105" t="n">
-        <v>5250.0</v>
+        <v>300.0</v>
       </c>
       <c r="O105" t="s">
-        <v>711</v>
+        <v>581</v>
       </c>
       <c r="U105" t="n">
         <v>0.0</v>
@@ -6738,19 +6249,19 @@
     </row>
     <row r="106">
       <c r="C106" t="s">
-        <v>707</v>
+        <v>576</v>
       </c>
       <c r="D106" t="s">
-        <v>706</v>
+        <v>575</v>
       </c>
       <c r="E106" t="s">
-        <v>51</v>
+        <v>574</v>
       </c>
       <c r="K106" t="n">
-        <v>4650.0</v>
+        <v>400.0</v>
       </c>
       <c r="O106" t="s">
-        <v>708</v>
+        <v>577</v>
       </c>
       <c r="U106" t="n">
         <v>0.0</v>
@@ -6758,19 +6269,19 @@
     </row>
     <row r="107">
       <c r="C107" t="s">
-        <v>704</v>
+        <v>572</v>
       </c>
       <c r="D107" t="s">
-        <v>703</v>
+        <v>571</v>
       </c>
       <c r="E107" t="s">
-        <v>51</v>
+        <v>570</v>
       </c>
       <c r="K107" t="n">
-        <v>150.0</v>
+        <v>600.0</v>
       </c>
       <c r="O107" t="s">
-        <v>705</v>
+        <v>573</v>
       </c>
       <c r="U107" t="n">
         <v>0.0</v>
@@ -6778,19 +6289,19 @@
     </row>
     <row r="108">
       <c r="C108" t="s">
-        <v>702</v>
+        <v>568</v>
       </c>
       <c r="D108" t="s">
-        <v>701</v>
+        <v>567</v>
       </c>
       <c r="E108" t="s">
-        <v>51</v>
+        <v>566</v>
       </c>
       <c r="K108" t="n">
-        <v>150.0</v>
+        <v>139000.0</v>
       </c>
       <c r="O108" t="s">
-        <v>298</v>
+        <v>569</v>
       </c>
       <c r="U108" t="n">
         <v>0.0</v>
@@ -6798,19 +6309,19 @@
     </row>
     <row r="109">
       <c r="C109" t="s">
-        <v>700</v>
+        <v>565</v>
       </c>
       <c r="D109" t="s">
-        <v>699</v>
+        <v>564</v>
       </c>
       <c r="E109" t="s">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="K109" t="n">
-        <v>211750.0</v>
+        <v>150.0</v>
       </c>
       <c r="O109" t="s">
-        <v>392</v>
+        <v>217</v>
       </c>
       <c r="U109" t="n">
         <v>0.0</v>
@@ -6818,19 +6329,19 @@
     </row>
     <row r="110">
       <c r="C110" t="s">
-        <v>698</v>
+        <v>562</v>
       </c>
       <c r="D110" t="s">
-        <v>697</v>
+        <v>561</v>
       </c>
       <c r="E110" t="s">
-        <v>51</v>
+        <v>560</v>
       </c>
       <c r="K110" t="n">
-        <v>200.0</v>
+        <v>600.0</v>
       </c>
       <c r="O110" t="s">
-        <v>439</v>
+        <v>563</v>
       </c>
       <c r="U110" t="n">
         <v>0.0</v>
@@ -6838,19 +6349,19 @@
     </row>
     <row r="111">
       <c r="C111" t="s">
-        <v>695</v>
+        <v>558</v>
       </c>
       <c r="D111" t="s">
-        <v>694</v>
+        <v>557</v>
       </c>
       <c r="E111" t="s">
-        <v>51</v>
+        <v>556</v>
       </c>
       <c r="K111" t="n">
-        <v>875.0</v>
+        <v>400.0</v>
       </c>
       <c r="O111" t="s">
-        <v>696</v>
+        <v>559</v>
       </c>
       <c r="U111" t="n">
         <v>0.0</v>
@@ -6858,19 +6369,19 @@
     </row>
     <row r="112">
       <c r="C112" t="s">
-        <v>692</v>
+        <v>555</v>
       </c>
       <c r="D112" t="s">
-        <v>691</v>
+        <v>554</v>
       </c>
       <c r="E112" t="s">
-        <v>51</v>
+        <v>456</v>
       </c>
       <c r="K112" t="n">
-        <v>1875.0</v>
+        <v>200.0</v>
       </c>
       <c r="O112" t="s">
-        <v>693</v>
+        <v>459</v>
       </c>
       <c r="U112" t="n">
         <v>0.0</v>
@@ -6878,19 +6389,19 @@
     </row>
     <row r="113">
       <c r="C113" t="s">
-        <v>689</v>
+        <v>552</v>
       </c>
       <c r="D113" t="s">
-        <v>688</v>
+        <v>551</v>
       </c>
       <c r="E113" t="s">
-        <v>51</v>
+        <v>550</v>
       </c>
       <c r="K113" t="n">
-        <v>9000.0</v>
+        <v>26100.0</v>
       </c>
       <c r="O113" t="s">
-        <v>690</v>
+        <v>553</v>
       </c>
       <c r="U113" t="n">
         <v>0.0</v>
@@ -6898,19 +6409,19 @@
     </row>
     <row r="114">
       <c r="C114" t="s">
-        <v>686</v>
+        <v>549</v>
       </c>
       <c r="D114" t="s">
-        <v>685</v>
+        <v>548</v>
       </c>
       <c r="E114" t="s">
-        <v>51</v>
+        <v>544</v>
       </c>
       <c r="K114" t="n">
-        <v>625.0</v>
+        <v>14125.0</v>
       </c>
       <c r="O114" t="s">
-        <v>687</v>
+        <v>431</v>
       </c>
       <c r="U114" t="n">
         <v>0.0</v>
@@ -6918,19 +6429,19 @@
     </row>
     <row r="115">
       <c r="C115" t="s">
-        <v>683</v>
+        <v>546</v>
       </c>
       <c r="D115" t="s">
-        <v>682</v>
+        <v>545</v>
       </c>
       <c r="E115" t="s">
-        <v>51</v>
+        <v>544</v>
       </c>
       <c r="K115" t="n">
-        <v>33750.0</v>
+        <v>400.0</v>
       </c>
       <c r="O115" t="s">
-        <v>684</v>
+        <v>547</v>
       </c>
       <c r="U115" t="n">
         <v>0.0</v>
@@ -6938,19 +6449,19 @@
     </row>
     <row r="116">
       <c r="C116" t="s">
-        <v>680</v>
+        <v>542</v>
       </c>
       <c r="D116" t="s">
-        <v>679</v>
+        <v>541</v>
       </c>
       <c r="E116" t="s">
-        <v>51</v>
+        <v>540</v>
       </c>
       <c r="K116" t="n">
-        <v>250.0</v>
+        <v>900.0</v>
       </c>
       <c r="O116" t="s">
-        <v>681</v>
+        <v>543</v>
       </c>
       <c r="U116" t="n">
         <v>0.0</v>
@@ -6958,19 +6469,19 @@
     </row>
     <row r="117">
       <c r="C117" t="s">
-        <v>678</v>
+        <v>538</v>
       </c>
       <c r="D117" t="s">
-        <v>677</v>
+        <v>537</v>
       </c>
       <c r="E117" t="s">
-        <v>51</v>
+        <v>536</v>
       </c>
       <c r="K117" t="n">
-        <v>91375.0</v>
+        <v>400.0</v>
       </c>
       <c r="O117" t="s">
-        <v>662</v>
+        <v>539</v>
       </c>
       <c r="U117" t="n">
         <v>0.0</v>
@@ -6978,19 +6489,19 @@
     </row>
     <row r="118">
       <c r="C118" t="s">
-        <v>675</v>
+        <v>534</v>
       </c>
       <c r="D118" t="s">
-        <v>674</v>
+        <v>533</v>
       </c>
       <c r="E118" t="s">
-        <v>51</v>
+        <v>532</v>
       </c>
       <c r="K118" t="n">
-        <v>1400.0</v>
+        <v>2600.0</v>
       </c>
       <c r="O118" t="s">
-        <v>676</v>
+        <v>535</v>
       </c>
       <c r="U118" t="n">
         <v>0.0</v>
@@ -6998,19 +6509,19 @@
     </row>
     <row r="119">
       <c r="C119" t="s">
-        <v>672</v>
+        <v>530</v>
       </c>
       <c r="D119" t="s">
-        <v>671</v>
+        <v>529</v>
       </c>
       <c r="E119" t="s">
-        <v>51</v>
+        <v>528</v>
       </c>
       <c r="K119" t="n">
-        <v>5600.0</v>
+        <v>150.0</v>
       </c>
       <c r="O119" t="s">
-        <v>673</v>
+        <v>531</v>
       </c>
       <c r="U119" t="n">
         <v>0.0</v>
@@ -7018,19 +6529,19 @@
     </row>
     <row r="120">
       <c r="C120" t="s">
-        <v>669</v>
+        <v>526</v>
       </c>
       <c r="D120" t="s">
-        <v>668</v>
+        <v>525</v>
       </c>
       <c r="E120" t="s">
-        <v>51</v>
+        <v>524</v>
       </c>
       <c r="K120" t="n">
-        <v>450.0</v>
+        <v>1650.0</v>
       </c>
       <c r="O120" t="s">
-        <v>670</v>
+        <v>527</v>
       </c>
       <c r="U120" t="n">
         <v>0.0</v>
@@ -7038,19 +6549,19 @@
     </row>
     <row r="121">
       <c r="C121" t="s">
-        <v>666</v>
+        <v>523</v>
       </c>
       <c r="D121" t="s">
-        <v>665</v>
+        <v>522</v>
       </c>
       <c r="E121" t="s">
-        <v>51</v>
+        <v>440</v>
       </c>
       <c r="K121" t="n">
-        <v>200.0</v>
+        <v>7950.0</v>
       </c>
       <c r="O121" t="s">
-        <v>667</v>
+        <v>443</v>
       </c>
       <c r="U121" t="n">
         <v>0.0</v>
@@ -7058,19 +6569,19 @@
     </row>
     <row r="122">
       <c r="C122" t="s">
-        <v>664</v>
+        <v>520</v>
       </c>
       <c r="D122" t="s">
-        <v>663</v>
+        <v>519</v>
       </c>
       <c r="E122" t="s">
-        <v>51</v>
+        <v>518</v>
       </c>
       <c r="K122" t="n">
-        <v>24750.0</v>
+        <v>200.0</v>
       </c>
       <c r="O122" t="s">
-        <v>75</v>
+        <v>521</v>
       </c>
       <c r="U122" t="n">
         <v>0.0</v>
@@ -7078,19 +6589,19 @@
     </row>
     <row r="123">
       <c r="C123" t="s">
-        <v>661</v>
+        <v>516</v>
       </c>
       <c r="D123" t="s">
-        <v>660</v>
+        <v>515</v>
       </c>
       <c r="E123" t="s">
-        <v>51</v>
+        <v>514</v>
       </c>
       <c r="K123" t="n">
-        <v>351500.0</v>
+        <v>150.0</v>
       </c>
       <c r="O123" t="s">
-        <v>662</v>
+        <v>517</v>
       </c>
       <c r="U123" t="n">
         <v>0.0</v>
@@ -7098,19 +6609,19 @@
     </row>
     <row r="124">
       <c r="C124" t="s">
-        <v>658</v>
+        <v>513</v>
       </c>
       <c r="D124" t="s">
-        <v>657</v>
+        <v>512</v>
       </c>
       <c r="E124" t="s">
-        <v>51</v>
+        <v>440</v>
       </c>
       <c r="K124" t="n">
-        <v>16000.0</v>
+        <v>33450.0</v>
       </c>
       <c r="O124" t="s">
-        <v>659</v>
+        <v>443</v>
       </c>
       <c r="U124" t="n">
         <v>0.0</v>
@@ -7118,19 +6629,19 @@
     </row>
     <row r="125">
       <c r="C125" t="s">
-        <v>655</v>
+        <v>510</v>
       </c>
       <c r="D125" t="s">
-        <v>654</v>
+        <v>509</v>
       </c>
       <c r="E125" t="s">
-        <v>51</v>
+        <v>508</v>
       </c>
       <c r="K125" t="n">
-        <v>6250.0</v>
+        <v>150.0</v>
       </c>
       <c r="O125" t="s">
-        <v>656</v>
+        <v>511</v>
       </c>
       <c r="U125" t="n">
         <v>0.0</v>
@@ -7138,19 +6649,19 @@
     </row>
     <row r="126">
       <c r="C126" t="s">
-        <v>652</v>
+        <v>506</v>
       </c>
       <c r="D126" t="s">
-        <v>651</v>
+        <v>505</v>
       </c>
       <c r="E126" t="s">
-        <v>51</v>
+        <v>504</v>
       </c>
       <c r="K126" t="n">
-        <v>3400.0</v>
+        <v>3000.0</v>
       </c>
       <c r="O126" t="s">
-        <v>653</v>
+        <v>507</v>
       </c>
       <c r="U126" t="n">
         <v>0.0</v>
@@ -7158,19 +6669,19 @@
     </row>
     <row r="127">
       <c r="C127" t="s">
-        <v>649</v>
+        <v>502</v>
       </c>
       <c r="D127" t="s">
-        <v>648</v>
+        <v>501</v>
       </c>
       <c r="E127" t="s">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="K127" t="n">
-        <v>300.0</v>
+        <v>150.0</v>
       </c>
       <c r="O127" t="s">
-        <v>650</v>
+        <v>503</v>
       </c>
       <c r="U127" t="n">
         <v>0.0</v>
@@ -7178,19 +6689,19 @@
     </row>
     <row r="128">
       <c r="C128" t="s">
-        <v>646</v>
+        <v>498</v>
       </c>
       <c r="D128" t="s">
-        <v>645</v>
+        <v>497</v>
       </c>
       <c r="E128" t="s">
-        <v>51</v>
+        <v>440</v>
       </c>
       <c r="K128" t="n">
-        <v>4625.0</v>
+        <v>22200.0</v>
       </c>
       <c r="O128" t="s">
-        <v>647</v>
+        <v>499</v>
       </c>
       <c r="U128" t="n">
         <v>0.0</v>
@@ -7198,19 +6709,19 @@
     </row>
     <row r="129">
       <c r="C129" t="s">
-        <v>643</v>
+        <v>495</v>
       </c>
       <c r="D129" t="s">
-        <v>642</v>
+        <v>494</v>
       </c>
       <c r="E129" t="s">
-        <v>51</v>
+        <v>493</v>
       </c>
       <c r="K129" t="n">
-        <v>232375.0</v>
+        <v>150.0</v>
       </c>
       <c r="O129" t="s">
-        <v>644</v>
+        <v>496</v>
       </c>
       <c r="U129" t="n">
         <v>0.0</v>
@@ -7218,19 +6729,19 @@
     </row>
     <row r="130">
       <c r="C130" t="s">
-        <v>640</v>
+        <v>492</v>
       </c>
       <c r="D130" t="s">
-        <v>639</v>
+        <v>491</v>
       </c>
       <c r="E130" t="s">
-        <v>51</v>
+        <v>468</v>
       </c>
       <c r="K130" t="n">
-        <v>2200.0</v>
+        <v>150.0</v>
       </c>
       <c r="O130" t="s">
-        <v>641</v>
+        <v>486</v>
       </c>
       <c r="U130" t="n">
         <v>0.0</v>
@@ -7238,19 +6749,19 @@
     </row>
     <row r="131">
       <c r="C131" t="s">
-        <v>637</v>
+        <v>489</v>
       </c>
       <c r="D131" t="s">
-        <v>636</v>
+        <v>488</v>
       </c>
       <c r="E131" t="s">
-        <v>51</v>
+        <v>487</v>
       </c>
       <c r="K131" t="n">
-        <v>4400.0</v>
+        <v>400.0</v>
       </c>
       <c r="O131" t="s">
-        <v>638</v>
+        <v>490</v>
       </c>
       <c r="U131" t="n">
         <v>0.0</v>
@@ -7258,19 +6769,19 @@
     </row>
     <row r="132">
       <c r="C132" t="s">
-        <v>634</v>
+        <v>485</v>
       </c>
       <c r="D132" t="s">
-        <v>633</v>
+        <v>484</v>
       </c>
       <c r="E132" t="s">
-        <v>51</v>
+        <v>468</v>
       </c>
       <c r="K132" t="n">
-        <v>2250.0</v>
+        <v>300.0</v>
       </c>
       <c r="O132" t="s">
-        <v>635</v>
+        <v>486</v>
       </c>
       <c r="U132" t="n">
         <v>0.0</v>
@@ -7278,19 +6789,19 @@
     </row>
     <row r="133">
       <c r="C133" t="s">
-        <v>631</v>
+        <v>482</v>
       </c>
       <c r="D133" t="s">
-        <v>630</v>
+        <v>481</v>
       </c>
       <c r="E133" t="s">
-        <v>51</v>
+        <v>480</v>
       </c>
       <c r="K133" t="n">
-        <v>1625.0</v>
+        <v>300.0</v>
       </c>
       <c r="O133" t="s">
-        <v>632</v>
+        <v>483</v>
       </c>
       <c r="U133" t="n">
         <v>0.0</v>
@@ -7298,19 +6809,19 @@
     </row>
     <row r="134">
       <c r="C134" t="s">
-        <v>628</v>
+        <v>478</v>
       </c>
       <c r="D134" t="s">
-        <v>627</v>
+        <v>477</v>
       </c>
       <c r="E134" t="s">
-        <v>51</v>
+        <v>476</v>
       </c>
       <c r="K134" t="n">
-        <v>40625.0</v>
+        <v>300.0</v>
       </c>
       <c r="O134" t="s">
-        <v>629</v>
+        <v>479</v>
       </c>
       <c r="U134" t="n">
         <v>0.0</v>
@@ -7318,19 +6829,19 @@
     </row>
     <row r="135">
       <c r="C135" t="s">
-        <v>625</v>
+        <v>474</v>
       </c>
       <c r="D135" t="s">
-        <v>624</v>
+        <v>473</v>
       </c>
       <c r="E135" t="s">
-        <v>51</v>
+        <v>472</v>
       </c>
       <c r="K135" t="n">
-        <v>2125.0</v>
+        <v>6750.0</v>
       </c>
       <c r="O135" t="s">
-        <v>626</v>
+        <v>475</v>
       </c>
       <c r="U135" t="n">
         <v>0.0</v>
@@ -7338,19 +6849,19 @@
     </row>
     <row r="136">
       <c r="C136" t="s">
-        <v>623</v>
+        <v>470</v>
       </c>
       <c r="D136" t="s">
-        <v>622</v>
+        <v>469</v>
       </c>
       <c r="E136" t="s">
-        <v>51</v>
+        <v>468</v>
       </c>
       <c r="K136" t="n">
-        <v>150.0</v>
+        <v>600.0</v>
       </c>
       <c r="O136" t="s">
-        <v>162</v>
+        <v>471</v>
       </c>
       <c r="U136" t="n">
         <v>0.0</v>
@@ -7358,19 +6869,19 @@
     </row>
     <row r="137">
       <c r="C137" t="s">
-        <v>620</v>
+        <v>466</v>
       </c>
       <c r="D137" t="s">
-        <v>619</v>
+        <v>465</v>
       </c>
       <c r="E137" t="s">
-        <v>51</v>
+        <v>464</v>
       </c>
       <c r="K137" t="n">
-        <v>902375.0</v>
+        <v>150.0</v>
       </c>
       <c r="O137" t="s">
-        <v>621</v>
+        <v>467</v>
       </c>
       <c r="U137" t="n">
         <v>0.0</v>
@@ -7378,19 +6889,19 @@
     </row>
     <row r="138">
       <c r="C138" t="s">
-        <v>617</v>
+        <v>462</v>
       </c>
       <c r="D138" t="s">
-        <v>616</v>
+        <v>461</v>
       </c>
       <c r="E138" t="s">
-        <v>51</v>
+        <v>460</v>
       </c>
       <c r="K138" t="n">
-        <v>4800.0</v>
+        <v>150.0</v>
       </c>
       <c r="O138" t="s">
-        <v>618</v>
+        <v>463</v>
       </c>
       <c r="U138" t="n">
         <v>0.0</v>
@@ -7398,19 +6909,19 @@
     </row>
     <row r="139">
       <c r="C139" t="s">
-        <v>614</v>
+        <v>458</v>
       </c>
       <c r="D139" t="s">
-        <v>613</v>
+        <v>457</v>
       </c>
       <c r="E139" t="s">
-        <v>51</v>
+        <v>456</v>
       </c>
       <c r="K139" t="n">
-        <v>176875.0</v>
+        <v>392625.0</v>
       </c>
       <c r="O139" t="s">
-        <v>615</v>
+        <v>459</v>
       </c>
       <c r="U139" t="n">
         <v>0.0</v>
@@ -7418,19 +6929,19 @@
     </row>
     <row r="140">
       <c r="C140" t="s">
-        <v>611</v>
+        <v>454</v>
       </c>
       <c r="D140" t="s">
-        <v>610</v>
+        <v>453</v>
       </c>
       <c r="E140" t="s">
-        <v>51</v>
+        <v>452</v>
       </c>
       <c r="K140" t="n">
-        <v>1034750.0</v>
+        <v>150.0</v>
       </c>
       <c r="O140" t="s">
-        <v>612</v>
+        <v>455</v>
       </c>
       <c r="U140" t="n">
         <v>0.0</v>
@@ -7438,19 +6949,19 @@
     </row>
     <row r="141">
       <c r="C141" t="s">
-        <v>608</v>
+        <v>450</v>
       </c>
       <c r="D141" t="s">
-        <v>607</v>
+        <v>449</v>
       </c>
       <c r="E141" t="s">
-        <v>544</v>
+        <v>448</v>
       </c>
       <c r="K141" t="n">
-        <v>10750.0</v>
+        <v>750.0</v>
       </c>
       <c r="O141" t="s">
-        <v>609</v>
+        <v>451</v>
       </c>
       <c r="U141" t="n">
         <v>0.0</v>
@@ -7458,19 +6969,19 @@
     </row>
     <row r="142">
       <c r="C142" t="s">
-        <v>605</v>
+        <v>446</v>
       </c>
       <c r="D142" t="s">
-        <v>604</v>
+        <v>445</v>
       </c>
       <c r="E142" t="s">
-        <v>518</v>
+        <v>444</v>
       </c>
       <c r="K142" t="n">
-        <v>200.0</v>
+        <v>15000.0</v>
       </c>
       <c r="O142" t="s">
-        <v>606</v>
+        <v>447</v>
       </c>
       <c r="U142" t="n">
         <v>0.0</v>
@@ -7478,19 +6989,19 @@
     </row>
     <row r="143">
       <c r="C143" t="s">
-        <v>602</v>
+        <v>442</v>
       </c>
       <c r="D143" t="s">
-        <v>601</v>
+        <v>441</v>
       </c>
       <c r="E143" t="s">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K143" t="n">
-        <v>2800.0</v>
+        <v>14400.0</v>
       </c>
       <c r="O143" t="s">
-        <v>603</v>
+        <v>443</v>
       </c>
       <c r="U143" t="n">
         <v>0.0</v>
@@ -7498,19 +7009,19 @@
     </row>
     <row r="144">
       <c r="C144" t="s">
-        <v>599</v>
+        <v>438</v>
       </c>
       <c r="D144" t="s">
-        <v>598</v>
+        <v>437</v>
       </c>
       <c r="E144" t="s">
-        <v>597</v>
+        <v>436</v>
       </c>
       <c r="K144" t="n">
-        <v>102500.0</v>
+        <v>200.0</v>
       </c>
       <c r="O144" t="s">
-        <v>597</v>
+        <v>439</v>
       </c>
       <c r="U144" t="n">
         <v>0.0</v>
@@ -7518,19 +7029,19 @@
     </row>
     <row r="145">
       <c r="C145" t="s">
-        <v>595</v>
+        <v>434</v>
       </c>
       <c r="D145" t="s">
-        <v>594</v>
+        <v>433</v>
       </c>
       <c r="E145" t="s">
-        <v>518</v>
+        <v>432</v>
       </c>
       <c r="K145" t="n">
-        <v>50500.0</v>
+        <v>150.0</v>
       </c>
       <c r="O145" t="s">
-        <v>596</v>
+        <v>435</v>
       </c>
       <c r="U145" t="n">
         <v>0.0</v>
@@ -7538,19 +7049,19 @@
     </row>
     <row r="146">
       <c r="C146" t="s">
-        <v>592</v>
+        <v>430</v>
       </c>
       <c r="D146" t="s">
-        <v>591</v>
+        <v>429</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>428</v>
       </c>
       <c r="K146" t="n">
-        <v>1200.0</v>
+        <v>2500.0</v>
       </c>
       <c r="O146" t="s">
-        <v>593</v>
+        <v>431</v>
       </c>
       <c r="U146" t="n">
         <v>0.0</v>
@@ -7558,19 +7069,19 @@
     </row>
     <row r="147">
       <c r="C147" t="s">
-        <v>590</v>
+        <v>426</v>
       </c>
       <c r="D147" t="s">
-        <v>589</v>
+        <v>425</v>
       </c>
       <c r="E147" t="s">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="K147" t="n">
-        <v>600.0</v>
+        <v>200.0</v>
       </c>
       <c r="O147" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="U147" t="n">
         <v>0.0</v>
@@ -7578,19 +7089,19 @@
     </row>
     <row r="148">
       <c r="C148" t="s">
-        <v>587</v>
+        <v>423</v>
       </c>
       <c r="D148" t="s">
-        <v>586</v>
+        <v>422</v>
       </c>
       <c r="E148" t="s">
-        <v>518</v>
+        <v>396</v>
       </c>
       <c r="K148" t="n">
-        <v>400.0</v>
+        <v>9600.0</v>
       </c>
       <c r="O148" t="s">
-        <v>588</v>
+        <v>399</v>
       </c>
       <c r="U148" t="n">
         <v>0.0</v>
@@ -7598,19 +7109,19 @@
     </row>
     <row r="149">
       <c r="C149" t="s">
-        <v>584</v>
+        <v>420</v>
       </c>
       <c r="D149" t="s">
-        <v>583</v>
+        <v>419</v>
       </c>
       <c r="E149" t="s">
-        <v>582</v>
+        <v>418</v>
       </c>
       <c r="K149" t="n">
-        <v>400.0</v>
+        <v>116400.0</v>
       </c>
       <c r="O149" t="s">
-        <v>585</v>
+        <v>421</v>
       </c>
       <c r="U149" t="n">
         <v>0.0</v>
@@ -7618,19 +7129,19 @@
     </row>
     <row r="150">
       <c r="C150" t="s">
-        <v>580</v>
+        <v>416</v>
       </c>
       <c r="D150" t="s">
-        <v>579</v>
+        <v>415</v>
       </c>
       <c r="E150" t="s">
-        <v>578</v>
+        <v>414</v>
       </c>
       <c r="K150" t="n">
         <v>300.0</v>
       </c>
       <c r="O150" t="s">
-        <v>581</v>
+        <v>417</v>
       </c>
       <c r="U150" t="n">
         <v>0.0</v>
@@ -7638,19 +7149,19 @@
     </row>
     <row r="151">
       <c r="C151" t="s">
-        <v>576</v>
+        <v>412</v>
       </c>
       <c r="D151" t="s">
-        <v>575</v>
+        <v>411</v>
       </c>
       <c r="E151" t="s">
-        <v>574</v>
+        <v>410</v>
       </c>
       <c r="K151" t="n">
-        <v>400.0</v>
+        <v>600.0</v>
       </c>
       <c r="O151" t="s">
-        <v>577</v>
+        <v>413</v>
       </c>
       <c r="U151" t="n">
         <v>0.0</v>
@@ -7658,19 +7169,19 @@
     </row>
     <row r="152">
       <c r="C152" t="s">
-        <v>572</v>
+        <v>409</v>
       </c>
       <c r="D152" t="s">
-        <v>571</v>
+        <v>408</v>
       </c>
       <c r="E152" t="s">
-        <v>570</v>
+        <v>396</v>
       </c>
       <c r="K152" t="n">
-        <v>600.0</v>
+        <v>1050.0</v>
       </c>
       <c r="O152" t="s">
-        <v>573</v>
+        <v>399</v>
       </c>
       <c r="U152" t="n">
         <v>0.0</v>
@@ -7678,19 +7189,19 @@
     </row>
     <row r="153">
       <c r="C153" t="s">
-        <v>568</v>
+        <v>406</v>
       </c>
       <c r="D153" t="s">
-        <v>567</v>
+        <v>405</v>
       </c>
       <c r="E153" t="s">
-        <v>566</v>
+        <v>404</v>
       </c>
       <c r="K153" t="n">
-        <v>139000.0</v>
+        <v>200.0</v>
       </c>
       <c r="O153" t="s">
-        <v>569</v>
+        <v>407</v>
       </c>
       <c r="U153" t="n">
         <v>0.0</v>
@@ -7698,19 +7209,19 @@
     </row>
     <row r="154">
       <c r="C154" t="s">
-        <v>565</v>
+        <v>402</v>
       </c>
       <c r="D154" t="s">
-        <v>564</v>
+        <v>401</v>
       </c>
       <c r="E154" t="s">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K154" t="n">
-        <v>150.0</v>
+        <v>10950.0</v>
       </c>
       <c r="O154" t="s">
-        <v>217</v>
+        <v>403</v>
       </c>
       <c r="U154" t="n">
         <v>0.0</v>
@@ -7718,19 +7229,19 @@
     </row>
     <row r="155">
       <c r="C155" t="s">
-        <v>562</v>
+        <v>398</v>
       </c>
       <c r="D155" t="s">
-        <v>561</v>
+        <v>397</v>
       </c>
       <c r="E155" t="s">
-        <v>560</v>
+        <v>396</v>
       </c>
       <c r="K155" t="n">
-        <v>600.0</v>
+        <v>2100.0</v>
       </c>
       <c r="O155" t="s">
-        <v>563</v>
+        <v>399</v>
       </c>
       <c r="U155" t="n">
         <v>0.0</v>
@@ -7738,19 +7249,19 @@
     </row>
     <row r="156">
       <c r="C156" t="s">
-        <v>558</v>
+        <v>395</v>
       </c>
       <c r="D156" t="s">
-        <v>557</v>
+        <v>394</v>
       </c>
       <c r="E156" t="s">
-        <v>556</v>
+        <v>393</v>
       </c>
       <c r="K156" t="n">
-        <v>400.0</v>
+        <v>150.0</v>
       </c>
       <c r="O156" t="s">
-        <v>559</v>
+        <v>393</v>
       </c>
       <c r="U156" t="n">
         <v>0.0</v>
@@ -7758,19 +7269,19 @@
     </row>
     <row r="157">
       <c r="C157" t="s">
-        <v>555</v>
+        <v>391</v>
       </c>
       <c r="D157" t="s">
-        <v>554</v>
+        <v>390</v>
       </c>
       <c r="E157" t="s">
-        <v>456</v>
+        <v>389</v>
       </c>
       <c r="K157" t="n">
-        <v>200.0</v>
+        <v>3200.0</v>
       </c>
       <c r="O157" t="s">
-        <v>459</v>
+        <v>392</v>
       </c>
       <c r="U157" t="n">
         <v>0.0</v>
@@ -7778,19 +7289,19 @@
     </row>
     <row r="158">
       <c r="C158" t="s">
-        <v>552</v>
+        <v>387</v>
       </c>
       <c r="D158" t="s">
-        <v>551</v>
+        <v>386</v>
       </c>
       <c r="E158" t="s">
-        <v>550</v>
+        <v>385</v>
       </c>
       <c r="K158" t="n">
-        <v>26100.0</v>
+        <v>24500.0</v>
       </c>
       <c r="O158" t="s">
-        <v>553</v>
+        <v>388</v>
       </c>
       <c r="U158" t="n">
         <v>0.0</v>
@@ -7798,19 +7309,19 @@
     </row>
     <row r="159">
       <c r="C159" t="s">
-        <v>549</v>
+        <v>383</v>
       </c>
       <c r="D159" t="s">
-        <v>548</v>
+        <v>382</v>
       </c>
       <c r="E159" t="s">
-        <v>544</v>
+        <v>381</v>
       </c>
       <c r="K159" t="n">
-        <v>14125.0</v>
+        <v>375.0</v>
       </c>
       <c r="O159" t="s">
-        <v>431</v>
+        <v>384</v>
       </c>
       <c r="U159" t="n">
         <v>0.0</v>
@@ -7818,19 +7329,19 @@
     </row>
     <row r="160">
       <c r="C160" t="s">
-        <v>546</v>
+        <v>379</v>
       </c>
       <c r="D160" t="s">
-        <v>545</v>
+        <v>378</v>
       </c>
       <c r="E160" t="s">
-        <v>544</v>
+        <v>377</v>
       </c>
       <c r="K160" t="n">
-        <v>400.0</v>
+        <v>300.0</v>
       </c>
       <c r="O160" t="s">
-        <v>547</v>
+        <v>380</v>
       </c>
       <c r="U160" t="n">
         <v>0.0</v>
@@ -7838,19 +7349,19 @@
     </row>
     <row r="161">
       <c r="C161" t="s">
-        <v>542</v>
+        <v>375</v>
       </c>
       <c r="D161" t="s">
-        <v>541</v>
+        <v>374</v>
       </c>
       <c r="E161" t="s">
-        <v>540</v>
+        <v>373</v>
       </c>
       <c r="K161" t="n">
-        <v>900.0</v>
+        <v>1800.0</v>
       </c>
       <c r="O161" t="s">
-        <v>543</v>
+        <v>376</v>
       </c>
       <c r="U161" t="n">
         <v>0.0</v>
@@ -7858,19 +7369,19 @@
     </row>
     <row r="162">
       <c r="C162" t="s">
-        <v>538</v>
+        <v>371</v>
       </c>
       <c r="D162" t="s">
-        <v>537</v>
+        <v>370</v>
       </c>
       <c r="E162" t="s">
-        <v>536</v>
+        <v>369</v>
       </c>
       <c r="K162" t="n">
-        <v>400.0</v>
+        <v>2000.0</v>
       </c>
       <c r="O162" t="s">
-        <v>539</v>
+        <v>372</v>
       </c>
       <c r="U162" t="n">
         <v>0.0</v>
@@ -7878,19 +7389,19 @@
     </row>
     <row r="163">
       <c r="C163" t="s">
-        <v>534</v>
+        <v>367</v>
       </c>
       <c r="D163" t="s">
-        <v>533</v>
+        <v>366</v>
       </c>
       <c r="E163" t="s">
-        <v>532</v>
+        <v>365</v>
       </c>
       <c r="K163" t="n">
-        <v>2600.0</v>
+        <v>140125.0</v>
       </c>
       <c r="O163" t="s">
-        <v>535</v>
+        <v>368</v>
       </c>
       <c r="U163" t="n">
         <v>0.0</v>
@@ -7898,19 +7409,19 @@
     </row>
     <row r="164">
       <c r="C164" t="s">
-        <v>530</v>
+        <v>363</v>
       </c>
       <c r="D164" t="s">
-        <v>529</v>
+        <v>362</v>
       </c>
       <c r="E164" t="s">
-        <v>528</v>
+        <v>361</v>
       </c>
       <c r="K164" t="n">
-        <v>150.0</v>
+        <v>1200.0</v>
       </c>
       <c r="O164" t="s">
-        <v>531</v>
+        <v>364</v>
       </c>
       <c r="U164" t="n">
         <v>0.0</v>
@@ -7918,19 +7429,19 @@
     </row>
     <row r="165">
       <c r="C165" t="s">
-        <v>526</v>
+        <v>359</v>
       </c>
       <c r="D165" t="s">
-        <v>525</v>
+        <v>358</v>
       </c>
       <c r="E165" t="s">
-        <v>524</v>
+        <v>357</v>
       </c>
       <c r="K165" t="n">
-        <v>1650.0</v>
+        <v>375.0</v>
       </c>
       <c r="O165" t="s">
-        <v>527</v>
+        <v>360</v>
       </c>
       <c r="U165" t="n">
         <v>0.0</v>
@@ -7938,19 +7449,19 @@
     </row>
     <row r="166">
       <c r="C166" t="s">
-        <v>523</v>
+        <v>355</v>
       </c>
       <c r="D166" t="s">
-        <v>522</v>
+        <v>354</v>
       </c>
       <c r="E166" t="s">
-        <v>440</v>
+        <v>353</v>
       </c>
       <c r="K166" t="n">
-        <v>7950.0</v>
+        <v>81125.0</v>
       </c>
       <c r="O166" t="s">
-        <v>443</v>
+        <v>356</v>
       </c>
       <c r="U166" t="n">
         <v>0.0</v>
@@ -7958,19 +7469,19 @@
     </row>
     <row r="167">
       <c r="C167" t="s">
-        <v>520</v>
+        <v>351</v>
       </c>
       <c r="D167" t="s">
-        <v>519</v>
+        <v>350</v>
       </c>
       <c r="E167" t="s">
-        <v>518</v>
+        <v>349</v>
       </c>
       <c r="K167" t="n">
-        <v>200.0</v>
+        <v>1800.0</v>
       </c>
       <c r="O167" t="s">
-        <v>521</v>
+        <v>352</v>
       </c>
       <c r="U167" t="n">
         <v>0.0</v>
@@ -7978,19 +7489,19 @@
     </row>
     <row r="168">
       <c r="C168" t="s">
-        <v>516</v>
+        <v>347</v>
       </c>
       <c r="D168" t="s">
-        <v>515</v>
+        <v>346</v>
       </c>
       <c r="E168" t="s">
-        <v>514</v>
+        <v>345</v>
       </c>
       <c r="K168" t="n">
-        <v>150.0</v>
+        <v>900.0</v>
       </c>
       <c r="O168" t="s">
-        <v>517</v>
+        <v>348</v>
       </c>
       <c r="U168" t="n">
         <v>0.0</v>
@@ -7998,19 +7509,19 @@
     </row>
     <row r="169">
       <c r="C169" t="s">
-        <v>513</v>
+        <v>344</v>
       </c>
       <c r="D169" t="s">
-        <v>512</v>
+        <v>343</v>
       </c>
       <c r="E169" t="s">
-        <v>440</v>
+        <v>330</v>
       </c>
       <c r="K169" t="n">
-        <v>33450.0</v>
+        <v>400.0</v>
       </c>
       <c r="O169" t="s">
-        <v>443</v>
+        <v>333</v>
       </c>
       <c r="U169" t="n">
         <v>0.0</v>
@@ -8018,19 +7529,19 @@
     </row>
     <row r="170">
       <c r="C170" t="s">
-        <v>510</v>
+        <v>341</v>
       </c>
       <c r="D170" t="s">
-        <v>509</v>
+        <v>340</v>
       </c>
       <c r="E170" t="s">
-        <v>508</v>
+        <v>339</v>
       </c>
       <c r="K170" t="n">
-        <v>150.0</v>
+        <v>9250.0</v>
       </c>
       <c r="O170" t="s">
-        <v>511</v>
+        <v>342</v>
       </c>
       <c r="U170" t="n">
         <v>0.0</v>
@@ -8038,19 +7549,19 @@
     </row>
     <row r="171">
       <c r="C171" t="s">
-        <v>506</v>
+        <v>338</v>
       </c>
       <c r="D171" t="s">
-        <v>505</v>
+        <v>337</v>
       </c>
       <c r="E171" t="s">
-        <v>504</v>
+        <v>336</v>
       </c>
       <c r="K171" t="n">
-        <v>3000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="O171" t="s">
-        <v>507</v>
+        <v>324</v>
       </c>
       <c r="U171" t="n">
         <v>0.0</v>
@@ -8058,19 +7569,19 @@
     </row>
     <row r="172">
       <c r="C172" t="s">
-        <v>502</v>
+        <v>335</v>
       </c>
       <c r="D172" t="s">
-        <v>501</v>
+        <v>334</v>
       </c>
       <c r="E172" t="s">
-        <v>500</v>
+        <v>289</v>
       </c>
       <c r="K172" t="n">
-        <v>150.0</v>
+        <v>3150.0</v>
       </c>
       <c r="O172" t="s">
-        <v>503</v>
+        <v>289</v>
       </c>
       <c r="U172" t="n">
         <v>0.0</v>
@@ -8078,19 +7589,19 @@
     </row>
     <row r="173">
       <c r="C173" t="s">
-        <v>498</v>
+        <v>332</v>
       </c>
       <c r="D173" t="s">
-        <v>497</v>
+        <v>331</v>
       </c>
       <c r="E173" t="s">
-        <v>440</v>
+        <v>330</v>
       </c>
       <c r="K173" t="n">
-        <v>22200.0</v>
+        <v>11400.0</v>
       </c>
       <c r="O173" t="s">
-        <v>499</v>
+        <v>333</v>
       </c>
       <c r="U173" t="n">
         <v>0.0</v>
@@ -8098,19 +7609,19 @@
     </row>
     <row r="174">
       <c r="C174" t="s">
-        <v>495</v>
+        <v>328</v>
       </c>
       <c r="D174" t="s">
-        <v>494</v>
+        <v>327</v>
       </c>
       <c r="E174" t="s">
-        <v>493</v>
+        <v>285</v>
       </c>
       <c r="K174" t="n">
-        <v>150.0</v>
+        <v>300.0</v>
       </c>
       <c r="O174" t="s">
-        <v>496</v>
+        <v>329</v>
       </c>
       <c r="U174" t="n">
         <v>0.0</v>
@@ -8118,19 +7629,19 @@
     </row>
     <row r="175">
       <c r="C175" t="s">
-        <v>492</v>
+        <v>326</v>
       </c>
       <c r="D175" t="s">
-        <v>491</v>
+        <v>325</v>
       </c>
       <c r="E175" t="s">
-        <v>468</v>
+        <v>289</v>
       </c>
       <c r="K175" t="n">
-        <v>150.0</v>
+        <v>200.0</v>
       </c>
       <c r="O175" t="s">
-        <v>486</v>
+        <v>289</v>
       </c>
       <c r="U175" t="n">
         <v>0.0</v>
@@ -8138,19 +7649,19 @@
     </row>
     <row r="176">
       <c r="C176" t="s">
-        <v>489</v>
+        <v>323</v>
       </c>
       <c r="D176" t="s">
-        <v>488</v>
+        <v>322</v>
       </c>
       <c r="E176" t="s">
-        <v>487</v>
+        <v>321</v>
       </c>
       <c r="K176" t="n">
-        <v>400.0</v>
+        <v>300.0</v>
       </c>
       <c r="O176" t="s">
-        <v>490</v>
+        <v>324</v>
       </c>
       <c r="U176" t="n">
         <v>0.0</v>
@@ -8158,19 +7669,19 @@
     </row>
     <row r="177">
       <c r="C177" t="s">
-        <v>485</v>
+        <v>319</v>
       </c>
       <c r="D177" t="s">
-        <v>484</v>
+        <v>318</v>
       </c>
       <c r="E177" t="s">
-        <v>468</v>
+        <v>317</v>
       </c>
       <c r="K177" t="n">
-        <v>300.0</v>
+        <v>44875.0</v>
       </c>
       <c r="O177" t="s">
-        <v>486</v>
+        <v>320</v>
       </c>
       <c r="U177" t="n">
         <v>0.0</v>
@@ -8178,19 +7689,19 @@
     </row>
     <row r="178">
       <c r="C178" t="s">
-        <v>482</v>
+        <v>315</v>
       </c>
       <c r="D178" t="s">
-        <v>481</v>
+        <v>314</v>
       </c>
       <c r="E178" t="s">
-        <v>480</v>
+        <v>313</v>
       </c>
       <c r="K178" t="n">
-        <v>300.0</v>
+        <v>150.0</v>
       </c>
       <c r="O178" t="s">
-        <v>483</v>
+        <v>316</v>
       </c>
       <c r="U178" t="n">
         <v>0.0</v>
@@ -8198,19 +7709,19 @@
     </row>
     <row r="179">
       <c r="C179" t="s">
-        <v>478</v>
+        <v>312</v>
       </c>
       <c r="D179" t="s">
-        <v>477</v>
+        <v>311</v>
       </c>
       <c r="E179" t="s">
-        <v>476</v>
+        <v>289</v>
       </c>
       <c r="K179" t="n">
-        <v>300.0</v>
+        <v>150.0</v>
       </c>
       <c r="O179" t="s">
-        <v>479</v>
+        <v>289</v>
       </c>
       <c r="U179" t="n">
         <v>0.0</v>
@@ -8218,19 +7729,19 @@
     </row>
     <row r="180">
       <c r="C180" t="s">
-        <v>474</v>
+        <v>309</v>
       </c>
       <c r="D180" t="s">
-        <v>473</v>
+        <v>308</v>
       </c>
       <c r="E180" t="s">
-        <v>472</v>
+        <v>307</v>
       </c>
       <c r="K180" t="n">
-        <v>6750.0</v>
+        <v>4950.0</v>
       </c>
       <c r="O180" t="s">
-        <v>475</v>
+        <v>310</v>
       </c>
       <c r="U180" t="n">
         <v>0.0</v>
@@ -8238,19 +7749,19 @@
     </row>
     <row r="181">
       <c r="C181" t="s">
-        <v>470</v>
+        <v>305</v>
       </c>
       <c r="D181" t="s">
-        <v>469</v>
+        <v>304</v>
       </c>
       <c r="E181" t="s">
-        <v>468</v>
+        <v>303</v>
       </c>
       <c r="K181" t="n">
-        <v>600.0</v>
+        <v>3000.0</v>
       </c>
       <c r="O181" t="s">
-        <v>471</v>
+        <v>306</v>
       </c>
       <c r="U181" t="n">
         <v>0.0</v>
@@ -8258,19 +7769,19 @@
     </row>
     <row r="182">
       <c r="C182" t="s">
-        <v>466</v>
+        <v>301</v>
       </c>
       <c r="D182" t="s">
-        <v>465</v>
+        <v>300</v>
       </c>
       <c r="E182" t="s">
-        <v>464</v>
+        <v>299</v>
       </c>
       <c r="K182" t="n">
         <v>150.0</v>
       </c>
       <c r="O182" t="s">
-        <v>467</v>
+        <v>302</v>
       </c>
       <c r="U182" t="n">
         <v>0.0</v>
@@ -8278,19 +7789,19 @@
     </row>
     <row r="183">
       <c r="C183" t="s">
-        <v>462</v>
+        <v>297</v>
       </c>
       <c r="D183" t="s">
-        <v>461</v>
+        <v>296</v>
       </c>
       <c r="E183" t="s">
-        <v>460</v>
+        <v>295</v>
       </c>
       <c r="K183" t="n">
         <v>150.0</v>
       </c>
       <c r="O183" t="s">
-        <v>463</v>
+        <v>298</v>
       </c>
       <c r="U183" t="n">
         <v>0.0</v>
@@ -8298,19 +7809,19 @@
     </row>
     <row r="184">
       <c r="C184" t="s">
-        <v>458</v>
+        <v>294</v>
       </c>
       <c r="D184" t="s">
-        <v>457</v>
+        <v>293</v>
       </c>
       <c r="E184" t="s">
-        <v>456</v>
+        <v>292</v>
       </c>
       <c r="K184" t="n">
-        <v>392625.0</v>
+        <v>1038000.0</v>
       </c>
       <c r="O184" t="s">
-        <v>459</v>
+        <v>292</v>
       </c>
       <c r="U184" t="n">
         <v>0.0</v>
@@ -8318,19 +7829,19 @@
     </row>
     <row r="185">
       <c r="C185" t="s">
-        <v>454</v>
+        <v>291</v>
       </c>
       <c r="D185" t="s">
-        <v>453</v>
+        <v>290</v>
       </c>
       <c r="E185" t="s">
-        <v>452</v>
+        <v>289</v>
       </c>
       <c r="K185" t="n">
-        <v>150.0</v>
+        <v>200.0</v>
       </c>
       <c r="O185" t="s">
-        <v>455</v>
+        <v>289</v>
       </c>
       <c r="U185" t="n">
         <v>0.0</v>
@@ -8338,19 +7849,19 @@
     </row>
     <row r="186">
       <c r="C186" t="s">
-        <v>450</v>
+        <v>287</v>
       </c>
       <c r="D186" t="s">
-        <v>449</v>
+        <v>286</v>
       </c>
       <c r="E186" t="s">
-        <v>448</v>
+        <v>285</v>
       </c>
       <c r="K186" t="n">
-        <v>750.0</v>
+        <v>150.0</v>
       </c>
       <c r="O186" t="s">
-        <v>451</v>
+        <v>288</v>
       </c>
       <c r="U186" t="n">
         <v>0.0</v>
@@ -8358,19 +7869,19 @@
     </row>
     <row r="187">
       <c r="C187" t="s">
-        <v>446</v>
+        <v>283</v>
       </c>
       <c r="D187" t="s">
-        <v>445</v>
+        <v>282</v>
       </c>
       <c r="E187" t="s">
-        <v>444</v>
+        <v>281</v>
       </c>
       <c r="K187" t="n">
-        <v>15000.0</v>
+        <v>125.0</v>
       </c>
       <c r="O187" t="s">
-        <v>447</v>
+        <v>284</v>
       </c>
       <c r="U187" t="n">
         <v>0.0</v>
@@ -8378,19 +7889,19 @@
     </row>
     <row r="188">
       <c r="C188" t="s">
-        <v>442</v>
+        <v>279</v>
       </c>
       <c r="D188" t="s">
-        <v>441</v>
+        <v>278</v>
       </c>
       <c r="E188" t="s">
-        <v>440</v>
+        <v>277</v>
       </c>
       <c r="K188" t="n">
-        <v>14400.0</v>
+        <v>18800.0</v>
       </c>
       <c r="O188" t="s">
-        <v>443</v>
+        <v>280</v>
       </c>
       <c r="U188" t="n">
         <v>0.0</v>
@@ -8398,19 +7909,19 @@
     </row>
     <row r="189">
       <c r="C189" t="s">
-        <v>438</v>
+        <v>275</v>
       </c>
       <c r="D189" t="s">
-        <v>437</v>
+        <v>274</v>
       </c>
       <c r="E189" t="s">
-        <v>436</v>
+        <v>273</v>
       </c>
       <c r="K189" t="n">
-        <v>200.0</v>
+        <v>13875.0</v>
       </c>
       <c r="O189" t="s">
-        <v>439</v>
+        <v>276</v>
       </c>
       <c r="U189" t="n">
         <v>0.0</v>
@@ -8418,19 +7929,19 @@
     </row>
     <row r="190">
       <c r="C190" t="s">
-        <v>434</v>
+        <v>271</v>
       </c>
       <c r="D190" t="s">
-        <v>433</v>
+        <v>270</v>
       </c>
       <c r="E190" t="s">
-        <v>432</v>
+        <v>269</v>
       </c>
       <c r="K190" t="n">
-        <v>150.0</v>
+        <v>72875.0</v>
       </c>
       <c r="O190" t="s">
-        <v>435</v>
+        <v>272</v>
       </c>
       <c r="U190" t="n">
         <v>0.0</v>
@@ -8438,19 +7949,19 @@
     </row>
     <row r="191">
       <c r="C191" t="s">
-        <v>430</v>
+        <v>267</v>
       </c>
       <c r="D191" t="s">
-        <v>429</v>
+        <v>266</v>
       </c>
       <c r="E191" t="s">
-        <v>428</v>
+        <v>265</v>
       </c>
       <c r="K191" t="n">
-        <v>2500.0</v>
+        <v>1750.0</v>
       </c>
       <c r="O191" t="s">
-        <v>431</v>
+        <v>268</v>
       </c>
       <c r="U191" t="n">
         <v>0.0</v>
@@ -8458,19 +7969,19 @@
     </row>
     <row r="192">
       <c r="C192" t="s">
-        <v>426</v>
+        <v>263</v>
       </c>
       <c r="D192" t="s">
-        <v>425</v>
+        <v>262</v>
       </c>
       <c r="E192" t="s">
-        <v>424</v>
+        <v>261</v>
       </c>
       <c r="K192" t="n">
-        <v>200.0</v>
+        <v>3000.0</v>
       </c>
       <c r="O192" t="s">
-        <v>427</v>
+        <v>264</v>
       </c>
       <c r="U192" t="n">
         <v>0.0</v>
@@ -8478,19 +7989,19 @@
     </row>
     <row r="193">
       <c r="C193" t="s">
-        <v>423</v>
+        <v>259</v>
       </c>
       <c r="D193" t="s">
-        <v>422</v>
+        <v>258</v>
       </c>
       <c r="E193" t="s">
-        <v>396</v>
+        <v>257</v>
       </c>
       <c r="K193" t="n">
-        <v>9600.0</v>
+        <v>2500.0</v>
       </c>
       <c r="O193" t="s">
-        <v>399</v>
+        <v>260</v>
       </c>
       <c r="U193" t="n">
         <v>0.0</v>
@@ -8498,19 +8009,19 @@
     </row>
     <row r="194">
       <c r="C194" t="s">
-        <v>420</v>
+        <v>255</v>
       </c>
       <c r="D194" t="s">
-        <v>419</v>
+        <v>254</v>
       </c>
       <c r="E194" t="s">
-        <v>418</v>
+        <v>253</v>
       </c>
       <c r="K194" t="n">
-        <v>116400.0</v>
+        <v>150.0</v>
       </c>
       <c r="O194" t="s">
-        <v>421</v>
+        <v>256</v>
       </c>
       <c r="U194" t="n">
         <v>0.0</v>
@@ -8518,19 +8029,19 @@
     </row>
     <row r="195">
       <c r="C195" t="s">
-        <v>416</v>
+        <v>251</v>
       </c>
       <c r="D195" t="s">
-        <v>415</v>
+        <v>250</v>
       </c>
       <c r="E195" t="s">
-        <v>414</v>
+        <v>249</v>
       </c>
       <c r="K195" t="n">
-        <v>300.0</v>
+        <v>34375.0</v>
       </c>
       <c r="O195" t="s">
-        <v>417</v>
+        <v>252</v>
       </c>
       <c r="U195" t="n">
         <v>0.0</v>
@@ -8538,19 +8049,19 @@
     </row>
     <row r="196">
       <c r="C196" t="s">
-        <v>412</v>
+        <v>247</v>
       </c>
       <c r="D196" t="s">
-        <v>411</v>
+        <v>246</v>
       </c>
       <c r="E196" t="s">
-        <v>410</v>
+        <v>245</v>
       </c>
       <c r="K196" t="n">
-        <v>600.0</v>
+        <v>1250.0</v>
       </c>
       <c r="O196" t="s">
-        <v>413</v>
+        <v>248</v>
       </c>
       <c r="U196" t="n">
         <v>0.0</v>
@@ -8558,19 +8069,19 @@
     </row>
     <row r="197">
       <c r="C197" t="s">
-        <v>409</v>
+        <v>243</v>
       </c>
       <c r="D197" t="s">
-        <v>408</v>
+        <v>242</v>
       </c>
       <c r="E197" t="s">
-        <v>396</v>
+        <v>241</v>
       </c>
       <c r="K197" t="n">
-        <v>1050.0</v>
+        <v>1350.0</v>
       </c>
       <c r="O197" t="s">
-        <v>399</v>
+        <v>244</v>
       </c>
       <c r="U197" t="n">
         <v>0.0</v>
@@ -8578,19 +8089,19 @@
     </row>
     <row r="198">
       <c r="C198" t="s">
-        <v>406</v>
+        <v>239</v>
       </c>
       <c r="D198" t="s">
-        <v>405</v>
+        <v>238</v>
       </c>
       <c r="E198" t="s">
-        <v>404</v>
+        <v>237</v>
       </c>
       <c r="K198" t="n">
-        <v>200.0</v>
+        <v>14375.0</v>
       </c>
       <c r="O198" t="s">
-        <v>407</v>
+        <v>240</v>
       </c>
       <c r="U198" t="n">
         <v>0.0</v>
@@ -8598,19 +8109,19 @@
     </row>
     <row r="199">
       <c r="C199" t="s">
-        <v>402</v>
+        <v>235</v>
       </c>
       <c r="D199" t="s">
-        <v>401</v>
+        <v>234</v>
       </c>
       <c r="E199" t="s">
-        <v>400</v>
+        <v>233</v>
       </c>
       <c r="K199" t="n">
-        <v>10950.0</v>
+        <v>2750.0</v>
       </c>
       <c r="O199" t="s">
-        <v>403</v>
+        <v>236</v>
       </c>
       <c r="U199" t="n">
         <v>0.0</v>
@@ -8618,19 +8129,19 @@
     </row>
     <row r="200">
       <c r="C200" t="s">
-        <v>398</v>
+        <v>231</v>
       </c>
       <c r="D200" t="s">
-        <v>397</v>
+        <v>230</v>
       </c>
       <c r="E200" t="s">
-        <v>396</v>
+        <v>229</v>
       </c>
       <c r="K200" t="n">
-        <v>2100.0</v>
+        <v>82125.0</v>
       </c>
       <c r="O200" t="s">
-        <v>399</v>
+        <v>232</v>
       </c>
       <c r="U200" t="n">
         <v>0.0</v>
@@ -8638,19 +8149,19 @@
     </row>
     <row r="201">
       <c r="C201" t="s">
-        <v>395</v>
+        <v>228</v>
       </c>
       <c r="D201" t="s">
-        <v>394</v>
+        <v>227</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>226</v>
       </c>
       <c r="K201" t="n">
-        <v>150.0</v>
+        <v>21000.0</v>
       </c>
       <c r="O201" t="s">
-        <v>393</v>
+        <v>103</v>
       </c>
       <c r="U201" t="n">
         <v>0.0</v>
@@ -8658,19 +8169,19 @@
     </row>
     <row r="202">
       <c r="C202" t="s">
-        <v>391</v>
+        <v>224</v>
       </c>
       <c r="D202" t="s">
-        <v>390</v>
+        <v>223</v>
       </c>
       <c r="E202" t="s">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="K202" t="n">
-        <v>3200.0</v>
+        <v>150.0</v>
       </c>
       <c r="O202" t="s">
-        <v>392</v>
+        <v>225</v>
       </c>
       <c r="U202" t="n">
         <v>0.0</v>
@@ -8678,19 +8189,19 @@
     </row>
     <row r="203">
       <c r="C203" t="s">
-        <v>387</v>
+        <v>220</v>
       </c>
       <c r="D203" t="s">
-        <v>386</v>
+        <v>219</v>
       </c>
       <c r="E203" t="s">
-        <v>385</v>
+        <v>218</v>
       </c>
       <c r="K203" t="n">
-        <v>24500.0</v>
+        <v>150.0</v>
       </c>
       <c r="O203" t="s">
-        <v>388</v>
+        <v>221</v>
       </c>
       <c r="U203" t="n">
         <v>0.0</v>
@@ -8698,19 +8209,19 @@
     </row>
     <row r="204">
       <c r="C204" t="s">
-        <v>383</v>
+        <v>216</v>
       </c>
       <c r="D204" t="s">
-        <v>382</v>
+        <v>215</v>
       </c>
       <c r="E204" t="s">
-        <v>381</v>
+        <v>214</v>
       </c>
       <c r="K204" t="n">
-        <v>375.0</v>
+        <v>2750.0</v>
       </c>
       <c r="O204" t="s">
-        <v>384</v>
+        <v>217</v>
       </c>
       <c r="U204" t="n">
         <v>0.0</v>
@@ -8718,19 +8229,19 @@
     </row>
     <row r="205">
       <c r="C205" t="s">
-        <v>379</v>
+        <v>212</v>
       </c>
       <c r="D205" t="s">
-        <v>378</v>
+        <v>211</v>
       </c>
       <c r="E205" t="s">
-        <v>377</v>
+        <v>210</v>
       </c>
       <c r="K205" t="n">
-        <v>300.0</v>
+        <v>375.0</v>
       </c>
       <c r="O205" t="s">
-        <v>380</v>
+        <v>213</v>
       </c>
       <c r="U205" t="n">
         <v>0.0</v>
@@ -8738,19 +8249,19 @@
     </row>
     <row r="206">
       <c r="C206" t="s">
-        <v>375</v>
+        <v>208</v>
       </c>
       <c r="D206" t="s">
-        <v>374</v>
+        <v>207</v>
       </c>
       <c r="E206" t="s">
-        <v>373</v>
+        <v>206</v>
       </c>
       <c r="K206" t="n">
-        <v>1800.0</v>
+        <v>150.0</v>
       </c>
       <c r="O206" t="s">
-        <v>376</v>
+        <v>209</v>
       </c>
       <c r="U206" t="n">
         <v>0.0</v>
@@ -8758,19 +8269,19 @@
     </row>
     <row r="207">
       <c r="C207" t="s">
-        <v>371</v>
+        <v>204</v>
       </c>
       <c r="D207" t="s">
-        <v>370</v>
+        <v>203</v>
       </c>
       <c r="E207" t="s">
-        <v>369</v>
+        <v>202</v>
       </c>
       <c r="K207" t="n">
-        <v>2000.0</v>
+        <v>200.0</v>
       </c>
       <c r="O207" t="s">
-        <v>372</v>
+        <v>205</v>
       </c>
       <c r="U207" t="n">
         <v>0.0</v>
@@ -8778,19 +8289,19 @@
     </row>
     <row r="208">
       <c r="C208" t="s">
-        <v>367</v>
+        <v>200</v>
       </c>
       <c r="D208" t="s">
-        <v>366</v>
+        <v>199</v>
       </c>
       <c r="E208" t="s">
-        <v>365</v>
+        <v>198</v>
       </c>
       <c r="K208" t="n">
-        <v>140125.0</v>
+        <v>79750.0</v>
       </c>
       <c r="O208" t="s">
-        <v>368</v>
+        <v>201</v>
       </c>
       <c r="U208" t="n">
         <v>0.0</v>
@@ -8798,19 +8309,19 @@
     </row>
     <row r="209">
       <c r="C209" t="s">
-        <v>363</v>
+        <v>196</v>
       </c>
       <c r="D209" t="s">
-        <v>362</v>
+        <v>195</v>
       </c>
       <c r="E209" t="s">
-        <v>361</v>
+        <v>194</v>
       </c>
       <c r="K209" t="n">
-        <v>1200.0</v>
+        <v>800.0</v>
       </c>
       <c r="O209" t="s">
-        <v>364</v>
+        <v>197</v>
       </c>
       <c r="U209" t="n">
         <v>0.0</v>
@@ -8818,19 +8329,19 @@
     </row>
     <row r="210">
       <c r="C210" t="s">
-        <v>359</v>
+        <v>193</v>
       </c>
       <c r="D210" t="s">
-        <v>358</v>
+        <v>192</v>
       </c>
       <c r="E210" t="s">
-        <v>357</v>
+        <v>191</v>
       </c>
       <c r="K210" t="n">
-        <v>375.0</v>
+        <v>20500.0</v>
       </c>
       <c r="O210" t="s">
-        <v>360</v>
+        <v>182</v>
       </c>
       <c r="U210" t="n">
         <v>0.0</v>
@@ -8838,19 +8349,19 @@
     </row>
     <row r="211">
       <c r="C211" t="s">
-        <v>355</v>
+        <v>190</v>
       </c>
       <c r="D211" t="s">
-        <v>354</v>
+        <v>189</v>
       </c>
       <c r="E211" t="s">
-        <v>353</v>
+        <v>167</v>
       </c>
       <c r="K211" t="n">
-        <v>81125.0</v>
+        <v>1600.0</v>
       </c>
       <c r="O211" t="s">
-        <v>356</v>
+        <v>170</v>
       </c>
       <c r="U211" t="n">
         <v>0.0</v>
@@ -8858,19 +8369,19 @@
     </row>
     <row r="212">
       <c r="C212" t="s">
-        <v>351</v>
+        <v>188</v>
       </c>
       <c r="D212" t="s">
-        <v>350</v>
+        <v>187</v>
       </c>
       <c r="E212" t="s">
-        <v>349</v>
+        <v>88</v>
       </c>
       <c r="K212" t="n">
-        <v>1800.0</v>
+        <v>1125.0</v>
       </c>
       <c r="O212" t="s">
-        <v>352</v>
+        <v>91</v>
       </c>
       <c r="U212" t="n">
         <v>0.0</v>
@@ -8878,19 +8389,19 @@
     </row>
     <row r="213">
       <c r="C213" t="s">
-        <v>347</v>
+        <v>185</v>
       </c>
       <c r="D213" t="s">
-        <v>346</v>
+        <v>184</v>
       </c>
       <c r="E213" t="s">
-        <v>345</v>
+        <v>183</v>
       </c>
       <c r="K213" t="n">
-        <v>900.0</v>
+        <v>6500.0</v>
       </c>
       <c r="O213" t="s">
-        <v>348</v>
+        <v>186</v>
       </c>
       <c r="U213" t="n">
         <v>0.0</v>
@@ -8898,19 +8409,19 @@
     </row>
     <row r="214">
       <c r="C214" t="s">
-        <v>344</v>
+        <v>181</v>
       </c>
       <c r="D214" t="s">
-        <v>343</v>
+        <v>180</v>
       </c>
       <c r="E214" t="s">
-        <v>330</v>
+        <v>179</v>
       </c>
       <c r="K214" t="n">
-        <v>400.0</v>
+        <v>94750.0</v>
       </c>
       <c r="O214" t="s">
-        <v>333</v>
+        <v>182</v>
       </c>
       <c r="U214" t="n">
         <v>0.0</v>
@@ -8918,19 +8429,19 @@
     </row>
     <row r="215">
       <c r="C215" t="s">
-        <v>341</v>
+        <v>177</v>
       </c>
       <c r="D215" t="s">
-        <v>340</v>
+        <v>176</v>
       </c>
       <c r="E215" t="s">
-        <v>339</v>
+        <v>175</v>
       </c>
       <c r="K215" t="n">
-        <v>9250.0</v>
+        <v>875.0</v>
       </c>
       <c r="O215" t="s">
-        <v>342</v>
+        <v>178</v>
       </c>
       <c r="U215" t="n">
         <v>0.0</v>
@@ -8938,19 +8449,19 @@
     </row>
     <row r="216">
       <c r="C216" t="s">
-        <v>338</v>
+        <v>173</v>
       </c>
       <c r="D216" t="s">
-        <v>337</v>
+        <v>172</v>
       </c>
       <c r="E216" t="s">
-        <v>336</v>
+        <v>171</v>
       </c>
       <c r="K216" t="n">
-        <v>1000.0</v>
+        <v>1125.0</v>
       </c>
       <c r="O216" t="s">
-        <v>324</v>
+        <v>174</v>
       </c>
       <c r="U216" t="n">
         <v>0.0</v>
@@ -8958,19 +8469,19 @@
     </row>
     <row r="217">
       <c r="C217" t="s">
-        <v>335</v>
+        <v>169</v>
       </c>
       <c r="D217" t="s">
-        <v>334</v>
+        <v>168</v>
       </c>
       <c r="E217" t="s">
-        <v>289</v>
+        <v>167</v>
       </c>
       <c r="K217" t="n">
-        <v>3150.0</v>
+        <v>11875.0</v>
       </c>
       <c r="O217" t="s">
-        <v>289</v>
+        <v>170</v>
       </c>
       <c r="U217" t="n">
         <v>0.0</v>
@@ -8978,19 +8489,19 @@
     </row>
     <row r="218">
       <c r="C218" t="s">
-        <v>332</v>
+        <v>165</v>
       </c>
       <c r="D218" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="E218" t="s">
-        <v>330</v>
+        <v>163</v>
       </c>
       <c r="K218" t="n">
-        <v>11400.0</v>
+        <v>200.0</v>
       </c>
       <c r="O218" t="s">
-        <v>333</v>
+        <v>166</v>
       </c>
       <c r="U218" t="n">
         <v>0.0</v>
@@ -8998,19 +8509,19 @@
     </row>
     <row r="219">
       <c r="C219" t="s">
-        <v>328</v>
+        <v>161</v>
       </c>
       <c r="D219" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="E219" t="s">
-        <v>285</v>
+        <v>159</v>
       </c>
       <c r="K219" t="n">
-        <v>300.0</v>
+        <v>1050.0</v>
       </c>
       <c r="O219" t="s">
-        <v>329</v>
+        <v>162</v>
       </c>
       <c r="U219" t="n">
         <v>0.0</v>
@@ -9018,19 +8529,19 @@
     </row>
     <row r="220">
       <c r="C220" t="s">
-        <v>326</v>
+        <v>157</v>
       </c>
       <c r="D220" t="s">
-        <v>325</v>
+        <v>156</v>
       </c>
       <c r="E220" t="s">
-        <v>289</v>
+        <v>155</v>
       </c>
       <c r="K220" t="n">
-        <v>200.0</v>
+        <v>6375.0</v>
       </c>
       <c r="O220" t="s">
-        <v>289</v>
+        <v>158</v>
       </c>
       <c r="U220" t="n">
         <v>0.0</v>
@@ -9038,19 +8549,19 @@
     </row>
     <row r="221">
       <c r="C221" t="s">
-        <v>323</v>
+        <v>154</v>
       </c>
       <c r="D221" t="s">
-        <v>322</v>
+        <v>153</v>
       </c>
       <c r="E221" t="s">
-        <v>321</v>
+        <v>152</v>
       </c>
       <c r="K221" t="n">
-        <v>300.0</v>
+        <v>378375.0</v>
       </c>
       <c r="O221" t="s">
-        <v>324</v>
+        <v>113</v>
       </c>
       <c r="U221" t="n">
         <v>0.0</v>
@@ -9058,19 +8569,19 @@
     </row>
     <row r="222">
       <c r="C222" t="s">
-        <v>319</v>
+        <v>151</v>
       </c>
       <c r="D222" t="s">
-        <v>318</v>
+        <v>150</v>
       </c>
       <c r="E222" t="s">
-        <v>317</v>
+        <v>92</v>
       </c>
       <c r="K222" t="n">
-        <v>44875.0</v>
+        <v>8250.0</v>
       </c>
       <c r="O222" t="s">
-        <v>320</v>
+        <v>95</v>
       </c>
       <c r="U222" t="n">
         <v>0.0</v>
@@ -9078,19 +8589,19 @@
     </row>
     <row r="223">
       <c r="C223" t="s">
-        <v>315</v>
+        <v>148</v>
       </c>
       <c r="D223" t="s">
-        <v>314</v>
+        <v>147</v>
       </c>
       <c r="E223" t="s">
-        <v>313</v>
+        <v>146</v>
       </c>
       <c r="K223" t="n">
-        <v>150.0</v>
+        <v>1000.0</v>
       </c>
       <c r="O223" t="s">
-        <v>316</v>
+        <v>149</v>
       </c>
       <c r="U223" t="n">
         <v>0.0</v>
@@ -9098,19 +8609,19 @@
     </row>
     <row r="224">
       <c r="C224" t="s">
-        <v>312</v>
+        <v>144</v>
       </c>
       <c r="D224" t="s">
-        <v>311</v>
+        <v>143</v>
       </c>
       <c r="E224" t="s">
-        <v>289</v>
+        <v>142</v>
       </c>
       <c r="K224" t="n">
-        <v>150.0</v>
+        <v>68000.0</v>
       </c>
       <c r="O224" t="s">
-        <v>289</v>
+        <v>145</v>
       </c>
       <c r="U224" t="n">
         <v>0.0</v>
@@ -9118,19 +8629,19 @@
     </row>
     <row r="225">
       <c r="C225" t="s">
-        <v>309</v>
+        <v>140</v>
       </c>
       <c r="D225" t="s">
-        <v>308</v>
+        <v>139</v>
       </c>
       <c r="E225" t="s">
-        <v>307</v>
+        <v>138</v>
       </c>
       <c r="K225" t="n">
-        <v>4950.0</v>
+        <v>2625.0</v>
       </c>
       <c r="O225" t="s">
-        <v>310</v>
+        <v>141</v>
       </c>
       <c r="U225" t="n">
         <v>0.0</v>
@@ -9138,19 +8649,19 @@
     </row>
     <row r="226">
       <c r="C226" t="s">
-        <v>305</v>
+        <v>136</v>
       </c>
       <c r="D226" t="s">
-        <v>304</v>
+        <v>135</v>
       </c>
       <c r="E226" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="K226" t="n">
-        <v>3000.0</v>
+        <v>300.0</v>
       </c>
       <c r="O226" t="s">
-        <v>306</v>
+        <v>137</v>
       </c>
       <c r="U226" t="n">
         <v>0.0</v>
@@ -9158,19 +8669,19 @@
     </row>
     <row r="227">
       <c r="C227" t="s">
-        <v>301</v>
+        <v>132</v>
       </c>
       <c r="D227" t="s">
-        <v>300</v>
+        <v>131</v>
       </c>
       <c r="E227" t="s">
-        <v>299</v>
+        <v>130</v>
       </c>
       <c r="K227" t="n">
-        <v>150.0</v>
+        <v>1250.0</v>
       </c>
       <c r="O227" t="s">
-        <v>302</v>
+        <v>133</v>
       </c>
       <c r="U227" t="n">
         <v>0.0</v>
@@ -9178,19 +8689,19 @@
     </row>
     <row r="228">
       <c r="C228" t="s">
-        <v>297</v>
+        <v>128</v>
       </c>
       <c r="D228" t="s">
-        <v>296</v>
+        <v>127</v>
       </c>
       <c r="E228" t="s">
-        <v>295</v>
+        <v>126</v>
       </c>
       <c r="K228" t="n">
-        <v>150.0</v>
+        <v>2800.0</v>
       </c>
       <c r="O228" t="s">
-        <v>298</v>
+        <v>129</v>
       </c>
       <c r="U228" t="n">
         <v>0.0</v>
@@ -9198,19 +8709,19 @@
     </row>
     <row r="229">
       <c r="C229" t="s">
-        <v>294</v>
+        <v>124</v>
       </c>
       <c r="D229" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
       <c r="E229" t="s">
-        <v>292</v>
+        <v>122</v>
       </c>
       <c r="K229" t="n">
-        <v>1038000.0</v>
+        <v>186250.0</v>
       </c>
       <c r="O229" t="s">
-        <v>292</v>
+        <v>125</v>
       </c>
       <c r="U229" t="n">
         <v>0.0</v>
@@ -9218,19 +8729,19 @@
     </row>
     <row r="230">
       <c r="C230" t="s">
-        <v>291</v>
+        <v>120</v>
       </c>
       <c r="D230" t="s">
-        <v>290</v>
+        <v>119</v>
       </c>
       <c r="E230" t="s">
-        <v>289</v>
+        <v>118</v>
       </c>
       <c r="K230" t="n">
-        <v>200.0</v>
+        <v>3125.0</v>
       </c>
       <c r="O230" t="s">
-        <v>289</v>
+        <v>121</v>
       </c>
       <c r="U230" t="n">
         <v>0.0</v>
@@ -9238,19 +8749,19 @@
     </row>
     <row r="231">
       <c r="C231" t="s">
-        <v>287</v>
+        <v>116</v>
       </c>
       <c r="D231" t="s">
-        <v>286</v>
+        <v>115</v>
       </c>
       <c r="E231" t="s">
-        <v>285</v>
+        <v>114</v>
       </c>
       <c r="K231" t="n">
-        <v>150.0</v>
+        <v>200.0</v>
       </c>
       <c r="O231" t="s">
-        <v>288</v>
+        <v>117</v>
       </c>
       <c r="U231" t="n">
         <v>0.0</v>
@@ -9258,19 +8769,19 @@
     </row>
     <row r="232">
       <c r="C232" t="s">
-        <v>283</v>
+        <v>112</v>
       </c>
       <c r="D232" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
       <c r="E232" t="s">
-        <v>281</v>
+        <v>110</v>
       </c>
       <c r="K232" t="n">
-        <v>125.0</v>
+        <v>2125.0</v>
       </c>
       <c r="O232" t="s">
-        <v>284</v>
+        <v>113</v>
       </c>
       <c r="U232" t="n">
         <v>0.0</v>
@@ -9278,19 +8789,19 @@
     </row>
     <row r="233">
       <c r="C233" t="s">
-        <v>279</v>
+        <v>108</v>
       </c>
       <c r="D233" t="s">
-        <v>278</v>
+        <v>107</v>
       </c>
       <c r="E233" t="s">
-        <v>277</v>
+        <v>106</v>
       </c>
       <c r="K233" t="n">
-        <v>18800.0</v>
+        <v>10500.0</v>
       </c>
       <c r="O233" t="s">
-        <v>280</v>
+        <v>109</v>
       </c>
       <c r="U233" t="n">
         <v>0.0</v>
@@ -9298,19 +8809,19 @@
     </row>
     <row r="234">
       <c r="C234" t="s">
-        <v>275</v>
+        <v>105</v>
       </c>
       <c r="D234" t="s">
-        <v>274</v>
+        <v>104</v>
       </c>
       <c r="E234" t="s">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="K234" t="n">
-        <v>13875.0</v>
+        <v>1050.0</v>
       </c>
       <c r="O234" t="s">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="U234" t="n">
         <v>0.0</v>
@@ -9318,19 +8829,19 @@
     </row>
     <row r="235">
       <c r="C235" t="s">
-        <v>271</v>
+        <v>102</v>
       </c>
       <c r="D235" t="s">
-        <v>270</v>
+        <v>101</v>
       </c>
       <c r="E235" t="s">
-        <v>269</v>
+        <v>100</v>
       </c>
       <c r="K235" t="n">
-        <v>72875.0</v>
+        <v>73500.0</v>
       </c>
       <c r="O235" t="s">
-        <v>272</v>
+        <v>103</v>
       </c>
       <c r="U235" t="n">
         <v>0.0</v>
@@ -9338,19 +8849,19 @@
     </row>
     <row r="236">
       <c r="C236" t="s">
-        <v>267</v>
+        <v>98</v>
       </c>
       <c r="D236" t="s">
-        <v>266</v>
+        <v>97</v>
       </c>
       <c r="E236" t="s">
-        <v>265</v>
+        <v>96</v>
       </c>
       <c r="K236" t="n">
-        <v>1750.0</v>
+        <v>50375.0</v>
       </c>
       <c r="O236" t="s">
-        <v>268</v>
+        <v>99</v>
       </c>
       <c r="U236" t="n">
         <v>0.0</v>
@@ -9358,19 +8869,19 @@
     </row>
     <row r="237">
       <c r="C237" t="s">
-        <v>263</v>
+        <v>94</v>
       </c>
       <c r="D237" t="s">
-        <v>262</v>
+        <v>93</v>
       </c>
       <c r="E237" t="s">
-        <v>261</v>
+        <v>92</v>
       </c>
       <c r="K237" t="n">
-        <v>3000.0</v>
+        <v>450.0</v>
       </c>
       <c r="O237" t="s">
-        <v>264</v>
+        <v>95</v>
       </c>
       <c r="U237" t="n">
         <v>0.0</v>
@@ -9378,19 +8889,19 @@
     </row>
     <row r="238">
       <c r="C238" t="s">
-        <v>259</v>
+        <v>90</v>
       </c>
       <c r="D238" t="s">
-        <v>258</v>
+        <v>89</v>
       </c>
       <c r="E238" t="s">
-        <v>257</v>
+        <v>88</v>
       </c>
       <c r="K238" t="n">
-        <v>2500.0</v>
+        <v>18125.0</v>
       </c>
       <c r="O238" t="s">
-        <v>260</v>
+        <v>91</v>
       </c>
       <c r="U238" t="n">
         <v>0.0</v>
@@ -9398,19 +8909,19 @@
     </row>
     <row r="239">
       <c r="C239" t="s">
-        <v>255</v>
+        <v>86</v>
       </c>
       <c r="D239" t="s">
-        <v>254</v>
+        <v>85</v>
       </c>
       <c r="E239" t="s">
-        <v>253</v>
+        <v>84</v>
       </c>
       <c r="K239" t="n">
-        <v>150.0</v>
+        <v>750.0</v>
       </c>
       <c r="O239" t="s">
-        <v>256</v>
+        <v>87</v>
       </c>
       <c r="U239" t="n">
         <v>0.0</v>
@@ -9418,19 +8929,19 @@
     </row>
     <row r="240">
       <c r="C240" t="s">
-        <v>251</v>
+        <v>82</v>
       </c>
       <c r="D240" t="s">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="E240" t="s">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="K240" t="n">
-        <v>34375.0</v>
+        <v>400.0</v>
       </c>
       <c r="O240" t="s">
-        <v>252</v>
+        <v>83</v>
       </c>
       <c r="U240" t="n">
         <v>0.0</v>
@@ -9438,19 +8949,19 @@
     </row>
     <row r="241">
       <c r="C241" t="s">
-        <v>247</v>
+        <v>78</v>
       </c>
       <c r="D241" t="s">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="E241" t="s">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="K241" t="n">
-        <v>1250.0</v>
+        <v>450.0</v>
       </c>
       <c r="O241" t="s">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="U241" t="n">
         <v>0.0</v>
@@ -9458,19 +8969,19 @@
     </row>
     <row r="242">
       <c r="C242" t="s">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="D242" t="s">
-        <v>242</v>
+        <v>73</v>
       </c>
       <c r="E242" t="s">
-        <v>241</v>
+        <v>72</v>
       </c>
       <c r="K242" t="n">
-        <v>1350.0</v>
+        <v>1750.0</v>
       </c>
       <c r="O242" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="U242" t="n">
         <v>0.0</v>
@@ -9478,19 +8989,19 @@
     </row>
     <row r="243">
       <c r="C243" t="s">
-        <v>239</v>
+        <v>70</v>
       </c>
       <c r="D243" t="s">
-        <v>238</v>
+        <v>69</v>
       </c>
       <c r="E243" t="s">
-        <v>237</v>
+        <v>68</v>
       </c>
       <c r="K243" t="n">
-        <v>14375.0</v>
+        <v>11750.0</v>
       </c>
       <c r="O243" t="s">
-        <v>240</v>
+        <v>71</v>
       </c>
       <c r="U243" t="n">
         <v>0.0</v>
@@ -9498,19 +9009,19 @@
     </row>
     <row r="244">
       <c r="C244" t="s">
-        <v>235</v>
+        <v>66</v>
       </c>
       <c r="D244" t="s">
-        <v>234</v>
+        <v>65</v>
       </c>
       <c r="E244" t="s">
-        <v>233</v>
+        <v>64</v>
       </c>
       <c r="K244" t="n">
-        <v>2750.0</v>
+        <v>4625.0</v>
       </c>
       <c r="O244" t="s">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="U244" t="n">
         <v>0.0</v>
@@ -9518,19 +9029,19 @@
     </row>
     <row r="245">
       <c r="C245" t="s">
-        <v>231</v>
+        <v>62</v>
       </c>
       <c r="D245" t="s">
-        <v>230</v>
+        <v>61</v>
       </c>
       <c r="E245" t="s">
-        <v>229</v>
+        <v>60</v>
       </c>
       <c r="K245" t="n">
-        <v>82125.0</v>
+        <v>4000.0</v>
       </c>
       <c r="O245" t="s">
-        <v>232</v>
+        <v>63</v>
       </c>
       <c r="U245" t="n">
         <v>0.0</v>
@@ -9538,19 +9049,19 @@
     </row>
     <row r="246">
       <c r="C246" t="s">
-        <v>228</v>
+        <v>58</v>
       </c>
       <c r="D246" t="s">
-        <v>227</v>
+        <v>57</v>
       </c>
       <c r="E246" t="s">
-        <v>226</v>
+        <v>56</v>
       </c>
       <c r="K246" t="n">
-        <v>21000.0</v>
+        <v>1250.0</v>
       </c>
       <c r="O246" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="U246" t="n">
         <v>0.0</v>
@@ -9558,1147 +9069,247 @@
     </row>
     <row r="247">
       <c r="C247" t="s">
-        <v>224</v>
+        <v>54</v>
       </c>
       <c r="D247" t="s">
-        <v>223</v>
+        <v>53</v>
       </c>
       <c r="E247" t="s">
-        <v>222</v>
+        <v>52</v>
       </c>
       <c r="K247" t="n">
-        <v>150.0</v>
+        <v>27250.0</v>
       </c>
       <c r="O247" t="s">
-        <v>225</v>
+        <v>55</v>
       </c>
       <c r="U247" t="n">
         <v>0.0</v>
       </c>
     </row>
-    <row r="248">
-      <c r="C248" t="s">
-        <v>220</v>
-      </c>
-      <c r="D248" t="s">
-        <v>219</v>
-      </c>
-      <c r="E248" t="s">
-        <v>218</v>
-      </c>
-      <c r="K248" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="O248" t="s">
-        <v>221</v>
-      </c>
-      <c r="U248" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="C249" t="s">
-        <v>216</v>
-      </c>
-      <c r="D249" t="s">
-        <v>215</v>
-      </c>
-      <c r="E249" t="s">
-        <v>214</v>
-      </c>
-      <c r="K249" t="n">
-        <v>2750.0</v>
-      </c>
-      <c r="O249" t="s">
-        <v>217</v>
-      </c>
-      <c r="U249" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="C250" t="s">
-        <v>212</v>
-      </c>
-      <c r="D250" t="s">
-        <v>211</v>
-      </c>
-      <c r="E250" t="s">
-        <v>210</v>
-      </c>
-      <c r="K250" t="n">
-        <v>375.0</v>
-      </c>
-      <c r="O250" t="s">
-        <v>213</v>
-      </c>
-      <c r="U250" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="C251" t="s">
-        <v>208</v>
-      </c>
-      <c r="D251" t="s">
-        <v>207</v>
-      </c>
-      <c r="E251" t="s">
-        <v>206</v>
-      </c>
-      <c r="K251" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="O251" t="s">
-        <v>209</v>
-      </c>
-      <c r="U251" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="C252" t="s">
-        <v>204</v>
-      </c>
-      <c r="D252" t="s">
-        <v>203</v>
-      </c>
-      <c r="E252" t="s">
-        <v>202</v>
-      </c>
-      <c r="K252" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="O252" t="s">
-        <v>205</v>
-      </c>
-      <c r="U252" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="C253" t="s">
-        <v>200</v>
-      </c>
-      <c r="D253" t="s">
-        <v>199</v>
-      </c>
-      <c r="E253" t="s">
-        <v>198</v>
-      </c>
-      <c r="K253" t="n">
-        <v>79750.0</v>
-      </c>
-      <c r="O253" t="s">
-        <v>201</v>
-      </c>
-      <c r="U253" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="C254" t="s">
-        <v>196</v>
-      </c>
-      <c r="D254" t="s">
-        <v>195</v>
-      </c>
-      <c r="E254" t="s">
-        <v>194</v>
-      </c>
-      <c r="K254" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="O254" t="s">
-        <v>197</v>
-      </c>
-      <c r="U254" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="C255" t="s">
-        <v>193</v>
-      </c>
-      <c r="D255" t="s">
-        <v>192</v>
-      </c>
-      <c r="E255" t="s">
-        <v>191</v>
-      </c>
-      <c r="K255" t="n">
-        <v>20500.0</v>
-      </c>
-      <c r="O255" t="s">
-        <v>182</v>
-      </c>
-      <c r="U255" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="C256" t="s">
-        <v>190</v>
-      </c>
-      <c r="D256" t="s">
-        <v>189</v>
-      </c>
-      <c r="E256" t="s">
-        <v>167</v>
-      </c>
-      <c r="K256" t="n">
-        <v>1600.0</v>
-      </c>
-      <c r="O256" t="s">
-        <v>170</v>
-      </c>
-      <c r="U256" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="C257" t="s">
-        <v>188</v>
-      </c>
-      <c r="D257" t="s">
-        <v>187</v>
-      </c>
-      <c r="E257" t="s">
-        <v>88</v>
-      </c>
-      <c r="K257" t="n">
-        <v>1125.0</v>
-      </c>
-      <c r="O257" t="s">
-        <v>91</v>
-      </c>
-      <c r="U257" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="C258" t="s">
-        <v>185</v>
-      </c>
-      <c r="D258" t="s">
-        <v>184</v>
-      </c>
-      <c r="E258" t="s">
-        <v>183</v>
-      </c>
-      <c r="K258" t="n">
-        <v>6500.0</v>
-      </c>
-      <c r="O258" t="s">
-        <v>186</v>
-      </c>
-      <c r="U258" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="C259" t="s">
-        <v>181</v>
-      </c>
-      <c r="D259" t="s">
-        <v>180</v>
-      </c>
-      <c r="E259" t="s">
-        <v>179</v>
-      </c>
-      <c r="K259" t="n">
-        <v>94750.0</v>
-      </c>
-      <c r="O259" t="s">
-        <v>182</v>
-      </c>
-      <c r="U259" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="C260" t="s">
-        <v>177</v>
-      </c>
-      <c r="D260" t="s">
-        <v>176</v>
-      </c>
-      <c r="E260" t="s">
-        <v>175</v>
-      </c>
-      <c r="K260" t="n">
-        <v>875.0</v>
-      </c>
-      <c r="O260" t="s">
-        <v>178</v>
-      </c>
-      <c r="U260" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="C261" t="s">
-        <v>173</v>
-      </c>
-      <c r="D261" t="s">
-        <v>172</v>
-      </c>
-      <c r="E261" t="s">
-        <v>171</v>
-      </c>
-      <c r="K261" t="n">
-        <v>1125.0</v>
-      </c>
-      <c r="O261" t="s">
-        <v>174</v>
-      </c>
-      <c r="U261" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="C262" t="s">
-        <v>169</v>
-      </c>
-      <c r="D262" t="s">
-        <v>168</v>
-      </c>
-      <c r="E262" t="s">
-        <v>167</v>
-      </c>
-      <c r="K262" t="n">
-        <v>11875.0</v>
-      </c>
-      <c r="O262" t="s">
-        <v>170</v>
-      </c>
-      <c r="U262" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="C263" t="s">
-        <v>165</v>
-      </c>
-      <c r="D263" t="s">
-        <v>164</v>
-      </c>
-      <c r="E263" t="s">
-        <v>163</v>
-      </c>
-      <c r="K263" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="O263" t="s">
-        <v>166</v>
-      </c>
-      <c r="U263" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="C264" t="s">
-        <v>161</v>
-      </c>
-      <c r="D264" t="s">
-        <v>160</v>
-      </c>
-      <c r="E264" t="s">
-        <v>159</v>
-      </c>
-      <c r="K264" t="n">
-        <v>1050.0</v>
-      </c>
-      <c r="O264" t="s">
-        <v>162</v>
-      </c>
-      <c r="U264" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="C265" t="s">
-        <v>157</v>
-      </c>
-      <c r="D265" t="s">
-        <v>156</v>
-      </c>
-      <c r="E265" t="s">
-        <v>155</v>
-      </c>
-      <c r="K265" t="n">
-        <v>6375.0</v>
-      </c>
-      <c r="O265" t="s">
-        <v>158</v>
-      </c>
-      <c r="U265" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="C266" t="s">
-        <v>154</v>
-      </c>
-      <c r="D266" t="s">
-        <v>153</v>
-      </c>
-      <c r="E266" t="s">
-        <v>152</v>
-      </c>
-      <c r="K266" t="n">
-        <v>378375.0</v>
-      </c>
-      <c r="O266" t="s">
-        <v>113</v>
-      </c>
-      <c r="U266" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="C267" t="s">
-        <v>151</v>
-      </c>
-      <c r="D267" t="s">
-        <v>150</v>
-      </c>
-      <c r="E267" t="s">
-        <v>92</v>
-      </c>
-      <c r="K267" t="n">
-        <v>8250.0</v>
-      </c>
-      <c r="O267" t="s">
-        <v>95</v>
-      </c>
-      <c r="U267" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="C268" t="s">
-        <v>148</v>
-      </c>
-      <c r="D268" t="s">
-        <v>147</v>
-      </c>
-      <c r="E268" t="s">
-        <v>146</v>
-      </c>
-      <c r="K268" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="O268" t="s">
-        <v>149</v>
-      </c>
-      <c r="U268" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="C269" t="s">
-        <v>144</v>
-      </c>
-      <c r="D269" t="s">
-        <v>143</v>
-      </c>
-      <c r="E269" t="s">
-        <v>142</v>
-      </c>
-      <c r="K269" t="n">
-        <v>68000.0</v>
-      </c>
-      <c r="O269" t="s">
-        <v>145</v>
-      </c>
-      <c r="U269" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="C270" t="s">
-        <v>140</v>
-      </c>
-      <c r="D270" t="s">
-        <v>139</v>
-      </c>
-      <c r="E270" t="s">
-        <v>138</v>
-      </c>
-      <c r="K270" t="n">
-        <v>2625.0</v>
-      </c>
-      <c r="O270" t="s">
-        <v>141</v>
-      </c>
-      <c r="U270" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="C271" t="s">
-        <v>136</v>
-      </c>
-      <c r="D271" t="s">
-        <v>135</v>
-      </c>
-      <c r="E271" t="s">
-        <v>134</v>
-      </c>
-      <c r="K271" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="O271" t="s">
-        <v>137</v>
-      </c>
-      <c r="U271" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="C272" t="s">
-        <v>132</v>
-      </c>
-      <c r="D272" t="s">
-        <v>131</v>
-      </c>
-      <c r="E272" t="s">
-        <v>130</v>
-      </c>
-      <c r="K272" t="n">
-        <v>1250.0</v>
-      </c>
-      <c r="O272" t="s">
-        <v>133</v>
-      </c>
-      <c r="U272" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="C273" t="s">
-        <v>128</v>
-      </c>
-      <c r="D273" t="s">
-        <v>127</v>
-      </c>
-      <c r="E273" t="s">
-        <v>126</v>
-      </c>
-      <c r="K273" t="n">
-        <v>2800.0</v>
-      </c>
-      <c r="O273" t="s">
-        <v>129</v>
-      </c>
-      <c r="U273" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="C274" t="s">
-        <v>124</v>
-      </c>
-      <c r="D274" t="s">
-        <v>123</v>
-      </c>
-      <c r="E274" t="s">
-        <v>122</v>
-      </c>
-      <c r="K274" t="n">
-        <v>186250.0</v>
-      </c>
-      <c r="O274" t="s">
-        <v>125</v>
-      </c>
-      <c r="U274" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="C275" t="s">
-        <v>120</v>
-      </c>
-      <c r="D275" t="s">
-        <v>119</v>
-      </c>
-      <c r="E275" t="s">
-        <v>118</v>
-      </c>
-      <c r="K275" t="n">
-        <v>3125.0</v>
-      </c>
-      <c r="O275" t="s">
-        <v>121</v>
-      </c>
-      <c r="U275" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="C276" t="s">
-        <v>116</v>
-      </c>
-      <c r="D276" t="s">
-        <v>115</v>
-      </c>
-      <c r="E276" t="s">
-        <v>114</v>
-      </c>
-      <c r="K276" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="O276" t="s">
-        <v>117</v>
-      </c>
-      <c r="U276" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="C277" t="s">
-        <v>112</v>
-      </c>
-      <c r="D277" t="s">
-        <v>111</v>
-      </c>
-      <c r="E277" t="s">
-        <v>110</v>
-      </c>
-      <c r="K277" t="n">
-        <v>2125.0</v>
-      </c>
-      <c r="O277" t="s">
-        <v>113</v>
-      </c>
-      <c r="U277" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="C278" t="s">
-        <v>108</v>
-      </c>
-      <c r="D278" t="s">
-        <v>107</v>
-      </c>
-      <c r="E278" t="s">
-        <v>106</v>
-      </c>
-      <c r="K278" t="n">
-        <v>10500.0</v>
-      </c>
-      <c r="O278" t="s">
-        <v>109</v>
-      </c>
-      <c r="U278" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="C279" t="s">
-        <v>105</v>
-      </c>
-      <c r="D279" t="s">
-        <v>104</v>
-      </c>
-      <c r="E279" t="s">
-        <v>76</v>
-      </c>
-      <c r="K279" t="n">
-        <v>1050.0</v>
-      </c>
-      <c r="O279" t="s">
-        <v>79</v>
-      </c>
-      <c r="U279" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="C280" t="s">
-        <v>102</v>
-      </c>
-      <c r="D280" t="s">
-        <v>101</v>
-      </c>
-      <c r="E280" t="s">
-        <v>100</v>
-      </c>
-      <c r="K280" t="n">
-        <v>73500.0</v>
-      </c>
-      <c r="O280" t="s">
-        <v>103</v>
-      </c>
-      <c r="U280" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="C281" t="s">
-        <v>98</v>
-      </c>
-      <c r="D281" t="s">
-        <v>97</v>
-      </c>
-      <c r="E281" t="s">
-        <v>96</v>
-      </c>
-      <c r="K281" t="n">
-        <v>50375.0</v>
-      </c>
-      <c r="O281" t="s">
-        <v>99</v>
-      </c>
-      <c r="U281" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="C282" t="s">
-        <v>94</v>
-      </c>
-      <c r="D282" t="s">
-        <v>93</v>
-      </c>
-      <c r="E282" t="s">
-        <v>92</v>
-      </c>
-      <c r="K282" t="n">
-        <v>450.0</v>
-      </c>
-      <c r="O282" t="s">
-        <v>95</v>
-      </c>
-      <c r="U282" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="C283" t="s">
-        <v>90</v>
-      </c>
-      <c r="D283" t="s">
-        <v>89</v>
-      </c>
-      <c r="E283" t="s">
-        <v>88</v>
-      </c>
-      <c r="K283" t="n">
-        <v>18125.0</v>
-      </c>
-      <c r="O283" t="s">
-        <v>91</v>
-      </c>
-      <c r="U283" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="C284" t="s">
-        <v>86</v>
-      </c>
-      <c r="D284" t="s">
-        <v>85</v>
-      </c>
-      <c r="E284" t="s">
-        <v>84</v>
-      </c>
-      <c r="K284" t="n">
-        <v>750.0</v>
-      </c>
-      <c r="O284" t="s">
-        <v>87</v>
-      </c>
-      <c r="U284" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="C285" t="s">
-        <v>82</v>
-      </c>
-      <c r="D285" t="s">
-        <v>81</v>
-      </c>
-      <c r="E285" t="s">
-        <v>80</v>
-      </c>
-      <c r="K285" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="O285" t="s">
-        <v>83</v>
-      </c>
-      <c r="U285" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="C286" t="s">
-        <v>78</v>
-      </c>
-      <c r="D286" t="s">
-        <v>77</v>
-      </c>
-      <c r="E286" t="s">
-        <v>76</v>
-      </c>
-      <c r="K286" t="n">
-        <v>450.0</v>
-      </c>
-      <c r="O286" t="s">
-        <v>79</v>
-      </c>
-      <c r="U286" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="C287" t="s">
-        <v>74</v>
-      </c>
-      <c r="D287" t="s">
-        <v>73</v>
-      </c>
-      <c r="E287" t="s">
-        <v>72</v>
-      </c>
-      <c r="K287" t="n">
-        <v>1750.0</v>
-      </c>
-      <c r="O287" t="s">
-        <v>75</v>
-      </c>
-      <c r="U287" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="C288" t="s">
-        <v>70</v>
-      </c>
-      <c r="D288" t="s">
-        <v>69</v>
-      </c>
-      <c r="E288" t="s">
-        <v>68</v>
-      </c>
-      <c r="K288" t="n">
-        <v>11750.0</v>
-      </c>
-      <c r="O288" t="s">
-        <v>71</v>
-      </c>
-      <c r="U288" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="C289" t="s">
-        <v>66</v>
-      </c>
-      <c r="D289" t="s">
-        <v>65</v>
-      </c>
-      <c r="E289" t="s">
-        <v>64</v>
-      </c>
-      <c r="K289" t="n">
-        <v>4625.0</v>
-      </c>
-      <c r="O289" t="s">
-        <v>67</v>
-      </c>
-      <c r="U289" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="C290" t="s">
-        <v>62</v>
-      </c>
-      <c r="D290" t="s">
-        <v>61</v>
-      </c>
-      <c r="E290" t="s">
-        <v>60</v>
-      </c>
-      <c r="K290" t="n">
-        <v>4000.0</v>
-      </c>
-      <c r="O290" t="s">
-        <v>63</v>
-      </c>
-      <c r="U290" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="C291" t="s">
-        <v>58</v>
-      </c>
-      <c r="D291" t="s">
-        <v>57</v>
-      </c>
-      <c r="E291" t="s">
-        <v>56</v>
-      </c>
-      <c r="K291" t="n">
-        <v>1250.0</v>
-      </c>
-      <c r="O291" t="s">
-        <v>59</v>
-      </c>
-      <c r="U291" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="C292" t="s">
-        <v>54</v>
-      </c>
-      <c r="D292" t="s">
-        <v>53</v>
-      </c>
-      <c r="E292" t="s">
-        <v>52</v>
-      </c>
-      <c r="K292" t="n">
-        <v>27250.0</v>
-      </c>
-      <c r="O292" t="s">
-        <v>55</v>
-      </c>
-      <c r="U292" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:21">
-      <c r="A293" s="17"/>
-      <c r="B293" s="17"/>
-      <c r="C293" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D293" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E293" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F293" s="17"/>
-      <c r="G293" s="19" t="s">
+    <row r="248" spans="1:21">
+      <c r="A248" s="17"/>
+      <c r="B248" s="17"/>
+      <c r="C248" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D248" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E248" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F248" s="17"/>
+      <c r="G248" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H293" s="17"/>
-      <c r="I293" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J293" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="K293" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="L293" s="17"/>
-      <c r="M293" s="17"/>
-      <c r="N293" s="17"/>
-      <c r="O293" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="P293" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q293" s="17"/>
-      <c r="R293" s="17"/>
-      <c r="S293" s="17"/>
-      <c r="T293" s="17"/>
-      <c r="U293" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="294" spans="1:21">
-      <c r="A294" s="14" t="s">
+      <c r="H248" s="17"/>
+      <c r="I248" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J248" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K248" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L248" s="17"/>
+      <c r="M248" s="17"/>
+      <c r="N248" s="17"/>
+      <c r="O248" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="P248" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q248" s="17"/>
+      <c r="R248" s="17"/>
+      <c r="S248" s="17"/>
+      <c r="T248" s="17"/>
+      <c r="U248" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="249" spans="1:21">
+      <c r="A249" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B294" s="2"/>
-      <c r="C294" s="2"/>
-      <c r="D294" s="2"/>
-      <c r="E294" s="2"/>
-      <c r="F294" s="2"/>
-      <c r="G294" s="2"/>
-      <c r="H294" s="2"/>
-      <c r="I294" s="2"/>
-      <c r="J294" s="2"/>
-      <c r="K294" s="2"/>
-      <c r="L294" s="2"/>
-      <c r="M294" s="2"/>
-      <c r="N294" s="2"/>
-      <c r="O294" s="2"/>
-      <c r="P294" s="2"/>
-      <c r="Q294" s="2"/>
-      <c r="R294" s="2"/>
-      <c r="S294" s="2"/>
-      <c r="T294" s="2"/>
-      <c r="U294" s="2"/>
-    </row>
-    <row r="295" spans="1:21">
-      <c r="A295" s="2"/>
-      <c r="B295" s="2"/>
-      <c r="C295" s="2"/>
-      <c r="D295" s="2"/>
-      <c r="E295" s="2"/>
-      <c r="F295" s="2"/>
-      <c r="G295" s="2"/>
-      <c r="H295" s="2"/>
-      <c r="I295" s="2"/>
-      <c r="J295" s="2"/>
-      <c r="K295" s="2"/>
-      <c r="L295" s="2"/>
-      <c r="M295" s="2"/>
-      <c r="N295" s="2"/>
-      <c r="O295" s="2"/>
-      <c r="P295" s="2"/>
-      <c r="Q295" s="2"/>
-      <c r="R295" s="2"/>
-      <c r="S295" s="2"/>
-      <c r="T295" s="2"/>
-      <c r="U295" s="2"/>
-    </row>
-    <row r="296" spans="1:21">
-      <c r="A296" s="14" t="s">
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
+      <c r="H249" s="2"/>
+      <c r="I249" s="2"/>
+      <c r="J249" s="2"/>
+      <c r="K249" s="2"/>
+      <c r="L249" s="2"/>
+      <c r="M249" s="2"/>
+      <c r="N249" s="2"/>
+      <c r="O249" s="2"/>
+      <c r="P249" s="2"/>
+      <c r="Q249" s="2"/>
+      <c r="R249" s="2"/>
+      <c r="S249" s="2"/>
+      <c r="T249" s="2"/>
+      <c r="U249" s="2"/>
+    </row>
+    <row r="250" spans="1:21">
+      <c r="A250" s="2"/>
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
+      <c r="G250" s="2"/>
+      <c r="H250" s="2"/>
+      <c r="I250" s="2"/>
+      <c r="J250" s="2"/>
+      <c r="K250" s="2"/>
+      <c r="L250" s="2"/>
+      <c r="M250" s="2"/>
+      <c r="N250" s="2"/>
+      <c r="O250" s="2"/>
+      <c r="P250" s="2"/>
+      <c r="Q250" s="2"/>
+      <c r="R250" s="2"/>
+      <c r="S250" s="2"/>
+      <c r="T250" s="2"/>
+      <c r="U250" s="2"/>
+    </row>
+    <row r="251" spans="1:21">
+      <c r="A251" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B296" s="14"/>
-      <c r="C296" s="14"/>
-      <c r="D296" s="14"/>
-      <c r="E296" s="14"/>
-      <c r="F296" s="2"/>
-      <c r="G296" s="2"/>
-      <c r="H296" s="2"/>
-      <c r="I296" s="14"/>
-      <c r="J296" s="14"/>
-      <c r="K296" s="14" t="s">
+      <c r="B251" s="14"/>
+      <c r="C251" s="14"/>
+      <c r="D251" s="14"/>
+      <c r="E251" s="14"/>
+      <c r="F251" s="2"/>
+      <c r="G251" s="2"/>
+      <c r="H251" s="2"/>
+      <c r="I251" s="14"/>
+      <c r="J251" s="14"/>
+      <c r="K251" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L296" s="2"/>
-      <c r="M296" s="2"/>
-      <c r="N296" s="2"/>
-      <c r="O296" s="2"/>
-      <c r="P296" s="2"/>
-      <c r="Q296" s="2"/>
-      <c r="R296" s="2"/>
-      <c r="S296" s="2"/>
-      <c r="T296" s="2"/>
-      <c r="U296" s="2"/>
-    </row>
-    <row r="297" spans="1:21">
-      <c r="A297" s="14" t="s">
+      <c r="L251" s="2"/>
+      <c r="M251" s="2"/>
+      <c r="N251" s="2"/>
+      <c r="O251" s="2"/>
+      <c r="P251" s="2"/>
+      <c r="Q251" s="2"/>
+      <c r="R251" s="2"/>
+      <c r="S251" s="2"/>
+      <c r="T251" s="2"/>
+      <c r="U251" s="2"/>
+    </row>
+    <row r="252" spans="1:21">
+      <c r="A252" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B297" s="14"/>
-      <c r="C297" s="14"/>
-      <c r="D297" s="14"/>
-      <c r="E297" s="14"/>
-      <c r="F297" s="2"/>
-      <c r="G297" s="2"/>
-      <c r="H297" s="2"/>
-      <c r="I297" s="14"/>
-      <c r="J297" s="14"/>
-      <c r="K297" s="14"/>
-      <c r="L297" s="2"/>
-      <c r="M297" s="2"/>
-      <c r="N297" s="2"/>
-      <c r="O297" s="2"/>
-      <c r="P297" s="2"/>
-      <c r="Q297" s="2"/>
-      <c r="R297" s="2"/>
-      <c r="S297" s="2"/>
-      <c r="T297" s="2"/>
-      <c r="U297" s="2"/>
-    </row>
-    <row r="298" spans="1:21">
-      <c r="A298" s="14"/>
-      <c r="B298" s="14"/>
-      <c r="C298" s="14"/>
-      <c r="D298" s="14"/>
-      <c r="E298" s="14"/>
-      <c r="F298" s="2"/>
-      <c r="G298" s="2"/>
-      <c r="H298" s="2"/>
-      <c r="I298" s="14"/>
-      <c r="J298" s="14"/>
-      <c r="K298" s="14"/>
-      <c r="L298" s="2"/>
-      <c r="M298" s="2"/>
-      <c r="N298" s="2"/>
-      <c r="O298" s="2"/>
-      <c r="P298" s="2"/>
-      <c r="Q298" s="2"/>
-      <c r="R298" s="2"/>
-      <c r="S298" s="2"/>
-      <c r="T298" s="2"/>
-      <c r="U298" s="2"/>
-    </row>
-    <row r="299" spans="1:21">
-      <c r="A299" s="14" t="s">
+      <c r="B252" s="14"/>
+      <c r="C252" s="14"/>
+      <c r="D252" s="14"/>
+      <c r="E252" s="14"/>
+      <c r="F252" s="2"/>
+      <c r="G252" s="2"/>
+      <c r="H252" s="2"/>
+      <c r="I252" s="14"/>
+      <c r="J252" s="14"/>
+      <c r="K252" s="14"/>
+      <c r="L252" s="2"/>
+      <c r="M252" s="2"/>
+      <c r="N252" s="2"/>
+      <c r="O252" s="2"/>
+      <c r="P252" s="2"/>
+      <c r="Q252" s="2"/>
+      <c r="R252" s="2"/>
+      <c r="S252" s="2"/>
+      <c r="T252" s="2"/>
+      <c r="U252" s="2"/>
+    </row>
+    <row r="253" spans="1:21">
+      <c r="A253" s="14"/>
+      <c r="B253" s="14"/>
+      <c r="C253" s="14"/>
+      <c r="D253" s="14"/>
+      <c r="E253" s="14"/>
+      <c r="F253" s="2"/>
+      <c r="G253" s="2"/>
+      <c r="H253" s="2"/>
+      <c r="I253" s="14"/>
+      <c r="J253" s="14"/>
+      <c r="K253" s="14"/>
+      <c r="L253" s="2"/>
+      <c r="M253" s="2"/>
+      <c r="N253" s="2"/>
+      <c r="O253" s="2"/>
+      <c r="P253" s="2"/>
+      <c r="Q253" s="2"/>
+      <c r="R253" s="2"/>
+      <c r="S253" s="2"/>
+      <c r="T253" s="2"/>
+      <c r="U253" s="2"/>
+    </row>
+    <row r="254" spans="1:21">
+      <c r="A254" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B299" s="14"/>
-      <c r="C299" s="14"/>
-      <c r="D299" s="14" t="s">
+      <c r="B254" s="14"/>
+      <c r="C254" s="14"/>
+      <c r="D254" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E299" s="14"/>
-      <c r="F299" s="2"/>
-      <c r="G299" s="2"/>
-      <c r="H299" s="2"/>
-      <c r="I299" s="14"/>
-      <c r="J299" s="14"/>
-      <c r="K299" s="14" t="s">
+      <c r="E254" s="14"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
+      <c r="H254" s="2"/>
+      <c r="I254" s="14"/>
+      <c r="J254" s="14"/>
+      <c r="K254" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L299" s="2"/>
-      <c r="M299" s="2"/>
-      <c r="N299" s="2"/>
-      <c r="O299" s="2"/>
-      <c r="P299" s="2"/>
-      <c r="Q299" s="2"/>
-      <c r="R299" s="2"/>
-      <c r="S299" s="2"/>
-      <c r="T299" s="2"/>
-      <c r="U299" s="2"/>
-    </row>
-    <row r="300" spans="1:21">
-      <c r="A300" s="14" t="s">
+      <c r="L254" s="2"/>
+      <c r="M254" s="2"/>
+      <c r="N254" s="2"/>
+      <c r="O254" s="2"/>
+      <c r="P254" s="2"/>
+      <c r="Q254" s="2"/>
+      <c r="R254" s="2"/>
+      <c r="S254" s="2"/>
+      <c r="T254" s="2"/>
+      <c r="U254" s="2"/>
+    </row>
+    <row r="255" spans="1:21">
+      <c r="A255" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B300" s="14"/>
-      <c r="C300" s="14"/>
-      <c r="D300" s="14"/>
-      <c r="E300" s="14"/>
-      <c r="F300" s="2"/>
-      <c r="G300" s="2"/>
-      <c r="H300" s="2"/>
-      <c r="I300" s="2"/>
-      <c r="J300" s="14"/>
-      <c r="K300" s="14" t="s">
+      <c r="B255" s="14"/>
+      <c r="C255" s="14"/>
+      <c r="D255" s="14"/>
+      <c r="E255" s="14"/>
+      <c r="F255" s="2"/>
+      <c r="G255" s="2"/>
+      <c r="H255" s="2"/>
+      <c r="I255" s="2"/>
+      <c r="J255" s="14"/>
+      <c r="K255" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L300" s="2"/>
-      <c r="M300" s="14" t="s">
+      <c r="L255" s="2"/>
+      <c r="M255" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="N300" s="2"/>
-      <c r="O300" s="2"/>
-      <c r="P300" s="2"/>
-      <c r="Q300" s="2"/>
-      <c r="R300" s="2"/>
-      <c r="S300" s="2"/>
-      <c r="T300" s="2"/>
-      <c r="U300" s="2"/>
+      <c r="N255" s="2"/>
+      <c r="O255" s="2"/>
+      <c r="P255" s="2"/>
+      <c r="Q255" s="2"/>
+      <c r="R255" s="2"/>
+      <c r="S255" s="2"/>
+      <c r="T255" s="2"/>
+      <c r="U255" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
